--- a/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11790"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="10485"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Total" sheetId="1" r:id="rId4"/>
@@ -14,48 +14,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="271">
-  <x:si>
-    <x:t>com.puppy.client.reservation.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminSalesStatistics</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="270">
+  <x:si>
+    <x:t>AdminNoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminSalesStatistics</x:t>
   </x:si>
   <x:si>
     <x:t>AdminLoginController</x:t>
   </x:si>
   <x:si>
+    <x:t>/mypage/mypageMyInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypagePetInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/room/roomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminRoomServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry/inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reserve/reserveDetaill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/main/memberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
     <x:t>/reserve/reserveRoom</x:t>
   </x:si>
   <x:si>
-    <x:t>/mypage/mypagepetinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminSalesStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypagemyinfo</x:t>
+    <x:t>ReservationServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryController</x:t>
   </x:si>
   <x:si>
     <x:t>com.puppy.admin.room.vo</x:t>
   </x:si>
   <x:si>
-    <x:t>AdminNoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminRoomServiceImpl</x:t>
+    <x:t>AdminMainServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Admin</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>StatisticsService</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -71,134 +114,6 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>/inquiry/inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/reserveDetaill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice/noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/main/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>Admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>StatisticsService</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>파일명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매핑명</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>Admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>RoomService</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
     <x:r>
       <x:t>Admin</x:t>
     </x:r>
@@ -213,6 +128,19 @@
   </x:si>
   <x:si>
     <x:r>
+      <x:t>admin</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ContentLayout</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
       <x:t>/member/join</x:t>
     </x:r>
     <x:r>
@@ -234,7 +162,7 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>RoomDAOImpl</x:t>
+      <x:t>RoomService</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -254,7 +182,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>admin</x:t>
+      <x:t>Admin</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -262,132 +190,169 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>ContentLayout</x:t>
+      <x:t>RoomDAOImpl</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>AdminMainService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberDelList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice/noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatistics.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoinsert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry
- (문의게시판)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryCorrection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageReservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageController</x:t>
+    <x:t>com.puppy.client.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>매핑명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Member.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminHeader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminAside</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminLogin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Login.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guide.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mypage.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Notice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joinForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/admin/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>main</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/admin/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>room</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -405,8 +370,69 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>/admin/statistics/adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageReservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation
+ (예약)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberDelList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminSalesStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.service</x:t>
+  </x:si>
+  <x:si>
     <x:r>
-      <x:t>/admin/</x:t>
+      <x:t>Admin</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -414,151 +440,13 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>room</x:t>
+      <x:t>RoomDAO</x:t>
     </x:r>
   </x:si>
   <x:si>
     <x:r>
-      <x:t>/admin/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>main</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>adminAside</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminHeader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminLogin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Member.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/template</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppyclient.guide.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.service</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>c</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>om.puppy.admin.room.controller</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>com.</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>puppy.admin.room.service</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/admin/inquiry/inquiry</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Detail</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/client</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>statistics                (</x:t>
+      <x:t>main
+(</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -567,87 +455,8 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>통계)</x:t>
+      <x:t>메인페이지)</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Login.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Notice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joinForm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>A</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>dminRoom.xml</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mypage.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminRoomVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveRoom</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -679,8 +488,131 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>main
-(</x:t>
+      <x:t>A</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>dminRoom.xml</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppyclient.guide.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/client</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/template</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.service</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>c</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>om.puppy.admin.room.controller</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>com.</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>puppy.admin.room.service</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/admin/inquiry/inquiry</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Detail</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>statistics                (</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -689,12 +621,325 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>메인페이지)</x:t>
+      <x:t>통계)</x:t>
     </x:r>
   </x:si>
   <x:si>
+    <x:t>/reserve/payment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageMyinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMainMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryCorrection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoinsert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatistics.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/room/roomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/notice/noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry
+ (문의게시판)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/findId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage
+(마이 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>common
+ (공용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageMyinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveCalendar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guide
+ (이용안내)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 공용
+(common)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/findPw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자
+ (client)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMember.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMain.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member
+ (회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginService</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">관리자
+(admin)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice
+ (공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+ (회원 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminRoomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+(관리자 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice
+(공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminRoomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNotice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패키지명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReplyVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PetVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MVC 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mapper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login</x:t>
+  </x:si>
+  <x:si>
     <x:r>
-      <x:t>Admin</x:t>
+      <x:t xml:space="preserve">        Admin</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -702,7 +947,7 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>RoomDAO</x:t>
+      <x:t>MainController</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -732,85 +977,97 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>/mypage/mypagepetInfoInsert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member/memberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypagepetInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/main/reservationList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypageReservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMainReservationList</x:t>
+  </x:si>
+  <x:si>
     <x:t>com.puppy.client.inquiry.vo</x:t>
   </x:si>
   <x:si>
-    <x:t>AdminStatisticsController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/main/reservationList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainReservationList</x:t>
-  </x:si>
-  <x:si>
     <x:t>/WEB-INF/views/admin/login</x:t>
   </x:si>
   <x:si>
+    <x:t>/WEB-INF/views/admin/main</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypageMyInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry/inquiryCorrection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.common.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
     <x:t>/admin/notice/noticeList</x:t>
   </x:si>
   <x:si>
-    <x:t>/WEB-INF/views/admin/main</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.dao</x:t>
-  </x:si>
-  <x:si>
     <x:t>/admin/notice/noticeDetail</x:t>
   </x:si>
   <x:si>
-    <x:t>com.puppy.admin.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypagepetinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypagepetinfoinsert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry/inquiryCorrection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypagemyinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypagereservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/login</x:t>
+    <x:t>com.puppy.client.member.dao</x:t>
   </x:si>
   <x:si>
     <x:t>com.puppy.client.member.vo</x:t>
@@ -819,267 +1076,7 @@
     <x:t>/reserve/reserveCalendar</x:t>
   </x:si>
   <x:si>
-    <x:t>com.puppy.client.login.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.common.vo</x:t>
-  </x:si>
-  <x:si>
     <x:t>com.puppy.client.guide.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">        Admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>MainController</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패키지명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mapper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReplyVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MVC 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PetVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/find_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveCalendar</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 공용
-(common)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>common
- (공용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide
- (이용안내)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/find_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage
-(마이 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminRoomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminRoomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMember.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMain.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNotice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginService</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">관리자
-(admin)
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member
- (회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
- (공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
- (회원 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
-(관리자 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자
- (client)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
-(공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservation
- (예약)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1421,7 +1418,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="47">
+  <x:cellXfs count="46">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -1867,19 +1864,6 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -2543,10 +2527,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G833"/>
+  <x:dimension ref="A1:G832"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C30" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F59" activeCellId="0" sqref="F59:F59"/>
+    <x:sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G93" activeCellId="0" sqref="G93:G93"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2563,7 +2547,7 @@
     <x:row r="1" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="20" t="s">
-        <x:v>187</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C1" s="20"/>
       <x:c r="D1" s="20"/>
@@ -2583,40 +2567,40 @@
     <x:row r="3" spans="1:7" ht="24" customHeight="1">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="9" t="s">
-        <x:v>34</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>34</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>207</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>199</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F3" s="9" t="s">
-        <x:v>31</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G3" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="24" customHeight="1">
       <x:c r="A4" s="1"/>
       <x:c r="B4" s="29" t="s">
-        <x:v>266</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C4" s="26" t="s">
-        <x:v>253</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D4" s="24" t="s">
-        <x:v>203</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>189</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G4" s="18"/>
     </x:row>
@@ -2626,10 +2610,10 @@
       <x:c r="C5" s="25"/>
       <x:c r="D5" s="25"/>
       <x:c r="E5" s="18" t="s">
-        <x:v>192</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G5" s="19"/>
     </x:row>
@@ -2640,7 +2624,7 @@
       <x:c r="D6" s="25"/>
       <x:c r="E6" s="19"/>
       <x:c r="F6" s="7" t="s">
-        <x:v>234</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G6" s="19"/>
     </x:row>
@@ -2650,10 +2634,10 @@
       <x:c r="C7" s="25"/>
       <x:c r="D7" s="25"/>
       <x:c r="E7" s="18" t="s">
-        <x:v>130</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>257</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G7" s="19"/>
     </x:row>
@@ -2664,7 +2648,7 @@
       <x:c r="D8" s="25"/>
       <x:c r="E8" s="19"/>
       <x:c r="F8" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="19"/>
     </x:row>
@@ -2673,16 +2657,16 @@
       <x:c r="B9" s="30"/>
       <x:c r="C9" s="25"/>
       <x:c r="D9" s="24" t="s">
-        <x:v>200</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E9" s="18" t="s">
-        <x:v>128</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F9" s="21" t="s">
-        <x:v>142</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G9" s="21" t="s">
-        <x:v>52</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="24" customHeight="1">
@@ -2699,16 +2683,16 @@
       <x:c r="B11" s="30"/>
       <x:c r="C11" s="25"/>
       <x:c r="D11" s="5" t="s">
-        <x:v>201</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>210</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="24" customHeight="1">
@@ -2716,13 +2700,13 @@
       <x:c r="B12" s="30"/>
       <x:c r="C12" s="25"/>
       <x:c r="D12" s="5" t="s">
-        <x:v>204</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
     </x:row>
@@ -2730,16 +2714,16 @@
       <x:c r="A13" s="1"/>
       <x:c r="B13" s="30"/>
       <x:c r="C13" s="36" t="s">
-        <x:v>264</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D13" s="35" t="s">
-        <x:v>203</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E13" s="18" t="s">
-        <x:v>191</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G13" s="18"/>
     </x:row>
@@ -2750,7 +2734,7 @@
       <x:c r="D14" s="35"/>
       <x:c r="E14" s="19"/>
       <x:c r="F14" s="7" t="s">
-        <x:v>243</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G14" s="18"/>
     </x:row>
@@ -2760,10 +2744,10 @@
       <x:c r="C15" s="36"/>
       <x:c r="D15" s="35"/>
       <x:c r="E15" s="18" t="s">
-        <x:v>121</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>251</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G15" s="18"/>
     </x:row>
@@ -2774,7 +2758,7 @@
       <x:c r="D16" s="35"/>
       <x:c r="E16" s="19"/>
       <x:c r="F16" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G16" s="18"/>
     </x:row>
@@ -2783,16 +2767,16 @@
       <x:c r="B17" s="30"/>
       <x:c r="C17" s="36"/>
       <x:c r="D17" s="22" t="s">
-        <x:v>200</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E17" s="21" t="s">
-        <x:v>188</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>198</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>255</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="24" customHeight="1">
@@ -2802,10 +2786,10 @@
       <x:c r="D18" s="27"/>
       <x:c r="E18" s="28"/>
       <x:c r="F18" s="7" t="s">
-        <x:v>213</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>220</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7" ht="24" customHeight="1">
@@ -2815,10 +2799,10 @@
       <x:c r="D19" s="27"/>
       <x:c r="E19" s="28"/>
       <x:c r="F19" s="7" t="s">
-        <x:v>209</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>230</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" ht="24" customHeight="1">
@@ -2826,16 +2810,16 @@
       <x:c r="B20" s="30"/>
       <x:c r="C20" s="36"/>
       <x:c r="D20" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>258</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>214</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="24" customHeight="1">
@@ -2843,13 +2827,13 @@
       <x:c r="B21" s="30"/>
       <x:c r="C21" s="36"/>
       <x:c r="D21" s="9" t="s">
-        <x:v>204</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>136</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G21" s="7"/>
     </x:row>
@@ -2857,16 +2841,16 @@
       <x:c r="A22" s="1"/>
       <x:c r="B22" s="31"/>
       <x:c r="C22" s="37" t="s">
-        <x:v>231</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D22" s="35" t="s">
-        <x:v>203</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E22" s="21" t="s">
-        <x:v>181</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>150</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G22" s="7"/>
     </x:row>
@@ -2877,7 +2861,7 @@
       <x:c r="D23" s="35"/>
       <x:c r="E23" s="21"/>
       <x:c r="F23" s="7" t="s">
-        <x:v>217</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G23" s="7"/>
     </x:row>
@@ -2887,10 +2871,10 @@
       <x:c r="C24" s="37"/>
       <x:c r="D24" s="35"/>
       <x:c r="E24" s="21" t="s">
-        <x:v>115</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>216</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G24" s="7"/>
     </x:row>
@@ -2901,7 +2885,7 @@
       <x:c r="D25" s="35"/>
       <x:c r="E25" s="21"/>
       <x:c r="F25" s="7" t="s">
-        <x:v>94</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G25" s="7"/>
     </x:row>
@@ -2910,16 +2894,16 @@
       <x:c r="B26" s="31"/>
       <x:c r="C26" s="37"/>
       <x:c r="D26" s="22" t="s">
-        <x:v>200</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E26" s="21" t="s">
-        <x:v>116</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F26" s="7" t="s">
-        <x:v>95</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
-        <x:v>184</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7" ht="15.75" customHeight="1">
@@ -2929,10 +2913,10 @@
       <x:c r="D27" s="22"/>
       <x:c r="E27" s="21"/>
       <x:c r="F27" s="7" t="s">
-        <x:v>219</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G27" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7" ht="15.75" customHeight="1">
@@ -2942,10 +2926,10 @@
       <x:c r="D28" s="22"/>
       <x:c r="E28" s="21"/>
       <x:c r="F28" s="7" t="s">
-        <x:v>85</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G28" s="7" t="s">
-        <x:v>183</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" ht="15.75" customHeight="1">
@@ -2955,10 +2939,10 @@
       <x:c r="D29" s="22"/>
       <x:c r="E29" s="21"/>
       <x:c r="F29" s="7" t="s">
-        <x:v>227</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G29" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7" ht="15.75" customHeight="1">
@@ -2968,10 +2952,10 @@
       <x:c r="D30" s="23"/>
       <x:c r="E30" s="21"/>
       <x:c r="F30" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G30" s="7" t="s">
-        <x:v>180</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7" ht="15.75" customHeight="1">
@@ -2981,10 +2965,10 @@
       <x:c r="D31" s="23"/>
       <x:c r="E31" s="21"/>
       <x:c r="F31" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G31" s="7" t="s">
-        <x:v>179</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" ht="15.75" customHeight="1">
@@ -2992,16 +2976,16 @@
       <x:c r="B32" s="31"/>
       <x:c r="C32" s="37"/>
       <x:c r="D32" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E32" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F32" s="7" t="s">
-        <x:v>96</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G32" s="7" t="s">
-        <x:v>202</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" ht="15.75" customHeight="1">
@@ -3009,13 +2993,13 @@
       <x:c r="B33" s="31"/>
       <x:c r="C33" s="37"/>
       <x:c r="D33" s="9" t="s">
-        <x:v>204</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E33" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F33" s="7" t="s">
-        <x:v>153</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G33" s="7"/>
     </x:row>
@@ -3023,16 +3007,16 @@
       <x:c r="A34" s="1"/>
       <x:c r="B34" s="32"/>
       <x:c r="C34" s="36" t="s">
-        <x:v>262</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D34" s="35" t="s">
-        <x:v>203</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E34" s="6" t="s">
-        <x:v>186</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F34" s="7" t="s">
-        <x:v>137</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G34" s="18"/>
     </x:row>
@@ -3042,10 +3026,10 @@
       <x:c r="C35" s="25"/>
       <x:c r="D35" s="25"/>
       <x:c r="E35" s="18" t="s">
-        <x:v>185</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="F35" s="7" t="s">
-        <x:v>138</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G35" s="19"/>
     </x:row>
@@ -3056,7 +3040,7 @@
       <x:c r="D36" s="25"/>
       <x:c r="E36" s="19"/>
       <x:c r="F36" s="7" t="s">
-        <x:v>256</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="G36" s="19"/>
     </x:row>
@@ -3066,10 +3050,10 @@
       <x:c r="C37" s="25"/>
       <x:c r="D37" s="25"/>
       <x:c r="E37" s="18" t="s">
-        <x:v>133</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F37" s="7" t="s">
-        <x:v>263</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G37" s="19"/>
     </x:row>
@@ -3080,7 +3064,7 @@
       <x:c r="D38" s="25"/>
       <x:c r="E38" s="19"/>
       <x:c r="F38" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G38" s="19"/>
     </x:row>
@@ -3089,16 +3073,16 @@
       <x:c r="B39" s="32"/>
       <x:c r="C39" s="25"/>
       <x:c r="D39" s="35" t="s">
-        <x:v>200</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E39" s="18" t="s">
-        <x:v>120</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F39" s="7" t="s">
-        <x:v>261</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G39" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7" ht="15.75" customHeight="1">
@@ -3108,10 +3092,10 @@
       <x:c r="D40" s="25"/>
       <x:c r="E40" s="19"/>
       <x:c r="F40" s="7" t="s">
-        <x:v>139</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G40" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7" ht="15.75" customHeight="1">
@@ -3119,16 +3103,16 @@
       <x:c r="B41" s="32"/>
       <x:c r="C41" s="25"/>
       <x:c r="D41" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E41" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F41" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G41" s="7" t="s">
-        <x:v>197</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7" ht="15.75" customHeight="1">
@@ -3136,13 +3120,13 @@
       <x:c r="B42" s="32"/>
       <x:c r="C42" s="25"/>
       <x:c r="D42" s="9" t="s">
-        <x:v>204</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E42" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F42" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G42" s="7"/>
     </x:row>
@@ -3150,16 +3134,16 @@
       <x:c r="A43" s="1"/>
       <x:c r="B43" s="32"/>
       <x:c r="C43" s="36" t="s">
-        <x:v>87</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D43" s="35" t="s">
-        <x:v>203</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E43" s="10" t="s">
-        <x:v>162</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F43" s="7" t="s">
-        <x:v>143</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G43" s="18"/>
     </x:row>
@@ -3169,10 +3153,10 @@
       <x:c r="C44" s="25"/>
       <x:c r="D44" s="25"/>
       <x:c r="E44" s="18" t="s">
-        <x:v>117</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F44" s="7" t="s">
-        <x:v>135</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G44" s="19"/>
     </x:row>
@@ -3183,7 +3167,7 @@
       <x:c r="D45" s="25"/>
       <x:c r="E45" s="19"/>
       <x:c r="F45" s="7" t="s">
-        <x:v>260</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G45" s="19"/>
     </x:row>
@@ -3193,10 +3177,10 @@
       <x:c r="C46" s="25"/>
       <x:c r="D46" s="25"/>
       <x:c r="E46" s="18" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F46" s="7" t="s">
-        <x:v>254</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G46" s="19"/>
     </x:row>
@@ -3207,7 +3191,7 @@
       <x:c r="D47" s="25"/>
       <x:c r="E47" s="19"/>
       <x:c r="F47" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G47" s="19"/>
     </x:row>
@@ -3216,16 +3200,16 @@
       <x:c r="B48" s="32"/>
       <x:c r="C48" s="25"/>
       <x:c r="D48" s="35" t="s">
-        <x:v>200</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E48" s="18" t="s">
-        <x:v>125</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F48" s="7" t="s">
-        <x:v>140</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G48" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7" ht="15.75" customHeight="1">
@@ -3235,10 +3219,10 @@
       <x:c r="D49" s="25"/>
       <x:c r="E49" s="19"/>
       <x:c r="F49" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G49" s="7" t="s">
-        <x:v>182</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" ht="15.75" customHeight="1">
@@ -3248,10 +3232,10 @@
       <x:c r="D50" s="25"/>
       <x:c r="E50" s="19"/>
       <x:c r="F50" s="7" t="s">
-        <x:v>259</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G50" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7" ht="15.75" customHeight="1">
@@ -3259,16 +3243,16 @@
       <x:c r="B51" s="32"/>
       <x:c r="C51" s="25"/>
       <x:c r="D51" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E51" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F51" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G51" s="7" t="s">
-        <x:v>144</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7" ht="15.75" customHeight="1">
@@ -3276,30 +3260,30 @@
       <x:c r="B52" s="32"/>
       <x:c r="C52" s="25"/>
       <x:c r="D52" s="9" t="s">
-        <x:v>204</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E52" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F52" s="7" t="s">
-        <x:v>134</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G52" s="7"/>
     </x:row>
     <x:row r="53" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A53" s="1"/>
       <x:c r="B53" s="33"/>
-      <x:c r="C53" s="46" t="s">
-        <x:v>270</x:v>
+      <x:c r="C53" s="37" t="s">
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D53" s="35" t="s">
-        <x:v>203</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E53" s="6" t="s">
-        <x:v>127</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F53" s="7" t="s">
-        <x:v>215</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G53" s="18"/>
     </x:row>
@@ -3309,10 +3293,10 @@
       <x:c r="C54" s="37"/>
       <x:c r="D54" s="19"/>
       <x:c r="E54" s="18" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F54" s="7" t="s">
-        <x:v>249</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G54" s="19"/>
     </x:row>
@@ -3323,7 +3307,7 @@
       <x:c r="D55" s="19"/>
       <x:c r="E55" s="19"/>
       <x:c r="F55" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G55" s="19"/>
     </x:row>
@@ -3333,10 +3317,10 @@
       <x:c r="C56" s="37"/>
       <x:c r="D56" s="19"/>
       <x:c r="E56" s="18" t="s">
-        <x:v>0</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F56" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G56" s="19"/>
     </x:row>
@@ -3347,7 +3331,7 @@
       <x:c r="D57" s="19"/>
       <x:c r="E57" s="19"/>
       <x:c r="F57" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G57" s="19"/>
     </x:row>
@@ -3356,16 +3340,16 @@
       <x:c r="B58" s="33"/>
       <x:c r="C58" s="37"/>
       <x:c r="D58" s="22" t="s">
-        <x:v>200</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E58" s="21" t="s">
-        <x:v>269</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F58" s="7" t="s">
-        <x:v>225</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G58" s="7" t="s">
-        <x:v>190</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:7" ht="15.75" customHeight="1">
@@ -3375,10 +3359,10 @@
       <x:c r="D59" s="28"/>
       <x:c r="E59" s="28"/>
       <x:c r="F59" s="7" t="s">
-        <x:v>155</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G59" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:7" ht="15.75" customHeight="1">
@@ -3388,10 +3372,10 @@
       <x:c r="D60" s="28"/>
       <x:c r="E60" s="28"/>
       <x:c r="F60" s="7" t="s">
-        <x:v>218</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G60" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:7" ht="15.75" customHeight="1">
@@ -3401,10 +3385,10 @@
       <x:c r="D61" s="38"/>
       <x:c r="E61" s="38"/>
       <x:c r="F61" s="7" t="s">
-        <x:v>211</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="G61" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7" ht="15.75" customHeight="1">
@@ -3412,32 +3396,32 @@
       <x:c r="B62" s="33"/>
       <x:c r="C62" s="37"/>
       <x:c r="D62" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E62" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F62" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G62" s="7" t="s">
-        <x:v>147</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A63" s="1"/>
       <x:c r="B63" s="33"/>
       <x:c r="C63" s="38" t="s">
-        <x:v>87</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D63" s="9" t="s">
-        <x:v>204</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E63" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F63" s="7" t="s">
-        <x:v>267</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G63" s="7"/>
     </x:row>
@@ -3445,16 +3429,16 @@
       <x:c r="A64" s="1"/>
       <x:c r="B64" s="33"/>
       <x:c r="C64" s="36" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D64" s="35" t="s">
         <x:v>229</x:v>
       </x:c>
-      <x:c r="D64" s="35" t="s">
-        <x:v>203</x:v>
-      </x:c>
       <x:c r="E64" s="18" t="s">
-        <x:v>195</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F64" s="7" t="s">
-        <x:v>149</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G64" s="18"/>
     </x:row>
@@ -3465,7 +3449,7 @@
       <x:c r="D65" s="35"/>
       <x:c r="E65" s="19"/>
       <x:c r="F65" s="7" t="s">
-        <x:v>224</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G65" s="18"/>
     </x:row>
@@ -3475,10 +3459,10 @@
       <x:c r="C66" s="36"/>
       <x:c r="D66" s="35"/>
       <x:c r="E66" s="18" t="s">
-        <x:v>119</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F66" s="7" t="s">
-        <x:v>223</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G66" s="18"/>
     </x:row>
@@ -3489,7 +3473,7 @@
       <x:c r="D67" s="35"/>
       <x:c r="E67" s="19"/>
       <x:c r="F67" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G67" s="18"/>
     </x:row>
@@ -3498,16 +3482,16 @@
       <x:c r="B68" s="33"/>
       <x:c r="C68" s="36"/>
       <x:c r="D68" s="22" t="s">
-        <x:v>200</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E68" s="21" t="s">
-        <x:v>193</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F68" s="7" t="s">
-        <x:v>152</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G68" s="7" t="s">
-        <x:v>83</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7" ht="15.75" customHeight="1">
@@ -3517,10 +3501,10 @@
       <x:c r="D69" s="22"/>
       <x:c r="E69" s="21"/>
       <x:c r="F69" s="7" t="s">
-        <x:v>151</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G69" s="7" t="s">
-        <x:v>75</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:7" ht="15.75" customHeight="1">
@@ -3528,16 +3512,16 @@
       <x:c r="B70" s="33"/>
       <x:c r="C70" s="36"/>
       <x:c r="D70" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E70" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F70" s="7" t="s">
-        <x:v>221</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G70" s="7" t="s">
-        <x:v>206</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:7" ht="15.75" customHeight="1">
@@ -3545,32 +3529,32 @@
       <x:c r="B71" s="34"/>
       <x:c r="C71" s="36"/>
       <x:c r="D71" s="9" t="s">
-        <x:v>204</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E71" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F71" s="7" t="s">
-        <x:v>148</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G71" s="7"/>
     </x:row>
     <x:row r="72" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A72" s="1"/>
       <x:c r="B72" s="37" t="s">
-        <x:v>226</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C72" s="37" t="s">
-        <x:v>228</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D72" s="22" t="s">
-        <x:v>203</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E72" s="21" t="s">
-        <x:v>194</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="F72" s="7" t="s">
-        <x:v>212</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G72" s="8"/>
     </x:row>
@@ -3581,7 +3565,7 @@
       <x:c r="D73" s="23"/>
       <x:c r="E73" s="39"/>
       <x:c r="F73" s="7" t="s">
-        <x:v>146</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G73" s="8"/>
     </x:row>
@@ -3592,52 +3576,52 @@
       <x:c r="D74" s="23"/>
       <x:c r="E74" s="39"/>
       <x:c r="F74" s="7" t="s">
-        <x:v>205</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G74" s="8"/>
     </x:row>
     <x:row r="75" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A75" s="1"/>
-      <x:c r="B75" s="23"/>
-      <x:c r="C75" s="23"/>
-      <x:c r="D75" s="23"/>
-      <x:c r="E75" s="39"/>
+      <x:c r="B75" s="36" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C75" s="36" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="D75" s="35" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E75" s="7" t="s">
+        <x:v>247</x:v>
+      </x:c>
       <x:c r="F75" s="7" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="G75" s="8"/>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G75" s="7" t="s">
+        <x:v>174</x:v>
+      </x:c>
     </x:row>
     <x:row r="76" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A76" s="1"/>
-      <x:c r="B76" s="36" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="C76" s="36" t="s">
-        <x:v>265</x:v>
-      </x:c>
-      <x:c r="D76" s="35" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="E76" s="7" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="F76" s="7" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="G76" s="7" t="s">
-        <x:v>232</x:v>
-      </x:c>
+      <x:c r="B76" s="36"/>
+      <x:c r="C76" s="36"/>
+      <x:c r="D76" s="35"/>
+      <x:c r="E76" s="18" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F76" s="12" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G76" s="12"/>
     </x:row>
     <x:row r="77" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A77" s="1"/>
       <x:c r="B77" s="36"/>
       <x:c r="C77" s="36"/>
       <x:c r="D77" s="35"/>
-      <x:c r="E77" s="18" t="s">
-        <x:v>108</x:v>
-      </x:c>
+      <x:c r="E77" s="18"/>
       <x:c r="F77" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G77" s="12"/>
     </x:row>
@@ -3645,44 +3629,44 @@
       <x:c r="A78" s="1"/>
       <x:c r="B78" s="36"/>
       <x:c r="C78" s="36"/>
-      <x:c r="D78" s="35"/>
-      <x:c r="E78" s="18"/>
-      <x:c r="F78" s="12" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="G78" s="12"/>
+      <x:c r="D78" s="9" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E78" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F78" s="7" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G78" s="7" t="s">
+        <x:v>224</x:v>
+      </x:c>
     </x:row>
     <x:row r="79" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A79" s="1"/>
       <x:c r="B79" s="36"/>
-      <x:c r="C79" s="36"/>
-      <x:c r="D79" s="9" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="E79" s="7" t="s">
-        <x:v>44</x:v>
+      <x:c r="C79" s="36" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D79" s="35" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E79" s="18" t="s">
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F79" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G79" s="7" t="s">
-        <x:v>208</x:v>
-      </x:c>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G79" s="7"/>
     </x:row>
     <x:row r="80" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A80" s="1"/>
       <x:c r="B80" s="36"/>
-      <x:c r="C80" s="36" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="D80" s="35" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="E80" s="18" t="s">
-        <x:v>109</x:v>
-      </x:c>
+      <x:c r="C80" s="36"/>
+      <x:c r="D80" s="35"/>
+      <x:c r="E80" s="18"/>
       <x:c r="F80" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G80" s="7"/>
     </x:row>
@@ -3691,9 +3675,11 @@
       <x:c r="B81" s="36"/>
       <x:c r="C81" s="36"/>
       <x:c r="D81" s="35"/>
-      <x:c r="E81" s="18"/>
+      <x:c r="E81" s="18" t="s">
+        <x:v>253</x:v>
+      </x:c>
       <x:c r="F81" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G81" s="7"/>
     </x:row>
@@ -3702,11 +3688,9 @@
       <x:c r="B82" s="36"/>
       <x:c r="C82" s="36"/>
       <x:c r="D82" s="35"/>
-      <x:c r="E82" s="18" t="s">
-        <x:v>174</x:v>
-      </x:c>
+      <x:c r="E82" s="18"/>
       <x:c r="F82" s="7" t="s">
-        <x:v>244</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G82" s="7"/>
     </x:row>
@@ -3714,25 +3698,25 @@
       <x:c r="A83" s="1"/>
       <x:c r="B83" s="36"/>
       <x:c r="C83" s="36"/>
-      <x:c r="D83" s="35"/>
-      <x:c r="E83" s="18"/>
-      <x:c r="F83" s="7" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G83" s="7"/>
+      <x:c r="D83" s="35" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E83" s="18" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F83" s="12" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G83" s="12"/>
     </x:row>
     <x:row r="84" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A84" s="1"/>
       <x:c r="B84" s="36"/>
       <x:c r="C84" s="36"/>
-      <x:c r="D84" s="35" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="E84" s="18" t="s">
-        <x:v>108</x:v>
-      </x:c>
+      <x:c r="D84" s="35"/>
+      <x:c r="E84" s="18"/>
       <x:c r="F84" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G84" s="12"/>
     </x:row>
@@ -3743,7 +3727,7 @@
       <x:c r="D85" s="35"/>
       <x:c r="E85" s="18"/>
       <x:c r="F85" s="12" t="s">
-        <x:v>101</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G85" s="12"/>
     </x:row>
@@ -3752,38 +3736,44 @@
       <x:c r="B86" s="36"/>
       <x:c r="C86" s="36"/>
       <x:c r="D86" s="35"/>
-      <x:c r="E86" s="18"/>
-      <x:c r="F86" s="12" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G86" s="12"/>
+      <x:c r="E86" s="18" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="F86" s="7" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="G86" s="7" t="s">
+        <x:v>239</x:v>
+      </x:c>
     </x:row>
     <x:row r="87" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A87" s="1"/>
       <x:c r="B87" s="36"/>
       <x:c r="C87" s="36"/>
       <x:c r="D87" s="35"/>
-      <x:c r="E87" s="18" t="s">
-        <x:v>171</x:v>
-      </x:c>
+      <x:c r="E87" s="18"/>
       <x:c r="F87" s="7" t="s">
-        <x:v>168</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G87" s="7" t="s">
-        <x:v>166</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A88" s="1"/>
       <x:c r="B88" s="36"/>
       <x:c r="C88" s="36"/>
-      <x:c r="D88" s="35"/>
-      <x:c r="E88" s="18"/>
-      <x:c r="F88" s="7" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G88" s="7" t="s">
-        <x:v>24</x:v>
+      <x:c r="D88" s="9" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E88" s="7" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F88" s="13" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="G88" s="12" t="s">
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:7" ht="15.75" customHeight="1">
@@ -3791,60 +3781,54 @@
       <x:c r="B89" s="36"/>
       <x:c r="C89" s="36"/>
       <x:c r="D89" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E89" s="7" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="F89" s="13" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="G89" s="12" t="s">
-        <x:v>99</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:7" ht="15.75" customHeight="1">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="F89" s="12" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="G89" s="8"/>
+    </x:row>
+    <x:row r="90" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A90" s="1"/>
       <x:c r="B90" s="36"/>
-      <x:c r="C90" s="36"/>
-      <x:c r="D90" s="9" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E90" s="7" t="s">
-        <x:v>118</x:v>
+      <x:c r="C90" s="40" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D90" s="43" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E90" s="16" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F90" s="12" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="G90" s="8"/>
-    </x:row>
-    <x:row r="91" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G90" s="17"/>
+    </x:row>
+    <x:row r="91" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A91" s="1"/>
       <x:c r="B91" s="36"/>
-      <x:c r="C91" s="40" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="D91" s="43" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="E91" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F91" s="12" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="G91" s="17"/>
+      <x:c r="C91" s="41"/>
+      <x:c r="D91" s="44"/>
+      <x:c r="E91" s="18" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="F91" s="7" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G91" s="7"/>
     </x:row>
     <x:row r="92" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A92" s="1"/>
       <x:c r="B92" s="36"/>
       <x:c r="C92" s="41"/>
       <x:c r="D92" s="44"/>
-      <x:c r="E92" s="18" t="s">
-        <x:v>123</x:v>
-      </x:c>
+      <x:c r="E92" s="18"/>
       <x:c r="F92" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G92" s="7"/>
     </x:row>
@@ -3853,9 +3837,11 @@
       <x:c r="B93" s="36"/>
       <x:c r="C93" s="41"/>
       <x:c r="D93" s="44"/>
-      <x:c r="E93" s="18"/>
+      <x:c r="E93" s="18" t="s">
+        <x:v>234</x:v>
+      </x:c>
       <x:c r="F93" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G93" s="7"/>
     </x:row>
@@ -3863,12 +3849,10 @@
       <x:c r="A94" s="1"/>
       <x:c r="B94" s="36"/>
       <x:c r="C94" s="41"/>
-      <x:c r="D94" s="44"/>
-      <x:c r="E94" s="18" t="s">
-        <x:v>160</x:v>
-      </x:c>
+      <x:c r="D94" s="45"/>
+      <x:c r="E94" s="18"/>
       <x:c r="F94" s="7" t="s">
-        <x:v>159</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G94" s="7"/>
     </x:row>
@@ -3876,25 +3860,25 @@
       <x:c r="A95" s="1"/>
       <x:c r="B95" s="36"/>
       <x:c r="C95" s="41"/>
-      <x:c r="D95" s="45"/>
-      <x:c r="E95" s="18"/>
-      <x:c r="F95" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G95" s="7"/>
+      <x:c r="D95" s="35" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E95" s="18" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F95" s="12" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G95" s="12"/>
     </x:row>
     <x:row r="96" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A96" s="1"/>
       <x:c r="B96" s="36"/>
       <x:c r="C96" s="41"/>
-      <x:c r="D96" s="35" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="E96" s="18" t="s">
-        <x:v>108</x:v>
-      </x:c>
+      <x:c r="D96" s="35"/>
+      <x:c r="E96" s="18"/>
       <x:c r="F96" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G96" s="12"/>
     </x:row>
@@ -3905,7 +3889,7 @@
       <x:c r="D97" s="35"/>
       <x:c r="E97" s="18"/>
       <x:c r="F97" s="12" t="s">
-        <x:v>101</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G97" s="12"/>
     </x:row>
@@ -3914,25 +3898,27 @@
       <x:c r="B98" s="36"/>
       <x:c r="C98" s="41"/>
       <x:c r="D98" s="35"/>
-      <x:c r="E98" s="18"/>
-      <x:c r="F98" s="12" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G98" s="12"/>
+      <x:c r="E98" s="18" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="F98" s="7" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G98" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
     </x:row>
     <x:row r="99" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A99" s="1"/>
       <x:c r="B99" s="36"/>
       <x:c r="C99" s="41"/>
       <x:c r="D99" s="35"/>
-      <x:c r="E99" s="18" t="s">
-        <x:v>161</x:v>
-      </x:c>
+      <x:c r="E99" s="18"/>
       <x:c r="F99" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G99" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7" ht="15.75" customHeight="1">
@@ -3942,71 +3928,69 @@
       <x:c r="D100" s="35"/>
       <x:c r="E100" s="18"/>
       <x:c r="F100" s="7" t="s">
-        <x:v>237</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="G100" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A101" s="1"/>
       <x:c r="B101" s="36"/>
       <x:c r="C101" s="41"/>
-      <x:c r="D101" s="35"/>
-      <x:c r="E101" s="18"/>
-      <x:c r="F101" s="7" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="G101" s="7" t="s">
-        <x:v>74</x:v>
+      <x:c r="D101" s="14" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E101" s="15" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F101" s="15" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G101" s="15" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A102" s="1"/>
       <x:c r="B102" s="36"/>
-      <x:c r="C102" s="41"/>
+      <x:c r="C102" s="42"/>
       <x:c r="D102" s="14" t="s">
-        <x:v>201</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E102" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F102" s="15" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G102" s="15" t="s">
-        <x:v>98</x:v>
-      </x:c>
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G102" s="15"/>
     </x:row>
     <x:row r="103" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A103" s="1"/>
       <x:c r="B103" s="36"/>
-      <x:c r="C103" s="42"/>
-      <x:c r="D103" s="14" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E103" s="15" t="s">
+      <x:c r="C103" s="36" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D103" s="35" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E103" s="18" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="F103" s="15" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="G103" s="15"/>
+      <x:c r="F103" s="7" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="G103" s="7"/>
     </x:row>
     <x:row r="104" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A104" s="1"/>
       <x:c r="B104" s="36"/>
-      <x:c r="C104" s="36" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D104" s="35" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="E104" s="18" t="s">
-        <x:v>110</x:v>
-      </x:c>
+      <x:c r="C104" s="36"/>
+      <x:c r="D104" s="35"/>
+      <x:c r="E104" s="18"/>
       <x:c r="F104" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G104" s="7"/>
     </x:row>
@@ -4015,9 +3999,11 @@
       <x:c r="B105" s="36"/>
       <x:c r="C105" s="36"/>
       <x:c r="D105" s="35"/>
-      <x:c r="E105" s="18"/>
+      <x:c r="E105" s="18" t="s">
+        <x:v>251</x:v>
+      </x:c>
       <x:c r="F105" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G105" s="7"/>
     </x:row>
@@ -4026,11 +4012,9 @@
       <x:c r="B106" s="36"/>
       <x:c r="C106" s="36"/>
       <x:c r="D106" s="35"/>
-      <x:c r="E106" s="18" t="s">
-        <x:v>175</x:v>
-      </x:c>
+      <x:c r="E106" s="18"/>
       <x:c r="F106" s="7" t="s">
-        <x:v>250</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G106" s="7"/>
     </x:row>
@@ -4038,25 +4022,25 @@
       <x:c r="A107" s="1"/>
       <x:c r="B107" s="36"/>
       <x:c r="C107" s="36"/>
-      <x:c r="D107" s="35"/>
-      <x:c r="E107" s="18"/>
-      <x:c r="F107" s="7" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G107" s="7"/>
+      <x:c r="D107" s="35" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E107" s="18" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F107" s="12" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G107" s="12"/>
     </x:row>
     <x:row r="108" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A108" s="1"/>
       <x:c r="B108" s="36"/>
       <x:c r="C108" s="36"/>
-      <x:c r="D108" s="35" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="E108" s="18" t="s">
-        <x:v>108</x:v>
-      </x:c>
+      <x:c r="D108" s="35"/>
+      <x:c r="E108" s="18"/>
       <x:c r="F108" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G108" s="12"/>
     </x:row>
@@ -4067,7 +4051,7 @@
       <x:c r="D109" s="35"/>
       <x:c r="E109" s="18"/>
       <x:c r="F109" s="12" t="s">
-        <x:v>101</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G109" s="12"/>
     </x:row>
@@ -4076,38 +4060,44 @@
       <x:c r="B110" s="36"/>
       <x:c r="C110" s="36"/>
       <x:c r="D110" s="35"/>
-      <x:c r="E110" s="18"/>
-      <x:c r="F110" s="12" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G110" s="12"/>
+      <x:c r="E110" s="18" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="F110" s="7" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="G110" s="7" t="s">
+        <x:v>237</x:v>
+      </x:c>
     </x:row>
     <x:row r="111" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A111" s="1"/>
       <x:c r="B111" s="36"/>
       <x:c r="C111" s="36"/>
       <x:c r="D111" s="35"/>
-      <x:c r="E111" s="18" t="s">
-        <x:v>167</x:v>
-      </x:c>
+      <x:c r="E111" s="18"/>
       <x:c r="F111" s="7" t="s">
-        <x:v>235</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G111" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A112" s="1"/>
       <x:c r="B112" s="36"/>
       <x:c r="C112" s="36"/>
-      <x:c r="D112" s="35"/>
-      <x:c r="E112" s="18"/>
+      <x:c r="D112" s="9" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E112" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="F112" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G112" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:7" ht="15.75" customHeight="1">
@@ -4115,47 +4105,41 @@
       <x:c r="B113" s="36"/>
       <x:c r="C113" s="36"/>
       <x:c r="D113" s="9" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="E113" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="E113" s="12" t="s">
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F113" s="7" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G113" s="7" t="s">
-        <x:v>242</x:v>
-      </x:c>
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="G113" s="7"/>
     </x:row>
     <x:row r="114" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A114" s="1"/>
       <x:c r="B114" s="36"/>
-      <x:c r="C114" s="36"/>
-      <x:c r="D114" s="9" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E114" s="12" t="s">
-        <x:v>118</x:v>
+      <x:c r="C114" s="36" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="D114" s="35" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E114" s="18" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F114" s="7" t="s">
-        <x:v>240</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G114" s="7"/>
     </x:row>
     <x:row r="115" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A115" s="1"/>
       <x:c r="B115" s="36"/>
-      <x:c r="C115" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="D115" s="35" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="E115" s="18" t="s">
-        <x:v>113</x:v>
-      </x:c>
+      <x:c r="C115" s="36"/>
+      <x:c r="D115" s="35"/>
+      <x:c r="E115" s="18"/>
       <x:c r="F115" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G115" s="7"/>
     </x:row>
@@ -4164,9 +4148,11 @@
       <x:c r="B116" s="36"/>
       <x:c r="C116" s="36"/>
       <x:c r="D116" s="35"/>
-      <x:c r="E116" s="18"/>
+      <x:c r="E116" s="18" t="s">
+        <x:v>254</x:v>
+      </x:c>
       <x:c r="F116" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G116" s="7"/>
     </x:row>
@@ -4175,11 +4161,9 @@
       <x:c r="B117" s="36"/>
       <x:c r="C117" s="36"/>
       <x:c r="D117" s="35"/>
-      <x:c r="E117" s="18" t="s">
-        <x:v>178</x:v>
-      </x:c>
+      <x:c r="E117" s="18"/>
       <x:c r="F117" s="7" t="s">
-        <x:v>247</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G117" s="7"/>
     </x:row>
@@ -4187,25 +4171,25 @@
       <x:c r="A118" s="1"/>
       <x:c r="B118" s="36"/>
       <x:c r="C118" s="36"/>
-      <x:c r="D118" s="35"/>
-      <x:c r="E118" s="18"/>
-      <x:c r="F118" s="7" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G118" s="7"/>
+      <x:c r="D118" s="35" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E118" s="18" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F118" s="12" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G118" s="12"/>
     </x:row>
     <x:row r="119" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A119" s="1"/>
       <x:c r="B119" s="36"/>
       <x:c r="C119" s="36"/>
-      <x:c r="D119" s="35" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="E119" s="18" t="s">
-        <x:v>108</x:v>
-      </x:c>
+      <x:c r="D119" s="35"/>
+      <x:c r="E119" s="18"/>
       <x:c r="F119" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G119" s="12"/>
     </x:row>
@@ -4216,7 +4200,7 @@
       <x:c r="D120" s="35"/>
       <x:c r="E120" s="18"/>
       <x:c r="F120" s="12" t="s">
-        <x:v>101</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G120" s="12"/>
     </x:row>
@@ -4225,25 +4209,27 @@
       <x:c r="B121" s="36"/>
       <x:c r="C121" s="36"/>
       <x:c r="D121" s="35"/>
-      <x:c r="E121" s="18"/>
-      <x:c r="F121" s="12" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G121" s="12"/>
+      <x:c r="E121" s="18" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F121" s="7" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="G121" s="7" t="s">
+        <x:v>264</x:v>
+      </x:c>
     </x:row>
     <x:row r="122" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A122" s="1"/>
       <x:c r="B122" s="36"/>
       <x:c r="C122" s="36"/>
       <x:c r="D122" s="35"/>
-      <x:c r="E122" s="18" t="s">
-        <x:v>129</x:v>
-      </x:c>
+      <x:c r="E122" s="18"/>
       <x:c r="F122" s="7" t="s">
-        <x:v>236</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G122" s="7" t="s">
-        <x:v>170</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:7" ht="15.75" customHeight="1">
@@ -4253,23 +4239,27 @@
       <x:c r="D123" s="35"/>
       <x:c r="E123" s="18"/>
       <x:c r="F123" s="7" t="s">
-        <x:v>233</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G123" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A124" s="1"/>
       <x:c r="B124" s="36"/>
       <x:c r="C124" s="36"/>
-      <x:c r="D124" s="35"/>
-      <x:c r="E124" s="18"/>
+      <x:c r="D124" s="9" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E124" s="12" t="s">
+        <x:v>35</x:v>
+      </x:c>
       <x:c r="F124" s="7" t="s">
-        <x:v>73</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G124" s="7" t="s">
-        <x:v>176</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:7" ht="15.75" customHeight="1">
@@ -4277,47 +4267,41 @@
       <x:c r="B125" s="36"/>
       <x:c r="C125" s="36"/>
       <x:c r="D125" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E125" s="12" t="s">
-        <x:v>47</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F125" s="7" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G125" s="7" t="s">
-        <x:v>238</x:v>
-      </x:c>
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="G125" s="7"/>
     </x:row>
     <x:row r="126" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A126" s="1"/>
       <x:c r="B126" s="36"/>
-      <x:c r="C126" s="36"/>
-      <x:c r="D126" s="9" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E126" s="12" t="s">
-        <x:v>118</x:v>
+      <x:c r="C126" s="36" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D126" s="35" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E126" s="18" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F126" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G126" s="7"/>
     </x:row>
     <x:row r="127" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A127" s="1"/>
       <x:c r="B127" s="36"/>
-      <x:c r="C127" s="36" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D127" s="35" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="E127" s="18" t="s">
-        <x:v>42</x:v>
-      </x:c>
+      <x:c r="C127" s="36"/>
+      <x:c r="D127" s="35"/>
+      <x:c r="E127" s="18"/>
       <x:c r="F127" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="G127" s="7"/>
     </x:row>
@@ -4326,9 +4310,11 @@
       <x:c r="B128" s="36"/>
       <x:c r="C128" s="36"/>
       <x:c r="D128" s="35"/>
-      <x:c r="E128" s="18"/>
+      <x:c r="E128" s="18" t="s">
+        <x:v>109</x:v>
+      </x:c>
       <x:c r="F128" s="7" t="s">
-        <x:v>165</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G128" s="7"/>
     </x:row>
@@ -4337,11 +4323,9 @@
       <x:c r="B129" s="36"/>
       <x:c r="C129" s="36"/>
       <x:c r="D129" s="35"/>
-      <x:c r="E129" s="18" t="s">
-        <x:v>114</x:v>
-      </x:c>
+      <x:c r="E129" s="18"/>
       <x:c r="F129" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G129" s="7"/>
     </x:row>
@@ -4349,25 +4333,25 @@
       <x:c r="A130" s="1"/>
       <x:c r="B130" s="36"/>
       <x:c r="C130" s="36"/>
-      <x:c r="D130" s="35"/>
-      <x:c r="E130" s="18"/>
-      <x:c r="F130" s="7" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G130" s="7"/>
+      <x:c r="D130" s="35" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E130" s="18" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F130" s="12" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G130" s="12"/>
     </x:row>
     <x:row r="131" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A131" s="1"/>
       <x:c r="B131" s="36"/>
       <x:c r="C131" s="36"/>
-      <x:c r="D131" s="35" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="E131" s="18" t="s">
-        <x:v>108</x:v>
-      </x:c>
+      <x:c r="D131" s="35"/>
+      <x:c r="E131" s="18"/>
       <x:c r="F131" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G131" s="12"/>
     </x:row>
@@ -4378,7 +4362,7 @@
       <x:c r="D132" s="35"/>
       <x:c r="E132" s="18"/>
       <x:c r="F132" s="12" t="s">
-        <x:v>101</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G132" s="12"/>
     </x:row>
@@ -4387,25 +4371,27 @@
       <x:c r="B133" s="36"/>
       <x:c r="C133" s="36"/>
       <x:c r="D133" s="35"/>
-      <x:c r="E133" s="18"/>
-      <x:c r="F133" s="12" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G133" s="12"/>
+      <x:c r="E133" s="18" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F133" s="7" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="G133" s="7" t="s">
+        <x:v>97</x:v>
+      </x:c>
     </x:row>
     <x:row r="134" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A134" s="1"/>
       <x:c r="B134" s="36"/>
       <x:c r="C134" s="36"/>
       <x:c r="D134" s="35"/>
-      <x:c r="E134" s="18" t="s">
-        <x:v>112</x:v>
-      </x:c>
+      <x:c r="E134" s="18"/>
       <x:c r="F134" s="7" t="s">
-        <x:v>71</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G134" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:7" ht="15.75" customHeight="1">
@@ -4415,23 +4401,27 @@
       <x:c r="D135" s="35"/>
       <x:c r="E135" s="18"/>
       <x:c r="F135" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="G135" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A136" s="1"/>
       <x:c r="B136" s="36"/>
       <x:c r="C136" s="36"/>
-      <x:c r="D136" s="35"/>
-      <x:c r="E136" s="18"/>
+      <x:c r="D136" s="9" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E136" s="12" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="F136" s="7" t="s">
-        <x:v>173</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G136" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:7" ht="15.75" customHeight="1">
@@ -4439,47 +4429,41 @@
       <x:c r="B137" s="36"/>
       <x:c r="C137" s="36"/>
       <x:c r="D137" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E137" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F137" s="7" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="G137" s="7" t="s">
-        <x:v>72</x:v>
-      </x:c>
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="G137" s="7"/>
     </x:row>
     <x:row r="138" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A138" s="1"/>
       <x:c r="B138" s="36"/>
-      <x:c r="C138" s="36"/>
-      <x:c r="D138" s="9" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E138" s="12" t="s">
-        <x:v>118</x:v>
+      <x:c r="C138" s="36" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D138" s="35" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E138" s="18" t="s">
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F138" s="7" t="s">
-        <x:v>77</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G138" s="7"/>
     </x:row>
     <x:row r="139" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A139" s="1"/>
       <x:c r="B139" s="36"/>
-      <x:c r="C139" s="36" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D139" s="35" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="E139" s="18" t="s">
-        <x:v>126</x:v>
-      </x:c>
+      <x:c r="C139" s="36"/>
+      <x:c r="D139" s="35"/>
+      <x:c r="E139" s="18"/>
       <x:c r="F139" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G139" s="7"/>
     </x:row>
@@ -4488,9 +4472,11 @@
       <x:c r="B140" s="36"/>
       <x:c r="C140" s="36"/>
       <x:c r="D140" s="35"/>
-      <x:c r="E140" s="18"/>
+      <x:c r="E140" s="18" t="s">
+        <x:v>263</x:v>
+      </x:c>
       <x:c r="F140" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G140" s="7"/>
     </x:row>
@@ -4499,11 +4485,9 @@
       <x:c r="B141" s="36"/>
       <x:c r="C141" s="36"/>
       <x:c r="D141" s="35"/>
-      <x:c r="E141" s="18" t="s">
-        <x:v>177</x:v>
-      </x:c>
+      <x:c r="E141" s="18"/>
       <x:c r="F141" s="7" t="s">
-        <x:v>245</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G141" s="7"/>
     </x:row>
@@ -4511,25 +4495,25 @@
       <x:c r="A142" s="1"/>
       <x:c r="B142" s="36"/>
       <x:c r="C142" s="36"/>
-      <x:c r="D142" s="35"/>
-      <x:c r="E142" s="18"/>
-      <x:c r="F142" s="7" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G142" s="7"/>
+      <x:c r="D142" s="35" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E142" s="18" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F142" s="12" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G142" s="12"/>
     </x:row>
     <x:row r="143" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A143" s="1"/>
       <x:c r="B143" s="36"/>
       <x:c r="C143" s="36"/>
-      <x:c r="D143" s="35" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="E143" s="18" t="s">
-        <x:v>108</x:v>
-      </x:c>
+      <x:c r="D143" s="35"/>
+      <x:c r="E143" s="18"/>
       <x:c r="F143" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G143" s="12"/>
     </x:row>
@@ -4540,7 +4524,7 @@
       <x:c r="D144" s="35"/>
       <x:c r="E144" s="18"/>
       <x:c r="F144" s="12" t="s">
-        <x:v>101</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G144" s="12"/>
     </x:row>
@@ -4549,38 +4533,44 @@
       <x:c r="B145" s="36"/>
       <x:c r="C145" s="36"/>
       <x:c r="D145" s="35"/>
-      <x:c r="E145" s="18"/>
-      <x:c r="F145" s="12" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G145" s="12"/>
+      <x:c r="E145" s="18" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="F145" s="7" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="G145" s="7" t="s">
+        <x:v>243</x:v>
+      </x:c>
     </x:row>
     <x:row r="146" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A146" s="1"/>
       <x:c r="B146" s="36"/>
       <x:c r="C146" s="36"/>
       <x:c r="D146" s="35"/>
-      <x:c r="E146" s="18" t="s">
-        <x:v>111</x:v>
-      </x:c>
+      <x:c r="E146" s="18"/>
       <x:c r="F146" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G146" s="7" t="s">
-        <x:v>172</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A147" s="1"/>
       <x:c r="B147" s="36"/>
       <x:c r="C147" s="36"/>
-      <x:c r="D147" s="35"/>
-      <x:c r="E147" s="18"/>
+      <x:c r="D147" s="9" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E147" s="12" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="F147" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G147" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:7" ht="15.75" customHeight="1">
@@ -4588,32 +4578,18 @@
       <x:c r="B148" s="36"/>
       <x:c r="C148" s="36"/>
       <x:c r="D148" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E148" s="12" t="s">
-        <x:v>40</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F148" s="7" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G148" s="7" t="s">
-        <x:v>241</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="149" spans="1:7" ht="15.75" customHeight="1">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G148" s="7"/>
+    </x:row>
+    <x:row r="149" spans="1:1" ht="15.75" customHeight="1">
       <x:c r="A149" s="1"/>
-      <x:c r="B149" s="36"/>
-      <x:c r="C149" s="36"/>
-      <x:c r="D149" s="9" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E149" s="12" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="F149" s="7" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G149" s="7"/>
     </x:row>
     <x:row r="150" spans="1:1" ht="15.75" customHeight="1">
       <x:c r="A150" s="1"/>
@@ -4624,8 +4600,14 @@
     <x:row r="152" spans="1:1" ht="15.75" customHeight="1">
       <x:c r="A152" s="1"/>
     </x:row>
-    <x:row r="153" spans="1:1" ht="15.75" customHeight="1">
+    <x:row r="153" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A153" s="1"/>
+      <x:c r="B153" s="1"/>
+      <x:c r="C153" s="2"/>
+      <x:c r="D153" s="2"/>
+      <x:c r="E153" s="2"/>
+      <x:c r="F153" s="2"/>
+      <x:c r="G153" s="2"/>
     </x:row>
     <x:row r="154" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A154" s="1"/>
@@ -5033,11 +5015,11 @@
       <x:c r="G198" s="2"/>
     </x:row>
     <x:row r="199" spans="1:7" ht="15.75" customHeight="1">
-      <x:c r="A199" s="1"/>
-      <x:c r="B199" s="1"/>
-      <x:c r="C199" s="2"/>
-      <x:c r="D199" s="2"/>
-      <x:c r="E199" s="2"/>
+      <x:c r="A199" s="3"/>
+      <x:c r="B199" s="3"/>
+      <x:c r="C199" s="3"/>
+      <x:c r="D199" s="3"/>
+      <x:c r="E199" s="3"/>
       <x:c r="F199" s="2"/>
       <x:c r="G199" s="2"/>
     </x:row>
@@ -5047,8 +5029,8 @@
       <x:c r="C200" s="3"/>
       <x:c r="D200" s="3"/>
       <x:c r="E200" s="3"/>
-      <x:c r="F200" s="2"/>
-      <x:c r="G200" s="2"/>
+      <x:c r="F200" s="3"/>
+      <x:c r="G200" s="3"/>
     </x:row>
     <x:row r="201" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A201" s="3"/>
@@ -10729,18 +10711,9 @@
       <x:c r="F831" s="3"/>
       <x:c r="G831" s="3"/>
     </x:row>
-    <x:row r="832" spans="1:7" ht="15.75" customHeight="1">
-      <x:c r="A832" s="3"/>
-      <x:c r="B832" s="3"/>
-      <x:c r="C832" s="3"/>
-      <x:c r="D832" s="3"/>
-      <x:c r="E832" s="3"/>
+    <x:row r="832" spans="6:7" customHeight="1">
       <x:c r="F832" s="3"/>
       <x:c r="G832" s="3"/>
-    </x:row>
-    <x:row r="833" spans="6:7" customHeight="1">
-      <x:c r="F833" s="3"/>
-      <x:c r="G833" s="3"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="102">
@@ -10789,16 +10762,16 @@
     <x:mergeCell ref="E39:E40"/>
     <x:mergeCell ref="D43:D47"/>
     <x:mergeCell ref="G43:G47"/>
-    <x:mergeCell ref="E92:E93"/>
-    <x:mergeCell ref="E94:E95"/>
-    <x:mergeCell ref="E99:E101"/>
-    <x:mergeCell ref="D80:D83"/>
-    <x:mergeCell ref="E80:E81"/>
-    <x:mergeCell ref="E82:E83"/>
-    <x:mergeCell ref="E84:E86"/>
-    <x:mergeCell ref="D76:D78"/>
-    <x:mergeCell ref="D84:D88"/>
-    <x:mergeCell ref="E77:E78"/>
+    <x:mergeCell ref="E91:E92"/>
+    <x:mergeCell ref="E93:E94"/>
+    <x:mergeCell ref="E98:E100"/>
+    <x:mergeCell ref="D79:D82"/>
+    <x:mergeCell ref="E79:E80"/>
+    <x:mergeCell ref="E81:E82"/>
+    <x:mergeCell ref="E83:E85"/>
+    <x:mergeCell ref="D75:D77"/>
+    <x:mergeCell ref="D83:D87"/>
+    <x:mergeCell ref="E76:E77"/>
     <x:mergeCell ref="E64:E65"/>
     <x:mergeCell ref="E66:E67"/>
     <x:mergeCell ref="D68:D69"/>
@@ -10806,46 +10779,46 @@
     <x:mergeCell ref="G64:G67"/>
     <x:mergeCell ref="D64:D67"/>
     <x:mergeCell ref="C64:C71"/>
-    <x:mergeCell ref="C76:C79"/>
-    <x:mergeCell ref="E87:E88"/>
-    <x:mergeCell ref="C80:C90"/>
-    <x:mergeCell ref="C104:C114"/>
-    <x:mergeCell ref="E143:E145"/>
-    <x:mergeCell ref="D143:D147"/>
-    <x:mergeCell ref="C115:C126"/>
-    <x:mergeCell ref="D127:D130"/>
-    <x:mergeCell ref="D139:D142"/>
-    <x:mergeCell ref="D115:D118"/>
-    <x:mergeCell ref="E141:E142"/>
-    <x:mergeCell ref="D104:D107"/>
-    <x:mergeCell ref="E104:E105"/>
-    <x:mergeCell ref="E106:E107"/>
-    <x:mergeCell ref="E111:E112"/>
-    <x:mergeCell ref="E134:E136"/>
-    <x:mergeCell ref="E122:E124"/>
-    <x:mergeCell ref="E127:E128"/>
-    <x:mergeCell ref="E131:E133"/>
-    <x:mergeCell ref="D131:D136"/>
-    <x:mergeCell ref="E96:E98"/>
-    <x:mergeCell ref="D96:D101"/>
-    <x:mergeCell ref="B76:B149"/>
-    <x:mergeCell ref="E72:E75"/>
-    <x:mergeCell ref="D72:D75"/>
-    <x:mergeCell ref="C72:C75"/>
-    <x:mergeCell ref="B72:B75"/>
-    <x:mergeCell ref="C91:C103"/>
-    <x:mergeCell ref="D91:D95"/>
-    <x:mergeCell ref="E129:E130"/>
-    <x:mergeCell ref="E139:E140"/>
-    <x:mergeCell ref="E108:E110"/>
-    <x:mergeCell ref="D108:D112"/>
-    <x:mergeCell ref="E119:E121"/>
-    <x:mergeCell ref="D119:D124"/>
-    <x:mergeCell ref="E146:E147"/>
-    <x:mergeCell ref="C139:C149"/>
-    <x:mergeCell ref="E115:E116"/>
-    <x:mergeCell ref="E117:E118"/>
-    <x:mergeCell ref="C127:C138"/>
+    <x:mergeCell ref="C75:C78"/>
+    <x:mergeCell ref="E86:E87"/>
+    <x:mergeCell ref="C79:C89"/>
+    <x:mergeCell ref="C103:C113"/>
+    <x:mergeCell ref="E142:E144"/>
+    <x:mergeCell ref="D142:D146"/>
+    <x:mergeCell ref="C114:C125"/>
+    <x:mergeCell ref="D126:D129"/>
+    <x:mergeCell ref="D138:D141"/>
+    <x:mergeCell ref="D114:D117"/>
+    <x:mergeCell ref="E140:E141"/>
+    <x:mergeCell ref="D103:D106"/>
+    <x:mergeCell ref="E103:E104"/>
+    <x:mergeCell ref="E105:E106"/>
+    <x:mergeCell ref="E110:E111"/>
+    <x:mergeCell ref="E133:E135"/>
+    <x:mergeCell ref="E121:E123"/>
+    <x:mergeCell ref="E126:E127"/>
+    <x:mergeCell ref="E130:E132"/>
+    <x:mergeCell ref="D130:D135"/>
+    <x:mergeCell ref="E95:E97"/>
+    <x:mergeCell ref="D95:D100"/>
+    <x:mergeCell ref="B75:B148"/>
+    <x:mergeCell ref="E72:E74"/>
+    <x:mergeCell ref="D72:D74"/>
+    <x:mergeCell ref="C72:C74"/>
+    <x:mergeCell ref="B72:B74"/>
+    <x:mergeCell ref="C90:C102"/>
+    <x:mergeCell ref="D90:D94"/>
+    <x:mergeCell ref="E128:E129"/>
+    <x:mergeCell ref="E138:E139"/>
+    <x:mergeCell ref="E107:E109"/>
+    <x:mergeCell ref="D107:D111"/>
+    <x:mergeCell ref="E118:E120"/>
+    <x:mergeCell ref="D118:D123"/>
+    <x:mergeCell ref="E145:E146"/>
+    <x:mergeCell ref="C138:C148"/>
+    <x:mergeCell ref="E114:E115"/>
+    <x:mergeCell ref="E116:E117"/>
+    <x:mergeCell ref="C126:C137"/>
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="E4:E4" r:id="rId1"/>

--- a/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="10485"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Total" sheetId="1" r:id="rId4"/>
@@ -14,82 +14,341 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="270">
-  <x:si>
-    <x:t>AdminNoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminSalesStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminLoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypageMyInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypagePetInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminRoomServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry/inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/reserveDetaill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/main/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice/noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/reserveRoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.room.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberController</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="271">
+  <x:si>
+    <x:t>statistics.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminSalesStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminLogin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminHeader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMember.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNotice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryCorrection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/room/roomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/notice/noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoinsert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry
+ (문의게시판)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageroom.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>common
+ (공용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 공용
+(common)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/findId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageMyinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveCalendar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage
+(마이 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+ (회원 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMain.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/findPw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guide
+ (이용안내)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member
+ (회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자
+ (client)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">관리자
+(admin)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice
+(공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+(관리자 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice
+ (공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryDetail</x:t>
   </x:si>
   <x:si>
     <x:r>
-      <x:t>Admin</x:t>
+      <x:t>/admin/</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -97,33 +356,22 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>StatisticsService</x:t>
+      <x:t>room</x:t>
     </x:r>
   </x:si>
   <x:si>
     <x:r>
-      <x:t>/</x:t>
+      <x:t>member
+(</x:t>
     </x:r>
     <x:r>
       <x:rPr>
         <x:rFont val="맑은 고딕"/>
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
+        <x:b val="1"/>
       </x:rPr>
-      <x:t>admin/room/roomList</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>Admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>RoomController</x:t>
+      <x:t>회원)</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -137,32 +385,6 @@
         <x:color rgb="ff000000"/>
       </x:rPr>
       <x:t>ContentLayout</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/member/join</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Form</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>Admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>RoomService</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -182,7 +404,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>Admin</x:t>
+      <x:t>/member/join</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -190,143 +412,148 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>RoomDAOImpl</x:t>
+      <x:t>Form</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>com.puppy.client.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>매핑명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Member.xml</x:t>
+    <x:r>
+      <x:t>/admin/inquiry/inquiry</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Detail</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>c</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>om.puppy.admin.room.controller</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>statistics                (</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>통계)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>com.</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>puppy.admin.room.service</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/client</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/template</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppyclient.guide.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeVO</x:t>
   </x:si>
   <x:si>
     <x:t>MemberDAO</x:t>
   </x:si>
   <x:si>
-    <x:t>adminHeader</x:t>
+    <x:t>CageRoomDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveRoom</x:t>
   </x:si>
   <x:si>
     <x:t>adminAside</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminLogin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Login.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mypage.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveRoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Notice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joinForm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageDAO</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -342,8 +569,212 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>파일명</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>매핑명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageMyinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageContentLayout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reserve/payment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageReservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberDelList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation
+ (예약)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMainMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guide.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joinForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패키지명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mapper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PetVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MVC 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReplyVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login</x:t>
+  </x:si>
+  <x:si>
     <x:r>
-      <x:t>/admin/</x:t>
+      <x:t xml:space="preserve">        Admin</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>MainController</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>com.puppy</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>.admin.room.dao</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/WEB-INF/views/admin/</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -355,93 +786,106 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>member
-(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>회원)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageReservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservation
- (예약)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberDelList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminSalesStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.service</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>Admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>RoomDAO</x:t>
-    </x:r>
+    <x:t>/admin/member/memberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypagepetInfoInsert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypagepetInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/main/reservationList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMainReservationList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypageMyInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry/inquiryCorrection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypageReservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/main</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.common.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reserve/reserveCalendar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.dao</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -460,19 +904,6 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>a</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>dminRoomList</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
       <x:t>room
 (</x:t>
     </x:r>
@@ -487,8 +918,68 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>adminInquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminLoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/main/memberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/room/roomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry/inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reserve/reserveRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypagePetInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reserve/reserveDetaill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.room.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsDAOImpl</x:t>
+  </x:si>
+  <x:si>
     <x:r>
-      <x:t>A</x:t>
+      <x:t>/</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -496,84 +987,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>dminRoom.xml</x:t>
+      <x:t>admin/room/roomList</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>com.puppy.admin.main.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppyclient.guide.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/client</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/template</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.service</x:t>
-  </x:si>
-  <x:si>
     <x:r>
-      <x:t>c</x:t>
+      <x:t>Admin</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -581,502 +1000,26 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>om.puppy.admin.room.controller</x:t>
+      <x:t>StatisticsService</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>com.</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>puppy.admin.room.service</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/admin/inquiry/inquiry</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Detail</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>statistics                (</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>통계)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryCorrection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoinsert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatistics.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice/noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry
- (문의게시판)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/findId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage
-(마이 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>common
- (공용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveCalendar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide
- (이용안내)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 공용
-(common)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/findPw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자
- (client)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMember.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMain.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member
- (회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginService</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">관리자
-(admin)
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
- (공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
- (회원 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminRoomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
-(관리자 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
-(공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminRoomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNotice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패키지명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReplyVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PetVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MVC 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mapper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">        Admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>MainController</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>com.puppy</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>.admin.room.dao</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/WEB-INF/views/admin/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>room</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypagepetInfoInsert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypagepetInfoUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/main/reservationList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypageReservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainReservationList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/main</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypageMyInfoUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry/inquiryCorrection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.common.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/reserveCalendar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.dao</x:t>
+    <x:t>ReservationController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminSalesStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypageMyInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login.xml</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2529,8 +2472,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:G832"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G93" activeCellId="0" sqref="G93:G93"/>
+    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G53" activeCellId="0" sqref="G53:G57"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2547,7 +2490,7 @@
     <x:row r="1" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="20" t="s">
-        <x:v>260</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C1" s="20"/>
       <x:c r="D1" s="20"/>
@@ -2567,40 +2510,40 @@
     <x:row r="3" spans="1:7" ht="24" customHeight="1">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="9" t="s">
-        <x:v>47</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>47</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>221</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F3" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G3" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="24" customHeight="1">
       <x:c r="A4" s="1"/>
       <x:c r="B4" s="29" t="s">
-        <x:v>184</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C4" s="26" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D4" s="24" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="D4" s="24" t="s">
-        <x:v>229</x:v>
-      </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>267</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G4" s="18"/>
     </x:row>
@@ -2610,10 +2553,10 @@
       <x:c r="C5" s="25"/>
       <x:c r="D5" s="25"/>
       <x:c r="E5" s="18" t="s">
-        <x:v>266</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G5" s="19"/>
     </x:row>
@@ -2624,7 +2567,7 @@
       <x:c r="D6" s="25"/>
       <x:c r="E6" s="19"/>
       <x:c r="F6" s="7" t="s">
-        <x:v>198</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G6" s="19"/>
     </x:row>
@@ -2637,7 +2580,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>187</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G7" s="19"/>
     </x:row>
@@ -2648,7 +2591,7 @@
       <x:c r="D8" s="25"/>
       <x:c r="E8" s="19"/>
       <x:c r="F8" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G8" s="19"/>
     </x:row>
@@ -2657,16 +2600,16 @@
       <x:c r="B9" s="30"/>
       <x:c r="C9" s="25"/>
       <x:c r="D9" s="24" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E9" s="18" t="s">
-        <x:v>123</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F9" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G9" s="21" t="s">
-        <x:v>28</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="24" customHeight="1">
@@ -2683,16 +2626,16 @@
       <x:c r="B11" s="30"/>
       <x:c r="C11" s="25"/>
       <x:c r="D11" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>223</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="24" customHeight="1">
@@ -2700,13 +2643,13 @@
       <x:c r="B12" s="30"/>
       <x:c r="C12" s="25"/>
       <x:c r="D12" s="5" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
     </x:row>
@@ -2714,16 +2657,16 @@
       <x:c r="A13" s="1"/>
       <x:c r="B13" s="30"/>
       <x:c r="C13" s="36" t="s">
-        <x:v>201</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D13" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E13" s="18" t="s">
-        <x:v>257</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G13" s="18"/>
     </x:row>
@@ -2734,7 +2677,7 @@
       <x:c r="D14" s="35"/>
       <x:c r="E14" s="19"/>
       <x:c r="F14" s="7" t="s">
-        <x:v>210</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G14" s="18"/>
     </x:row>
@@ -2744,10 +2687,10 @@
       <x:c r="C15" s="36"/>
       <x:c r="D15" s="35"/>
       <x:c r="E15" s="18" t="s">
-        <x:v>125</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>191</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G15" s="18"/>
     </x:row>
@@ -2758,7 +2701,7 @@
       <x:c r="D16" s="35"/>
       <x:c r="E16" s="19"/>
       <x:c r="F16" s="7" t="s">
-        <x:v>150</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G16" s="18"/>
     </x:row>
@@ -2767,16 +2710,16 @@
       <x:c r="B17" s="30"/>
       <x:c r="C17" s="36"/>
       <x:c r="D17" s="22" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E17" s="21" t="s">
-        <x:v>262</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>218</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>206</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="24" customHeight="1">
@@ -2786,10 +2729,10 @@
       <x:c r="D18" s="27"/>
       <x:c r="E18" s="28"/>
       <x:c r="F18" s="7" t="s">
-        <x:v>220</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>161</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7" ht="24" customHeight="1">
@@ -2799,10 +2742,10 @@
       <x:c r="D19" s="27"/>
       <x:c r="E19" s="28"/>
       <x:c r="F19" s="7" t="s">
-        <x:v>216</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>178</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" ht="24" customHeight="1">
@@ -2810,16 +2753,16 @@
       <x:c r="B20" s="30"/>
       <x:c r="C20" s="36"/>
       <x:c r="D20" s="9" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>183</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>232</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="24" customHeight="1">
@@ -2827,13 +2770,13 @@
       <x:c r="B21" s="30"/>
       <x:c r="C21" s="36"/>
       <x:c r="D21" s="9" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="G21" s="7"/>
     </x:row>
@@ -2841,16 +2784,16 @@
       <x:c r="A22" s="1"/>
       <x:c r="B22" s="31"/>
       <x:c r="C22" s="37" t="s">
-        <x:v>162</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D22" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E22" s="21" t="s">
-        <x:v>252</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G22" s="7"/>
     </x:row>
@@ -2861,7 +2804,7 @@
       <x:c r="D23" s="35"/>
       <x:c r="E23" s="21"/>
       <x:c r="F23" s="7" t="s">
-        <x:v>165</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G23" s="7"/>
     </x:row>
@@ -2871,10 +2814,10 @@
       <x:c r="C24" s="37"/>
       <x:c r="D24" s="35"/>
       <x:c r="E24" s="21" t="s">
-        <x:v>128</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G24" s="7"/>
     </x:row>
@@ -2885,7 +2828,7 @@
       <x:c r="D25" s="35"/>
       <x:c r="E25" s="21"/>
       <x:c r="F25" s="7" t="s">
-        <x:v>155</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G25" s="7"/>
     </x:row>
@@ -2894,16 +2837,16 @@
       <x:c r="B26" s="31"/>
       <x:c r="C26" s="37"/>
       <x:c r="D26" s="22" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E26" s="21" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F26" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
-        <x:v>240</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7" ht="15.75" customHeight="1">
@@ -2913,10 +2856,10 @@
       <x:c r="D27" s="22"/>
       <x:c r="E27" s="21"/>
       <x:c r="F27" s="7" t="s">
-        <x:v>168</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G27" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7" ht="15.75" customHeight="1">
@@ -2926,10 +2869,10 @@
       <x:c r="D28" s="22"/>
       <x:c r="E28" s="21"/>
       <x:c r="F28" s="7" t="s">
-        <x:v>137</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G28" s="7" t="s">
-        <x:v>249</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" ht="15.75" customHeight="1">
@@ -2939,10 +2882,10 @@
       <x:c r="D29" s="22"/>
       <x:c r="E29" s="21"/>
       <x:c r="F29" s="7" t="s">
-        <x:v>180</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G29" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7" ht="15.75" customHeight="1">
@@ -2952,10 +2895,10 @@
       <x:c r="D30" s="23"/>
       <x:c r="E30" s="21"/>
       <x:c r="F30" s="7" t="s">
-        <x:v>145</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G30" s="7" t="s">
-        <x:v>236</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7" ht="15.75" customHeight="1">
@@ -2965,10 +2908,10 @@
       <x:c r="D31" s="23"/>
       <x:c r="E31" s="21"/>
       <x:c r="F31" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G31" s="7" t="s">
-        <x:v>238</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" ht="15.75" customHeight="1">
@@ -2976,16 +2919,16 @@
       <x:c r="B32" s="31"/>
       <x:c r="C32" s="37"/>
       <x:c r="D32" s="9" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E32" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F32" s="7" t="s">
-        <x:v>83</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G32" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" ht="15.75" customHeight="1">
@@ -2993,13 +2936,13 @@
       <x:c r="B33" s="31"/>
       <x:c r="C33" s="37"/>
       <x:c r="D33" s="9" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E33" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F33" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G33" s="7"/>
     </x:row>
@@ -3007,16 +2950,16 @@
       <x:c r="A34" s="1"/>
       <x:c r="B34" s="32"/>
       <x:c r="C34" s="36" t="s">
-        <x:v>200</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D34" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E34" s="6" t="s">
-        <x:v>261</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F34" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G34" s="18"/>
     </x:row>
@@ -3026,10 +2969,10 @@
       <x:c r="C35" s="25"/>
       <x:c r="D35" s="25"/>
       <x:c r="E35" s="18" t="s">
-        <x:v>256</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="F35" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G35" s="19"/>
     </x:row>
@@ -3040,7 +2983,7 @@
       <x:c r="D36" s="25"/>
       <x:c r="E36" s="19"/>
       <x:c r="F36" s="7" t="s">
-        <x:v>193</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G36" s="19"/>
     </x:row>
@@ -3050,10 +2993,10 @@
       <x:c r="C37" s="25"/>
       <x:c r="D37" s="25"/>
       <x:c r="E37" s="18" t="s">
-        <x:v>110</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F37" s="7" t="s">
-        <x:v>189</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G37" s="19"/>
     </x:row>
@@ -3064,7 +3007,7 @@
       <x:c r="D38" s="25"/>
       <x:c r="E38" s="19"/>
       <x:c r="F38" s="7" t="s">
-        <x:v>158</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G38" s="19"/>
     </x:row>
@@ -3073,16 +3016,16 @@
       <x:c r="B39" s="32"/>
       <x:c r="C39" s="25"/>
       <x:c r="D39" s="35" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E39" s="18" t="s">
-        <x:v>107</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F39" s="7" t="s">
-        <x:v>204</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G39" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7" ht="15.75" customHeight="1">
@@ -3092,10 +3035,10 @@
       <x:c r="D40" s="25"/>
       <x:c r="E40" s="19"/>
       <x:c r="F40" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G40" s="7" t="s">
-        <x:v>153</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7" ht="15.75" customHeight="1">
@@ -3103,16 +3046,16 @@
       <x:c r="B41" s="32"/>
       <x:c r="C41" s="25"/>
       <x:c r="D41" s="9" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E41" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F41" s="7" t="s">
-        <x:v>94</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G41" s="7" t="s">
-        <x:v>227</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7" ht="15.75" customHeight="1">
@@ -3120,13 +3063,13 @@
       <x:c r="B42" s="32"/>
       <x:c r="C42" s="25"/>
       <x:c r="D42" s="9" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E42" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F42" s="7" t="s">
-        <x:v>73</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G42" s="7"/>
     </x:row>
@@ -3134,16 +3077,16 @@
       <x:c r="A43" s="1"/>
       <x:c r="B43" s="32"/>
       <x:c r="C43" s="36" t="s">
-        <x:v>157</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D43" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E43" s="10" t="s">
-        <x:v>246</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F43" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G43" s="18"/>
     </x:row>
@@ -3153,10 +3096,10 @@
       <x:c r="C44" s="25"/>
       <x:c r="D44" s="25"/>
       <x:c r="E44" s="18" t="s">
-        <x:v>108</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F44" s="7" t="s">
-        <x:v>72</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G44" s="19"/>
     </x:row>
@@ -3167,7 +3110,7 @@
       <x:c r="D45" s="25"/>
       <x:c r="E45" s="19"/>
       <x:c r="F45" s="7" t="s">
-        <x:v>194</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G45" s="19"/>
     </x:row>
@@ -3177,10 +3120,10 @@
       <x:c r="C46" s="25"/>
       <x:c r="D46" s="25"/>
       <x:c r="E46" s="18" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F46" s="7" t="s">
-        <x:v>211</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G46" s="19"/>
     </x:row>
@@ -3191,7 +3134,7 @@
       <x:c r="D47" s="25"/>
       <x:c r="E47" s="19"/>
       <x:c r="F47" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G47" s="19"/>
     </x:row>
@@ -3200,16 +3143,16 @@
       <x:c r="B48" s="32"/>
       <x:c r="C48" s="25"/>
       <x:c r="D48" s="35" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E48" s="18" t="s">
-        <x:v>112</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F48" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G48" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7" ht="15.75" customHeight="1">
@@ -3219,10 +3162,10 @@
       <x:c r="D49" s="25"/>
       <x:c r="E49" s="19"/>
       <x:c r="F49" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G49" s="7" t="s">
-        <x:v>255</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" ht="15.75" customHeight="1">
@@ -3232,10 +3175,10 @@
       <x:c r="D50" s="25"/>
       <x:c r="E50" s="19"/>
       <x:c r="F50" s="7" t="s">
-        <x:v>214</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G50" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7" ht="15.75" customHeight="1">
@@ -3243,16 +3186,16 @@
       <x:c r="B51" s="32"/>
       <x:c r="C51" s="25"/>
       <x:c r="D51" s="9" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E51" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F51" s="7" t="s">
-        <x:v>81</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G51" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7" ht="15.75" customHeight="1">
@@ -3260,13 +3203,13 @@
       <x:c r="B52" s="32"/>
       <x:c r="C52" s="25"/>
       <x:c r="D52" s="9" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E52" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F52" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G52" s="7"/>
     </x:row>
@@ -3274,16 +3217,16 @@
       <x:c r="A53" s="1"/>
       <x:c r="B53" s="33"/>
       <x:c r="C53" s="37" t="s">
-        <x:v>90</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D53" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E53" s="6" t="s">
-        <x:v>122</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F53" s="7" t="s">
-        <x:v>177</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G53" s="18"/>
     </x:row>
@@ -3293,10 +3236,10 @@
       <x:c r="C54" s="37"/>
       <x:c r="D54" s="19"/>
       <x:c r="E54" s="18" t="s">
-        <x:v>44</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F54" s="7" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G54" s="19"/>
     </x:row>
@@ -3307,7 +3250,7 @@
       <x:c r="D55" s="19"/>
       <x:c r="E55" s="19"/>
       <x:c r="F55" s="7" t="s">
-        <x:v>138</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G55" s="19"/>
     </x:row>
@@ -3317,10 +3260,10 @@
       <x:c r="C56" s="37"/>
       <x:c r="D56" s="19"/>
       <x:c r="E56" s="18" t="s">
-        <x:v>99</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F56" s="7" t="s">
-        <x:v>136</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G56" s="19"/>
     </x:row>
@@ -3331,7 +3274,7 @@
       <x:c r="D57" s="19"/>
       <x:c r="E57" s="19"/>
       <x:c r="F57" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="G57" s="19"/>
     </x:row>
@@ -3340,16 +3283,16 @@
       <x:c r="B58" s="33"/>
       <x:c r="C58" s="37"/>
       <x:c r="D58" s="22" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E58" s="21" t="s">
-        <x:v>121</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F58" s="7" t="s">
-        <x:v>170</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G58" s="7" t="s">
-        <x:v>268</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:7" ht="15.75" customHeight="1">
@@ -3359,10 +3302,10 @@
       <x:c r="D59" s="28"/>
       <x:c r="E59" s="28"/>
       <x:c r="F59" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G59" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:7" ht="15.75" customHeight="1">
@@ -3372,10 +3315,10 @@
       <x:c r="D60" s="28"/>
       <x:c r="E60" s="28"/>
       <x:c r="F60" s="7" t="s">
-        <x:v>179</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G60" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:7" ht="15.75" customHeight="1">
@@ -3385,10 +3328,10 @@
       <x:c r="D61" s="38"/>
       <x:c r="E61" s="38"/>
       <x:c r="F61" s="7" t="s">
-        <x:v>226</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G61" s="7" t="s">
-        <x:v>133</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7" ht="15.75" customHeight="1">
@@ -3396,32 +3339,32 @@
       <x:c r="B62" s="33"/>
       <x:c r="C62" s="37"/>
       <x:c r="D62" s="9" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E62" s="7" t="s">
-        <x:v>96</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F62" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="G62" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A63" s="1"/>
       <x:c r="B63" s="33"/>
       <x:c r="C63" s="38" t="s">
-        <x:v>157</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D63" s="9" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E63" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F63" s="7" t="s">
-        <x:v>199</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G63" s="7"/>
     </x:row>
@@ -3429,16 +3372,16 @@
       <x:c r="A64" s="1"/>
       <x:c r="B64" s="33"/>
       <x:c r="C64" s="36" t="s">
-        <x:v>175</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D64" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="18" t="s">
-        <x:v>269</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F64" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G64" s="18"/>
     </x:row>
@@ -3449,7 +3392,7 @@
       <x:c r="D65" s="35"/>
       <x:c r="E65" s="19"/>
       <x:c r="F65" s="7" t="s">
-        <x:v>166</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G65" s="18"/>
     </x:row>
@@ -3459,10 +3402,10 @@
       <x:c r="C66" s="36"/>
       <x:c r="D66" s="35"/>
       <x:c r="E66" s="18" t="s">
-        <x:v>115</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F66" s="7" t="s">
-        <x:v>171</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G66" s="18"/>
     </x:row>
@@ -3473,7 +3416,7 @@
       <x:c r="D67" s="35"/>
       <x:c r="E67" s="19"/>
       <x:c r="F67" s="7" t="s">
-        <x:v>159</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G67" s="18"/>
     </x:row>
@@ -3482,16 +3425,16 @@
       <x:c r="B68" s="33"/>
       <x:c r="C68" s="36"/>
       <x:c r="D68" s="22" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E68" s="21" t="s">
-        <x:v>259</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F68" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G68" s="7" t="s">
-        <x:v>144</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7" ht="15.75" customHeight="1">
@@ -3501,10 +3444,10 @@
       <x:c r="D69" s="22"/>
       <x:c r="E69" s="21"/>
       <x:c r="F69" s="7" t="s">
-        <x:v>71</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G69" s="7" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:7" ht="15.75" customHeight="1">
@@ -3512,16 +3455,16 @@
       <x:c r="B70" s="33"/>
       <x:c r="C70" s="36"/>
       <x:c r="D70" s="9" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E70" s="7" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="F70" s="7" t="s">
-        <x:v>181</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G70" s="7" t="s">
-        <x:v>217</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:7" ht="15.75" customHeight="1">
@@ -3529,32 +3472,32 @@
       <x:c r="B71" s="34"/>
       <x:c r="C71" s="36"/>
       <x:c r="D71" s="9" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E71" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F71" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G71" s="7"/>
     </x:row>
     <x:row r="72" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A72" s="1"/>
       <x:c r="B72" s="37" t="s">
-        <x:v>176</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C72" s="37" t="s">
-        <x:v>164</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D72" s="22" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E72" s="21" t="s">
         <x:v>229</x:v>
       </x:c>
-      <x:c r="E72" s="21" t="s">
-        <x:v>258</x:v>
-      </x:c>
       <x:c r="F72" s="7" t="s">
-        <x:v>225</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G72" s="8"/>
     </x:row>
@@ -3565,7 +3508,7 @@
       <x:c r="D73" s="23"/>
       <x:c r="E73" s="39"/>
       <x:c r="F73" s="7" t="s">
-        <x:v>222</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G73" s="8"/>
     </x:row>
@@ -3576,29 +3519,29 @@
       <x:c r="D74" s="23"/>
       <x:c r="E74" s="39"/>
       <x:c r="F74" s="7" t="s">
-        <x:v>172</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G74" s="8"/>
     </x:row>
     <x:row r="75" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A75" s="1"/>
       <x:c r="B75" s="36" t="s">
-        <x:v>192</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C75" s="36" t="s">
-        <x:v>207</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D75" s="35" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E75" s="7" t="s">
-        <x:v>247</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F75" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G75" s="7" t="s">
-        <x:v>174</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:7" ht="15.75" customHeight="1">
@@ -3607,10 +3550,10 @@
       <x:c r="C76" s="36"/>
       <x:c r="D76" s="35"/>
       <x:c r="E76" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F76" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G76" s="12"/>
     </x:row>
@@ -3621,7 +3564,7 @@
       <x:c r="D77" s="35"/>
       <x:c r="E77" s="18"/>
       <x:c r="F77" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G77" s="12"/>
     </x:row>
@@ -3630,32 +3573,32 @@
       <x:c r="B78" s="36"/>
       <x:c r="C78" s="36"/>
       <x:c r="D78" s="9" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E78" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F78" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="G78" s="7" t="s">
-        <x:v>224</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A79" s="1"/>
       <x:c r="B79" s="36"/>
       <x:c r="C79" s="36" t="s">
-        <x:v>101</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D79" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E79" s="18" t="s">
-        <x:v>113</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F79" s="7" t="s">
-        <x:v>87</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="G79" s="7"/>
     </x:row>
@@ -3666,7 +3609,7 @@
       <x:c r="D80" s="35"/>
       <x:c r="E80" s="18"/>
       <x:c r="F80" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="G80" s="7"/>
     </x:row>
@@ -3676,10 +3619,10 @@
       <x:c r="C81" s="36"/>
       <x:c r="D81" s="35"/>
       <x:c r="E81" s="18" t="s">
-        <x:v>253</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F81" s="7" t="s">
-        <x:v>196</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G81" s="7"/>
     </x:row>
@@ -3690,7 +3633,7 @@
       <x:c r="D82" s="35"/>
       <x:c r="E82" s="18"/>
       <x:c r="F82" s="7" t="s">
-        <x:v>135</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G82" s="7"/>
     </x:row>
@@ -3699,13 +3642,13 @@
       <x:c r="B83" s="36"/>
       <x:c r="C83" s="36"/>
       <x:c r="D83" s="35" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E83" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F83" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G83" s="12"/>
     </x:row>
@@ -3716,7 +3659,7 @@
       <x:c r="D84" s="35"/>
       <x:c r="E84" s="18"/>
       <x:c r="F84" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G84" s="12"/>
     </x:row>
@@ -3727,7 +3670,7 @@
       <x:c r="D85" s="35"/>
       <x:c r="E85" s="18"/>
       <x:c r="F85" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G85" s="12"/>
     </x:row>
@@ -3737,13 +3680,13 @@
       <x:c r="C86" s="36"/>
       <x:c r="D86" s="35"/>
       <x:c r="E86" s="18" t="s">
-        <x:v>248</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F86" s="7" t="s">
-        <x:v>245</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G86" s="7" t="s">
-        <x:v>239</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:7" ht="15.75" customHeight="1">
@@ -3753,10 +3696,10 @@
       <x:c r="D87" s="35"/>
       <x:c r="E87" s="18"/>
       <x:c r="F87" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G87" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:7" ht="15.75" customHeight="1">
@@ -3764,16 +3707,16 @@
       <x:c r="B88" s="36"/>
       <x:c r="C88" s="36"/>
       <x:c r="D88" s="9" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E88" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F88" s="13" t="s">
-        <x:v>233</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G88" s="12" t="s">
-        <x:v>77</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:7" ht="15.75" customHeight="1">
@@ -3781,13 +3724,13 @@
       <x:c r="B89" s="36"/>
       <x:c r="C89" s="36"/>
       <x:c r="D89" s="9" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E89" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F89" s="12" t="s">
-        <x:v>188</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G89" s="8"/>
     </x:row>
@@ -3795,16 +3738,16 @@
       <x:c r="A90" s="1"/>
       <x:c r="B90" s="36"/>
       <x:c r="C90" s="40" t="s">
-        <x:v>103</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D90" s="43" t="s">
-        <x:v>229</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E90" s="16" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="F90" s="12" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F90" s="12" t="s">
-        <x:v>75</x:v>
       </x:c>
       <x:c r="G90" s="17"/>
     </x:row>
@@ -3814,10 +3757,10 @@
       <x:c r="C91" s="41"/>
       <x:c r="D91" s="44"/>
       <x:c r="E91" s="18" t="s">
-        <x:v>130</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F91" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G91" s="7"/>
     </x:row>
@@ -3828,7 +3771,7 @@
       <x:c r="D92" s="44"/>
       <x:c r="E92" s="18"/>
       <x:c r="F92" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G92" s="7"/>
     </x:row>
@@ -3838,10 +3781,10 @@
       <x:c r="C93" s="41"/>
       <x:c r="D93" s="44"/>
       <x:c r="E93" s="18" t="s">
-        <x:v>234</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F93" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G93" s="7"/>
     </x:row>
@@ -3852,7 +3795,7 @@
       <x:c r="D94" s="45"/>
       <x:c r="E94" s="18"/>
       <x:c r="F94" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G94" s="7"/>
     </x:row>
@@ -3861,13 +3804,13 @@
       <x:c r="B95" s="36"/>
       <x:c r="C95" s="41"/>
       <x:c r="D95" s="35" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E95" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F95" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G95" s="12"/>
     </x:row>
@@ -3878,7 +3821,7 @@
       <x:c r="D96" s="35"/>
       <x:c r="E96" s="18"/>
       <x:c r="F96" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G96" s="12"/>
     </x:row>
@@ -3889,7 +3832,7 @@
       <x:c r="D97" s="35"/>
       <x:c r="E97" s="18"/>
       <x:c r="F97" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G97" s="12"/>
     </x:row>
@@ -3899,13 +3842,13 @@
       <x:c r="C98" s="41"/>
       <x:c r="D98" s="35"/>
       <x:c r="E98" s="18" t="s">
-        <x:v>235</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="F98" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G98" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:7" ht="15.75" customHeight="1">
@@ -3915,10 +3858,10 @@
       <x:c r="D99" s="35"/>
       <x:c r="E99" s="18"/>
       <x:c r="F99" s="7" t="s">
-        <x:v>203</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G99" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7" ht="15.75" customHeight="1">
@@ -3928,10 +3871,10 @@
       <x:c r="D100" s="35"/>
       <x:c r="E100" s="18"/>
       <x:c r="F100" s="7" t="s">
-        <x:v>209</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G100" s="7" t="s">
-        <x:v>149</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7" ht="15.75" customHeight="1">
@@ -3939,16 +3882,16 @@
       <x:c r="B101" s="36"/>
       <x:c r="C101" s="41"/>
       <x:c r="D101" s="14" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E101" s="15" t="s">
-        <x:v>129</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F101" s="15" t="s">
-        <x:v>26</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G101" s="15" t="s">
-        <x:v>78</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:7" ht="15.75" customHeight="1">
@@ -3956,13 +3899,13 @@
       <x:c r="B102" s="36"/>
       <x:c r="C102" s="42"/>
       <x:c r="D102" s="14" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E102" s="15" t="s">
-        <x:v>106</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F102" s="15" t="s">
-        <x:v>104</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G102" s="15"/>
     </x:row>
@@ -3970,16 +3913,16 @@
       <x:c r="A103" s="1"/>
       <x:c r="B103" s="36"/>
       <x:c r="C103" s="36" t="s">
-        <x:v>79</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D103" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E103" s="18" t="s">
         <x:v>118</x:v>
       </x:c>
       <x:c r="F103" s="7" t="s">
-        <x:v>147</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G103" s="7"/>
     </x:row>
@@ -3990,7 +3933,7 @@
       <x:c r="D104" s="35"/>
       <x:c r="E104" s="18"/>
       <x:c r="F104" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="G104" s="7"/>
     </x:row>
@@ -4000,10 +3943,10 @@
       <x:c r="C105" s="36"/>
       <x:c r="D105" s="35"/>
       <x:c r="E105" s="18" t="s">
-        <x:v>251</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F105" s="7" t="s">
-        <x:v>195</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G105" s="7"/>
     </x:row>
@@ -4014,7 +3957,7 @@
       <x:c r="D106" s="35"/>
       <x:c r="E106" s="18"/>
       <x:c r="F106" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G106" s="7"/>
     </x:row>
@@ -4023,13 +3966,13 @@
       <x:c r="B107" s="36"/>
       <x:c r="C107" s="36"/>
       <x:c r="D107" s="35" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E107" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F107" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G107" s="12"/>
     </x:row>
@@ -4040,7 +3983,7 @@
       <x:c r="D108" s="35"/>
       <x:c r="E108" s="18"/>
       <x:c r="F108" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G108" s="12"/>
     </x:row>
@@ -4051,7 +3994,7 @@
       <x:c r="D109" s="35"/>
       <x:c r="E109" s="18"/>
       <x:c r="F109" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G109" s="12"/>
     </x:row>
@@ -4061,13 +4004,13 @@
       <x:c r="C110" s="36"/>
       <x:c r="D110" s="35"/>
       <x:c r="E110" s="18" t="s">
-        <x:v>242</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F110" s="7" t="s">
-        <x:v>197</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G110" s="7" t="s">
-        <x:v>237</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:7" ht="15.75" customHeight="1">
@@ -4077,10 +4020,10 @@
       <x:c r="D111" s="35"/>
       <x:c r="E111" s="18"/>
       <x:c r="F111" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G111" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:7" ht="15.75" customHeight="1">
@@ -4088,16 +4031,16 @@
       <x:c r="B112" s="36"/>
       <x:c r="C112" s="36"/>
       <x:c r="D112" s="9" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E112" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F112" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G112" s="7" t="s">
-        <x:v>173</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:7" ht="15.75" customHeight="1">
@@ -4105,13 +4048,13 @@
       <x:c r="B113" s="36"/>
       <x:c r="C113" s="36"/>
       <x:c r="D113" s="9" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E113" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F113" s="7" t="s">
-        <x:v>185</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G113" s="7"/>
     </x:row>
@@ -4119,16 +4062,16 @@
       <x:c r="A114" s="1"/>
       <x:c r="B114" s="36"/>
       <x:c r="C114" s="36" t="s">
-        <x:v>208</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D114" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E114" s="18" t="s">
-        <x:v>117</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F114" s="7" t="s">
-        <x:v>139</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G114" s="7"/>
     </x:row>
@@ -4139,7 +4082,7 @@
       <x:c r="D115" s="35"/>
       <x:c r="E115" s="18"/>
       <x:c r="F115" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="G115" s="7"/>
     </x:row>
@@ -4149,10 +4092,10 @@
       <x:c r="C116" s="36"/>
       <x:c r="D116" s="35"/>
       <x:c r="E116" s="18" t="s">
-        <x:v>254</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F116" s="7" t="s">
-        <x:v>212</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G116" s="7"/>
     </x:row>
@@ -4163,7 +4106,7 @@
       <x:c r="D117" s="35"/>
       <x:c r="E117" s="18"/>
       <x:c r="F117" s="7" t="s">
-        <x:v>154</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G117" s="7"/>
     </x:row>
@@ -4172,13 +4115,13 @@
       <x:c r="B118" s="36"/>
       <x:c r="C118" s="36"/>
       <x:c r="D118" s="35" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E118" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F118" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G118" s="12"/>
     </x:row>
@@ -4189,7 +4132,7 @@
       <x:c r="D119" s="35"/>
       <x:c r="E119" s="18"/>
       <x:c r="F119" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G119" s="12"/>
     </x:row>
@@ -4200,7 +4143,7 @@
       <x:c r="D120" s="35"/>
       <x:c r="E120" s="18"/>
       <x:c r="F120" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G120" s="12"/>
     </x:row>
@@ -4210,13 +4153,13 @@
       <x:c r="C121" s="36"/>
       <x:c r="D121" s="35"/>
       <x:c r="E121" s="18" t="s">
-        <x:v>119</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F121" s="7" t="s">
-        <x:v>167</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G121" s="7" t="s">
-        <x:v>264</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:7" ht="15.75" customHeight="1">
@@ -4226,10 +4169,10 @@
       <x:c r="D122" s="35"/>
       <x:c r="E122" s="18"/>
       <x:c r="F122" s="7" t="s">
-        <x:v>202</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G122" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:7" ht="15.75" customHeight="1">
@@ -4239,10 +4182,10 @@
       <x:c r="D123" s="35"/>
       <x:c r="E123" s="18"/>
       <x:c r="F123" s="7" t="s">
-        <x:v>152</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G123" s="7" t="s">
-        <x:v>265</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:7" ht="15.75" customHeight="1">
@@ -4250,16 +4193,16 @@
       <x:c r="B124" s="36"/>
       <x:c r="C124" s="36"/>
       <x:c r="D124" s="9" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E124" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F124" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G124" s="7" t="s">
-        <x:v>205</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:7" ht="15.75" customHeight="1">
@@ -4267,13 +4210,13 @@
       <x:c r="B125" s="36"/>
       <x:c r="C125" s="36"/>
       <x:c r="D125" s="9" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E125" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F125" s="7" t="s">
-        <x:v>213</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G125" s="7"/>
     </x:row>
@@ -4281,16 +4224,16 @@
       <x:c r="A126" s="1"/>
       <x:c r="B126" s="36"/>
       <x:c r="C126" s="36" t="s">
-        <x:v>132</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D126" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E126" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F126" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G126" s="7"/>
     </x:row>
@@ -4301,7 +4244,7 @@
       <x:c r="D127" s="35"/>
       <x:c r="E127" s="18"/>
       <x:c r="F127" s="7" t="s">
-        <x:v>241</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="G127" s="7"/>
     </x:row>
@@ -4311,10 +4254,10 @@
       <x:c r="C128" s="36"/>
       <x:c r="D128" s="35"/>
       <x:c r="E128" s="18" t="s">
-        <x:v>109</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F128" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G128" s="7"/>
     </x:row>
@@ -4325,7 +4268,7 @@
       <x:c r="D129" s="35"/>
       <x:c r="E129" s="18"/>
       <x:c r="F129" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G129" s="7"/>
     </x:row>
@@ -4334,13 +4277,13 @@
       <x:c r="B130" s="36"/>
       <x:c r="C130" s="36"/>
       <x:c r="D130" s="35" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E130" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F130" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G130" s="12"/>
     </x:row>
@@ -4351,7 +4294,7 @@
       <x:c r="D131" s="35"/>
       <x:c r="E131" s="18"/>
       <x:c r="F131" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G131" s="12"/>
     </x:row>
@@ -4362,7 +4305,7 @@
       <x:c r="D132" s="35"/>
       <x:c r="E132" s="18"/>
       <x:c r="F132" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G132" s="12"/>
     </x:row>
@@ -4372,13 +4315,13 @@
       <x:c r="C133" s="36"/>
       <x:c r="D133" s="35"/>
       <x:c r="E133" s="18" t="s">
-        <x:v>116</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F133" s="7" t="s">
-        <x:v>151</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G133" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:7" ht="15.75" customHeight="1">
@@ -4388,10 +4331,10 @@
       <x:c r="D134" s="35"/>
       <x:c r="E134" s="18"/>
       <x:c r="F134" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="G134" s="7" t="s">
-        <x:v>95</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:7" ht="15.75" customHeight="1">
@@ -4401,10 +4344,10 @@
       <x:c r="D135" s="35"/>
       <x:c r="E135" s="18"/>
       <x:c r="F135" s="7" t="s">
-        <x:v>250</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G135" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:7" ht="15.75" customHeight="1">
@@ -4412,16 +4355,16 @@
       <x:c r="B136" s="36"/>
       <x:c r="C136" s="36"/>
       <x:c r="D136" s="9" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E136" s="12" t="s">
-        <x:v>98</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F136" s="7" t="s">
-        <x:v>244</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="G136" s="7" t="s">
-        <x:v>140</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:7" ht="15.75" customHeight="1">
@@ -4429,13 +4372,13 @@
       <x:c r="B137" s="36"/>
       <x:c r="C137" s="36"/>
       <x:c r="D137" s="9" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E137" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F137" s="7" t="s">
-        <x:v>148</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G137" s="7"/>
     </x:row>
@@ -4443,16 +4386,16 @@
       <x:c r="A138" s="1"/>
       <x:c r="B138" s="36"/>
       <x:c r="C138" s="36" t="s">
-        <x:v>30</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D138" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E138" s="18" t="s">
-        <x:v>114</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F138" s="7" t="s">
-        <x:v>146</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G138" s="7"/>
     </x:row>
@@ -4463,7 +4406,7 @@
       <x:c r="D139" s="35"/>
       <x:c r="E139" s="18"/>
       <x:c r="F139" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G139" s="7"/>
     </x:row>
@@ -4473,10 +4416,10 @@
       <x:c r="C140" s="36"/>
       <x:c r="D140" s="35"/>
       <x:c r="E140" s="18" t="s">
-        <x:v>263</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F140" s="7" t="s">
-        <x:v>182</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G140" s="7"/>
     </x:row>
@@ -4487,7 +4430,7 @@
       <x:c r="D141" s="35"/>
       <x:c r="E141" s="18"/>
       <x:c r="F141" s="7" t="s">
-        <x:v>134</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G141" s="7"/>
     </x:row>
@@ -4496,13 +4439,13 @@
       <x:c r="B142" s="36"/>
       <x:c r="C142" s="36"/>
       <x:c r="D142" s="35" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E142" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F142" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G142" s="12"/>
     </x:row>
@@ -4513,7 +4456,7 @@
       <x:c r="D143" s="35"/>
       <x:c r="E143" s="18"/>
       <x:c r="F143" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G143" s="12"/>
     </x:row>
@@ -4524,7 +4467,7 @@
       <x:c r="D144" s="35"/>
       <x:c r="E144" s="18"/>
       <x:c r="F144" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G144" s="12"/>
     </x:row>
@@ -4534,13 +4477,13 @@
       <x:c r="C145" s="36"/>
       <x:c r="D145" s="35"/>
       <x:c r="E145" s="18" t="s">
-        <x:v>111</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F145" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G145" s="7" t="s">
-        <x:v>243</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:7" ht="15.75" customHeight="1">
@@ -4550,10 +4493,10 @@
       <x:c r="D146" s="35"/>
       <x:c r="E146" s="18"/>
       <x:c r="F146" s="7" t="s">
-        <x:v>85</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G146" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:7" ht="15.75" customHeight="1">
@@ -4561,16 +4504,16 @@
       <x:c r="B147" s="36"/>
       <x:c r="C147" s="36"/>
       <x:c r="D147" s="9" t="s">
-        <x:v>215</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E147" s="12" t="s">
-        <x:v>40</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F147" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="G147" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:7" ht="15.75" customHeight="1">
@@ -4578,13 +4521,13 @@
       <x:c r="B148" s="36"/>
       <x:c r="C148" s="36"/>
       <x:c r="D148" s="9" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E148" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F148" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="G148" s="7"/>
     </x:row>

--- a/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
@@ -16,282 +16,339 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="271">
   <x:si>
+    <x:t>com.puppy.client.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/main/memberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminLoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/room/roomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry/inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>admin/room/roomList</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ReservationServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reserve/reserveRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypagePetInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reserve/reserveDetaill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminSalesStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypageMyInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.room.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Admin</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>StatisticsService</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminSalesStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>매핑명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation.xml</x:t>
+  </x:si>
+  <x:si>
     <x:t>statistics.xml</x:t>
   </x:si>
   <x:si>
-    <x:t>reservation.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminSalesStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminLogin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminHeader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomVO</x:t>
+    <x:t>adminNotice.xml</x:t>
   </x:si>
   <x:si>
     <x:t>adminMember.xml</x:t>
   </x:si>
   <x:si>
-    <x:t>/admin/statistics/adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNotice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryCorrection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice/noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoinsert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry
- (문의게시판)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageroom.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeList</x:t>
+    <x:t>NoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/findId</x:t>
   </x:si>
   <x:si>
     <x:t>common
  (공용)</x:t>
   </x:si>
   <x:si>
+    <x:t>mypagePetinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage
+(마이 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveCalendar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+ (회원 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMain.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/findPw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member
+ (회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomList</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve"> 공용
 (common)</x:t>
   </x:si>
   <x:si>
-    <x:t>/login/findId</x:t>
+    <x:t>GuideDAOImpl</x:t>
   </x:si>
   <x:si>
     <x:t>mypageMyinfo</x:t>
   </x:si>
   <x:si>
-    <x:t>reserveCalendar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage
-(마이 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
- (회원 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMain.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideService</x:t>
-  </x:si>
-  <x:si>
     <x:t>reserveDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/findPw</x:t>
   </x:si>
   <x:si>
     <x:t>guide
  (이용안내)</x:t>
   </x:si>
   <x:si>
-    <x:t>MypageDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member
- (회원)</x:t>
+    <x:t>ExtraServiceVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageroom.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+(관리자 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAO</x:t>
   </x:si>
   <x:si>
     <x:t>InquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideController</x:t>
   </x:si>
   <x:si>
     <x:t>사용자
  (client)</x:t>
   </x:si>
   <x:si>
-    <x:t>/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAOImpl</x:t>
+    <x:t>GuideController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice
+(공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberDAOImpl</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">관리자
@@ -299,52 +356,325 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>ReservationVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
-(공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAO</x:t>
-  </x:si>
-  <x:si>
     <x:t>NoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
-(관리자 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAO</x:t>
   </x:si>
   <x:si>
     <x:t>notice
  (공지사항)</x:t>
   </x:si>
   <x:si>
-    <x:t>inquiryDetail</x:t>
+    <x:t>/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>room
+(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>애견공간관리)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>main
+(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>메인페이지)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.common.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminLogin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminHeader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageContentLayout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/reserve/payment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/notice/noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryCorrection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoinsert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageMyinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry
+ (문의게시판)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/room/roomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageReservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation
+ (예약)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberDelList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMainMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/member/join</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Form</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>inquiry
+ (</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>문의게시판)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>admin</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ContentLayout</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>MemberDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminAside</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guide.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joinForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/admin/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>main</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -375,8 +705,80 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>com.puppy.admin.statistics.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/template</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppyclient.guide.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/client</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/member</x:t>
+  </x:si>
+  <x:si>
     <x:r>
-      <x:t>admin</x:t>
+      <x:t>c</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -384,35 +786,7 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>ContentLayout</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>inquiry
- (</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>문의게시판)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/member/join</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Form</x:t>
+      <x:t>om.puppy.admin.room.controller</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -426,19 +800,6 @@
         <x:color rgb="ff000000"/>
       </x:rPr>
       <x:t>Detail</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>c</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>om.puppy.admin.room.controller</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -469,279 +830,55 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>com.puppy.client.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/client</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/template</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppyclient.guide.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveRoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminAside</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/admin/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>main</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>파일명</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>매핑명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageContentLayout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageReservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberDelList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservation
- (예약)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joinForm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage.xml</x:t>
+    <x:t>/admin</x:t>
   </x:si>
   <x:si>
     <x:t>payment</x:t>
   </x:si>
   <x:si>
+    <x:t>/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PetVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MVC 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mapper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReplyVO</x:t>
+  </x:si>
+  <x:si>
     <x:t>패키지명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mapper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PetVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MVC 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReplyVO</x:t>
   </x:si>
   <x:si>
     <x:t>/login</x:t>
@@ -761,6 +898,19 @@
   </x:si>
   <x:si>
     <x:r>
+      <x:t>/WEB-INF/views/admin/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>room</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
       <x:t>com.puppy</x:t>
     </x:r>
     <x:r>
@@ -773,29 +923,34 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>/WEB-INF/views/admin/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>room</x:t>
-    </x:r>
+    <x:t>/mypage/mypagepetInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypagepetInfoInsert</x:t>
   </x:si>
   <x:si>
     <x:t>/admin/member/memberList</x:t>
   </x:si>
   <x:si>
-    <x:t>/mypage/mypagepetInfoInsert</x:t>
-  </x:si>
-  <x:si>
     <x:t>AdminStatisticsServiceImpl</x:t>
   </x:si>
   <x:si>
-    <x:t>/mypage/mypagepetInfoUpdate</x:t>
+    <x:t>/WEB-INF/views/admin/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/mypage/mypageMyInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry/inquiryList</x:t>
   </x:si>
   <x:si>
     <x:t>/admin/main/reservationList</x:t>
@@ -804,13 +959,13 @@
     <x:t>com.puppy.client.notice.dao</x:t>
   </x:si>
   <x:si>
+    <x:t>com.puppy.client.member.dao</x:t>
+  </x:si>
+  <x:si>
     <x:t>adminMainReservationList</x:t>
   </x:si>
   <x:si>
-    <x:t>/mypage/mypageMyInfoUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.dao</x:t>
+    <x:t>com.puppy.client.mypage.dao</x:t>
   </x:si>
   <x:si>
     <x:t>/WEB-INF/views/admin/member</x:t>
@@ -819,207 +974,52 @@
     <x:t>/inquiry/inquiryCorrection</x:t>
   </x:si>
   <x:si>
-    <x:t>com.puppy.admin.main.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry/inquiryList</x:t>
+    <x:t>/WEB-INF/views/admin/main</x:t>
   </x:si>
   <x:si>
     <x:t>/mypage/mypageReservation</x:t>
   </x:si>
   <x:si>
-    <x:t>adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/main</x:t>
-  </x:si>
-  <x:si>
     <x:t>com.puppy.client.login.dao</x:t>
   </x:si>
   <x:si>
-    <x:t>/WEB-INF/views/admin/login</x:t>
+    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.dao</x:t>
   </x:si>
   <x:si>
     <x:t>AdminStatisticsController</x:t>
   </x:si>
   <x:si>
-    <x:t>com.puppy.admin.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.common.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeDetail</x:t>
-  </x:si>
-  <x:si>
     <x:t>com.puppy.admin.member.dao</x:t>
   </x:si>
   <x:si>
     <x:t>/reserve/reserveCalendar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>main
-(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>메인페이지)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>room
-(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>애견공간관리)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminLoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/main/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry/inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice/noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/reserveRoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypagePetInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/reserveDetaill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.room.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>admin/room/roomList</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>Admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>StatisticsService</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>ReservationController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminSalesStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypageMyInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login.xml</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2472,8 +2472,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:G832"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G53" activeCellId="0" sqref="G53:G57"/>
+    <x:sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H73" activeCellId="0" sqref="H73:H73"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2490,7 +2490,7 @@
     <x:row r="1" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="20" t="s">
-        <x:v>237</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C1" s="20"/>
       <x:c r="D1" s="20"/>
@@ -2510,40 +2510,40 @@
     <x:row r="3" spans="1:7" ht="24" customHeight="1">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="9" t="s">
-        <x:v>148</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>148</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>187</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F3" s="9" t="s">
-        <x:v>145</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G3" s="9" t="s">
-        <x:v>147</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="24" customHeight="1">
       <x:c r="A4" s="1"/>
       <x:c r="B4" s="29" t="s">
-        <x:v>87</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C4" s="26" t="s">
-        <x:v>83</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D4" s="24" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>234</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G4" s="18"/>
     </x:row>
@@ -2553,10 +2553,10 @@
       <x:c r="C5" s="25"/>
       <x:c r="D5" s="25"/>
       <x:c r="E5" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>140</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G5" s="19"/>
     </x:row>
@@ -2567,7 +2567,7 @@
       <x:c r="D6" s="25"/>
       <x:c r="E6" s="19"/>
       <x:c r="F6" s="7" t="s">
-        <x:v>85</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G6" s="19"/>
     </x:row>
@@ -2577,10 +2577,10 @@
       <x:c r="C7" s="25"/>
       <x:c r="D7" s="25"/>
       <x:c r="E7" s="18" t="s">
-        <x:v>126</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G7" s="19"/>
     </x:row>
@@ -2591,7 +2591,7 @@
       <x:c r="D8" s="25"/>
       <x:c r="E8" s="19"/>
       <x:c r="F8" s="7" t="s">
-        <x:v>153</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G8" s="19"/>
     </x:row>
@@ -2600,16 +2600,16 @@
       <x:c r="B9" s="30"/>
       <x:c r="C9" s="25"/>
       <x:c r="D9" s="24" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E9" s="18" t="s">
-        <x:v>138</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="F9" s="21" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G9" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="24" customHeight="1">
@@ -2626,16 +2626,16 @@
       <x:c r="B11" s="30"/>
       <x:c r="C11" s="25"/>
       <x:c r="D11" s="5" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>199</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="24" customHeight="1">
@@ -2643,13 +2643,13 @@
       <x:c r="B12" s="30"/>
       <x:c r="C12" s="25"/>
       <x:c r="D12" s="5" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
     </x:row>
@@ -2657,16 +2657,16 @@
       <x:c r="A13" s="1"/>
       <x:c r="B13" s="30"/>
       <x:c r="C13" s="36" t="s">
-        <x:v>71</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D13" s="35" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E13" s="18" t="s">
-        <x:v>225</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G13" s="18"/>
     </x:row>
@@ -2677,7 +2677,7 @@
       <x:c r="D14" s="35"/>
       <x:c r="E14" s="19"/>
       <x:c r="F14" s="7" t="s">
-        <x:v>73</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G14" s="18"/>
     </x:row>
@@ -2687,10 +2687,10 @@
       <x:c r="C15" s="36"/>
       <x:c r="D15" s="35"/>
       <x:c r="E15" s="18" t="s">
-        <x:v>116</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G15" s="18"/>
     </x:row>
@@ -2701,7 +2701,7 @@
       <x:c r="D16" s="35"/>
       <x:c r="E16" s="19"/>
       <x:c r="F16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G16" s="18"/>
     </x:row>
@@ -2710,16 +2710,16 @@
       <x:c r="B17" s="30"/>
       <x:c r="C17" s="36"/>
       <x:c r="D17" s="22" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E17" s="21" t="s">
-        <x:v>236</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>191</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="24" customHeight="1">
@@ -2729,10 +2729,10 @@
       <x:c r="D18" s="27"/>
       <x:c r="E18" s="28"/>
       <x:c r="F18" s="7" t="s">
-        <x:v>193</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7" ht="24" customHeight="1">
@@ -2742,10 +2742,10 @@
       <x:c r="D19" s="27"/>
       <x:c r="E19" s="28"/>
       <x:c r="F19" s="7" t="s">
-        <x:v>196</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" ht="24" customHeight="1">
@@ -2753,16 +2753,16 @@
       <x:c r="B20" s="30"/>
       <x:c r="C20" s="36"/>
       <x:c r="D20" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>203</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="24" customHeight="1">
@@ -2770,13 +2770,13 @@
       <x:c r="B21" s="30"/>
       <x:c r="C21" s="36"/>
       <x:c r="D21" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>270</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G21" s="7"/>
     </x:row>
@@ -2784,16 +2784,16 @@
       <x:c r="A22" s="1"/>
       <x:c r="B22" s="31"/>
       <x:c r="C22" s="37" t="s">
-        <x:v>68</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D22" s="35" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E22" s="21" t="s">
-        <x:v>220</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>182</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G22" s="7"/>
     </x:row>
@@ -2804,7 +2804,7 @@
       <x:c r="D23" s="35"/>
       <x:c r="E23" s="21"/>
       <x:c r="F23" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G23" s="7"/>
     </x:row>
@@ -2814,10 +2814,10 @@
       <x:c r="C24" s="37"/>
       <x:c r="D24" s="35"/>
       <x:c r="E24" s="21" t="s">
-        <x:v>119</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G24" s="7"/>
     </x:row>
@@ -2828,7 +2828,7 @@
       <x:c r="D25" s="35"/>
       <x:c r="E25" s="21"/>
       <x:c r="F25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G25" s="7"/>
     </x:row>
@@ -2837,16 +2837,16 @@
       <x:c r="B26" s="31"/>
       <x:c r="C26" s="37"/>
       <x:c r="D26" s="22" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E26" s="21" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="E26" s="21" t="s">
-        <x:v>132</x:v>
-      </x:c>
       <x:c r="F26" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
-        <x:v>222</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7" ht="15.75" customHeight="1">
@@ -2856,10 +2856,10 @@
       <x:c r="D27" s="22"/>
       <x:c r="E27" s="21"/>
       <x:c r="F27" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G27" s="7" t="s">
-        <x:v>268</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7" ht="15.75" customHeight="1">
@@ -2869,10 +2869,10 @@
       <x:c r="D28" s="22"/>
       <x:c r="E28" s="21"/>
       <x:c r="F28" s="7" t="s">
-        <x:v>149</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G28" s="7" t="s">
-        <x:v>214</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" ht="15.75" customHeight="1">
@@ -2882,10 +2882,10 @@
       <x:c r="D29" s="22"/>
       <x:c r="E29" s="21"/>
       <x:c r="F29" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G29" s="7" t="s">
-        <x:v>258</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7" ht="15.75" customHeight="1">
@@ -2895,10 +2895,10 @@
       <x:c r="D30" s="23"/>
       <x:c r="E30" s="21"/>
       <x:c r="F30" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G30" s="7" t="s">
-        <x:v>208</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7" ht="15.75" customHeight="1">
@@ -2908,10 +2908,10 @@
       <x:c r="D31" s="23"/>
       <x:c r="E31" s="21"/>
       <x:c r="F31" s="7" t="s">
-        <x:v>176</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G31" s="7" t="s">
-        <x:v>210</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" ht="15.75" customHeight="1">
@@ -2919,16 +2919,16 @@
       <x:c r="B32" s="31"/>
       <x:c r="C32" s="37"/>
       <x:c r="D32" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E32" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F32" s="7" t="s">
-        <x:v>159</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G32" s="7" t="s">
-        <x:v>188</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" ht="15.75" customHeight="1">
@@ -2936,13 +2936,13 @@
       <x:c r="B33" s="31"/>
       <x:c r="C33" s="37"/>
       <x:c r="D33" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E33" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F33" s="7" t="s">
-        <x:v>185</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G33" s="7"/>
     </x:row>
@@ -2953,13 +2953,13 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="D34" s="35" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E34" s="6" t="s">
-        <x:v>238</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F34" s="7" t="s">
-        <x:v>139</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G34" s="18"/>
     </x:row>
@@ -2969,10 +2969,10 @@
       <x:c r="C35" s="25"/>
       <x:c r="D35" s="25"/>
       <x:c r="E35" s="18" t="s">
-        <x:v>212</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="F35" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G35" s="19"/>
     </x:row>
@@ -2983,7 +2983,7 @@
       <x:c r="D36" s="25"/>
       <x:c r="E36" s="19"/>
       <x:c r="F36" s="7" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G36" s="19"/>
     </x:row>
@@ -2993,10 +2993,10 @@
       <x:c r="C37" s="25"/>
       <x:c r="D37" s="25"/>
       <x:c r="E37" s="18" t="s">
-        <x:v>131</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F37" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G37" s="19"/>
     </x:row>
@@ -3007,7 +3007,7 @@
       <x:c r="D38" s="25"/>
       <x:c r="E38" s="19"/>
       <x:c r="F38" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G38" s="19"/>
     </x:row>
@@ -3016,16 +3016,16 @@
       <x:c r="B39" s="32"/>
       <x:c r="C39" s="25"/>
       <x:c r="D39" s="35" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E39" s="18" t="s">
-        <x:v>134</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F39" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G39" s="7" t="s">
-        <x:v>254</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7" ht="15.75" customHeight="1">
@@ -3035,10 +3035,10 @@
       <x:c r="D40" s="25"/>
       <x:c r="E40" s="19"/>
       <x:c r="F40" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G40" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7" ht="15.75" customHeight="1">
@@ -3046,16 +3046,16 @@
       <x:c r="B41" s="32"/>
       <x:c r="C41" s="25"/>
       <x:c r="D41" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E41" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F41" s="7" t="s">
-        <x:v>167</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G41" s="7" t="s">
-        <x:v>194</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7" ht="15.75" customHeight="1">
@@ -3063,13 +3063,13 @@
       <x:c r="B42" s="32"/>
       <x:c r="C42" s="25"/>
       <x:c r="D42" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E42" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F42" s="7" t="s">
-        <x:v>269</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G42" s="7"/>
     </x:row>
@@ -3077,16 +3077,16 @@
       <x:c r="A43" s="1"/>
       <x:c r="B43" s="32"/>
       <x:c r="C43" s="36" t="s">
-        <x:v>50</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D43" s="35" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E43" s="10" t="s">
-        <x:v>219</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F43" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G43" s="18"/>
     </x:row>
@@ -3096,10 +3096,10 @@
       <x:c r="C44" s="25"/>
       <x:c r="D44" s="25"/>
       <x:c r="E44" s="18" t="s">
-        <x:v>115</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F44" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G44" s="19"/>
     </x:row>
@@ -3110,7 +3110,7 @@
       <x:c r="D45" s="25"/>
       <x:c r="E45" s="19"/>
       <x:c r="F45" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G45" s="19"/>
     </x:row>
@@ -3120,10 +3120,10 @@
       <x:c r="C46" s="25"/>
       <x:c r="D46" s="25"/>
       <x:c r="E46" s="18" t="s">
-        <x:v>29</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F46" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G46" s="19"/>
     </x:row>
@@ -3134,7 +3134,7 @@
       <x:c r="D47" s="25"/>
       <x:c r="E47" s="19"/>
       <x:c r="F47" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G47" s="19"/>
     </x:row>
@@ -3143,16 +3143,16 @@
       <x:c r="B48" s="32"/>
       <x:c r="C48" s="25"/>
       <x:c r="D48" s="35" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E48" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F48" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G48" s="7" t="s">
-        <x:v>244</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7" ht="15.75" customHeight="1">
@@ -3162,10 +3162,10 @@
       <x:c r="D49" s="25"/>
       <x:c r="E49" s="19"/>
       <x:c r="F49" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G49" s="7" t="s">
-        <x:v>217</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" ht="15.75" customHeight="1">
@@ -3175,10 +3175,10 @@
       <x:c r="D50" s="25"/>
       <x:c r="E50" s="19"/>
       <x:c r="F50" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G50" s="7" t="s">
-        <x:v>251</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7" ht="15.75" customHeight="1">
@@ -3186,16 +3186,16 @@
       <x:c r="B51" s="32"/>
       <x:c r="C51" s="25"/>
       <x:c r="D51" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E51" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F51" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G51" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7" ht="15.75" customHeight="1">
@@ -3203,13 +3203,13 @@
       <x:c r="B52" s="32"/>
       <x:c r="C52" s="25"/>
       <x:c r="D52" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E52" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F52" s="7" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G52" s="7"/>
     </x:row>
@@ -3217,16 +3217,16 @@
       <x:c r="A53" s="1"/>
       <x:c r="B53" s="33"/>
       <x:c r="C53" s="37" t="s">
-        <x:v>171</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D53" s="35" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E53" s="6" t="s">
-        <x:v>117</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F53" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G53" s="18"/>
     </x:row>
@@ -3236,10 +3236,10 @@
       <x:c r="C54" s="37"/>
       <x:c r="D54" s="19"/>
       <x:c r="E54" s="18" t="s">
-        <x:v>28</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F54" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G54" s="19"/>
     </x:row>
@@ -3250,7 +3250,7 @@
       <x:c r="D55" s="19"/>
       <x:c r="E55" s="19"/>
       <x:c r="F55" s="7" t="s">
-        <x:v>150</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G55" s="19"/>
     </x:row>
@@ -3260,10 +3260,10 @@
       <x:c r="C56" s="37"/>
       <x:c r="D56" s="19"/>
       <x:c r="E56" s="18" t="s">
-        <x:v>3</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F56" s="7" t="s">
-        <x:v>168</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G56" s="19"/>
     </x:row>
@@ -3274,7 +3274,7 @@
       <x:c r="D57" s="19"/>
       <x:c r="E57" s="19"/>
       <x:c r="F57" s="7" t="s">
-        <x:v>252</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G57" s="19"/>
     </x:row>
@@ -3283,16 +3283,16 @@
       <x:c r="B58" s="33"/>
       <x:c r="C58" s="37"/>
       <x:c r="D58" s="22" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E58" s="21" t="s">
-        <x:v>133</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F58" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G58" s="7" t="s">
-        <x:v>232</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:7" ht="15.75" customHeight="1">
@@ -3302,10 +3302,10 @@
       <x:c r="D59" s="28"/>
       <x:c r="E59" s="28"/>
       <x:c r="F59" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G59" s="7" t="s">
-        <x:v>256</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:7" ht="15.75" customHeight="1">
@@ -3315,10 +3315,10 @@
       <x:c r="D60" s="28"/>
       <x:c r="E60" s="28"/>
       <x:c r="F60" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G60" s="7" t="s">
-        <x:v>260</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:7" ht="15.75" customHeight="1">
@@ -3328,10 +3328,10 @@
       <x:c r="D61" s="38"/>
       <x:c r="E61" s="38"/>
       <x:c r="F61" s="7" t="s">
-        <x:v>186</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G61" s="7" t="s">
-        <x:v>155</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7" ht="15.75" customHeight="1">
@@ -3339,32 +3339,32 @@
       <x:c r="B62" s="33"/>
       <x:c r="C62" s="37"/>
       <x:c r="D62" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E62" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F62" s="7" t="s">
-        <x:v>265</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G62" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A63" s="1"/>
       <x:c r="B63" s="33"/>
       <x:c r="C63" s="38" t="s">
-        <x:v>50</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D63" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E63" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F63" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G63" s="7"/>
     </x:row>
@@ -3375,13 +3375,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D64" s="35" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E64" s="18" t="s">
-        <x:v>240</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F64" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G64" s="18"/>
     </x:row>
@@ -3392,7 +3392,7 @@
       <x:c r="D65" s="35"/>
       <x:c r="E65" s="19"/>
       <x:c r="F65" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G65" s="18"/>
     </x:row>
@@ -3402,10 +3402,10 @@
       <x:c r="C66" s="36"/>
       <x:c r="D66" s="35"/>
       <x:c r="E66" s="18" t="s">
-        <x:v>135</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F66" s="7" t="s">
-        <x:v>75</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G66" s="18"/>
     </x:row>
@@ -3416,7 +3416,7 @@
       <x:c r="D67" s="35"/>
       <x:c r="E67" s="19"/>
       <x:c r="F67" s="7" t="s">
-        <x:v>173</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G67" s="18"/>
     </x:row>
@@ -3425,16 +3425,16 @@
       <x:c r="B68" s="33"/>
       <x:c r="C68" s="36"/>
       <x:c r="D68" s="22" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E68" s="21" t="s">
-        <x:v>235</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F68" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G68" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7" ht="15.75" customHeight="1">
@@ -3444,10 +3444,10 @@
       <x:c r="D69" s="22"/>
       <x:c r="E69" s="21"/>
       <x:c r="F69" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G69" s="7" t="s">
-        <x:v>177</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:7" ht="15.75" customHeight="1">
@@ -3455,16 +3455,16 @@
       <x:c r="B70" s="33"/>
       <x:c r="C70" s="36"/>
       <x:c r="D70" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E70" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F70" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G70" s="7" t="s">
-        <x:v>197</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:7" ht="15.75" customHeight="1">
@@ -3472,32 +3472,32 @@
       <x:c r="B71" s="34"/>
       <x:c r="C71" s="36"/>
       <x:c r="D71" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E71" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F71" s="7" t="s">
-        <x:v>179</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G71" s="7"/>
     </x:row>
     <x:row r="72" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A72" s="1"/>
       <x:c r="B72" s="37" t="s">
-        <x:v>62</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C72" s="37" t="s">
-        <x:v>61</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D72" s="22" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E72" s="21" t="s">
-        <x:v>229</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F72" s="7" t="s">
-        <x:v>200</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G72" s="8"/>
     </x:row>
@@ -3508,7 +3508,7 @@
       <x:c r="D73" s="23"/>
       <x:c r="E73" s="39"/>
       <x:c r="F73" s="7" t="s">
-        <x:v>202</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="G73" s="8"/>
     </x:row>
@@ -3519,29 +3519,29 @@
       <x:c r="D74" s="23"/>
       <x:c r="E74" s="39"/>
       <x:c r="F74" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G74" s="8"/>
     </x:row>
     <x:row r="75" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A75" s="1"/>
       <x:c r="B75" s="36" t="s">
-        <x:v>90</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C75" s="36" t="s">
-        <x:v>102</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D75" s="35" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E75" s="7" t="s">
-        <x:v>226</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F75" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G75" s="7" t="s">
-        <x:v>94</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:7" ht="15.75" customHeight="1">
@@ -3550,10 +3550,10 @@
       <x:c r="C76" s="36"/>
       <x:c r="D76" s="35"/>
       <x:c r="E76" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F76" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G76" s="12"/>
     </x:row>
@@ -3564,7 +3564,7 @@
       <x:c r="D77" s="35"/>
       <x:c r="E77" s="18"/>
       <x:c r="F77" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G77" s="12"/>
     </x:row>
@@ -3573,32 +3573,32 @@
       <x:c r="B78" s="36"/>
       <x:c r="C78" s="36"/>
       <x:c r="D78" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E78" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F78" s="7" t="s">
-        <x:v>245</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G78" s="7" t="s">
-        <x:v>192</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A79" s="1"/>
       <x:c r="B79" s="36"/>
       <x:c r="C79" s="36" t="s">
-        <x:v>241</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D79" s="35" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E79" s="18" t="s">
-        <x:v>122</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F79" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G79" s="7"/>
     </x:row>
@@ -3609,7 +3609,7 @@
       <x:c r="D80" s="35"/>
       <x:c r="E80" s="18"/>
       <x:c r="F80" s="7" t="s">
-        <x:v>255</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G80" s="7"/>
     </x:row>
@@ -3619,10 +3619,10 @@
       <x:c r="C81" s="36"/>
       <x:c r="D81" s="35"/>
       <x:c r="E81" s="18" t="s">
-        <x:v>218</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F81" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G81" s="7"/>
     </x:row>
@@ -3633,7 +3633,7 @@
       <x:c r="D82" s="35"/>
       <x:c r="E82" s="18"/>
       <x:c r="F82" s="7" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G82" s="7"/>
     </x:row>
@@ -3642,13 +3642,13 @@
       <x:c r="B83" s="36"/>
       <x:c r="C83" s="36"/>
       <x:c r="D83" s="35" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E83" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F83" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G83" s="12"/>
     </x:row>
@@ -3659,7 +3659,7 @@
       <x:c r="D84" s="35"/>
       <x:c r="E84" s="18"/>
       <x:c r="F84" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G84" s="12"/>
     </x:row>
@@ -3670,7 +3670,7 @@
       <x:c r="D85" s="35"/>
       <x:c r="E85" s="18"/>
       <x:c r="F85" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G85" s="12"/>
     </x:row>
@@ -3680,13 +3680,13 @@
       <x:c r="C86" s="36"/>
       <x:c r="D86" s="35"/>
       <x:c r="E86" s="18" t="s">
-        <x:v>224</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="F86" s="7" t="s">
-        <x:v>213</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="G86" s="7" t="s">
-        <x:v>211</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:7" ht="15.75" customHeight="1">
@@ -3696,10 +3696,10 @@
       <x:c r="D87" s="35"/>
       <x:c r="E87" s="18"/>
       <x:c r="F87" s="7" t="s">
-        <x:v>174</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G87" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:7" ht="15.75" customHeight="1">
@@ -3707,16 +3707,16 @@
       <x:c r="B88" s="36"/>
       <x:c r="C88" s="36"/>
       <x:c r="D88" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E88" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F88" s="13" t="s">
-        <x:v>204</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G88" s="12" t="s">
-        <x:v>144</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:7" ht="15.75" customHeight="1">
@@ -3724,13 +3724,13 @@
       <x:c r="B89" s="36"/>
       <x:c r="C89" s="36"/>
       <x:c r="D89" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E89" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F89" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G89" s="8"/>
     </x:row>
@@ -3738,16 +3738,16 @@
       <x:c r="A90" s="1"/>
       <x:c r="B90" s="36"/>
       <x:c r="C90" s="40" t="s">
-        <x:v>242</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D90" s="43" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E90" s="16" t="s">
-        <x:v>261</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F90" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G90" s="17"/>
     </x:row>
@@ -3757,10 +3757,10 @@
       <x:c r="C91" s="41"/>
       <x:c r="D91" s="44"/>
       <x:c r="E91" s="18" t="s">
-        <x:v>114</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F91" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G91" s="7"/>
     </x:row>
@@ -3771,7 +3771,7 @@
       <x:c r="D92" s="44"/>
       <x:c r="E92" s="18"/>
       <x:c r="F92" s="7" t="s">
-        <x:v>151</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G92" s="7"/>
     </x:row>
@@ -3781,10 +3781,10 @@
       <x:c r="C93" s="41"/>
       <x:c r="D93" s="44"/>
       <x:c r="E93" s="18" t="s">
-        <x:v>205</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F93" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G93" s="7"/>
     </x:row>
@@ -3795,7 +3795,7 @@
       <x:c r="D94" s="45"/>
       <x:c r="E94" s="18"/>
       <x:c r="F94" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G94" s="7"/>
     </x:row>
@@ -3804,13 +3804,13 @@
       <x:c r="B95" s="36"/>
       <x:c r="C95" s="41"/>
       <x:c r="D95" s="35" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E95" s="18" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="F95" s="12" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="F95" s="12" t="s">
-        <x:v>154</x:v>
       </x:c>
       <x:c r="G95" s="12"/>
     </x:row>
@@ -3821,7 +3821,7 @@
       <x:c r="D96" s="35"/>
       <x:c r="E96" s="18"/>
       <x:c r="F96" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G96" s="12"/>
     </x:row>
@@ -3832,7 +3832,7 @@
       <x:c r="D97" s="35"/>
       <x:c r="E97" s="18"/>
       <x:c r="F97" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G97" s="12"/>
     </x:row>
@@ -3842,13 +3842,13 @@
       <x:c r="C98" s="41"/>
       <x:c r="D98" s="35"/>
       <x:c r="E98" s="18" t="s">
-        <x:v>206</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F98" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G98" s="7" t="s">
-        <x:v>263</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:7" ht="15.75" customHeight="1">
@@ -3858,10 +3858,10 @@
       <x:c r="D99" s="35"/>
       <x:c r="E99" s="18"/>
       <x:c r="F99" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G99" s="7" t="s">
-        <x:v>249</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7" ht="15.75" customHeight="1">
@@ -3871,10 +3871,10 @@
       <x:c r="D100" s="35"/>
       <x:c r="E100" s="18"/>
       <x:c r="F100" s="7" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G100" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7" ht="15.75" customHeight="1">
@@ -3882,16 +3882,16 @@
       <x:c r="B101" s="36"/>
       <x:c r="C101" s="41"/>
       <x:c r="D101" s="14" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E101" s="15" t="s">
-        <x:v>112</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F101" s="15" t="s">
-        <x:v>162</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G101" s="15" t="s">
-        <x:v>106</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:7" ht="15.75" customHeight="1">
@@ -3899,13 +3899,13 @@
       <x:c r="B102" s="36"/>
       <x:c r="C102" s="42"/>
       <x:c r="D102" s="14" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E102" s="15" t="s">
-        <x:v>123</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F102" s="15" t="s">
-        <x:v>57</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G102" s="15"/>
     </x:row>
@@ -3913,16 +3913,16 @@
       <x:c r="A103" s="1"/>
       <x:c r="B103" s="36"/>
       <x:c r="C103" s="36" t="s">
-        <x:v>107</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D103" s="35" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E103" s="18" t="s">
-        <x:v>118</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F103" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G103" s="7"/>
     </x:row>
@@ -3933,7 +3933,7 @@
       <x:c r="D104" s="35"/>
       <x:c r="E104" s="18"/>
       <x:c r="F104" s="7" t="s">
-        <x:v>266</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G104" s="7"/>
     </x:row>
@@ -3943,10 +3943,10 @@
       <x:c r="C105" s="36"/>
       <x:c r="D105" s="35"/>
       <x:c r="E105" s="18" t="s">
-        <x:v>231</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F105" s="7" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G105" s="7"/>
     </x:row>
@@ -3957,7 +3957,7 @@
       <x:c r="D106" s="35"/>
       <x:c r="E106" s="18"/>
       <x:c r="F106" s="7" t="s">
-        <x:v>157</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G106" s="7"/>
     </x:row>
@@ -3966,13 +3966,13 @@
       <x:c r="B107" s="36"/>
       <x:c r="C107" s="36"/>
       <x:c r="D107" s="35" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E107" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F107" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G107" s="12"/>
     </x:row>
@@ -3983,7 +3983,7 @@
       <x:c r="D108" s="35"/>
       <x:c r="E108" s="18"/>
       <x:c r="F108" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G108" s="12"/>
     </x:row>
@@ -3994,7 +3994,7 @@
       <x:c r="D109" s="35"/>
       <x:c r="E109" s="18"/>
       <x:c r="F109" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G109" s="12"/>
     </x:row>
@@ -4004,13 +4004,13 @@
       <x:c r="C110" s="36"/>
       <x:c r="D110" s="35"/>
       <x:c r="E110" s="18" t="s">
-        <x:v>216</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="F110" s="7" t="s">
-        <x:v>77</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G110" s="7" t="s">
-        <x:v>207</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:7" ht="15.75" customHeight="1">
@@ -4020,10 +4020,10 @@
       <x:c r="D111" s="35"/>
       <x:c r="E111" s="18"/>
       <x:c r="F111" s="7" t="s">
-        <x:v>170</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G111" s="7" t="s">
-        <x:v>146</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:7" ht="15.75" customHeight="1">
@@ -4031,16 +4031,16 @@
       <x:c r="B112" s="36"/>
       <x:c r="C112" s="36"/>
       <x:c r="D112" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E112" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F112" s="7" t="s">
-        <x:v>247</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G112" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:7" ht="15.75" customHeight="1">
@@ -4048,13 +4048,13 @@
       <x:c r="B113" s="36"/>
       <x:c r="C113" s="36"/>
       <x:c r="D113" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E113" s="12" t="s">
-        <x:v>123</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F113" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G113" s="7"/>
     </x:row>
@@ -4062,16 +4062,16 @@
       <x:c r="A114" s="1"/>
       <x:c r="B114" s="36"/>
       <x:c r="C114" s="36" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D114" s="35" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E114" s="18" t="s">
-        <x:v>137</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F114" s="7" t="s">
-        <x:v>158</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G114" s="7"/>
     </x:row>
@@ -4082,7 +4082,7 @@
       <x:c r="D115" s="35"/>
       <x:c r="E115" s="18"/>
       <x:c r="F115" s="7" t="s">
-        <x:v>257</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G115" s="7"/>
     </x:row>
@@ -4092,10 +4092,10 @@
       <x:c r="C116" s="36"/>
       <x:c r="D116" s="35"/>
       <x:c r="E116" s="18" t="s">
-        <x:v>228</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F116" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G116" s="7"/>
     </x:row>
@@ -4106,7 +4106,7 @@
       <x:c r="D117" s="35"/>
       <x:c r="E117" s="18"/>
       <x:c r="F117" s="7" t="s">
-        <x:v>178</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G117" s="7"/>
     </x:row>
@@ -4115,13 +4115,13 @@
       <x:c r="B118" s="36"/>
       <x:c r="C118" s="36"/>
       <x:c r="D118" s="35" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E118" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F118" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G118" s="12"/>
     </x:row>
@@ -4132,7 +4132,7 @@
       <x:c r="D119" s="35"/>
       <x:c r="E119" s="18"/>
       <x:c r="F119" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G119" s="12"/>
     </x:row>
@@ -4143,7 +4143,7 @@
       <x:c r="D120" s="35"/>
       <x:c r="E120" s="18"/>
       <x:c r="F120" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G120" s="12"/>
     </x:row>
@@ -4153,13 +4153,13 @@
       <x:c r="C121" s="36"/>
       <x:c r="D121" s="35"/>
       <x:c r="E121" s="18" t="s">
-        <x:v>128</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F121" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G121" s="7" t="s">
-        <x:v>233</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:7" ht="15.75" customHeight="1">
@@ -4169,10 +4169,10 @@
       <x:c r="D122" s="35"/>
       <x:c r="E122" s="18"/>
       <x:c r="F122" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G122" s="7" t="s">
-        <x:v>259</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:7" ht="15.75" customHeight="1">
@@ -4182,10 +4182,10 @@
       <x:c r="D123" s="35"/>
       <x:c r="E123" s="18"/>
       <x:c r="F123" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G123" s="7" t="s">
-        <x:v>230</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:7" ht="15.75" customHeight="1">
@@ -4193,16 +4193,16 @@
       <x:c r="B124" s="36"/>
       <x:c r="C124" s="36"/>
       <x:c r="D124" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E124" s="12" t="s">
-        <x:v>31</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F124" s="7" t="s">
-        <x:v>253</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G124" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:7" ht="15.75" customHeight="1">
@@ -4210,13 +4210,13 @@
       <x:c r="B125" s="36"/>
       <x:c r="C125" s="36"/>
       <x:c r="D125" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E125" s="12" t="s">
-        <x:v>123</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F125" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G125" s="7"/>
     </x:row>
@@ -4224,16 +4224,16 @@
       <x:c r="A126" s="1"/>
       <x:c r="B126" s="36"/>
       <x:c r="C126" s="36" t="s">
-        <x:v>113</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D126" s="35" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E126" s="18" t="s">
-        <x:v>26</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F126" s="7" t="s">
-        <x:v>264</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G126" s="7"/>
     </x:row>
@@ -4244,7 +4244,7 @@
       <x:c r="D127" s="35"/>
       <x:c r="E127" s="18"/>
       <x:c r="F127" s="7" t="s">
-        <x:v>209</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="G127" s="7"/>
     </x:row>
@@ -4254,10 +4254,10 @@
       <x:c r="C128" s="36"/>
       <x:c r="D128" s="35"/>
       <x:c r="E128" s="18" t="s">
-        <x:v>120</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F128" s="7" t="s">
-        <x:v>172</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G128" s="7"/>
     </x:row>
@@ -4268,7 +4268,7 @@
       <x:c r="D129" s="35"/>
       <x:c r="E129" s="18"/>
       <x:c r="F129" s="7" t="s">
-        <x:v>262</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G129" s="7"/>
     </x:row>
@@ -4277,13 +4277,13 @@
       <x:c r="B130" s="36"/>
       <x:c r="C130" s="36"/>
       <x:c r="D130" s="35" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E130" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F130" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G130" s="12"/>
     </x:row>
@@ -4294,7 +4294,7 @@
       <x:c r="D131" s="35"/>
       <x:c r="E131" s="18"/>
       <x:c r="F131" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G131" s="12"/>
     </x:row>
@@ -4305,7 +4305,7 @@
       <x:c r="D132" s="35"/>
       <x:c r="E132" s="18"/>
       <x:c r="F132" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G132" s="12"/>
     </x:row>
@@ -4315,13 +4315,13 @@
       <x:c r="C133" s="36"/>
       <x:c r="D133" s="35"/>
       <x:c r="E133" s="18" t="s">
-        <x:v>130</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F133" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G133" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:7" ht="15.75" customHeight="1">
@@ -4331,10 +4331,10 @@
       <x:c r="D134" s="35"/>
       <x:c r="E134" s="18"/>
       <x:c r="F134" s="7" t="s">
-        <x:v>267</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G134" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:7" ht="15.75" customHeight="1">
@@ -4344,10 +4344,10 @@
       <x:c r="D135" s="35"/>
       <x:c r="E135" s="18"/>
       <x:c r="F135" s="7" t="s">
-        <x:v>223</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="G135" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:7" ht="15.75" customHeight="1">
@@ -4355,16 +4355,16 @@
       <x:c r="B136" s="36"/>
       <x:c r="C136" s="36"/>
       <x:c r="D136" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E136" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F136" s="7" t="s">
-        <x:v>227</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="G136" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:7" ht="15.75" customHeight="1">
@@ -4372,13 +4372,13 @@
       <x:c r="B137" s="36"/>
       <x:c r="C137" s="36"/>
       <x:c r="D137" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E137" s="12" t="s">
-        <x:v>123</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F137" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G137" s="7"/>
     </x:row>
@@ -4386,16 +4386,16 @@
       <x:c r="A138" s="1"/>
       <x:c r="B138" s="36"/>
       <x:c r="C138" s="36" t="s">
-        <x:v>109</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D138" s="35" t="s">
-        <x:v>190</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E138" s="18" t="s">
-        <x:v>127</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="F138" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G138" s="7"/>
     </x:row>
@@ -4406,7 +4406,7 @@
       <x:c r="D139" s="35"/>
       <x:c r="E139" s="18"/>
       <x:c r="F139" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G139" s="7"/>
     </x:row>
@@ -4416,10 +4416,10 @@
       <x:c r="C140" s="36"/>
       <x:c r="D140" s="35"/>
       <x:c r="E140" s="18" t="s">
-        <x:v>239</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F140" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G140" s="7"/>
     </x:row>
@@ -4430,7 +4430,7 @@
       <x:c r="D141" s="35"/>
       <x:c r="E141" s="18"/>
       <x:c r="F141" s="7" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="G141" s="7"/>
     </x:row>
@@ -4439,13 +4439,13 @@
       <x:c r="B142" s="36"/>
       <x:c r="C142" s="36"/>
       <x:c r="D142" s="35" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E142" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F142" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G142" s="12"/>
     </x:row>
@@ -4456,7 +4456,7 @@
       <x:c r="D143" s="35"/>
       <x:c r="E143" s="18"/>
       <x:c r="F143" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G143" s="12"/>
     </x:row>
@@ -4467,7 +4467,7 @@
       <x:c r="D144" s="35"/>
       <x:c r="E144" s="18"/>
       <x:c r="F144" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G144" s="12"/>
     </x:row>
@@ -4477,13 +4477,13 @@
       <x:c r="C145" s="36"/>
       <x:c r="D145" s="35"/>
       <x:c r="E145" s="18" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="F145" s="7" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="F145" s="7" t="s">
-        <x:v>161</x:v>
-      </x:c>
       <x:c r="G145" s="7" t="s">
-        <x:v>221</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:7" ht="15.75" customHeight="1">
@@ -4493,10 +4493,10 @@
       <x:c r="D146" s="35"/>
       <x:c r="E146" s="18"/>
       <x:c r="F146" s="7" t="s">
-        <x:v>152</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G146" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:7" ht="15.75" customHeight="1">
@@ -4504,16 +4504,16 @@
       <x:c r="B147" s="36"/>
       <x:c r="C147" s="36"/>
       <x:c r="D147" s="9" t="s">
-        <x:v>195</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E147" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F147" s="7" t="s">
-        <x:v>250</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G147" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:7" ht="15.75" customHeight="1">
@@ -4521,13 +4521,13 @@
       <x:c r="B148" s="36"/>
       <x:c r="C148" s="36"/>
       <x:c r="D148" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E148" s="12" t="s">
-        <x:v>123</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F148" s="7" t="s">
-        <x:v>243</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G148" s="7"/>
     </x:row>

--- a/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
@@ -16,74 +16,32 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="271">
   <x:si>
-    <x:t>com.puppy.client.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/main/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminLoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry/inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberController</x:t>
+    <x:t>/client/login/findPw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login/findId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypageReservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypagepetInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypagepetInfoInsert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypageMyInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/payment</x:t>
   </x:si>
   <x:si>
     <x:r>
-      <x:t>/</x:t>
+      <x:t>admin</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -91,93 +49,47 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>admin/room/roomList</x:t>
+      <x:t>ContentLayout</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>ReservationServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/reserveRoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypagePetInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/reserveDetaill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminSalesStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypageMyInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice/noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.room.vo</x:t>
-  </x:si>
-  <x:si>
     <x:r>
-      <x:t>Admin</x:t>
+      <x:t>inquiry
+ (</x:t>
     </x:r>
     <x:r>
       <x:rPr>
         <x:rFont val="맑은 고딕"/>
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
+        <x:b val="1"/>
       </x:rPr>
-      <x:t>StatisticsService</x:t>
+      <x:t>문의게시판)</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>com.puppy.client.reservation.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminSalesStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>매핑명</x:t>
+    <x:t>/admin/statistics/adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry/inquiryCorrection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypagePetInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry/inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reserveDetaill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMember.xml</x:t>
   </x:si>
   <x:si>
     <x:t>reservation.xml</x:t>
@@ -189,163 +101,103 @@
     <x:t>adminNotice.xml</x:t>
   </x:si>
   <x:si>
-    <x:t>adminMember.xml</x:t>
+    <x:t>reserveCalendar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+ (회원 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMain.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAOImpl</x:t>
   </x:si>
   <x:si>
     <x:t>NoticeService</x:t>
   </x:si>
   <x:si>
-    <x:t>/login/findId</x:t>
+    <x:t>mypagePetinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage
+(마이 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member
+ (회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAO</x:t>
   </x:si>
   <x:si>
     <x:t>common
  (공용)</x:t>
   </x:si>
   <x:si>
-    <x:t>mypagePetinfo</x:t>
-  </x:si>
-  <x:si>
     <x:t>MypageDAOImpl</x:t>
   </x:si>
   <x:si>
-    <x:t>CageRoomDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage
-(마이 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveCalendar</x:t>
-  </x:si>
-  <x:si>
     <x:t>AdminInquiryDAO</x:t>
   </x:si>
   <x:si>
-    <x:t>login
- (회원 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMain.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login/findPw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member
- (회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomList</x:t>
+    <x:t>ReservationVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice
+ (공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideController</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> 공용
 (common)</x:t>
   </x:si>
   <x:si>
-    <x:t>GuideDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide
- (이용안내)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageroom.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
-(관리자 로그인)</x:t>
-  </x:si>
-  <x:si>
     <x:t>AdminNoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자
- (client)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
-(공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberService</x:t>
   </x:si>
   <x:si>
     <x:t>MemberDAOImpl</x:t>
@@ -356,14 +208,77 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t>mypageMyinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageroom.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainDAO</x:t>
+  </x:si>
+  <x:si>
     <x:t>NoticeDAOImpl</x:t>
   </x:si>
   <x:si>
+    <x:t>guide
+ (이용안내)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+(관리자 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자
+ (client)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginService</x:t>
+  </x:si>
+  <x:si>
     <x:t>notice
- (공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice</x:t>
+(공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>main
+(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>메인페이지)</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -381,9 +296,108 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>/admin/statistics/adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminSalesStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reserveCalendar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberDelList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMainMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/member</x:t>
+  </x:si>
+  <x:si>
     <x:r>
-      <x:t>main
-(</x:t>
+      <x:t>c</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>om.puppy.admin.room.controller</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>statistics                (</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -392,197 +406,12 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>메인페이지)</x:t>
+      <x:t>통계)</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>com.puppy.common.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminLogin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminHeader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageContentLayout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice/noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryCorrection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoinsert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry
- (문의게시판)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageReservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservation
- (예약)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberDelList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAOImpl</x:t>
-  </x:si>
-  <x:si>
     <x:r>
-      <x:t>/member/join</x:t>
+      <x:t>com.</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -590,27 +419,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>Form</x:t>
+      <x:t>puppy.admin.room.service</x:t>
     </x:r>
   </x:si>
   <x:si>
     <x:r>
-      <x:t>inquiry
- (</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>문의게시판)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>admin</x:t>
+      <x:t>/admin/inquiry/inquiry</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -618,50 +432,280 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>ContentLayout</x:t>
+      <x:t>Detail</x:t>
     </x:r>
   </x:si>
   <x:si>
+    <x:t>com.puppy.client.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppyclient.guide.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/client</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/template</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guide.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joinForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminAside</x:t>
+  </x:si>
+  <x:si>
     <x:t>MemberDAO</x:t>
   </x:si>
   <x:si>
+    <x:t>NoticeVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveRoom</x:t>
+  </x:si>
+  <x:si>
     <x:t>CageRoomDAO</x:t>
   </x:si>
   <x:si>
-    <x:t>adminAside</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveRoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joinForm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice.xml</x:t>
+    <x:t>InquiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminLogin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminHeader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매핑명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoinsert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/room/roomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryCorrection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation
+ (예약)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageContentLayout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageReservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageMyinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry
+ (문의게시판)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.common.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberServiceImpl</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -674,19 +718,6 @@
         <x:color rgb="ff000000"/>
       </x:rPr>
       <x:t>main</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/admin/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>room</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -705,80 +736,8 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>com.puppy.admin.statistics.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/template</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppyclient.guide.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/client</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/member</x:t>
-  </x:si>
-  <x:si>
     <x:r>
-      <x:t>c</x:t>
+      <x:t>/admin/</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -786,102 +745,50 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>om.puppy.admin.room.controller</x:t>
+      <x:t>room</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>/admin/inquiry/inquiry</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Detail</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>statistics                (</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>통계)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>com.</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>puppy.admin.room.service</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
     <x:t>/admin</x:t>
   </x:si>
   <x:si>
+    <x:t>/guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MVC 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mapper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReplyVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_pw</x:t>
+  </x:si>
+  <x:si>
     <x:t>payment</x:t>
   </x:si>
   <x:si>
-    <x:t>/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide</x:t>
+    <x:t>패키지명</x:t>
   </x:si>
   <x:si>
     <x:t>PetVO</x:t>
   </x:si>
   <x:si>
-    <x:t>MVC 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mapper</x:t>
-  </x:si>
-  <x:si>
     <x:t>model</x:t>
   </x:si>
   <x:si>
-    <x:t>find_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_pw</x:t>
-  </x:si>
-  <x:si>
     <x:t>control</x:t>
   </x:si>
   <x:si>
-    <x:t>view</x:t>
-  </x:si>
-  <x:si>
     <x:t>login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReplyVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패키지명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/login</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -923,10 +830,22 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>/mypage/mypagepetInfoUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypagepetInfoInsert</x:t>
+    <x:t>/client/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reserveRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypageMyInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/notice/noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/login</x:t>
   </x:si>
   <x:si>
     <x:t>/admin/member/memberList</x:t>
@@ -935,55 +854,55 @@
     <x:t>AdminStatisticsServiceImpl</x:t>
   </x:si>
   <x:si>
-    <x:t>/WEB-INF/views/admin/login</x:t>
+    <x:t>adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMainReservationList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/main</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
   </x:si>
   <x:si>
     <x:t>com.puppy.admin.main.dao</x:t>
   </x:si>
   <x:si>
-    <x:t>/mypage/mypageMyInfoUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
     <x:t>com.puppy.client.inquiry.vo</x:t>
   </x:si>
   <x:si>
-    <x:t>/admin/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
     <x:t>/admin/main/reservationList</x:t>
   </x:si>
   <x:si>
-    <x:t>com.puppy.client.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainReservationList</x:t>
-  </x:si>
-  <x:si>
     <x:t>com.puppy.client.mypage.dao</x:t>
   </x:si>
   <x:si>
-    <x:t>/WEB-INF/views/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/inquiry/inquiryCorrection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/main</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/mypage/mypageReservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
+    <x:t>/WEB-INF/views/client/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeList</x:t>
   </x:si>
   <x:si>
     <x:t>com.puppy.admin.notice.dao</x:t>
@@ -992,34 +911,105 @@
     <x:t>/WEB-INF/views/client/guide</x:t>
   </x:si>
   <x:si>
-    <x:t>/admin/notice/noticeList</x:t>
+    <x:t>com.puppy.admin.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsController</x:t>
   </x:si>
   <x:si>
     <x:t>com.puppy.client.member.vo</x:t>
   </x:si>
   <x:si>
-    <x:t>com.puppy.client.notice.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/reserve/reserveCalendar</x:t>
+    <x:t>AdminMemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/main/memberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>admin/room/roomList</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Admin</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>StatisticsService</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminSalesStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.room.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/room/roomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminLoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/member/joinForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2472,8 +2462,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:G832"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H73" activeCellId="0" sqref="H73:H73"/>
+    <x:sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="I56" activeCellId="0" sqref="I56:I56"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2490,7 +2480,7 @@
     <x:row r="1" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="20" t="s">
-        <x:v>258</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C1" s="20"/>
       <x:c r="D1" s="20"/>
@@ -2510,40 +2500,40 @@
     <x:row r="3" spans="1:7" ht="24" customHeight="1">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="9" t="s">
-        <x:v>45</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>45</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>222</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>233</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F3" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G3" s="9" t="s">
-        <x:v>47</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="24" customHeight="1">
       <x:c r="A4" s="1"/>
       <x:c r="B4" s="29" t="s">
-        <x:v>97</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C4" s="26" t="s">
-        <x:v>75</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D4" s="24" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>262</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G4" s="18"/>
     </x:row>
@@ -2553,10 +2543,10 @@
       <x:c r="C5" s="25"/>
       <x:c r="D5" s="25"/>
       <x:c r="E5" s="18" t="s">
-        <x:v>250</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>172</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G5" s="19"/>
     </x:row>
@@ -2567,7 +2557,7 @@
       <x:c r="D6" s="25"/>
       <x:c r="E6" s="19"/>
       <x:c r="F6" s="7" t="s">
-        <x:v>101</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G6" s="19"/>
     </x:row>
@@ -2577,10 +2567,10 @@
       <x:c r="C7" s="25"/>
       <x:c r="D7" s="25"/>
       <x:c r="E7" s="18" t="s">
-        <x:v>192</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G7" s="19"/>
     </x:row>
@@ -2591,7 +2581,7 @@
       <x:c r="D8" s="25"/>
       <x:c r="E8" s="19"/>
       <x:c r="F8" s="7" t="s">
-        <x:v>128</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G8" s="19"/>
     </x:row>
@@ -2600,16 +2590,16 @@
       <x:c r="B9" s="30"/>
       <x:c r="C9" s="25"/>
       <x:c r="D9" s="24" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E9" s="18" t="s">
-        <x:v>212</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F9" s="21" t="s">
-        <x:v>179</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G9" s="21" t="s">
-        <x:v>169</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="24" customHeight="1">
@@ -2626,16 +2616,16 @@
       <x:c r="B11" s="30"/>
       <x:c r="C11" s="25"/>
       <x:c r="D11" s="5" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>135</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="24" customHeight="1">
@@ -2643,13 +2633,13 @@
       <x:c r="B12" s="30"/>
       <x:c r="C12" s="25"/>
       <x:c r="D12" s="5" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>201</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
     </x:row>
@@ -2657,16 +2647,16 @@
       <x:c r="A13" s="1"/>
       <x:c r="B13" s="30"/>
       <x:c r="C13" s="36" t="s">
-        <x:v>61</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D13" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E13" s="18" t="s">
-        <x:v>257</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>181</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G13" s="18"/>
     </x:row>
@@ -2677,7 +2667,7 @@
       <x:c r="D14" s="35"/>
       <x:c r="E14" s="19"/>
       <x:c r="F14" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G14" s="18"/>
     </x:row>
@@ -2687,10 +2677,10 @@
       <x:c r="C15" s="36"/>
       <x:c r="D15" s="35"/>
       <x:c r="E15" s="18" t="s">
-        <x:v>210</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G15" s="18"/>
     </x:row>
@@ -2701,7 +2691,7 @@
       <x:c r="D16" s="35"/>
       <x:c r="E16" s="19"/>
       <x:c r="F16" s="7" t="s">
-        <x:v>146</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G16" s="18"/>
     </x:row>
@@ -2710,16 +2700,16 @@
       <x:c r="B17" s="30"/>
       <x:c r="C17" s="36"/>
       <x:c r="D17" s="22" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E17" s="21" t="s">
-        <x:v>264</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>230</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="24" customHeight="1">
@@ -2729,10 +2719,10 @@
       <x:c r="D18" s="27"/>
       <x:c r="E18" s="28"/>
       <x:c r="F18" s="7" t="s">
-        <x:v>225</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7" ht="24" customHeight="1">
@@ -2742,10 +2732,10 @@
       <x:c r="D19" s="27"/>
       <x:c r="E19" s="28"/>
       <x:c r="F19" s="7" t="s">
-        <x:v>227</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" ht="24" customHeight="1">
@@ -2753,16 +2743,16 @@
       <x:c r="B20" s="30"/>
       <x:c r="C20" s="36"/>
       <x:c r="D20" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>234</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="24" customHeight="1">
@@ -2770,13 +2760,13 @@
       <x:c r="B21" s="30"/>
       <x:c r="C21" s="36"/>
       <x:c r="D21" s="9" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>201</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>184</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G21" s="7"/>
     </x:row>
@@ -2784,16 +2774,16 @@
       <x:c r="A22" s="1"/>
       <x:c r="B22" s="31"/>
       <x:c r="C22" s="37" t="s">
-        <x:v>58</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D22" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E22" s="21" t="s">
-        <x:v>252</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>180</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G22" s="7"/>
     </x:row>
@@ -2804,7 +2794,7 @@
       <x:c r="D23" s="35"/>
       <x:c r="E23" s="21"/>
       <x:c r="F23" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G23" s="7"/>
     </x:row>
@@ -2814,10 +2804,10 @@
       <x:c r="C24" s="37"/>
       <x:c r="D24" s="35"/>
       <x:c r="E24" s="21" t="s">
-        <x:v>204</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G24" s="7"/>
     </x:row>
@@ -2828,7 +2818,7 @@
       <x:c r="D25" s="35"/>
       <x:c r="E25" s="21"/>
       <x:c r="F25" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G25" s="7"/>
     </x:row>
@@ -2837,16 +2827,16 @@
       <x:c r="B26" s="31"/>
       <x:c r="C26" s="37"/>
       <x:c r="D26" s="22" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E26" s="21" t="s">
-        <x:v>198</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F26" s="7" t="s">
-        <x:v>151</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
-        <x:v>256</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7" ht="15.75" customHeight="1">
@@ -2856,10 +2846,10 @@
       <x:c r="D27" s="22"/>
       <x:c r="E27" s="21"/>
       <x:c r="F27" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G27" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7" ht="15.75" customHeight="1">
@@ -2869,10 +2859,10 @@
       <x:c r="D28" s="22"/>
       <x:c r="E28" s="21"/>
       <x:c r="F28" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G28" s="7" t="s">
-        <x:v>244</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" ht="15.75" customHeight="1">
@@ -2882,10 +2872,10 @@
       <x:c r="D29" s="22"/>
       <x:c r="E29" s="21"/>
       <x:c r="F29" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G29" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7" ht="15.75" customHeight="1">
@@ -2895,10 +2885,10 @@
       <x:c r="D30" s="23"/>
       <x:c r="E30" s="21"/>
       <x:c r="F30" s="7" t="s">
-        <x:v>140</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G30" s="7" t="s">
-        <x:v>239</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7" ht="15.75" customHeight="1">
@@ -2908,10 +2898,10 @@
       <x:c r="D31" s="23"/>
       <x:c r="E31" s="21"/>
       <x:c r="F31" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G31" s="7" t="s">
-        <x:v>238</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" ht="15.75" customHeight="1">
@@ -2919,16 +2909,16 @@
       <x:c r="B32" s="31"/>
       <x:c r="C32" s="37"/>
       <x:c r="D32" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E32" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F32" s="7" t="s">
-        <x:v>133</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G32" s="7" t="s">
-        <x:v>219</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" ht="15.75" customHeight="1">
@@ -2936,13 +2926,13 @@
       <x:c r="B33" s="31"/>
       <x:c r="C33" s="37"/>
       <x:c r="D33" s="9" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E33" s="7" t="s">
-        <x:v>201</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F33" s="7" t="s">
-        <x:v>183</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G33" s="7"/>
     </x:row>
@@ -2950,16 +2940,16 @@
       <x:c r="A34" s="1"/>
       <x:c r="B34" s="32"/>
       <x:c r="C34" s="36" t="s">
-        <x:v>104</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D34" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E34" s="6" t="s">
-        <x:v>263</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F34" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G34" s="18"/>
     </x:row>
@@ -2969,10 +2959,10 @@
       <x:c r="C35" s="25"/>
       <x:c r="D35" s="25"/>
       <x:c r="E35" s="18" t="s">
-        <x:v>249</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F35" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G35" s="19"/>
     </x:row>
@@ -2983,7 +2973,7 @@
       <x:c r="D36" s="25"/>
       <x:c r="E36" s="19"/>
       <x:c r="F36" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G36" s="19"/>
     </x:row>
@@ -2993,10 +2983,10 @@
       <x:c r="C37" s="25"/>
       <x:c r="D37" s="25"/>
       <x:c r="E37" s="18" t="s">
-        <x:v>197</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F37" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G37" s="19"/>
     </x:row>
@@ -3007,7 +2997,7 @@
       <x:c r="D38" s="25"/>
       <x:c r="E38" s="19"/>
       <x:c r="F38" s="7" t="s">
-        <x:v>145</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G38" s="19"/>
     </x:row>
@@ -3016,16 +3006,16 @@
       <x:c r="B39" s="32"/>
       <x:c r="C39" s="25"/>
       <x:c r="D39" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E39" s="18" t="s">
-        <x:v>202</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F39" s="7" t="s">
-        <x:v>87</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G39" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7" ht="15.75" customHeight="1">
@@ -3035,10 +3025,10 @@
       <x:c r="D40" s="25"/>
       <x:c r="E40" s="19"/>
       <x:c r="F40" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G40" s="7" t="s">
-        <x:v>138</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7" ht="15.75" customHeight="1">
@@ -3046,16 +3036,16 @@
       <x:c r="B41" s="32"/>
       <x:c r="C41" s="25"/>
       <x:c r="D41" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E41" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F41" s="7" t="s">
-        <x:v>165</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G41" s="7" t="s">
-        <x:v>226</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7" ht="15.75" customHeight="1">
@@ -3063,13 +3053,13 @@
       <x:c r="B42" s="32"/>
       <x:c r="C42" s="25"/>
       <x:c r="D42" s="9" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E42" s="7" t="s">
-        <x:v>201</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F42" s="7" t="s">
-        <x:v>185</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G42" s="7"/>
     </x:row>
@@ -3077,16 +3067,16 @@
       <x:c r="A43" s="1"/>
       <x:c r="B43" s="32"/>
       <x:c r="C43" s="36" t="s">
-        <x:v>143</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D43" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E43" s="10" t="s">
-        <x:v>246</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F43" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G43" s="18"/>
     </x:row>
@@ -3096,10 +3086,10 @@
       <x:c r="C44" s="25"/>
       <x:c r="D44" s="25"/>
       <x:c r="E44" s="18" t="s">
-        <x:v>205</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F44" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G44" s="19"/>
     </x:row>
@@ -3110,7 +3100,7 @@
       <x:c r="D45" s="25"/>
       <x:c r="E45" s="19"/>
       <x:c r="F45" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G45" s="19"/>
     </x:row>
@@ -3120,10 +3110,10 @@
       <x:c r="C46" s="25"/>
       <x:c r="D46" s="25"/>
       <x:c r="E46" s="18" t="s">
-        <x:v>7</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F46" s="7" t="s">
-        <x:v>96</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G46" s="19"/>
     </x:row>
@@ -3134,7 +3124,7 @@
       <x:c r="D47" s="25"/>
       <x:c r="E47" s="19"/>
       <x:c r="F47" s="7" t="s">
-        <x:v>130</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G47" s="19"/>
     </x:row>
@@ -3143,16 +3133,16 @@
       <x:c r="B48" s="32"/>
       <x:c r="C48" s="25"/>
       <x:c r="D48" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E48" s="18" t="s">
-        <x:v>208</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F48" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G48" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7" ht="15.75" customHeight="1">
@@ -3162,10 +3152,10 @@
       <x:c r="D49" s="25"/>
       <x:c r="E49" s="19"/>
       <x:c r="F49" s="7" t="s">
-        <x:v>139</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G49" s="7" t="s">
-        <x:v>254</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" ht="15.75" customHeight="1">
@@ -3175,10 +3165,10 @@
       <x:c r="D50" s="25"/>
       <x:c r="E50" s="19"/>
       <x:c r="F50" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G50" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7" ht="15.75" customHeight="1">
@@ -3186,16 +3176,16 @@
       <x:c r="B51" s="32"/>
       <x:c r="C51" s="25"/>
       <x:c r="D51" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E51" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F51" s="7" t="s">
-        <x:v>158</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G51" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7" ht="15.75" customHeight="1">
@@ -3203,13 +3193,13 @@
       <x:c r="B52" s="32"/>
       <x:c r="C52" s="25"/>
       <x:c r="D52" s="9" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E52" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F52" s="7" t="s">
-        <x:v>182</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G52" s="7"/>
     </x:row>
@@ -3217,16 +3207,16 @@
       <x:c r="A53" s="1"/>
       <x:c r="B53" s="33"/>
       <x:c r="C53" s="37" t="s">
-        <x:v>152</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D53" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E53" s="6" t="s">
-        <x:v>207</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F53" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G53" s="18"/>
     </x:row>
@@ -3236,10 +3226,10 @@
       <x:c r="C54" s="37"/>
       <x:c r="D54" s="19"/>
       <x:c r="E54" s="18" t="s">
-        <x:v>2</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F54" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G54" s="19"/>
     </x:row>
@@ -3250,7 +3240,7 @@
       <x:c r="D55" s="19"/>
       <x:c r="E55" s="19"/>
       <x:c r="F55" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="G55" s="19"/>
     </x:row>
@@ -3260,10 +3250,10 @@
       <x:c r="C56" s="37"/>
       <x:c r="D56" s="19"/>
       <x:c r="E56" s="18" t="s">
-        <x:v>43</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F56" s="7" t="s">
-        <x:v>159</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G56" s="19"/>
     </x:row>
@@ -3274,7 +3264,7 @@
       <x:c r="D57" s="19"/>
       <x:c r="E57" s="19"/>
       <x:c r="F57" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G57" s="19"/>
     </x:row>
@@ -3283,16 +3273,16 @@
       <x:c r="B58" s="33"/>
       <x:c r="C58" s="37"/>
       <x:c r="D58" s="22" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E58" s="21" t="s">
-        <x:v>199</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F58" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G58" s="7" t="s">
-        <x:v>270</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:7" ht="15.75" customHeight="1">
@@ -3302,10 +3292,10 @@
       <x:c r="D59" s="28"/>
       <x:c r="E59" s="28"/>
       <x:c r="F59" s="7" t="s">
-        <x:v>176</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G59" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:7" ht="15.75" customHeight="1">
@@ -3315,10 +3305,10 @@
       <x:c r="D60" s="28"/>
       <x:c r="E60" s="28"/>
       <x:c r="F60" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G60" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:7" ht="15.75" customHeight="1">
@@ -3328,10 +3318,10 @@
       <x:c r="D61" s="38"/>
       <x:c r="E61" s="38"/>
       <x:c r="F61" s="7" t="s">
-        <x:v>218</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="G61" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7" ht="15.75" customHeight="1">
@@ -3339,32 +3329,32 @@
       <x:c r="B62" s="33"/>
       <x:c r="C62" s="37"/>
       <x:c r="D62" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E62" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F62" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="G62" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A63" s="1"/>
       <x:c r="B63" s="33"/>
       <x:c r="C63" s="38" t="s">
-        <x:v>143</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D63" s="9" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E63" s="7" t="s">
-        <x:v>201</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F63" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G63" s="7"/>
     </x:row>
@@ -3372,16 +3362,16 @@
       <x:c r="A64" s="1"/>
       <x:c r="B64" s="33"/>
       <x:c r="C64" s="36" t="s">
-        <x:v>81</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D64" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E64" s="18" t="s">
-        <x:v>267</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F64" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G64" s="18"/>
     </x:row>
@@ -3392,7 +3382,7 @@
       <x:c r="D65" s="35"/>
       <x:c r="E65" s="19"/>
       <x:c r="F65" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G65" s="18"/>
     </x:row>
@@ -3402,10 +3392,10 @@
       <x:c r="C66" s="36"/>
       <x:c r="D66" s="35"/>
       <x:c r="E66" s="18" t="s">
-        <x:v>200</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F66" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G66" s="18"/>
     </x:row>
@@ -3416,7 +3406,7 @@
       <x:c r="D67" s="35"/>
       <x:c r="E67" s="19"/>
       <x:c r="F67" s="7" t="s">
-        <x:v>153</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G67" s="18"/>
     </x:row>
@@ -3425,16 +3415,16 @@
       <x:c r="B68" s="33"/>
       <x:c r="C68" s="36"/>
       <x:c r="D68" s="22" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E68" s="21" t="s">
-        <x:v>260</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F68" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G68" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7" ht="15.75" customHeight="1">
@@ -3444,10 +3434,10 @@
       <x:c r="D69" s="22"/>
       <x:c r="E69" s="21"/>
       <x:c r="F69" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G69" s="7" t="s">
-        <x:v>162</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:7" ht="15.75" customHeight="1">
@@ -3455,16 +3445,16 @@
       <x:c r="B70" s="33"/>
       <x:c r="C70" s="36"/>
       <x:c r="D70" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E70" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F70" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G70" s="7" t="s">
-        <x:v>220</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:7" ht="15.75" customHeight="1">
@@ -3472,32 +3462,32 @@
       <x:c r="B71" s="34"/>
       <x:c r="C71" s="36"/>
       <x:c r="D71" s="9" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E71" s="7" t="s">
-        <x:v>201</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F71" s="7" t="s">
-        <x:v>177</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G71" s="7"/>
     </x:row>
     <x:row r="72" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A72" s="1"/>
       <x:c r="B72" s="37" t="s">
-        <x:v>77</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C72" s="37" t="s">
-        <x:v>54</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D72" s="22" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E72" s="21" t="s">
-        <x:v>108</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F72" s="7" t="s">
-        <x:v>221</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G72" s="8"/>
     </x:row>
@@ -3508,7 +3498,7 @@
       <x:c r="D73" s="23"/>
       <x:c r="E73" s="39"/>
       <x:c r="F73" s="7" t="s">
-        <x:v>232</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G73" s="8"/>
     </x:row>
@@ -3519,29 +3509,29 @@
       <x:c r="D74" s="23"/>
       <x:c r="E74" s="39"/>
       <x:c r="F74" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G74" s="8"/>
     </x:row>
     <x:row r="75" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A75" s="1"/>
       <x:c r="B75" s="36" t="s">
-        <x:v>102</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C75" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D75" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E75" s="7" t="s">
-        <x:v>242</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F75" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G75" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:7" ht="15.75" customHeight="1">
@@ -3550,10 +3540,10 @@
       <x:c r="C76" s="36"/>
       <x:c r="D76" s="35"/>
       <x:c r="E76" s="18" t="s">
-        <x:v>195</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F76" s="12" t="s">
-        <x:v>171</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G76" s="12"/>
     </x:row>
@@ -3564,7 +3554,7 @@
       <x:c r="D77" s="35"/>
       <x:c r="E77" s="18"/>
       <x:c r="F77" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G77" s="12"/>
     </x:row>
@@ -3573,32 +3563,32 @@
       <x:c r="B78" s="36"/>
       <x:c r="C78" s="36"/>
       <x:c r="D78" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E78" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F78" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="G78" s="7" t="s">
-        <x:v>217</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A79" s="1"/>
       <x:c r="B79" s="36"/>
       <x:c r="C79" s="36" t="s">
-        <x:v>107</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D79" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E79" s="18" t="s">
-        <x:v>211</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F79" s="7" t="s">
-        <x:v>155</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G79" s="7"/>
     </x:row>
@@ -3609,7 +3599,7 @@
       <x:c r="D80" s="35"/>
       <x:c r="E80" s="18"/>
       <x:c r="F80" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="G80" s="7"/>
     </x:row>
@@ -3619,10 +3609,10 @@
       <x:c r="C81" s="36"/>
       <x:c r="D81" s="35"/>
       <x:c r="E81" s="18" t="s">
-        <x:v>243</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F81" s="7" t="s">
-        <x:v>94</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G81" s="7"/>
     </x:row>
@@ -3633,7 +3623,7 @@
       <x:c r="D82" s="35"/>
       <x:c r="E82" s="18"/>
       <x:c r="F82" s="7" t="s">
-        <x:v>168</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G82" s="7"/>
     </x:row>
@@ -3642,13 +3632,13 @@
       <x:c r="B83" s="36"/>
       <x:c r="C83" s="36"/>
       <x:c r="D83" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E83" s="18" t="s">
-        <x:v>195</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F83" s="12" t="s">
-        <x:v>171</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G83" s="12"/>
     </x:row>
@@ -3659,7 +3649,7 @@
       <x:c r="D84" s="35"/>
       <x:c r="E84" s="18"/>
       <x:c r="F84" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G84" s="12"/>
     </x:row>
@@ -3670,7 +3660,7 @@
       <x:c r="D85" s="35"/>
       <x:c r="E85" s="18"/>
       <x:c r="F85" s="12" t="s">
-        <x:v>174</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G85" s="12"/>
     </x:row>
@@ -3680,13 +3670,13 @@
       <x:c r="C86" s="36"/>
       <x:c r="D86" s="35"/>
       <x:c r="E86" s="18" t="s">
-        <x:v>255</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F86" s="7" t="s">
-        <x:v>251</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="G86" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:7" ht="15.75" customHeight="1">
@@ -3696,10 +3686,10 @@
       <x:c r="D87" s="35"/>
       <x:c r="E87" s="18"/>
       <x:c r="F87" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G87" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:7" ht="15.75" customHeight="1">
@@ -3707,16 +3697,16 @@
       <x:c r="B88" s="36"/>
       <x:c r="C88" s="36"/>
       <x:c r="D88" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E88" s="7" t="s">
-        <x:v>190</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F88" s="13" t="s">
-        <x:v>235</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G88" s="12" t="s">
-        <x:v>186</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:7" ht="15.75" customHeight="1">
@@ -3724,13 +3714,13 @@
       <x:c r="B89" s="36"/>
       <x:c r="C89" s="36"/>
       <x:c r="D89" s="9" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E89" s="7" t="s">
-        <x:v>194</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F89" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G89" s="8"/>
     </x:row>
@@ -3738,16 +3728,16 @@
       <x:c r="A90" s="1"/>
       <x:c r="B90" s="36"/>
       <x:c r="C90" s="40" t="s">
-        <x:v>106</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D90" s="43" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E90" s="16" t="s">
-        <x:v>37</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F90" s="12" t="s">
-        <x:v>123</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G90" s="17"/>
     </x:row>
@@ -3757,10 +3747,10 @@
       <x:c r="C91" s="41"/>
       <x:c r="D91" s="44"/>
       <x:c r="E91" s="18" t="s">
-        <x:v>216</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F91" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G91" s="7"/>
     </x:row>
@@ -3771,7 +3761,7 @@
       <x:c r="D92" s="44"/>
       <x:c r="E92" s="18"/>
       <x:c r="F92" s="7" t="s">
-        <x:v>147</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G92" s="7"/>
     </x:row>
@@ -3781,10 +3771,10 @@
       <x:c r="C93" s="41"/>
       <x:c r="D93" s="44"/>
       <x:c r="E93" s="18" t="s">
-        <x:v>237</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F93" s="7" t="s">
-        <x:v>173</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G93" s="7"/>
     </x:row>
@@ -3795,7 +3785,7 @@
       <x:c r="D94" s="45"/>
       <x:c r="E94" s="18"/>
       <x:c r="F94" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G94" s="7"/>
     </x:row>
@@ -3804,13 +3794,13 @@
       <x:c r="B95" s="36"/>
       <x:c r="C95" s="41"/>
       <x:c r="D95" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E95" s="18" t="s">
-        <x:v>195</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F95" s="12" t="s">
-        <x:v>129</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G95" s="12"/>
     </x:row>
@@ -3821,7 +3811,7 @@
       <x:c r="D96" s="35"/>
       <x:c r="E96" s="18"/>
       <x:c r="F96" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G96" s="12"/>
     </x:row>
@@ -3832,7 +3822,7 @@
       <x:c r="D97" s="35"/>
       <x:c r="E97" s="18"/>
       <x:c r="F97" s="12" t="s">
-        <x:v>174</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G97" s="12"/>
     </x:row>
@@ -3842,13 +3832,13 @@
       <x:c r="C98" s="41"/>
       <x:c r="D98" s="35"/>
       <x:c r="E98" s="18" t="s">
-        <x:v>236</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F98" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G98" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:7" ht="15.75" customHeight="1">
@@ -3858,10 +3848,10 @@
       <x:c r="D99" s="35"/>
       <x:c r="E99" s="18"/>
       <x:c r="F99" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G99" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7" ht="15.75" customHeight="1">
@@ -3871,10 +3861,10 @@
       <x:c r="D100" s="35"/>
       <x:c r="E100" s="18"/>
       <x:c r="F100" s="7" t="s">
-        <x:v>178</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G100" s="7" t="s">
-        <x:v>144</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7" ht="15.75" customHeight="1">
@@ -3882,16 +3872,16 @@
       <x:c r="B101" s="36"/>
       <x:c r="C101" s="41"/>
       <x:c r="D101" s="14" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E101" s="15" t="s">
-        <x:v>213</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F101" s="15" t="s">
-        <x:v>157</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G101" s="15" t="s">
-        <x:v>187</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:7" ht="15.75" customHeight="1">
@@ -3899,13 +3889,13 @@
       <x:c r="B102" s="36"/>
       <x:c r="C102" s="42"/>
       <x:c r="D102" s="14" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E102" s="15" t="s">
-        <x:v>194</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F102" s="15" t="s">
-        <x:v>83</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G102" s="15"/>
     </x:row>
@@ -3913,16 +3903,16 @@
       <x:c r="A103" s="1"/>
       <x:c r="B103" s="36"/>
       <x:c r="C103" s="36" t="s">
-        <x:v>188</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D103" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E103" s="18" t="s">
-        <x:v>191</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F103" s="7" t="s">
-        <x:v>166</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G103" s="7"/>
     </x:row>
@@ -3933,7 +3923,7 @@
       <x:c r="D104" s="35"/>
       <x:c r="E104" s="18"/>
       <x:c r="F104" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G104" s="7"/>
     </x:row>
@@ -3943,10 +3933,10 @@
       <x:c r="C105" s="36"/>
       <x:c r="D105" s="35"/>
       <x:c r="E105" s="18" t="s">
-        <x:v>269</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="F105" s="7" t="s">
-        <x:v>95</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G105" s="7"/>
     </x:row>
@@ -3957,7 +3947,7 @@
       <x:c r="D106" s="35"/>
       <x:c r="E106" s="18"/>
       <x:c r="F106" s="7" t="s">
-        <x:v>132</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G106" s="7"/>
     </x:row>
@@ -3966,13 +3956,13 @@
       <x:c r="B107" s="36"/>
       <x:c r="C107" s="36"/>
       <x:c r="D107" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E107" s="18" t="s">
-        <x:v>195</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F107" s="12" t="s">
-        <x:v>171</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G107" s="12"/>
     </x:row>
@@ -3983,7 +3973,7 @@
       <x:c r="D108" s="35"/>
       <x:c r="E108" s="18"/>
       <x:c r="F108" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G108" s="12"/>
     </x:row>
@@ -3994,7 +3984,7 @@
       <x:c r="D109" s="35"/>
       <x:c r="E109" s="18"/>
       <x:c r="F109" s="12" t="s">
-        <x:v>174</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G109" s="12"/>
     </x:row>
@@ -4004,13 +3994,13 @@
       <x:c r="C110" s="36"/>
       <x:c r="D110" s="35"/>
       <x:c r="E110" s="18" t="s">
-        <x:v>253</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F110" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G110" s="7" t="s">
-        <x:v>240</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:7" ht="15.75" customHeight="1">
@@ -4020,10 +4010,10 @@
       <x:c r="D111" s="35"/>
       <x:c r="E111" s="18"/>
       <x:c r="F111" s="7" t="s">
-        <x:v>161</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G111" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:7" ht="15.75" customHeight="1">
@@ -4031,16 +4021,16 @@
       <x:c r="B112" s="36"/>
       <x:c r="C112" s="36"/>
       <x:c r="D112" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E112" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F112" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="G112" s="7" t="s">
-        <x:v>73</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:7" ht="15.75" customHeight="1">
@@ -4048,13 +4038,13 @@
       <x:c r="B113" s="36"/>
       <x:c r="C113" s="36"/>
       <x:c r="D113" s="9" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E113" s="12" t="s">
-        <x:v>194</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F113" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G113" s="7"/>
     </x:row>
@@ -4062,16 +4052,16 @@
       <x:c r="A114" s="1"/>
       <x:c r="B114" s="36"/>
       <x:c r="C114" s="36" t="s">
-        <x:v>99</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D114" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E114" s="18" t="s">
-        <x:v>209</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F114" s="7" t="s">
-        <x:v>134</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G114" s="7"/>
     </x:row>
@@ -4082,7 +4072,7 @@
       <x:c r="D115" s="35"/>
       <x:c r="E115" s="18"/>
       <x:c r="F115" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="G115" s="7"/>
     </x:row>
@@ -4092,10 +4082,10 @@
       <x:c r="C116" s="36"/>
       <x:c r="D116" s="35"/>
       <x:c r="E116" s="18" t="s">
-        <x:v>259</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F116" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G116" s="7"/>
     </x:row>
@@ -4106,7 +4096,7 @@
       <x:c r="D117" s="35"/>
       <x:c r="E117" s="18"/>
       <x:c r="F117" s="7" t="s">
-        <x:v>167</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G117" s="7"/>
     </x:row>
@@ -4115,13 +4105,13 @@
       <x:c r="B118" s="36"/>
       <x:c r="C118" s="36"/>
       <x:c r="D118" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E118" s="18" t="s">
-        <x:v>195</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F118" s="12" t="s">
-        <x:v>171</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G118" s="12"/>
     </x:row>
@@ -4132,7 +4122,7 @@
       <x:c r="D119" s="35"/>
       <x:c r="E119" s="18"/>
       <x:c r="F119" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G119" s="12"/>
     </x:row>
@@ -4143,7 +4133,7 @@
       <x:c r="D120" s="35"/>
       <x:c r="E120" s="18"/>
       <x:c r="F120" s="12" t="s">
-        <x:v>174</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G120" s="12"/>
     </x:row>
@@ -4153,13 +4143,13 @@
       <x:c r="C121" s="36"/>
       <x:c r="D121" s="35"/>
       <x:c r="E121" s="18" t="s">
-        <x:v>193</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F121" s="7" t="s">
-        <x:v>71</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G121" s="7" t="s">
-        <x:v>261</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:7" ht="15.75" customHeight="1">
@@ -4169,10 +4159,10 @@
       <x:c r="D122" s="35"/>
       <x:c r="E122" s="18"/>
       <x:c r="F122" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G122" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:7" ht="15.75" customHeight="1">
@@ -4182,10 +4172,10 @@
       <x:c r="D123" s="35"/>
       <x:c r="E123" s="18"/>
       <x:c r="F123" s="7" t="s">
-        <x:v>149</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G123" s="7" t="s">
-        <x:v>265</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:7" ht="15.75" customHeight="1">
@@ -4193,16 +4183,16 @@
       <x:c r="B124" s="36"/>
       <x:c r="C124" s="36"/>
       <x:c r="D124" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E124" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F124" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="G124" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:7" ht="15.75" customHeight="1">
@@ -4210,13 +4200,13 @@
       <x:c r="B125" s="36"/>
       <x:c r="C125" s="36"/>
       <x:c r="D125" s="9" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E125" s="12" t="s">
-        <x:v>194</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F125" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G125" s="7"/>
     </x:row>
@@ -4224,16 +4214,16 @@
       <x:c r="A126" s="1"/>
       <x:c r="B126" s="36"/>
       <x:c r="C126" s="36" t="s">
-        <x:v>215</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D126" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E126" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F126" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="G126" s="7"/>
     </x:row>
@@ -4244,7 +4234,7 @@
       <x:c r="D127" s="35"/>
       <x:c r="E127" s="18"/>
       <x:c r="F127" s="7" t="s">
-        <x:v>241</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G127" s="7"/>
     </x:row>
@@ -4254,10 +4244,10 @@
       <x:c r="C128" s="36"/>
       <x:c r="D128" s="35"/>
       <x:c r="E128" s="18" t="s">
-        <x:v>189</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F128" s="7" t="s">
-        <x:v>154</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G128" s="7"/>
     </x:row>
@@ -4268,7 +4258,7 @@
       <x:c r="D129" s="35"/>
       <x:c r="E129" s="18"/>
       <x:c r="F129" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="G129" s="7"/>
     </x:row>
@@ -4277,13 +4267,13 @@
       <x:c r="B130" s="36"/>
       <x:c r="C130" s="36"/>
       <x:c r="D130" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E130" s="18" t="s">
-        <x:v>195</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F130" s="12" t="s">
-        <x:v>171</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G130" s="12"/>
     </x:row>
@@ -4294,7 +4284,7 @@
       <x:c r="D131" s="35"/>
       <x:c r="E131" s="18"/>
       <x:c r="F131" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G131" s="12"/>
     </x:row>
@@ -4305,7 +4295,7 @@
       <x:c r="D132" s="35"/>
       <x:c r="E132" s="18"/>
       <x:c r="F132" s="12" t="s">
-        <x:v>174</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G132" s="12"/>
     </x:row>
@@ -4315,13 +4305,13 @@
       <x:c r="C133" s="36"/>
       <x:c r="D133" s="35"/>
       <x:c r="E133" s="18" t="s">
-        <x:v>196</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F133" s="7" t="s">
-        <x:v>137</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G133" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:7" ht="15.75" customHeight="1">
@@ -4331,10 +4321,10 @@
       <x:c r="D134" s="35"/>
       <x:c r="E134" s="18"/>
       <x:c r="F134" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G134" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:7" ht="15.75" customHeight="1">
@@ -4344,10 +4334,10 @@
       <x:c r="D135" s="35"/>
       <x:c r="E135" s="18"/>
       <x:c r="F135" s="7" t="s">
-        <x:v>245</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G135" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:7" ht="15.75" customHeight="1">
@@ -4355,16 +4345,16 @@
       <x:c r="B136" s="36"/>
       <x:c r="C136" s="36"/>
       <x:c r="D136" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E136" s="12" t="s">
-        <x:v>42</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F136" s="7" t="s">
-        <x:v>268</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G136" s="7" t="s">
-        <x:v>148</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:7" ht="15.75" customHeight="1">
@@ -4372,13 +4362,13 @@
       <x:c r="B137" s="36"/>
       <x:c r="C137" s="36"/>
       <x:c r="D137" s="9" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E137" s="12" t="s">
-        <x:v>194</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F137" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G137" s="7"/>
     </x:row>
@@ -4386,16 +4376,16 @@
       <x:c r="A138" s="1"/>
       <x:c r="B138" s="36"/>
       <x:c r="C138" s="36" t="s">
-        <x:v>170</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D138" s="35" t="s">
-        <x:v>224</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E138" s="18" t="s">
-        <x:v>206</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F138" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G138" s="7"/>
     </x:row>
@@ -4406,7 +4396,7 @@
       <x:c r="D139" s="35"/>
       <x:c r="E139" s="18"/>
       <x:c r="F139" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="G139" s="7"/>
     </x:row>
@@ -4416,10 +4406,10 @@
       <x:c r="C140" s="36"/>
       <x:c r="D140" s="35"/>
       <x:c r="E140" s="18" t="s">
-        <x:v>266</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="F140" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G140" s="7"/>
     </x:row>
@@ -4430,7 +4420,7 @@
       <x:c r="D141" s="35"/>
       <x:c r="E141" s="18"/>
       <x:c r="F141" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G141" s="7"/>
     </x:row>
@@ -4439,13 +4429,13 @@
       <x:c r="B142" s="36"/>
       <x:c r="C142" s="36"/>
       <x:c r="D142" s="35" t="s">
-        <x:v>229</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E142" s="18" t="s">
-        <x:v>195</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F142" s="12" t="s">
-        <x:v>171</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G142" s="12"/>
     </x:row>
@@ -4456,7 +4446,7 @@
       <x:c r="D143" s="35"/>
       <x:c r="E143" s="18"/>
       <x:c r="F143" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G143" s="12"/>
     </x:row>
@@ -4467,7 +4457,7 @@
       <x:c r="D144" s="35"/>
       <x:c r="E144" s="18"/>
       <x:c r="F144" s="12" t="s">
-        <x:v>174</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G144" s="12"/>
     </x:row>
@@ -4477,13 +4467,13 @@
       <x:c r="C145" s="36"/>
       <x:c r="D145" s="35"/>
       <x:c r="E145" s="18" t="s">
-        <x:v>203</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F145" s="7" t="s">
-        <x:v>136</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G145" s="7" t="s">
-        <x:v>247</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:7" ht="15.75" customHeight="1">
@@ -4493,10 +4483,10 @@
       <x:c r="D146" s="35"/>
       <x:c r="E146" s="18"/>
       <x:c r="F146" s="7" t="s">
-        <x:v>150</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G146" s="7" t="s">
-        <x:v>214</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:7" ht="15.75" customHeight="1">
@@ -4504,16 +4494,16 @@
       <x:c r="B147" s="36"/>
       <x:c r="C147" s="36"/>
       <x:c r="D147" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E147" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F147" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="G147" s="7" t="s">
-        <x:v>72</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:7" ht="15.75" customHeight="1">
@@ -4521,13 +4511,13 @@
       <x:c r="B148" s="36"/>
       <x:c r="C148" s="36"/>
       <x:c r="D148" s="9" t="s">
-        <x:v>223</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E148" s="12" t="s">
-        <x:v>194</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F148" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G148" s="7"/>
     </x:row>

--- a/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
@@ -14,30 +14,640 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="271">
-  <x:si>
-    <x:t>/client/login/findPw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/login/findId</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="273">
+  <x:si>
+    <x:r>
+      <x:t>/admin/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>main</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>GuideDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminLogin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminHeader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminAside</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guide.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joinForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminSalesStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMember.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNotice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+ (회원 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>common
+ (공용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>statistics.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageService</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 공용
+(common)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage
+(마이 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member
+ (회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMain.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveCalendar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자
+ (client)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guide
+ (이용안내)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+(관리자 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice
+ (공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageMyinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice
+(공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">관리자
+(admin)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageroom.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>main
+(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>메인페이지)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>room
+(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>애견공간관리)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>reservePetRegister</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매핑명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypagepetInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypageMyInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.login.controller</x:t>
   </x:si>
   <x:si>
     <x:t>/client/mypage/mypageReservation</x:t>
   </x:si>
   <x:si>
-    <x:t>/client/mypage/mypagepetInfoUpdate</x:t>
+    <x:t>com.puppy.admin.statistics.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.controller</x:t>
   </x:si>
   <x:si>
     <x:t>/client/mypage/mypagepetInfoInsert</x:t>
   </x:si>
   <x:si>
-    <x:t>/client/mypage/mypageMyInfoUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/payment</x:t>
+    <x:t>com.puppy.client.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry/inquiryCorrection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reservePetRegister</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reserveDetaill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reserveCalendar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypagePetInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppyclient.guide.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/template</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry/inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/client</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/member</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>c</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>om.puppy.admin.room.controller</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>statistics                (</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>통계)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>com.</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>puppy.admin.room.service</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/admin/inquiry/inquiry</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Detail</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoinsert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation
+ (예약)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMainMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/room/roomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryCorrection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberDelList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageReservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageContentLayout</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -51,6 +661,15 @@
       </x:rPr>
       <x:t>ContentLayout</x:t>
     </x:r>
+  </x:si>
+  <x:si>
+    <x:t>InquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -68,613 +687,22 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>/admin/statistics/adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/login/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/inquiry/inquiryCorrection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypagePetInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/inquiry/inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/reserveDetaill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMember.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservation.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>statistics.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNotice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveCalendar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
- (회원 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMain.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage
-(마이 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member
- (회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>common
- (공용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
- (공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideController</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 공용
-(common)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">관리자
-(admin)
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageroom.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide
- (이용안내)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
-(관리자 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자
- (client)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
-(공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>main
-(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>메인페이지)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>room
-(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>애견공간관리)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminSalesStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/reserveCalendar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberDelList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/member</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>c</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>om.puppy.admin.room.controller</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>statistics                (</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>통계)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>com.</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>puppy.admin.room.service</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/admin/inquiry/inquiry</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Detail</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppyclient.guide.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/client</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/template</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joinForm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminAside</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveRoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminLogin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminHeader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매핑명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoinsert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryCorrection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservation
- (예약)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeServiceImpl</x:t>
+    <x:t>InquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageMyinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideList</x:t>
   </x:si>
   <x:si>
     <x:t>CageRoomController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageContentLayout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageReservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfoupdate</x:t>
   </x:si>
   <x:si>
     <x:t>inquiry
@@ -684,41 +712,19 @@
     <x:t>AdminNoticeService</x:t>
   </x:si>
   <x:si>
-    <x:t>MypageServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryList</x:t>
+    <x:t>NoticeServiceImpl</x:t>
   </x:si>
   <x:si>
     <x:t>com.puppy.common.vo</x:t>
   </x:si>
   <x:si>
+    <x:t>mypagePetinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationService</x:t>
+  </x:si>
+  <x:si>
     <x:t>ReservationDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/admin/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>main</x:t>
-    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -749,46 +755,100 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MVC 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mapper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReplyVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패키지명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PetVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login</x:t>
+    <x:t>/client/notice/noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member/memberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMainReservationList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/main</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypageMyInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reserveRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/main/reservationList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeDetail</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -830,127 +890,113 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>/client/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/reserveRoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypageMyInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/notice/noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/notice/noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainReservationList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/main</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/main/reservationList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.vo</x:t>
+    <x:t>ReplyVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패키지명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PetVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MVC 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mapper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationController</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Admin</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>StatisticsService</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/member/joinForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeAdd</x:t>
   </x:si>
   <x:si>
     <x:t>AdminMemberController</x:t>
   </x:si>
   <x:si>
+    <x:t>AdminLoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/payment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/main/memberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login/findPw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login/findId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
     <x:t>AdminMainServiceImpl</x:t>
   </x:si>
   <x:si>
-    <x:t>/admin/main/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAOImpl</x:t>
+    <x:t>adminSalesStatistics</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -966,50 +1012,10 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>Admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>StatisticsService</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminSalesStatistics</x:t>
+    <x:t>/admin/room/roomDetail</x:t>
   </x:si>
   <x:si>
     <x:t>com.puppy.admin.room.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminLoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/member/joinForm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/inquiry</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2460,10 +2466,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G832"/>
+  <x:dimension ref="A1:G833"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I56" activeCellId="0" sqref="I56:I56"/>
+    <x:sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H59" activeCellId="0" sqref="H59:H59"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2480,7 +2486,7 @@
     <x:row r="1" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="20" t="s">
-        <x:v>233</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C1" s="20"/>
       <x:c r="D1" s="20"/>
@@ -2500,22 +2506,22 @@
     <x:row r="3" spans="1:7" ht="24" customHeight="1">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="9" t="s">
-        <x:v>160</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>160</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>202</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>209</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F3" s="9" t="s">
-        <x:v>159</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G3" s="9" t="s">
-        <x:v>161</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="24" customHeight="1">
@@ -2524,16 +2530,16 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C4" s="26" t="s">
-        <x:v>36</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D4" s="24" t="s">
-        <x:v>211</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>150</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="18"/>
     </x:row>
@@ -2543,10 +2549,10 @@
       <x:c r="C5" s="25"/>
       <x:c r="D5" s="25"/>
       <x:c r="E5" s="18" t="s">
-        <x:v>230</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G5" s="19"/>
     </x:row>
@@ -2557,7 +2563,7 @@
       <x:c r="D6" s="25"/>
       <x:c r="E6" s="19"/>
       <x:c r="F6" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G6" s="19"/>
     </x:row>
@@ -2567,10 +2573,10 @@
       <x:c r="C7" s="25"/>
       <x:c r="D7" s="25"/>
       <x:c r="E7" s="18" t="s">
-        <x:v>121</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>71</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G7" s="19"/>
     </x:row>
@@ -2581,7 +2587,7 @@
       <x:c r="D8" s="25"/>
       <x:c r="E8" s="19"/>
       <x:c r="F8" s="7" t="s">
-        <x:v>196</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G8" s="19"/>
     </x:row>
@@ -2590,16 +2596,16 @@
       <x:c r="B9" s="30"/>
       <x:c r="C9" s="25"/>
       <x:c r="D9" s="24" t="s">
-        <x:v>204</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E9" s="18" t="s">
-        <x:v>118</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F9" s="21" t="s">
-        <x:v>136</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G9" s="21" t="s">
-        <x:v>267</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="24" customHeight="1">
@@ -2616,16 +2622,16 @@
       <x:c r="B11" s="30"/>
       <x:c r="C11" s="25"/>
       <x:c r="D11" s="5" t="s">
-        <x:v>212</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>167</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="24" customHeight="1">
@@ -2633,13 +2639,13 @@
       <x:c r="B12" s="30"/>
       <x:c r="C12" s="25"/>
       <x:c r="D12" s="5" t="s">
-        <x:v>203</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
     </x:row>
@@ -2647,16 +2653,16 @@
       <x:c r="A13" s="1"/>
       <x:c r="B13" s="30"/>
       <x:c r="C13" s="36" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D13" s="35" t="s">
-        <x:v>211</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E13" s="18" t="s">
-        <x:v>232</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>137</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G13" s="18"/>
     </x:row>
@@ -2667,7 +2673,7 @@
       <x:c r="D14" s="35"/>
       <x:c r="E14" s="19"/>
       <x:c r="F14" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G14" s="18"/>
     </x:row>
@@ -2677,10 +2683,10 @@
       <x:c r="C15" s="36"/>
       <x:c r="D15" s="35"/>
       <x:c r="E15" s="18" t="s">
-        <x:v>120</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G15" s="18"/>
     </x:row>
@@ -2691,7 +2697,7 @@
       <x:c r="D16" s="35"/>
       <x:c r="E16" s="19"/>
       <x:c r="F16" s="7" t="s">
-        <x:v>165</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G16" s="18"/>
     </x:row>
@@ -2700,16 +2706,16 @@
       <x:c r="B17" s="30"/>
       <x:c r="C17" s="36"/>
       <x:c r="D17" s="22" t="s">
-        <x:v>204</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E17" s="21" t="s">
-        <x:v>238</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>213</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="24" customHeight="1">
@@ -2719,10 +2725,10 @@
       <x:c r="D18" s="27"/>
       <x:c r="E18" s="28"/>
       <x:c r="F18" s="7" t="s">
-        <x:v>206</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7" ht="24" customHeight="1">
@@ -2732,10 +2738,10 @@
       <x:c r="D19" s="27"/>
       <x:c r="E19" s="28"/>
       <x:c r="F19" s="7" t="s">
-        <x:v>207</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" ht="24" customHeight="1">
@@ -2743,16 +2749,16 @@
       <x:c r="B20" s="30"/>
       <x:c r="C20" s="36"/>
       <x:c r="D20" s="9" t="s">
-        <x:v>212</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>85</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="24" customHeight="1">
@@ -2760,13 +2766,13 @@
       <x:c r="B21" s="30"/>
       <x:c r="C21" s="36"/>
       <x:c r="D21" s="9" t="s">
-        <x:v>203</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>135</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G21" s="7"/>
     </x:row>
@@ -2774,16 +2780,16 @@
       <x:c r="A22" s="1"/>
       <x:c r="B22" s="31"/>
       <x:c r="C22" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D22" s="35" t="s">
-        <x:v>211</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E22" s="21" t="s">
-        <x:v>237</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>138</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G22" s="7"/>
     </x:row>
@@ -2794,7 +2800,7 @@
       <x:c r="D23" s="35"/>
       <x:c r="E23" s="21"/>
       <x:c r="F23" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G23" s="7"/>
     </x:row>
@@ -2804,10 +2810,10 @@
       <x:c r="C24" s="37"/>
       <x:c r="D24" s="35"/>
       <x:c r="E24" s="21" t="s">
-        <x:v>108</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G24" s="7"/>
     </x:row>
@@ -2818,7 +2824,7 @@
       <x:c r="D25" s="35"/>
       <x:c r="E25" s="21"/>
       <x:c r="F25" s="7" t="s">
-        <x:v>189</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G25" s="7"/>
     </x:row>
@@ -2827,16 +2833,16 @@
       <x:c r="B26" s="31"/>
       <x:c r="C26" s="37"/>
       <x:c r="D26" s="22" t="s">
-        <x:v>204</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E26" s="21" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F26" s="7" t="s">
-        <x:v>183</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7" ht="15.75" customHeight="1">
@@ -2846,10 +2852,10 @@
       <x:c r="D27" s="22"/>
       <x:c r="E27" s="21"/>
       <x:c r="F27" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G27" s="7" t="s">
-        <x:v>219</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7" ht="15.75" customHeight="1">
@@ -2859,10 +2865,10 @@
       <x:c r="D28" s="22"/>
       <x:c r="E28" s="21"/>
       <x:c r="F28" s="7" t="s">
-        <x:v>186</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G28" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" ht="15.75" customHeight="1">
@@ -2872,10 +2878,10 @@
       <x:c r="D29" s="22"/>
       <x:c r="E29" s="21"/>
       <x:c r="F29" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G29" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7" ht="15.75" customHeight="1">
@@ -2885,10 +2891,10 @@
       <x:c r="D30" s="23"/>
       <x:c r="E30" s="21"/>
       <x:c r="F30" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G30" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7" ht="15.75" customHeight="1">
@@ -2898,10 +2904,10 @@
       <x:c r="D31" s="23"/>
       <x:c r="E31" s="21"/>
       <x:c r="F31" s="7" t="s">
-        <x:v>180</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G31" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" ht="15.75" customHeight="1">
@@ -2909,16 +2915,16 @@
       <x:c r="B32" s="31"/>
       <x:c r="C32" s="37"/>
       <x:c r="D32" s="9" t="s">
-        <x:v>212</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E32" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F32" s="7" t="s">
-        <x:v>162</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G32" s="7" t="s">
-        <x:v>268</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" ht="15.75" customHeight="1">
@@ -2926,13 +2932,13 @@
       <x:c r="B33" s="31"/>
       <x:c r="C33" s="37"/>
       <x:c r="D33" s="9" t="s">
-        <x:v>203</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E33" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F33" s="7" t="s">
-        <x:v>139</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G33" s="7"/>
     </x:row>
@@ -2940,16 +2946,16 @@
       <x:c r="A34" s="1"/>
       <x:c r="B34" s="32"/>
       <x:c r="C34" s="36" t="s">
-        <x:v>47</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D34" s="35" t="s">
-        <x:v>211</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E34" s="6" t="s">
-        <x:v>239</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F34" s="7" t="s">
-        <x:v>143</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G34" s="18"/>
     </x:row>
@@ -2959,10 +2965,10 @@
       <x:c r="C35" s="25"/>
       <x:c r="D35" s="25"/>
       <x:c r="E35" s="18" t="s">
-        <x:v>228</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="F35" s="7" t="s">
-        <x:v>148</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G35" s="19"/>
     </x:row>
@@ -2973,7 +2979,7 @@
       <x:c r="D36" s="25"/>
       <x:c r="E36" s="19"/>
       <x:c r="F36" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G36" s="19"/>
     </x:row>
@@ -2983,10 +2989,10 @@
       <x:c r="C37" s="25"/>
       <x:c r="D37" s="25"/>
       <x:c r="E37" s="18" t="s">
-        <x:v>114</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F37" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G37" s="19"/>
     </x:row>
@@ -2997,7 +3003,7 @@
       <x:c r="D38" s="25"/>
       <x:c r="E38" s="19"/>
       <x:c r="F38" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G38" s="19"/>
     </x:row>
@@ -3006,16 +3012,16 @@
       <x:c r="B39" s="32"/>
       <x:c r="C39" s="25"/>
       <x:c r="D39" s="35" t="s">
-        <x:v>204</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E39" s="18" t="s">
-        <x:v>111</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F39" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G39" s="7" t="s">
-        <x:v>221</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7" ht="15.75" customHeight="1">
@@ -3025,10 +3031,10 @@
       <x:c r="D40" s="25"/>
       <x:c r="E40" s="19"/>
       <x:c r="F40" s="7" t="s">
-        <x:v>147</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G40" s="7" t="s">
-        <x:v>220</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7" ht="15.75" customHeight="1">
@@ -3036,16 +3042,16 @@
       <x:c r="B41" s="32"/>
       <x:c r="C41" s="25"/>
       <x:c r="D41" s="9" t="s">
-        <x:v>212</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E41" s="7" t="s">
-        <x:v>81</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F41" s="7" t="s">
-        <x:v>95</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G41" s="7" t="s">
-        <x:v>269</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7" ht="15.75" customHeight="1">
@@ -3053,13 +3059,13 @@
       <x:c r="B42" s="32"/>
       <x:c r="C42" s="25"/>
       <x:c r="D42" s="9" t="s">
-        <x:v>203</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E42" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F42" s="7" t="s">
-        <x:v>133</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G42" s="7"/>
     </x:row>
@@ -3067,16 +3073,16 @@
       <x:c r="A43" s="1"/>
       <x:c r="B43" s="32"/>
       <x:c r="C43" s="36" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D43" s="35" t="s">
-        <x:v>211</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E43" s="10" t="s">
-        <x:v>235</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F43" s="7" t="s">
-        <x:v>140</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G43" s="18"/>
     </x:row>
@@ -3086,10 +3092,10 @@
       <x:c r="C44" s="25"/>
       <x:c r="D44" s="25"/>
       <x:c r="E44" s="18" t="s">
-        <x:v>107</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F44" s="7" t="s">
-        <x:v>146</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G44" s="19"/>
     </x:row>
@@ -3100,7 +3106,7 @@
       <x:c r="D45" s="25"/>
       <x:c r="E45" s="19"/>
       <x:c r="F45" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G45" s="19"/>
     </x:row>
@@ -3110,10 +3116,10 @@
       <x:c r="C46" s="25"/>
       <x:c r="D46" s="25"/>
       <x:c r="E46" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F46" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G46" s="19"/>
     </x:row>
@@ -3124,7 +3130,7 @@
       <x:c r="D47" s="25"/>
       <x:c r="E47" s="19"/>
       <x:c r="F47" s="7" t="s">
-        <x:v>190</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G47" s="19"/>
     </x:row>
@@ -3133,16 +3139,16 @@
       <x:c r="B48" s="32"/>
       <x:c r="C48" s="25"/>
       <x:c r="D48" s="35" t="s">
-        <x:v>204</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E48" s="18" t="s">
-        <x:v>109</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F48" s="7" t="s">
-        <x:v>157</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G48" s="7" t="s">
-        <x:v>217</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7" ht="15.75" customHeight="1">
@@ -3152,10 +3158,10 @@
       <x:c r="D49" s="25"/>
       <x:c r="E49" s="19"/>
       <x:c r="F49" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G49" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" ht="15.75" customHeight="1">
@@ -3165,10 +3171,10 @@
       <x:c r="D50" s="25"/>
       <x:c r="E50" s="19"/>
       <x:c r="F50" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G50" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7" ht="15.75" customHeight="1">
@@ -3176,16 +3182,16 @@
       <x:c r="B51" s="32"/>
       <x:c r="C51" s="25"/>
       <x:c r="D51" s="9" t="s">
-        <x:v>212</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E51" s="7" t="s">
-        <x:v>83</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F51" s="7" t="s">
-        <x:v>177</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G51" s="7" t="s">
-        <x:v>270</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7" ht="15.75" customHeight="1">
@@ -3193,13 +3199,13 @@
       <x:c r="B52" s="32"/>
       <x:c r="C52" s="25"/>
       <x:c r="D52" s="9" t="s">
-        <x:v>203</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E52" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F52" s="7" t="s">
-        <x:v>134</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G52" s="7"/>
     </x:row>
@@ -3207,16 +3213,16 @@
       <x:c r="A53" s="1"/>
       <x:c r="B53" s="33"/>
       <x:c r="C53" s="37" t="s">
-        <x:v>174</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D53" s="35" t="s">
-        <x:v>211</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E53" s="6" t="s">
-        <x:v>119</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F53" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G53" s="18"/>
     </x:row>
@@ -3226,10 +3232,10 @@
       <x:c r="C54" s="37"/>
       <x:c r="D54" s="19"/>
       <x:c r="E54" s="18" t="s">
-        <x:v>84</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F54" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G54" s="19"/>
     </x:row>
@@ -3240,7 +3246,7 @@
       <x:c r="D55" s="19"/>
       <x:c r="E55" s="19"/>
       <x:c r="F55" s="7" t="s">
-        <x:v>193</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G55" s="19"/>
     </x:row>
@@ -3250,10 +3256,10 @@
       <x:c r="C56" s="37"/>
       <x:c r="D56" s="19"/>
       <x:c r="E56" s="18" t="s">
-        <x:v>76</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F56" s="7" t="s">
-        <x:v>179</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G56" s="19"/>
     </x:row>
@@ -3264,7 +3270,7 @@
       <x:c r="D57" s="19"/>
       <x:c r="E57" s="19"/>
       <x:c r="F57" s="7" t="s">
-        <x:v>254</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G57" s="19"/>
     </x:row>
@@ -3273,16 +3279,16 @@
       <x:c r="B58" s="33"/>
       <x:c r="C58" s="37"/>
       <x:c r="D58" s="22" t="s">
-        <x:v>204</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E58" s="21" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F58" s="7" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G58" s="7" t="s">
         <x:v>124</x:v>
-      </x:c>
-      <x:c r="F58" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G58" s="7" t="s">
-        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:7" ht="15.75" customHeight="1">
@@ -3292,97 +3298,99 @@
       <x:c r="D59" s="28"/>
       <x:c r="E59" s="28"/>
       <x:c r="F59" s="7" t="s">
-        <x:v>144</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G59" s="7" t="s">
-        <x:v>218</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A60" s="1"/>
-      <x:c r="B60" s="33"/>
+      <x:c r="B60" s="29"/>
       <x:c r="C60" s="37"/>
-      <x:c r="D60" s="28"/>
-      <x:c r="E60" s="28"/>
+      <x:c r="D60" s="22"/>
+      <x:c r="E60" s="21"/>
       <x:c r="F60" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G60" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A61" s="1"/>
       <x:c r="B61" s="33"/>
       <x:c r="C61" s="37"/>
-      <x:c r="D61" s="38"/>
-      <x:c r="E61" s="38"/>
+      <x:c r="D61" s="28"/>
+      <x:c r="E61" s="28"/>
       <x:c r="F61" s="7" t="s">
-        <x:v>208</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G61" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A62" s="1"/>
       <x:c r="B62" s="33"/>
       <x:c r="C62" s="37"/>
-      <x:c r="D62" s="9" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="E62" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
+      <x:c r="D62" s="38"/>
+      <x:c r="E62" s="38"/>
       <x:c r="F62" s="7" t="s">
-        <x:v>255</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G62" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A63" s="1"/>
       <x:c r="B63" s="33"/>
-      <x:c r="C63" s="38" t="s">
-        <x:v>187</x:v>
-      </x:c>
+      <x:c r="C63" s="37"/>
       <x:c r="D63" s="9" t="s">
-        <x:v>203</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E63" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F63" s="7" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G63" s="7"/>
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="G63" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
     </x:row>
     <x:row r="64" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A64" s="1"/>
       <x:c r="B64" s="33"/>
-      <x:c r="C64" s="36" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D64" s="35" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E64" s="18" t="s">
-        <x:v>240</x:v>
+      <x:c r="C64" s="38" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D64" s="9" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="E64" s="7" t="s">
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F64" s="7" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="G64" s="18"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G64" s="7"/>
     </x:row>
     <x:row r="65" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A65" s="1"/>
       <x:c r="B65" s="33"/>
-      <x:c r="C65" s="36"/>
-      <x:c r="D65" s="35"/>
-      <x:c r="E65" s="19"/>
+      <x:c r="C65" s="36" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D65" s="35" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E65" s="18" t="s">
+        <x:v>224</x:v>
+      </x:c>
       <x:c r="F65" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G65" s="18"/>
     </x:row>
@@ -3391,11 +3399,9 @@
       <x:c r="B66" s="33"/>
       <x:c r="C66" s="36"/>
       <x:c r="D66" s="35"/>
-      <x:c r="E66" s="18" t="s">
-        <x:v>113</x:v>
-      </x:c>
+      <x:c r="E66" s="19"/>
       <x:c r="F66" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G66" s="18"/>
     </x:row>
@@ -3404,9 +3410,11 @@
       <x:c r="B67" s="33"/>
       <x:c r="C67" s="36"/>
       <x:c r="D67" s="35"/>
-      <x:c r="E67" s="19"/>
+      <x:c r="E67" s="18" t="s">
+        <x:v>129</x:v>
+      </x:c>
       <x:c r="F67" s="7" t="s">
-        <x:v>184</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G67" s="18"/>
     </x:row>
@@ -3414,91 +3422,91 @@
       <x:c r="A68" s="1"/>
       <x:c r="B68" s="33"/>
       <x:c r="C68" s="36"/>
-      <x:c r="D68" s="22" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E68" s="21" t="s">
-        <x:v>243</x:v>
-      </x:c>
+      <x:c r="D68" s="35"/>
+      <x:c r="E68" s="19"/>
       <x:c r="F68" s="7" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="G68" s="7" t="s">
-        <x:v>195</x:v>
-      </x:c>
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="G68" s="18"/>
     </x:row>
     <x:row r="69" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A69" s="1"/>
       <x:c r="B69" s="33"/>
       <x:c r="C69" s="36"/>
-      <x:c r="D69" s="22"/>
-      <x:c r="E69" s="21"/>
+      <x:c r="D69" s="22" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="E69" s="21" t="s">
+        <x:v>229</x:v>
+      </x:c>
       <x:c r="F69" s="7" t="s">
-        <x:v>155</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G69" s="7" t="s">
-        <x:v>99</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A70" s="1"/>
       <x:c r="B70" s="33"/>
       <x:c r="C70" s="36"/>
-      <x:c r="D70" s="9" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="E70" s="7" t="s">
-        <x:v>93</x:v>
-      </x:c>
+      <x:c r="D70" s="22"/>
+      <x:c r="E70" s="21"/>
       <x:c r="F70" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G70" s="7" t="s">
-        <x:v>201</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A71" s="1"/>
-      <x:c r="B71" s="34"/>
+      <x:c r="B71" s="33"/>
       <x:c r="C71" s="36"/>
       <x:c r="D71" s="9" t="s">
-        <x:v>203</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E71" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F71" s="7" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="G71" s="7"/>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G71" s="7" t="s">
+        <x:v>245</x:v>
+      </x:c>
     </x:row>
     <x:row r="72" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A72" s="1"/>
-      <x:c r="B72" s="37" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C72" s="37" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D72" s="22" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E72" s="21" t="s">
-        <x:v>192</x:v>
+      <x:c r="B72" s="34"/>
+      <x:c r="C72" s="36"/>
+      <x:c r="D72" s="9" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="E72" s="7" t="s">
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F72" s="7" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="G72" s="8"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G72" s="7"/>
     </x:row>
     <x:row r="73" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A73" s="1"/>
-      <x:c r="B73" s="23"/>
-      <x:c r="C73" s="23"/>
-      <x:c r="D73" s="23"/>
-      <x:c r="E73" s="39"/>
+      <x:c r="B73" s="37" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C73" s="37" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D73" s="22" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E73" s="21" t="s">
+        <x:v>196</x:v>
+      </x:c>
       <x:c r="F73" s="7" t="s">
-        <x:v>205</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="G73" s="8"/>
     </x:row>
@@ -3509,52 +3517,52 @@
       <x:c r="D74" s="23"/>
       <x:c r="E74" s="39"/>
       <x:c r="F74" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G74" s="8"/>
     </x:row>
     <x:row r="75" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A75" s="1"/>
-      <x:c r="B75" s="36" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C75" s="36" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D75" s="35" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E75" s="7" t="s">
-        <x:v>222</x:v>
-      </x:c>
+      <x:c r="B75" s="23"/>
+      <x:c r="C75" s="23"/>
+      <x:c r="D75" s="23"/>
+      <x:c r="E75" s="39"/>
       <x:c r="F75" s="7" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="G75" s="7" t="s">
-        <x:v>45</x:v>
-      </x:c>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G75" s="8"/>
     </x:row>
     <x:row r="76" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A76" s="1"/>
-      <x:c r="B76" s="36"/>
-      <x:c r="C76" s="36"/>
-      <x:c r="D76" s="35"/>
-      <x:c r="E76" s="18" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F76" s="12" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G76" s="12"/>
+      <x:c r="B76" s="36" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C76" s="36" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D76" s="35" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="E76" s="7" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="F76" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G76" s="7" t="s">
+        <x:v>80</x:v>
+      </x:c>
     </x:row>
     <x:row r="77" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A77" s="1"/>
       <x:c r="B77" s="36"/>
       <x:c r="C77" s="36"/>
       <x:c r="D77" s="35"/>
-      <x:c r="E77" s="18"/>
+      <x:c r="E77" s="18" t="s">
+        <x:v>133</x:v>
+      </x:c>
       <x:c r="F77" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G77" s="12"/>
     </x:row>
@@ -3562,44 +3570,44 @@
       <x:c r="A78" s="1"/>
       <x:c r="B78" s="36"/>
       <x:c r="C78" s="36"/>
-      <x:c r="D78" s="9" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="E78" s="7" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="F78" s="7" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G78" s="7" t="s">
-        <x:v>200</x:v>
-      </x:c>
+      <x:c r="D78" s="35"/>
+      <x:c r="E78" s="18"/>
+      <x:c r="F78" s="12" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G78" s="12"/>
     </x:row>
     <x:row r="79" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A79" s="1"/>
       <x:c r="B79" s="36"/>
-      <x:c r="C79" s="36" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D79" s="35" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E79" s="18" t="s">
-        <x:v>116</x:v>
+      <x:c r="C79" s="36"/>
+      <x:c r="D79" s="9" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="E79" s="7" t="s">
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F79" s="7" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="G79" s="7"/>
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="G79" s="7" t="s">
+        <x:v>239</x:v>
+      </x:c>
     </x:row>
     <x:row r="80" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A80" s="1"/>
       <x:c r="B80" s="36"/>
-      <x:c r="C80" s="36"/>
-      <x:c r="D80" s="35"/>
-      <x:c r="E80" s="18"/>
+      <x:c r="C80" s="36" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D80" s="35" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E80" s="18" t="s">
+        <x:v>127</x:v>
+      </x:c>
       <x:c r="F80" s="7" t="s">
-        <x:v>250</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G80" s="7"/>
     </x:row>
@@ -3608,11 +3616,9 @@
       <x:c r="B81" s="36"/>
       <x:c r="C81" s="36"/>
       <x:c r="D81" s="35"/>
-      <x:c r="E81" s="18" t="s">
-        <x:v>234</x:v>
-      </x:c>
+      <x:c r="E81" s="18"/>
       <x:c r="F81" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="G81" s="7"/>
     </x:row>
@@ -3621,9 +3627,11 @@
       <x:c r="B82" s="36"/>
       <x:c r="C82" s="36"/>
       <x:c r="D82" s="35"/>
-      <x:c r="E82" s="18"/>
+      <x:c r="E82" s="18" t="s">
+        <x:v>231</x:v>
+      </x:c>
       <x:c r="F82" s="7" t="s">
-        <x:v>96</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G82" s="7"/>
     </x:row>
@@ -3631,25 +3639,25 @@
       <x:c r="A83" s="1"/>
       <x:c r="B83" s="36"/>
       <x:c r="C83" s="36"/>
-      <x:c r="D83" s="35" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E83" s="18" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F83" s="12" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G83" s="12"/>
+      <x:c r="D83" s="35"/>
+      <x:c r="E83" s="18"/>
+      <x:c r="F83" s="7" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="G83" s="7"/>
     </x:row>
     <x:row r="84" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A84" s="1"/>
       <x:c r="B84" s="36"/>
       <x:c r="C84" s="36"/>
-      <x:c r="D84" s="35"/>
-      <x:c r="E84" s="18"/>
+      <x:c r="D84" s="35" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="E84" s="18" t="s">
+        <x:v>133</x:v>
+      </x:c>
       <x:c r="F84" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G84" s="12"/>
     </x:row>
@@ -3660,7 +3668,7 @@
       <x:c r="D85" s="35"/>
       <x:c r="E85" s="18"/>
       <x:c r="F85" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G85" s="12"/>
     </x:row>
@@ -3669,44 +3677,38 @@
       <x:c r="B86" s="36"/>
       <x:c r="C86" s="36"/>
       <x:c r="D86" s="35"/>
-      <x:c r="E86" s="18" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="F86" s="7" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="G86" s="7" t="s">
-        <x:v>236</x:v>
-      </x:c>
+      <x:c r="E86" s="18"/>
+      <x:c r="F86" s="12" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G86" s="12"/>
     </x:row>
     <x:row r="87" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A87" s="1"/>
       <x:c r="B87" s="36"/>
       <x:c r="C87" s="36"/>
       <x:c r="D87" s="35"/>
-      <x:c r="E87" s="18"/>
+      <x:c r="E87" s="18" t="s">
+        <x:v>212</x:v>
+      </x:c>
       <x:c r="F87" s="7" t="s">
-        <x:v>101</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G87" s="7" t="s">
-        <x:v>251</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A88" s="1"/>
       <x:c r="B88" s="36"/>
       <x:c r="C88" s="36"/>
-      <x:c r="D88" s="9" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="E88" s="7" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F88" s="13" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="G88" s="12" t="s">
-        <x:v>197</x:v>
+      <x:c r="D88" s="35"/>
+      <x:c r="E88" s="18"/>
+      <x:c r="F88" s="7" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="G88" s="7" t="s">
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:7" ht="15.75" customHeight="1">
@@ -3714,54 +3716,60 @@
       <x:c r="B89" s="36"/>
       <x:c r="C89" s="36"/>
       <x:c r="D89" s="9" t="s">
-        <x:v>203</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E89" s="7" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F89" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G89" s="8"/>
-    </x:row>
-    <x:row r="90" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="F89" s="13" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="G89" s="12" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A90" s="1"/>
       <x:c r="B90" s="36"/>
-      <x:c r="C90" s="40" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D90" s="43" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E90" s="16" t="s">
-        <x:v>263</x:v>
+      <x:c r="C90" s="36"/>
+      <x:c r="D90" s="9" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="E90" s="7" t="s">
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F90" s="12" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="G90" s="17"/>
-    </x:row>
-    <x:row r="91" spans="1:7" ht="15.75" customHeight="1">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G90" s="8"/>
+    </x:row>
+    <x:row r="91" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A91" s="1"/>
       <x:c r="B91" s="36"/>
-      <x:c r="C91" s="41"/>
-      <x:c r="D91" s="44"/>
-      <x:c r="E91" s="18" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F91" s="7" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G91" s="7"/>
+      <x:c r="C91" s="40" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D91" s="43" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E91" s="16" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="F91" s="12" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G91" s="17"/>
     </x:row>
     <x:row r="92" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A92" s="1"/>
       <x:c r="B92" s="36"/>
       <x:c r="C92" s="41"/>
       <x:c r="D92" s="44"/>
-      <x:c r="E92" s="18"/>
+      <x:c r="E92" s="18" t="s">
+        <x:v>150</x:v>
+      </x:c>
       <x:c r="F92" s="7" t="s">
-        <x:v>170</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G92" s="7"/>
     </x:row>
@@ -3770,11 +3778,9 @@
       <x:c r="B93" s="36"/>
       <x:c r="C93" s="41"/>
       <x:c r="D93" s="44"/>
-      <x:c r="E93" s="18" t="s">
-        <x:v>216</x:v>
-      </x:c>
+      <x:c r="E93" s="18"/>
       <x:c r="F93" s="7" t="s">
-        <x:v>145</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G93" s="7"/>
     </x:row>
@@ -3782,10 +3788,12 @@
       <x:c r="A94" s="1"/>
       <x:c r="B94" s="36"/>
       <x:c r="C94" s="41"/>
-      <x:c r="D94" s="45"/>
-      <x:c r="E94" s="18"/>
+      <x:c r="D94" s="44"/>
+      <x:c r="E94" s="18" t="s">
+        <x:v>236</x:v>
+      </x:c>
       <x:c r="F94" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G94" s="7"/>
     </x:row>
@@ -3793,25 +3801,25 @@
       <x:c r="A95" s="1"/>
       <x:c r="B95" s="36"/>
       <x:c r="C95" s="41"/>
-      <x:c r="D95" s="35" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E95" s="18" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F95" s="12" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="G95" s="12"/>
+      <x:c r="D95" s="45"/>
+      <x:c r="E95" s="18"/>
+      <x:c r="F95" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G95" s="7"/>
     </x:row>
     <x:row r="96" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A96" s="1"/>
       <x:c r="B96" s="36"/>
       <x:c r="C96" s="41"/>
-      <x:c r="D96" s="35"/>
-      <x:c r="E96" s="18"/>
+      <x:c r="D96" s="35" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="E96" s="18" t="s">
+        <x:v>133</x:v>
+      </x:c>
       <x:c r="F96" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G96" s="12"/>
     </x:row>
@@ -3822,7 +3830,7 @@
       <x:c r="D97" s="35"/>
       <x:c r="E97" s="18"/>
       <x:c r="F97" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G97" s="12"/>
     </x:row>
@@ -3831,27 +3839,25 @@
       <x:c r="B98" s="36"/>
       <x:c r="C98" s="41"/>
       <x:c r="D98" s="35"/>
-      <x:c r="E98" s="18" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="F98" s="7" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G98" s="7" t="s">
-        <x:v>258</x:v>
-      </x:c>
+      <x:c r="E98" s="18"/>
+      <x:c r="F98" s="12" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G98" s="12"/>
     </x:row>
     <x:row r="99" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A99" s="1"/>
       <x:c r="B99" s="36"/>
       <x:c r="C99" s="41"/>
       <x:c r="D99" s="35"/>
-      <x:c r="E99" s="18"/>
+      <x:c r="E99" s="18" t="s">
+        <x:v>235</x:v>
+      </x:c>
       <x:c r="F99" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G99" s="7" t="s">
-        <x:v>264</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7" ht="15.75" customHeight="1">
@@ -3861,69 +3867,71 @@
       <x:c r="D100" s="35"/>
       <x:c r="E100" s="18"/>
       <x:c r="F100" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G100" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A101" s="1"/>
       <x:c r="B101" s="36"/>
       <x:c r="C101" s="41"/>
-      <x:c r="D101" s="14" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="E101" s="15" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F101" s="15" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="G101" s="15" t="s">
-        <x:v>199</x:v>
+      <x:c r="D101" s="35"/>
+      <x:c r="E101" s="18"/>
+      <x:c r="F101" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G101" s="7" t="s">
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A102" s="1"/>
       <x:c r="B102" s="36"/>
-      <x:c r="C102" s="42"/>
+      <x:c r="C102" s="41"/>
       <x:c r="D102" s="14" t="s">
-        <x:v>203</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E102" s="15" t="s">
-        <x:v>117</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F102" s="15" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="G102" s="15"/>
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="G102" s="15" t="s">
+        <x:v>201</x:v>
+      </x:c>
     </x:row>
     <x:row r="103" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A103" s="1"/>
       <x:c r="B103" s="36"/>
-      <x:c r="C103" s="36" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="D103" s="35" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E103" s="18" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F103" s="7" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G103" s="7"/>
+      <x:c r="C103" s="42"/>
+      <x:c r="D103" s="14" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="E103" s="15" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="F103" s="15" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G103" s="15"/>
     </x:row>
     <x:row r="104" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A104" s="1"/>
       <x:c r="B104" s="36"/>
-      <x:c r="C104" s="36"/>
-      <x:c r="D104" s="35"/>
-      <x:c r="E104" s="18"/>
+      <x:c r="C104" s="36" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D104" s="35" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E104" s="18" t="s">
+        <x:v>134</x:v>
+      </x:c>
       <x:c r="F104" s="7" t="s">
-        <x:v>253</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G104" s="7"/>
     </x:row>
@@ -3932,11 +3940,9 @@
       <x:c r="B105" s="36"/>
       <x:c r="C105" s="36"/>
       <x:c r="D105" s="35"/>
-      <x:c r="E105" s="18" t="s">
-        <x:v>245</x:v>
-      </x:c>
+      <x:c r="E105" s="18"/>
       <x:c r="F105" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G105" s="7"/>
     </x:row>
@@ -3945,9 +3951,11 @@
       <x:c r="B106" s="36"/>
       <x:c r="C106" s="36"/>
       <x:c r="D106" s="35"/>
-      <x:c r="E106" s="18"/>
+      <x:c r="E106" s="18" t="s">
+        <x:v>225</x:v>
+      </x:c>
       <x:c r="F106" s="7" t="s">
-        <x:v>173</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G106" s="7"/>
     </x:row>
@@ -3955,25 +3963,25 @@
       <x:c r="A107" s="1"/>
       <x:c r="B107" s="36"/>
       <x:c r="C107" s="36"/>
-      <x:c r="D107" s="35" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E107" s="18" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F107" s="12" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G107" s="12"/>
+      <x:c r="D107" s="35"/>
+      <x:c r="E107" s="18"/>
+      <x:c r="F107" s="7" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="G107" s="7"/>
     </x:row>
     <x:row r="108" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A108" s="1"/>
       <x:c r="B108" s="36"/>
       <x:c r="C108" s="36"/>
-      <x:c r="D108" s="35"/>
-      <x:c r="E108" s="18"/>
+      <x:c r="D108" s="35" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="E108" s="18" t="s">
+        <x:v>133</x:v>
+      </x:c>
       <x:c r="F108" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G108" s="12"/>
     </x:row>
@@ -3984,7 +3992,7 @@
       <x:c r="D109" s="35"/>
       <x:c r="E109" s="18"/>
       <x:c r="F109" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G109" s="12"/>
     </x:row>
@@ -3993,44 +4001,38 @@
       <x:c r="B110" s="36"/>
       <x:c r="C110" s="36"/>
       <x:c r="D110" s="35"/>
-      <x:c r="E110" s="18" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="F110" s="7" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G110" s="7" t="s">
-        <x:v>223</x:v>
-      </x:c>
+      <x:c r="E110" s="18"/>
+      <x:c r="F110" s="12" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G110" s="12"/>
     </x:row>
     <x:row r="111" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A111" s="1"/>
       <x:c r="B111" s="36"/>
       <x:c r="C111" s="36"/>
       <x:c r="D111" s="35"/>
-      <x:c r="E111" s="18"/>
+      <x:c r="E111" s="18" t="s">
+        <x:v>217</x:v>
+      </x:c>
       <x:c r="F111" s="7" t="s">
-        <x:v>94</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G111" s="7" t="s">
-        <x:v>158</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A112" s="1"/>
       <x:c r="B112" s="36"/>
       <x:c r="C112" s="36"/>
-      <x:c r="D112" s="9" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="E112" s="7" t="s">
-        <x:v>90</x:v>
-      </x:c>
+      <x:c r="D112" s="35"/>
+      <x:c r="E112" s="18"/>
       <x:c r="F112" s="7" t="s">
-        <x:v>249</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G112" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:7" ht="15.75" customHeight="1">
@@ -4038,41 +4040,47 @@
       <x:c r="B113" s="36"/>
       <x:c r="C113" s="36"/>
       <x:c r="D113" s="9" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="E113" s="12" t="s">
-        <x:v>117</x:v>
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="E113" s="7" t="s">
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F113" s="7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G113" s="7"/>
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="G113" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
     </x:row>
     <x:row r="114" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A114" s="1"/>
       <x:c r="B114" s="36"/>
-      <x:c r="C114" s="36" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D114" s="35" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E114" s="18" t="s">
-        <x:v>130</x:v>
+      <x:c r="C114" s="36"/>
+      <x:c r="D114" s="9" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="E114" s="12" t="s">
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F114" s="7" t="s">
-        <x:v>188</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G114" s="7"/>
     </x:row>
     <x:row r="115" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A115" s="1"/>
       <x:c r="B115" s="36"/>
-      <x:c r="C115" s="36"/>
-      <x:c r="D115" s="35"/>
-      <x:c r="E115" s="18"/>
+      <x:c r="C115" s="36" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D115" s="35" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E115" s="18" t="s">
+        <x:v>152</x:v>
+      </x:c>
       <x:c r="F115" s="7" t="s">
-        <x:v>256</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G115" s="7"/>
     </x:row>
@@ -4081,11 +4089,9 @@
       <x:c r="B116" s="36"/>
       <x:c r="C116" s="36"/>
       <x:c r="D116" s="35"/>
-      <x:c r="E116" s="18" t="s">
-        <x:v>242</x:v>
-      </x:c>
+      <x:c r="E116" s="18"/>
       <x:c r="F116" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="G116" s="7"/>
     </x:row>
@@ -4094,9 +4100,11 @@
       <x:c r="B117" s="36"/>
       <x:c r="C117" s="36"/>
       <x:c r="D117" s="35"/>
-      <x:c r="E117" s="18"/>
+      <x:c r="E117" s="18" t="s">
+        <x:v>220</x:v>
+      </x:c>
       <x:c r="F117" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G117" s="7"/>
     </x:row>
@@ -4104,25 +4112,25 @@
       <x:c r="A118" s="1"/>
       <x:c r="B118" s="36"/>
       <x:c r="C118" s="36"/>
-      <x:c r="D118" s="35" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E118" s="18" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F118" s="12" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G118" s="12"/>
+      <x:c r="D118" s="35"/>
+      <x:c r="E118" s="18"/>
+      <x:c r="F118" s="7" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="G118" s="7"/>
     </x:row>
     <x:row r="119" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A119" s="1"/>
       <x:c r="B119" s="36"/>
       <x:c r="C119" s="36"/>
-      <x:c r="D119" s="35"/>
-      <x:c r="E119" s="18"/>
+      <x:c r="D119" s="35" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="E119" s="18" t="s">
+        <x:v>133</x:v>
+      </x:c>
       <x:c r="F119" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G119" s="12"/>
     </x:row>
@@ -4133,7 +4141,7 @@
       <x:c r="D120" s="35"/>
       <x:c r="E120" s="18"/>
       <x:c r="F120" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G120" s="12"/>
     </x:row>
@@ -4142,27 +4150,25 @@
       <x:c r="B121" s="36"/>
       <x:c r="C121" s="36"/>
       <x:c r="D121" s="35"/>
-      <x:c r="E121" s="18" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F121" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G121" s="7" t="s">
-        <x:v>241</x:v>
-      </x:c>
+      <x:c r="E121" s="18"/>
+      <x:c r="F121" s="12" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G121" s="12"/>
     </x:row>
     <x:row r="122" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A122" s="1"/>
       <x:c r="B122" s="36"/>
       <x:c r="C122" s="36"/>
       <x:c r="D122" s="35"/>
-      <x:c r="E122" s="18"/>
+      <x:c r="E122" s="18" t="s">
+        <x:v>145</x:v>
+      </x:c>
       <x:c r="F122" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G122" s="7" t="s">
-        <x:v>252</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:7" ht="15.75" customHeight="1">
@@ -4172,27 +4178,23 @@
       <x:c r="D123" s="35"/>
       <x:c r="E123" s="18"/>
       <x:c r="F123" s="7" t="s">
-        <x:v>171</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G123" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A124" s="1"/>
       <x:c r="B124" s="36"/>
       <x:c r="C124" s="36"/>
-      <x:c r="D124" s="9" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="E124" s="12" t="s">
-        <x:v>86</x:v>
-      </x:c>
+      <x:c r="D124" s="35"/>
+      <x:c r="E124" s="18"/>
       <x:c r="F124" s="7" t="s">
-        <x:v>265</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G124" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:7" ht="15.75" customHeight="1">
@@ -4200,41 +4202,47 @@
       <x:c r="B125" s="36"/>
       <x:c r="C125" s="36"/>
       <x:c r="D125" s="9" t="s">
-        <x:v>203</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E125" s="12" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F125" s="7" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G125" s="7"/>
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="G125" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
     </x:row>
     <x:row r="126" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A126" s="1"/>
       <x:c r="B126" s="36"/>
-      <x:c r="C126" s="36" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D126" s="35" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E126" s="18" t="s">
-        <x:v>87</x:v>
+      <x:c r="C126" s="36"/>
+      <x:c r="D126" s="9" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="E126" s="12" t="s">
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F126" s="7" t="s">
-        <x:v>259</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G126" s="7"/>
     </x:row>
     <x:row r="127" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A127" s="1"/>
       <x:c r="B127" s="36"/>
-      <x:c r="C127" s="36"/>
-      <x:c r="D127" s="35"/>
-      <x:c r="E127" s="18"/>
+      <x:c r="C127" s="36" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D127" s="35" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E127" s="18" t="s">
+        <x:v>114</x:v>
+      </x:c>
       <x:c r="F127" s="7" t="s">
-        <x:v>224</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="G127" s="7"/>
     </x:row>
@@ -4243,11 +4251,9 @@
       <x:c r="B128" s="36"/>
       <x:c r="C128" s="36"/>
       <x:c r="D128" s="35"/>
-      <x:c r="E128" s="18" t="s">
-        <x:v>127</x:v>
-      </x:c>
+      <x:c r="E128" s="18"/>
       <x:c r="F128" s="7" t="s">
-        <x:v>166</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G128" s="7"/>
     </x:row>
@@ -4256,9 +4262,11 @@
       <x:c r="B129" s="36"/>
       <x:c r="C129" s="36"/>
       <x:c r="D129" s="35"/>
-      <x:c r="E129" s="18"/>
+      <x:c r="E129" s="18" t="s">
+        <x:v>131</x:v>
+      </x:c>
       <x:c r="F129" s="7" t="s">
-        <x:v>257</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G129" s="7"/>
     </x:row>
@@ -4266,25 +4274,25 @@
       <x:c r="A130" s="1"/>
       <x:c r="B130" s="36"/>
       <x:c r="C130" s="36"/>
-      <x:c r="D130" s="35" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E130" s="18" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F130" s="12" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G130" s="12"/>
+      <x:c r="D130" s="35"/>
+      <x:c r="E130" s="18"/>
+      <x:c r="F130" s="7" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="G130" s="7"/>
     </x:row>
     <x:row r="131" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A131" s="1"/>
       <x:c r="B131" s="36"/>
       <x:c r="C131" s="36"/>
-      <x:c r="D131" s="35"/>
-      <x:c r="E131" s="18"/>
+      <x:c r="D131" s="35" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="E131" s="18" t="s">
+        <x:v>133</x:v>
+      </x:c>
       <x:c r="F131" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G131" s="12"/>
     </x:row>
@@ -4295,7 +4303,7 @@
       <x:c r="D132" s="35"/>
       <x:c r="E132" s="18"/>
       <x:c r="F132" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G132" s="12"/>
     </x:row>
@@ -4304,27 +4312,25 @@
       <x:c r="B133" s="36"/>
       <x:c r="C133" s="36"/>
       <x:c r="D133" s="35"/>
-      <x:c r="E133" s="18" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="F133" s="7" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="G133" s="7" t="s">
-        <x:v>74</x:v>
-      </x:c>
+      <x:c r="E133" s="18"/>
+      <x:c r="F133" s="12" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G133" s="12"/>
     </x:row>
     <x:row r="134" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A134" s="1"/>
       <x:c r="B134" s="36"/>
       <x:c r="C134" s="36"/>
       <x:c r="D134" s="35"/>
-      <x:c r="E134" s="18"/>
+      <x:c r="E134" s="18" t="s">
+        <x:v>136</x:v>
+      </x:c>
       <x:c r="F134" s="7" t="s">
-        <x:v>262</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G134" s="7" t="s">
-        <x:v>77</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:7" ht="15.75" customHeight="1">
@@ -4334,27 +4340,23 @@
       <x:c r="D135" s="35"/>
       <x:c r="E135" s="18"/>
       <x:c r="F135" s="7" t="s">
-        <x:v>225</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G135" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A136" s="1"/>
       <x:c r="B136" s="36"/>
       <x:c r="C136" s="36"/>
-      <x:c r="D136" s="9" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="E136" s="12" t="s">
-        <x:v>75</x:v>
-      </x:c>
+      <x:c r="D136" s="35"/>
+      <x:c r="E136" s="18"/>
       <x:c r="F136" s="7" t="s">
-        <x:v>247</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="G136" s="7" t="s">
-        <x:v>178</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:7" ht="15.75" customHeight="1">
@@ -4362,41 +4364,47 @@
       <x:c r="B137" s="36"/>
       <x:c r="C137" s="36"/>
       <x:c r="D137" s="9" t="s">
-        <x:v>203</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E137" s="12" t="s">
-        <x:v>117</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F137" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G137" s="7"/>
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="G137" s="7" t="s">
+        <x:v>185</x:v>
+      </x:c>
     </x:row>
     <x:row r="138" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A138" s="1"/>
       <x:c r="B138" s="36"/>
-      <x:c r="C138" s="36" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D138" s="35" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E138" s="18" t="s">
-        <x:v>129</x:v>
+      <x:c r="C138" s="36"/>
+      <x:c r="D138" s="9" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="E138" s="12" t="s">
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F138" s="7" t="s">
-        <x:v>194</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G138" s="7"/>
     </x:row>
     <x:row r="139" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A139" s="1"/>
       <x:c r="B139" s="36"/>
-      <x:c r="C139" s="36"/>
-      <x:c r="D139" s="35"/>
-      <x:c r="E139" s="18"/>
+      <x:c r="C139" s="36" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D139" s="35" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E139" s="18" t="s">
+        <x:v>151</x:v>
+      </x:c>
       <x:c r="F139" s="7" t="s">
-        <x:v>260</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G139" s="7"/>
     </x:row>
@@ -4405,11 +4413,9 @@
       <x:c r="B140" s="36"/>
       <x:c r="C140" s="36"/>
       <x:c r="D140" s="35"/>
-      <x:c r="E140" s="18" t="s">
-        <x:v>244</x:v>
-      </x:c>
+      <x:c r="E140" s="18"/>
       <x:c r="F140" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="G140" s="7"/>
     </x:row>
@@ -4418,9 +4424,11 @@
       <x:c r="B141" s="36"/>
       <x:c r="C141" s="36"/>
       <x:c r="D141" s="35"/>
-      <x:c r="E141" s="18"/>
+      <x:c r="E141" s="18" t="s">
+        <x:v>230</x:v>
+      </x:c>
       <x:c r="F141" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G141" s="7"/>
     </x:row>
@@ -4428,25 +4436,25 @@
       <x:c r="A142" s="1"/>
       <x:c r="B142" s="36"/>
       <x:c r="C142" s="36"/>
-      <x:c r="D142" s="35" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E142" s="18" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F142" s="12" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G142" s="12"/>
+      <x:c r="D142" s="35"/>
+      <x:c r="E142" s="18"/>
+      <x:c r="F142" s="7" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G142" s="7"/>
     </x:row>
     <x:row r="143" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A143" s="1"/>
       <x:c r="B143" s="36"/>
       <x:c r="C143" s="36"/>
-      <x:c r="D143" s="35"/>
-      <x:c r="E143" s="18"/>
+      <x:c r="D143" s="35" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="E143" s="18" t="s">
+        <x:v>133</x:v>
+      </x:c>
       <x:c r="F143" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G143" s="12"/>
     </x:row>
@@ -4457,7 +4465,7 @@
       <x:c r="D144" s="35"/>
       <x:c r="E144" s="18"/>
       <x:c r="F144" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G144" s="12"/>
     </x:row>
@@ -4466,44 +4474,38 @@
       <x:c r="B145" s="36"/>
       <x:c r="C145" s="36"/>
       <x:c r="D145" s="35"/>
-      <x:c r="E145" s="18" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="F145" s="7" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="G145" s="7" t="s">
-        <x:v>226</x:v>
-      </x:c>
+      <x:c r="E145" s="18"/>
+      <x:c r="F145" s="12" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G145" s="12"/>
     </x:row>
     <x:row r="146" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A146" s="1"/>
       <x:c r="B146" s="36"/>
       <x:c r="C146" s="36"/>
       <x:c r="D146" s="35"/>
-      <x:c r="E146" s="18"/>
+      <x:c r="E146" s="18" t="s">
+        <x:v>135</x:v>
+      </x:c>
       <x:c r="F146" s="7" t="s">
-        <x:v>172</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G146" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A147" s="1"/>
       <x:c r="B147" s="36"/>
       <x:c r="C147" s="36"/>
-      <x:c r="D147" s="9" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="E147" s="12" t="s">
-        <x:v>88</x:v>
-      </x:c>
+      <x:c r="D147" s="35"/>
+      <x:c r="E147" s="18"/>
       <x:c r="F147" s="7" t="s">
-        <x:v>261</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G147" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:7" ht="15.75" customHeight="1">
@@ -4511,18 +4513,32 @@
       <x:c r="B148" s="36"/>
       <x:c r="C148" s="36"/>
       <x:c r="D148" s="9" t="s">
-        <x:v>203</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E148" s="12" t="s">
-        <x:v>117</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F148" s="7" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="G148" s="7"/>
-    </x:row>
-    <x:row r="149" spans="1:1" ht="15.75" customHeight="1">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="G148" s="7" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A149" s="1"/>
+      <x:c r="B149" s="36"/>
+      <x:c r="C149" s="36"/>
+      <x:c r="D149" s="9" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="E149" s="12" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="F149" s="7" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="G149" s="7"/>
     </x:row>
     <x:row r="150" spans="1:1" ht="15.75" customHeight="1">
       <x:c r="A150" s="1"/>
@@ -4533,14 +4549,8 @@
     <x:row r="152" spans="1:1" ht="15.75" customHeight="1">
       <x:c r="A152" s="1"/>
     </x:row>
-    <x:row r="153" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="153" spans="1:1" ht="15.75" customHeight="1">
       <x:c r="A153" s="1"/>
-      <x:c r="B153" s="1"/>
-      <x:c r="C153" s="2"/>
-      <x:c r="D153" s="2"/>
-      <x:c r="E153" s="2"/>
-      <x:c r="F153" s="2"/>
-      <x:c r="G153" s="2"/>
     </x:row>
     <x:row r="154" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A154" s="1"/>
@@ -4948,11 +4958,11 @@
       <x:c r="G198" s="2"/>
     </x:row>
     <x:row r="199" spans="1:7" ht="15.75" customHeight="1">
-      <x:c r="A199" s="3"/>
-      <x:c r="B199" s="3"/>
-      <x:c r="C199" s="3"/>
-      <x:c r="D199" s="3"/>
-      <x:c r="E199" s="3"/>
+      <x:c r="A199" s="1"/>
+      <x:c r="B199" s="1"/>
+      <x:c r="C199" s="2"/>
+      <x:c r="D199" s="2"/>
+      <x:c r="E199" s="2"/>
       <x:c r="F199" s="2"/>
       <x:c r="G199" s="2"/>
     </x:row>
@@ -4962,8 +4972,8 @@
       <x:c r="C200" s="3"/>
       <x:c r="D200" s="3"/>
       <x:c r="E200" s="3"/>
-      <x:c r="F200" s="3"/>
-      <x:c r="G200" s="3"/>
+      <x:c r="F200" s="2"/>
+      <x:c r="G200" s="2"/>
     </x:row>
     <x:row r="201" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A201" s="3"/>
@@ -10644,9 +10654,18 @@
       <x:c r="F831" s="3"/>
       <x:c r="G831" s="3"/>
     </x:row>
-    <x:row r="832" spans="6:7" customHeight="1">
+    <x:row r="832" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="A832" s="3"/>
+      <x:c r="B832" s="3"/>
+      <x:c r="C832" s="3"/>
+      <x:c r="D832" s="3"/>
+      <x:c r="E832" s="3"/>
       <x:c r="F832" s="3"/>
       <x:c r="G832" s="3"/>
+    </x:row>
+    <x:row r="833" spans="6:7" customHeight="1">
+      <x:c r="F833" s="3"/>
+      <x:c r="G833" s="3"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="102">
@@ -10670,7 +10689,7 @@
     <x:mergeCell ref="E17:E19"/>
     <x:mergeCell ref="F9:F10"/>
     <x:mergeCell ref="G9:G10"/>
-    <x:mergeCell ref="B4:B71"/>
+    <x:mergeCell ref="B4:B72"/>
     <x:mergeCell ref="E48:E50"/>
     <x:mergeCell ref="D48:D50"/>
     <x:mergeCell ref="C43:C52"/>
@@ -10683,9 +10702,9 @@
     <x:mergeCell ref="E54:E55"/>
     <x:mergeCell ref="E56:E57"/>
     <x:mergeCell ref="D53:D57"/>
-    <x:mergeCell ref="C53:C63"/>
-    <x:mergeCell ref="E58:E61"/>
-    <x:mergeCell ref="D58:D61"/>
+    <x:mergeCell ref="C53:C64"/>
+    <x:mergeCell ref="E58:E62"/>
+    <x:mergeCell ref="D58:D62"/>
     <x:mergeCell ref="C34:C42"/>
     <x:mergeCell ref="D34:D38"/>
     <x:mergeCell ref="E35:E36"/>
@@ -10695,63 +10714,63 @@
     <x:mergeCell ref="E39:E40"/>
     <x:mergeCell ref="D43:D47"/>
     <x:mergeCell ref="G43:G47"/>
-    <x:mergeCell ref="E91:E92"/>
-    <x:mergeCell ref="E93:E94"/>
-    <x:mergeCell ref="E98:E100"/>
-    <x:mergeCell ref="D79:D82"/>
-    <x:mergeCell ref="E79:E80"/>
-    <x:mergeCell ref="E81:E82"/>
-    <x:mergeCell ref="E83:E85"/>
-    <x:mergeCell ref="D75:D77"/>
-    <x:mergeCell ref="D83:D87"/>
-    <x:mergeCell ref="E76:E77"/>
-    <x:mergeCell ref="E64:E65"/>
-    <x:mergeCell ref="E66:E67"/>
-    <x:mergeCell ref="D68:D69"/>
-    <x:mergeCell ref="E68:E69"/>
-    <x:mergeCell ref="G64:G67"/>
-    <x:mergeCell ref="D64:D67"/>
-    <x:mergeCell ref="C64:C71"/>
-    <x:mergeCell ref="C75:C78"/>
-    <x:mergeCell ref="E86:E87"/>
-    <x:mergeCell ref="C79:C89"/>
-    <x:mergeCell ref="C103:C113"/>
-    <x:mergeCell ref="E142:E144"/>
-    <x:mergeCell ref="D142:D146"/>
-    <x:mergeCell ref="C114:C125"/>
-    <x:mergeCell ref="D126:D129"/>
-    <x:mergeCell ref="D138:D141"/>
-    <x:mergeCell ref="D114:D117"/>
-    <x:mergeCell ref="E140:E141"/>
-    <x:mergeCell ref="D103:D106"/>
-    <x:mergeCell ref="E103:E104"/>
-    <x:mergeCell ref="E105:E106"/>
-    <x:mergeCell ref="E110:E111"/>
-    <x:mergeCell ref="E133:E135"/>
-    <x:mergeCell ref="E121:E123"/>
-    <x:mergeCell ref="E126:E127"/>
-    <x:mergeCell ref="E130:E132"/>
-    <x:mergeCell ref="D130:D135"/>
-    <x:mergeCell ref="E95:E97"/>
-    <x:mergeCell ref="D95:D100"/>
-    <x:mergeCell ref="B75:B148"/>
-    <x:mergeCell ref="E72:E74"/>
-    <x:mergeCell ref="D72:D74"/>
-    <x:mergeCell ref="C72:C74"/>
-    <x:mergeCell ref="B72:B74"/>
-    <x:mergeCell ref="C90:C102"/>
-    <x:mergeCell ref="D90:D94"/>
-    <x:mergeCell ref="E128:E129"/>
-    <x:mergeCell ref="E138:E139"/>
-    <x:mergeCell ref="E107:E109"/>
-    <x:mergeCell ref="D107:D111"/>
-    <x:mergeCell ref="E118:E120"/>
-    <x:mergeCell ref="D118:D123"/>
-    <x:mergeCell ref="E145:E146"/>
-    <x:mergeCell ref="C138:C148"/>
-    <x:mergeCell ref="E114:E115"/>
-    <x:mergeCell ref="E116:E117"/>
-    <x:mergeCell ref="C126:C137"/>
+    <x:mergeCell ref="E92:E93"/>
+    <x:mergeCell ref="E94:E95"/>
+    <x:mergeCell ref="E99:E101"/>
+    <x:mergeCell ref="D80:D83"/>
+    <x:mergeCell ref="E80:E81"/>
+    <x:mergeCell ref="E82:E83"/>
+    <x:mergeCell ref="E84:E86"/>
+    <x:mergeCell ref="D76:D78"/>
+    <x:mergeCell ref="D84:D88"/>
+    <x:mergeCell ref="E77:E78"/>
+    <x:mergeCell ref="E65:E66"/>
+    <x:mergeCell ref="E67:E68"/>
+    <x:mergeCell ref="D69:D70"/>
+    <x:mergeCell ref="E69:E70"/>
+    <x:mergeCell ref="G65:G68"/>
+    <x:mergeCell ref="D65:D68"/>
+    <x:mergeCell ref="C65:C72"/>
+    <x:mergeCell ref="C76:C79"/>
+    <x:mergeCell ref="E87:E88"/>
+    <x:mergeCell ref="C80:C90"/>
+    <x:mergeCell ref="C104:C114"/>
+    <x:mergeCell ref="E143:E145"/>
+    <x:mergeCell ref="D143:D147"/>
+    <x:mergeCell ref="C115:C126"/>
+    <x:mergeCell ref="D127:D130"/>
+    <x:mergeCell ref="D139:D142"/>
+    <x:mergeCell ref="D115:D118"/>
+    <x:mergeCell ref="E141:E142"/>
+    <x:mergeCell ref="D104:D107"/>
+    <x:mergeCell ref="E104:E105"/>
+    <x:mergeCell ref="E106:E107"/>
+    <x:mergeCell ref="E111:E112"/>
+    <x:mergeCell ref="E134:E136"/>
+    <x:mergeCell ref="E122:E124"/>
+    <x:mergeCell ref="E127:E128"/>
+    <x:mergeCell ref="E131:E133"/>
+    <x:mergeCell ref="D131:D136"/>
+    <x:mergeCell ref="E96:E98"/>
+    <x:mergeCell ref="D96:D101"/>
+    <x:mergeCell ref="B76:B149"/>
+    <x:mergeCell ref="E73:E75"/>
+    <x:mergeCell ref="D73:D75"/>
+    <x:mergeCell ref="C73:C75"/>
+    <x:mergeCell ref="B73:B75"/>
+    <x:mergeCell ref="C91:C103"/>
+    <x:mergeCell ref="D91:D95"/>
+    <x:mergeCell ref="E129:E130"/>
+    <x:mergeCell ref="E139:E140"/>
+    <x:mergeCell ref="E108:E110"/>
+    <x:mergeCell ref="D108:D112"/>
+    <x:mergeCell ref="E119:E121"/>
+    <x:mergeCell ref="D119:D124"/>
+    <x:mergeCell ref="E146:E147"/>
+    <x:mergeCell ref="C139:C149"/>
+    <x:mergeCell ref="E115:E116"/>
+    <x:mergeCell ref="E117:E118"/>
+    <x:mergeCell ref="C127:C138"/>
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="E4:E4" r:id="rId1"/>

--- a/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="10485"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Total" sheetId="1" r:id="rId4"/>
@@ -14,7 +14,420 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="273">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="290">
+  <x:si>
+    <x:t>com.puppy.client.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypagepetInfoInsert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypageMyInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/template</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>매핑명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mapper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypageReservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reservePetRegister</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry/inquiryCorrection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/extraService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypagepetInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.extraservice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패키지명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MVC 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PetVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReplyVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>admin</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ContentLayout</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>extraService.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/extraService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminHeader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminAside</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/extraService/extraServiceDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.extraservice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.extraservice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/extraService/extraServiceList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminSalesStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppyclient.guide.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry/inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query/client</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reserveCalendar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypagePetInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reserveDetaill</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>com.</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>puppy.admin.room.service</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>statistics                (</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>통계)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/admin/inquiry/inquiry</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Detail</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>c</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>om.puppy.admin.room.controller</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReserveDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joinForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guide.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>extraService
+ (부가서비스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceServiceImpl</x:t>
+  </x:si>
   <x:si>
     <x:r>
       <x:t>/admin/</x:t>
@@ -29,719 +442,6 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>GuideDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminLogin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminHeader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminAside</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveRoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joinForm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminSalesStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMember.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNotice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
- (회원 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservation.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>common
- (공용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>statistics.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageService</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 공용
-(common)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage
-(마이 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member
- (회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMain.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveCalendar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자
- (client)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide
- (이용안내)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
-(관리자 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
- (공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
-(공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">관리자
-(admin)
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageroom.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>main
-(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>메인페이지)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>room
-(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>애견공간관리)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>reservePetRegister</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매핑명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypagepetInfoUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypageMyInfoUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypageReservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypagepetInfoInsert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/inquiry/inquiryCorrection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/reservePetRegister</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/reserveDetaill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/reserveCalendar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypagePetInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppyclient.guide.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/template</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/inquiry/inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/client</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/member</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>c</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>om.puppy.admin.room.controller</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>statistics                (</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>통계)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>com.</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>puppy.admin.room.service</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/admin/inquiry/inquiry</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Detail</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoinsert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservation
- (예약)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryCorrection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberDelList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/login/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageReservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageContentLayout</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ContentLayout</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>InquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>inquiry
- (</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>문의게시판)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>InquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry
- (문의게시판)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.common.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>member
-(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>회원)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
     <x:r>
       <x:t>/admin/</x:t>
     </x:r>
@@ -755,100 +455,144 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:r>
+      <x:t>member
+(</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>회원)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMainReservationList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reserveRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member/memberList</x:t>
+  </x:si>
+  <x:si>
     <x:t>/client/notice/noticeList</x:t>
   </x:si>
   <x:si>
-    <x:t>com.puppy.client.inquiry.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainReservationList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminReservationStatistics</x:t>
+    <x:t>AdminStatisticsController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/main</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypageMyInfo</x:t>
   </x:si>
   <x:si>
     <x:t>com.puppy.client.notice.vo</x:t>
   </x:si>
   <x:si>
-    <x:t>/admin/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/main</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypageMyInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/reserveRoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/notice/noticeDetail</x:t>
+    <x:t>com.puppy.admin.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/main/reservationList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/guide</x:t>
   </x:si>
   <x:si>
     <x:t>/WEB-INF/views/admin/login</x:t>
   </x:si>
   <x:si>
-    <x:t>/WEB-INF/views/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.dao</x:t>
-  </x:si>
-  <x:si>
     <x:t>com.puppy.admin.member.dao</x:t>
   </x:si>
   <x:si>
-    <x:t>com.puppy.client.mypage.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/login</x:t>
-  </x:si>
-  <x:si>
     <x:t>/admin/notice/noticeList</x:t>
   </x:si>
   <x:si>
-    <x:t>/WEB-INF/views/client/guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/main/reservationList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeDetail</x:t>
+    <x:r>
+      <x:t>com.puppy</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>.admin.room.dao</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -877,8 +621,472 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>NoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminLogin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
     <x:r>
-      <x:t>com.puppy</x:t>
+      <x:t>inquiry
+ (</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>문의게시판)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>MypageController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.common.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberDelList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageMyinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry
+ (문의게시판)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservePetRegister</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMainMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoinsert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageContentLayout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation
+ (예약)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageReservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/room/roomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryCorrection</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>main
+(</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>메인페이지)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>cageroom.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/login</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>room
+(</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>애견공간관리)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>notice
+(공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMember.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">관리자
+(admin)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>common
+ (공용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>statistics.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMain.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member
+ (회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageService</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 공용
+(common)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+(관리자 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNotice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage
+(마이 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+ (회원 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveCalendar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guide
+ (이용안내)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageMyinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자
+ (client)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice
+ (공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/main/memberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminSalesStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.room.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/payment</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -886,53 +1094,38 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>.admin.room.dao</x:t>
+      <x:t>admin/room/roomList</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>ReplyVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패키지명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PetVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MVC 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mapper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationController</x:t>
+    <x:t>/client/member/joinForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login/findId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminStatisticsDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMainServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminLoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login/findPw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeAdd</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -948,81 +1141,20 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>AdminStatisticsDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/member/joinForm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminLoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/main/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationServiceImpl</x:t>
+    <x:t>/admin/room/roomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationController</x:t>
   </x:si>
   <x:si>
     <x:t>AdminNoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/login/findPw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/login/findId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminSalesStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>admin/room/roomList</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.room.vo</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="16">
+  <x:fonts count="17">
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
@@ -1063,12 +1195,28 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1079,6 +1227,10 @@
           <hs:underlineShape val="solid"/>
           <hs:underlineType val="1"/>
           <hs:underlineColor rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -1095,53 +1247,11 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:i val="1"/>
-          <x:u/>
-          <hs:underlineShape val="solid"/>
-          <hs:underlineType val="1"/>
-          <hs:underlineColor rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:i val="1"/>
-          <x:u/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1208,6 +1318,46 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -1223,7 +1373,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="5">
+  <x:borders count="9">
     <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
         <x:color indexed="64"/>
@@ -1309,6 +1459,74 @@
         <x:color indexed="64"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1357,7 +1575,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="46">
+  <x:cellXfs count="55">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -1453,19 +1671,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1540,13 +1745,13 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1577,7 +1782,7 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1593,7 +1798,7 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1611,13 +1816,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1730,45 +1935,6 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1806,6 +1972,135 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="3">
     <x:cellStyle xfId="0" builtinId="0"/>
@@ -2466,10 +2761,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G833"/>
+  <x:dimension ref="A1:G834"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H59" activeCellId="0" sqref="H59:H59"/>
+    <x:sheetView tabSelected="1" topLeftCell="A139" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E163" activeCellId="0" sqref="E163:E163"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2485,2144 +2780,2218 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A1" s="1"/>
-      <x:c r="B1" s="20" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="C1" s="20"/>
-      <x:c r="D1" s="20"/>
-      <x:c r="E1" s="20"/>
-      <x:c r="F1" s="20"/>
-      <x:c r="G1" s="20"/>
+      <x:c r="B1" s="19" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C1" s="19"/>
+      <x:c r="D1" s="19"/>
+      <x:c r="E1" s="19"/>
+      <x:c r="F1" s="19"/>
+      <x:c r="G1" s="19"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A2" s="1"/>
-      <x:c r="B2" s="20"/>
-      <x:c r="C2" s="20"/>
-      <x:c r="D2" s="20"/>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
-      <x:c r="G2" s="20"/>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="19"/>
+      <x:c r="D2" s="19"/>
+      <x:c r="E2" s="19"/>
+      <x:c r="F2" s="19"/>
+      <x:c r="G2" s="19"/>
     </x:row>
     <x:row r="3" spans="1:7" ht="24" customHeight="1">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>248</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E3" s="9" t="s">
-        <x:v>243</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F3" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G3" s="9" t="s">
-        <x:v>100</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="24" customHeight="1">
       <x:c r="A4" s="1"/>
-      <x:c r="B4" s="29" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C4" s="26" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D4" s="24" t="s">
-        <x:v>238</x:v>
+      <x:c r="B4" s="28" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="C4" s="25" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="D4" s="23" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>219</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G4" s="18"/>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G4" s="17"/>
     </x:row>
     <x:row r="5" spans="1:7" ht="24" customHeight="1">
       <x:c r="A5" s="1"/>
-      <x:c r="B5" s="30"/>
-      <x:c r="C5" s="25"/>
-      <x:c r="D5" s="25"/>
-      <x:c r="E5" s="18" t="s">
-        <x:v>207</x:v>
+      <x:c r="B5" s="29"/>
+      <x:c r="C5" s="24"/>
+      <x:c r="D5" s="24"/>
+      <x:c r="E5" s="17" t="s">
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G5" s="19"/>
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G5" s="18"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="24" customHeight="1">
       <x:c r="A6" s="1"/>
-      <x:c r="B6" s="30"/>
-      <x:c r="C6" s="25"/>
-      <x:c r="D6" s="25"/>
-      <x:c r="E6" s="19"/>
+      <x:c r="B6" s="29"/>
+      <x:c r="C6" s="24"/>
+      <x:c r="D6" s="24"/>
+      <x:c r="E6" s="18"/>
       <x:c r="F6" s="7" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="G6" s="19"/>
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="G6" s="18"/>
     </x:row>
     <x:row r="7" spans="1:7" ht="24" customHeight="1">
       <x:c r="A7" s="1"/>
-      <x:c r="B7" s="30"/>
-      <x:c r="C7" s="25"/>
-      <x:c r="D7" s="25"/>
-      <x:c r="E7" s="18" t="s">
-        <x:v>132</x:v>
+      <x:c r="B7" s="29"/>
+      <x:c r="C7" s="24"/>
+      <x:c r="D7" s="24"/>
+      <x:c r="E7" s="17" t="s">
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="G7" s="19"/>
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="G7" s="18"/>
     </x:row>
     <x:row r="8" spans="1:7" ht="24" customHeight="1">
       <x:c r="A8" s="1"/>
-      <x:c r="B8" s="30"/>
-      <x:c r="C8" s="25"/>
-      <x:c r="D8" s="25"/>
-      <x:c r="E8" s="19"/>
+      <x:c r="B8" s="29"/>
+      <x:c r="C8" s="24"/>
+      <x:c r="D8" s="24"/>
+      <x:c r="E8" s="18"/>
       <x:c r="F8" s="7" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="G8" s="19"/>
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="G8" s="18"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="24" customHeight="1">
       <x:c r="A9" s="1"/>
-      <x:c r="B9" s="30"/>
-      <x:c r="C9" s="25"/>
-      <x:c r="D9" s="24" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E9" s="18" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="F9" s="21" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G9" s="21" t="s">
-        <x:v>256</x:v>
+      <x:c r="B9" s="29"/>
+      <x:c r="C9" s="24"/>
+      <x:c r="D9" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E9" s="17" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F9" s="20" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G9" s="20" t="s">
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="24" customHeight="1">
       <x:c r="A10" s="1"/>
-      <x:c r="B10" s="30"/>
-      <x:c r="C10" s="25"/>
-      <x:c r="D10" s="25"/>
-      <x:c r="E10" s="19"/>
-      <x:c r="F10" s="21"/>
-      <x:c r="G10" s="21"/>
+      <x:c r="B10" s="29"/>
+      <x:c r="C10" s="24"/>
+      <x:c r="D10" s="24"/>
+      <x:c r="E10" s="18"/>
+      <x:c r="F10" s="20"/>
+      <x:c r="G10" s="20"/>
     </x:row>
     <x:row r="11" spans="1:7" ht="24" customHeight="1">
       <x:c r="A11" s="1"/>
-      <x:c r="B11" s="30"/>
-      <x:c r="C11" s="25"/>
+      <x:c r="B11" s="29"/>
+      <x:c r="C11" s="24"/>
       <x:c r="D11" s="5" t="s">
-        <x:v>244</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>173</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="24" customHeight="1">
       <x:c r="A12" s="1"/>
-      <x:c r="B12" s="30"/>
-      <x:c r="C12" s="25"/>
+      <x:c r="B12" s="29"/>
+      <x:c r="C12" s="24"/>
       <x:c r="D12" s="5" t="s">
-        <x:v>250</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="24" customHeight="1">
       <x:c r="A13" s="1"/>
-      <x:c r="B13" s="30"/>
-      <x:c r="C13" s="36" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D13" s="35" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E13" s="18" t="s">
-        <x:v>223</x:v>
+      <x:c r="B13" s="29"/>
+      <x:c r="C13" s="35" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="D13" s="34" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E13" s="17" t="s">
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G13" s="18"/>
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="G13" s="17"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="24" customHeight="1">
       <x:c r="A14" s="1"/>
-      <x:c r="B14" s="30"/>
-      <x:c r="C14" s="36"/>
-      <x:c r="D14" s="35"/>
-      <x:c r="E14" s="19"/>
+      <x:c r="B14" s="29"/>
+      <x:c r="C14" s="35"/>
+      <x:c r="D14" s="34"/>
+      <x:c r="E14" s="18"/>
       <x:c r="F14" s="7" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G14" s="18"/>
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="G14" s="17"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="24" customHeight="1">
       <x:c r="A15" s="1"/>
-      <x:c r="B15" s="30"/>
-      <x:c r="C15" s="36"/>
-      <x:c r="D15" s="35"/>
-      <x:c r="E15" s="18" t="s">
-        <x:v>137</x:v>
+      <x:c r="B15" s="29"/>
+      <x:c r="C15" s="35"/>
+      <x:c r="D15" s="34"/>
+      <x:c r="E15" s="17" t="s">
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="G15" s="18"/>
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="G15" s="17"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="24" customHeight="1">
       <x:c r="A16" s="1"/>
-      <x:c r="B16" s="30"/>
-      <x:c r="C16" s="36"/>
-      <x:c r="D16" s="35"/>
-      <x:c r="E16" s="19"/>
+      <x:c r="B16" s="29"/>
+      <x:c r="C16" s="35"/>
+      <x:c r="D16" s="34"/>
+      <x:c r="E16" s="18"/>
       <x:c r="F16" s="7" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="G16" s="18"/>
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="G16" s="17"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="24" customHeight="1">
       <x:c r="A17" s="1"/>
-      <x:c r="B17" s="30"/>
-      <x:c r="C17" s="36"/>
-      <x:c r="D17" s="22" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E17" s="21" t="s">
-        <x:v>227</x:v>
+      <x:c r="B17" s="29"/>
+      <x:c r="C17" s="35"/>
+      <x:c r="D17" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E17" s="20" t="s">
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>240</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>170</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="24" customHeight="1">
       <x:c r="A18" s="1"/>
-      <x:c r="B18" s="30"/>
-      <x:c r="C18" s="36"/>
-      <x:c r="D18" s="27"/>
-      <x:c r="E18" s="28"/>
+      <x:c r="B18" s="29"/>
+      <x:c r="C18" s="35"/>
+      <x:c r="D18" s="26"/>
+      <x:c r="E18" s="27"/>
       <x:c r="F18" s="7" t="s">
-        <x:v>241</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>265</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7" ht="24" customHeight="1">
       <x:c r="A19" s="1"/>
-      <x:c r="B19" s="30"/>
-      <x:c r="C19" s="36"/>
-      <x:c r="D19" s="27"/>
-      <x:c r="E19" s="28"/>
+      <x:c r="B19" s="29"/>
+      <x:c r="C19" s="35"/>
+      <x:c r="D19" s="26"/>
+      <x:c r="E19" s="27"/>
       <x:c r="F19" s="7" t="s">
-        <x:v>249</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>264</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" ht="24" customHeight="1">
       <x:c r="A20" s="1"/>
-      <x:c r="B20" s="30"/>
-      <x:c r="C20" s="36"/>
+      <x:c r="B20" s="29"/>
+      <x:c r="C20" s="35"/>
       <x:c r="D20" s="9" t="s">
-        <x:v>244</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>71</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="24" customHeight="1">
       <x:c r="A21" s="1"/>
-      <x:c r="B21" s="30"/>
-      <x:c r="C21" s="36"/>
+      <x:c r="B21" s="29"/>
+      <x:c r="C21" s="35"/>
       <x:c r="D21" s="9" t="s">
-        <x:v>250</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G21" s="7"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A22" s="1"/>
-      <x:c r="B22" s="31"/>
-      <x:c r="C22" s="37" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D22" s="35" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E22" s="21" t="s">
-        <x:v>226</x:v>
+      <x:c r="B22" s="30"/>
+      <x:c r="C22" s="36" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="D22" s="34" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E22" s="20" t="s">
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G22" s="7"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A23" s="1"/>
-      <x:c r="B23" s="31"/>
-      <x:c r="C23" s="37"/>
-      <x:c r="D23" s="35"/>
-      <x:c r="E23" s="21"/>
+      <x:c r="B23" s="30"/>
+      <x:c r="C23" s="36"/>
+      <x:c r="D23" s="34"/>
+      <x:c r="E23" s="20"/>
       <x:c r="F23" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="G23" s="7"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A24" s="1"/>
-      <x:c r="B24" s="31"/>
-      <x:c r="C24" s="37"/>
-      <x:c r="D24" s="35"/>
-      <x:c r="E24" s="21" t="s">
-        <x:v>138</x:v>
+      <x:c r="B24" s="30"/>
+      <x:c r="C24" s="36"/>
+      <x:c r="D24" s="34"/>
+      <x:c r="E24" s="20" t="s">
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="G24" s="7"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A25" s="1"/>
-      <x:c r="B25" s="31"/>
-      <x:c r="C25" s="37"/>
-      <x:c r="D25" s="35"/>
-      <x:c r="E25" s="21"/>
+      <x:c r="B25" s="30"/>
+      <x:c r="C25" s="36"/>
+      <x:c r="D25" s="34"/>
+      <x:c r="E25" s="20"/>
       <x:c r="F25" s="7" t="s">
-        <x:v>177</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G25" s="7"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A26" s="1"/>
-      <x:c r="B26" s="31"/>
-      <x:c r="C26" s="37"/>
-      <x:c r="D26" s="22" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E26" s="21" t="s">
-        <x:v>125</x:v>
+      <x:c r="B26" s="30"/>
+      <x:c r="C26" s="36"/>
+      <x:c r="D26" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E26" s="20" t="s">
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F26" s="7" t="s">
-        <x:v>179</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A27" s="1"/>
-      <x:c r="B27" s="31"/>
-      <x:c r="C27" s="37"/>
-      <x:c r="D27" s="22"/>
-      <x:c r="E27" s="21"/>
+      <x:c r="B27" s="30"/>
+      <x:c r="C27" s="36"/>
+      <x:c r="D27" s="21"/>
+      <x:c r="E27" s="20"/>
       <x:c r="F27" s="7" t="s">
-        <x:v>77</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G27" s="7" t="s">
-        <x:v>213</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A28" s="1"/>
-      <x:c r="B28" s="31"/>
-      <x:c r="C28" s="37"/>
-      <x:c r="D28" s="22"/>
-      <x:c r="E28" s="21"/>
+      <x:c r="B28" s="30"/>
+      <x:c r="C28" s="36"/>
+      <x:c r="D28" s="21"/>
+      <x:c r="E28" s="20"/>
       <x:c r="F28" s="7" t="s">
-        <x:v>190</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G28" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A29" s="1"/>
-      <x:c r="B29" s="31"/>
-      <x:c r="C29" s="37"/>
-      <x:c r="D29" s="22"/>
-      <x:c r="E29" s="21"/>
+      <x:c r="B29" s="30"/>
+      <x:c r="C29" s="36"/>
+      <x:c r="D29" s="21"/>
+      <x:c r="E29" s="20"/>
       <x:c r="F29" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="G29" s="7" t="s">
-        <x:v>128</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A30" s="1"/>
-      <x:c r="B30" s="31"/>
-      <x:c r="C30" s="37"/>
-      <x:c r="D30" s="23"/>
-      <x:c r="E30" s="21"/>
+      <x:c r="B30" s="30"/>
+      <x:c r="C30" s="36"/>
+      <x:c r="D30" s="22"/>
+      <x:c r="E30" s="20"/>
       <x:c r="F30" s="7" t="s">
-        <x:v>155</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G30" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A31" s="1"/>
-      <x:c r="B31" s="31"/>
-      <x:c r="C31" s="37"/>
-      <x:c r="D31" s="23"/>
-      <x:c r="E31" s="21"/>
+      <x:c r="B31" s="30"/>
+      <x:c r="C31" s="36"/>
+      <x:c r="D31" s="22"/>
+      <x:c r="E31" s="20"/>
       <x:c r="F31" s="7" t="s">
-        <x:v>197</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G31" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A32" s="1"/>
-      <x:c r="B32" s="31"/>
-      <x:c r="C32" s="37"/>
+      <x:c r="B32" s="30"/>
+      <x:c r="C32" s="36"/>
       <x:c r="D32" s="9" t="s">
-        <x:v>244</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E32" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F32" s="7" t="s">
-        <x:v>172</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G32" s="7" t="s">
-        <x:v>73</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A33" s="1"/>
-      <x:c r="B33" s="31"/>
-      <x:c r="C33" s="37"/>
+      <x:c r="B33" s="30"/>
+      <x:c r="C33" s="36"/>
       <x:c r="D33" s="9" t="s">
-        <x:v>250</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E33" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F33" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G33" s="7"/>
     </x:row>
     <x:row r="34" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A34" s="1"/>
-      <x:c r="B34" s="32"/>
-      <x:c r="C34" s="36" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D34" s="35" t="s">
-        <x:v>238</x:v>
+      <x:c r="B34" s="31"/>
+      <x:c r="C34" s="35" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="D34" s="34" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="6" t="s">
-        <x:v>210</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F34" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G34" s="18"/>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G34" s="17"/>
     </x:row>
     <x:row r="35" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A35" s="1"/>
-      <x:c r="B35" s="32"/>
-      <x:c r="C35" s="25"/>
-      <x:c r="D35" s="25"/>
-      <x:c r="E35" s="18" t="s">
-        <x:v>206</x:v>
+      <x:c r="B35" s="31"/>
+      <x:c r="C35" s="24"/>
+      <x:c r="D35" s="24"/>
+      <x:c r="E35" s="17" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F35" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G35" s="19"/>
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="G35" s="18"/>
     </x:row>
     <x:row r="36" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A36" s="1"/>
-      <x:c r="B36" s="32"/>
-      <x:c r="C36" s="25"/>
-      <x:c r="D36" s="25"/>
-      <x:c r="E36" s="19"/>
+      <x:c r="B36" s="31"/>
+      <x:c r="C36" s="24"/>
+      <x:c r="D36" s="24"/>
+      <x:c r="E36" s="18"/>
       <x:c r="F36" s="7" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="G36" s="19"/>
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="G36" s="18"/>
     </x:row>
     <x:row r="37" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A37" s="1"/>
-      <x:c r="B37" s="32"/>
-      <x:c r="C37" s="25"/>
-      <x:c r="D37" s="25"/>
-      <x:c r="E37" s="18" t="s">
-        <x:v>130</x:v>
+      <x:c r="B37" s="31"/>
+      <x:c r="C37" s="24"/>
+      <x:c r="D37" s="24"/>
+      <x:c r="E37" s="17" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F37" s="7" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="G37" s="19"/>
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="G37" s="18"/>
     </x:row>
     <x:row r="38" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A38" s="1"/>
-      <x:c r="B38" s="32"/>
-      <x:c r="C38" s="25"/>
-      <x:c r="D38" s="25"/>
-      <x:c r="E38" s="19"/>
+      <x:c r="B38" s="31"/>
+      <x:c r="C38" s="24"/>
+      <x:c r="D38" s="24"/>
+      <x:c r="E38" s="18"/>
       <x:c r="F38" s="7" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="G38" s="19"/>
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="G38" s="18"/>
     </x:row>
     <x:row r="39" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A39" s="1"/>
-      <x:c r="B39" s="32"/>
-      <x:c r="C39" s="25"/>
-      <x:c r="D39" s="35" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E39" s="18" t="s">
-        <x:v>142</x:v>
+      <x:c r="B39" s="31"/>
+      <x:c r="C39" s="24"/>
+      <x:c r="D39" s="34" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E39" s="17" t="s">
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F39" s="7" t="s">
-        <x:v>87</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G39" s="7" t="s">
-        <x:v>215</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A40" s="1"/>
-      <x:c r="B40" s="32"/>
-      <x:c r="C40" s="25"/>
-      <x:c r="D40" s="25"/>
-      <x:c r="E40" s="19"/>
+      <x:c r="B40" s="31"/>
+      <x:c r="C40" s="24"/>
+      <x:c r="D40" s="24"/>
+      <x:c r="E40" s="18"/>
       <x:c r="F40" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G40" s="7" t="s">
-        <x:v>202</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A41" s="1"/>
-      <x:c r="B41" s="32"/>
-      <x:c r="C41" s="25"/>
+      <x:c r="B41" s="31"/>
+      <x:c r="C41" s="24"/>
       <x:c r="D41" s="9" t="s">
-        <x:v>244</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E41" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F41" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G41" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A42" s="1"/>
-      <x:c r="B42" s="32"/>
-      <x:c r="C42" s="25"/>
+      <x:c r="B42" s="31"/>
+      <x:c r="C42" s="24"/>
       <x:c r="D42" s="9" t="s">
-        <x:v>250</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E42" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F42" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G42" s="7"/>
     </x:row>
     <x:row r="43" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A43" s="1"/>
-      <x:c r="B43" s="32"/>
-      <x:c r="C43" s="36" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="D43" s="35" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E43" s="10" t="s">
-        <x:v>203</x:v>
+      <x:c r="B43" s="31"/>
+      <x:c r="C43" s="35" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D43" s="34" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E43" s="6" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F43" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G43" s="18"/>
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G43" s="17"/>
     </x:row>
     <x:row r="44" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A44" s="1"/>
-      <x:c r="B44" s="32"/>
-      <x:c r="C44" s="25"/>
-      <x:c r="D44" s="25"/>
-      <x:c r="E44" s="18" t="s">
-        <x:v>144</x:v>
+      <x:c r="B44" s="31"/>
+      <x:c r="C44" s="24"/>
+      <x:c r="D44" s="24"/>
+      <x:c r="E44" s="17" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F44" s="7" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G44" s="19"/>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G44" s="18"/>
     </x:row>
     <x:row r="45" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A45" s="1"/>
-      <x:c r="B45" s="32"/>
-      <x:c r="C45" s="25"/>
-      <x:c r="D45" s="25"/>
-      <x:c r="E45" s="19"/>
+      <x:c r="B45" s="31"/>
+      <x:c r="C45" s="24"/>
+      <x:c r="D45" s="24"/>
+      <x:c r="E45" s="18"/>
       <x:c r="F45" s="7" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G45" s="19"/>
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="G45" s="18"/>
     </x:row>
     <x:row r="46" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A46" s="1"/>
-      <x:c r="B46" s="32"/>
-      <x:c r="C46" s="25"/>
-      <x:c r="D46" s="25"/>
-      <x:c r="E46" s="18" t="s">
-        <x:v>105</x:v>
+      <x:c r="B46" s="31"/>
+      <x:c r="C46" s="24"/>
+      <x:c r="D46" s="24"/>
+      <x:c r="E46" s="17" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F46" s="7" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G46" s="19"/>
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="G46" s="18"/>
     </x:row>
     <x:row r="47" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A47" s="1"/>
-      <x:c r="B47" s="32"/>
-      <x:c r="C47" s="25"/>
-      <x:c r="D47" s="25"/>
-      <x:c r="E47" s="19"/>
+      <x:c r="B47" s="31"/>
+      <x:c r="C47" s="24"/>
+      <x:c r="D47" s="24"/>
+      <x:c r="E47" s="18"/>
       <x:c r="F47" s="7" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="G47" s="19"/>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G47" s="18"/>
     </x:row>
     <x:row r="48" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A48" s="1"/>
-      <x:c r="B48" s="32"/>
-      <x:c r="C48" s="25"/>
-      <x:c r="D48" s="35" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E48" s="18" t="s">
-        <x:v>140</x:v>
+      <x:c r="B48" s="31"/>
+      <x:c r="C48" s="24"/>
+      <x:c r="D48" s="34" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E48" s="17" t="s">
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F48" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G48" s="7" t="s">
-        <x:v>208</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A49" s="1"/>
-      <x:c r="B49" s="32"/>
-      <x:c r="C49" s="25"/>
-      <x:c r="D49" s="25"/>
-      <x:c r="E49" s="19"/>
+      <x:c r="B49" s="31"/>
+      <x:c r="C49" s="24"/>
+      <x:c r="D49" s="24"/>
+      <x:c r="E49" s="18"/>
       <x:c r="F49" s="7" t="s">
-        <x:v>165</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G49" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A50" s="1"/>
-      <x:c r="B50" s="32"/>
-      <x:c r="C50" s="25"/>
-      <x:c r="D50" s="25"/>
-      <x:c r="E50" s="19"/>
+      <x:c r="B50" s="31"/>
+      <x:c r="C50" s="24"/>
+      <x:c r="D50" s="24"/>
+      <x:c r="E50" s="18"/>
       <x:c r="F50" s="7" t="s">
-        <x:v>72</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G50" s="7" t="s">
-        <x:v>139</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A51" s="1"/>
-      <x:c r="B51" s="32"/>
-      <x:c r="C51" s="25"/>
+      <x:c r="B51" s="31"/>
+      <x:c r="C51" s="24"/>
       <x:c r="D51" s="9" t="s">
-        <x:v>244</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E51" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F51" s="7" t="s">
-        <x:v>187</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G51" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A52" s="1"/>
-      <x:c r="B52" s="32"/>
-      <x:c r="C52" s="25"/>
+      <x:c r="B52" s="31"/>
+      <x:c r="C52" s="24"/>
       <x:c r="D52" s="9" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="E52" s="11" t="s">
-        <x:v>108</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E52" s="10" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F52" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G52" s="7"/>
     </x:row>
     <x:row r="53" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A53" s="1"/>
-      <x:c r="B53" s="33"/>
-      <x:c r="C53" s="37" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D53" s="35" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E53" s="6" t="s">
-        <x:v>146</x:v>
+      <x:c r="B53" s="28"/>
+      <x:c r="C53" s="28" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D53" s="43" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E53" s="46" t="s">
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F53" s="7" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G53" s="18"/>
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G53" s="44"/>
     </x:row>
     <x:row r="54" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A54" s="1"/>
-      <x:c r="B54" s="33"/>
-      <x:c r="C54" s="37"/>
-      <x:c r="D54" s="19"/>
-      <x:c r="E54" s="18" t="s">
-        <x:v>107</x:v>
-      </x:c>
+      <x:c r="B54" s="32"/>
+      <x:c r="C54" s="30"/>
+      <x:c r="D54" s="29"/>
+      <x:c r="E54" s="47"/>
       <x:c r="F54" s="7" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G54" s="19"/>
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="G54" s="45"/>
     </x:row>
     <x:row r="55" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A55" s="1"/>
-      <x:c r="B55" s="33"/>
-      <x:c r="C55" s="37"/>
-      <x:c r="D55" s="19"/>
-      <x:c r="E55" s="19"/>
+      <x:c r="B55" s="32"/>
+      <x:c r="C55" s="30"/>
+      <x:c r="D55" s="32"/>
+      <x:c r="E55" s="17" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="F55" s="7" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="G55" s="19"/>
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="G55" s="32"/>
     </x:row>
     <x:row r="56" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A56" s="1"/>
-      <x:c r="B56" s="33"/>
-      <x:c r="C56" s="37"/>
-      <x:c r="D56" s="19"/>
-      <x:c r="E56" s="18" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="B56" s="32"/>
+      <x:c r="C56" s="30"/>
+      <x:c r="D56" s="32"/>
+      <x:c r="E56" s="18"/>
       <x:c r="F56" s="7" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="G56" s="19"/>
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="G56" s="32"/>
     </x:row>
     <x:row r="57" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A57" s="1"/>
-      <x:c r="B57" s="33"/>
-      <x:c r="C57" s="37"/>
-      <x:c r="D57" s="19"/>
-      <x:c r="E57" s="19"/>
+      <x:c r="B57" s="32"/>
+      <x:c r="C57" s="30"/>
+      <x:c r="D57" s="32"/>
+      <x:c r="E57" s="17" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="F57" s="7" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="G57" s="19"/>
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="G57" s="32"/>
     </x:row>
     <x:row r="58" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A58" s="1"/>
-      <x:c r="B58" s="33"/>
-      <x:c r="C58" s="37"/>
-      <x:c r="D58" s="22" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E58" s="21" t="s">
-        <x:v>126</x:v>
-      </x:c>
+      <x:c r="B58" s="32"/>
+      <x:c r="C58" s="30"/>
+      <x:c r="D58" s="33"/>
+      <x:c r="E58" s="18"/>
       <x:c r="F58" s="7" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G58" s="7" t="s">
-        <x:v>124</x:v>
-      </x:c>
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="G58" s="33"/>
     </x:row>
     <x:row r="59" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A59" s="1"/>
-      <x:c r="B59" s="33"/>
-      <x:c r="C59" s="37"/>
-      <x:c r="D59" s="28"/>
-      <x:c r="E59" s="28"/>
+      <x:c r="B59" s="32"/>
+      <x:c r="C59" s="30"/>
+      <x:c r="D59" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E59" s="20" t="s">
+        <x:v>90</x:v>
+      </x:c>
       <x:c r="F59" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="G59" s="7" t="s">
-        <x:v>214</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A60" s="1"/>
-      <x:c r="B60" s="29"/>
-      <x:c r="C60" s="37"/>
-      <x:c r="D60" s="22"/>
-      <x:c r="E60" s="21"/>
+      <x:c r="B60" s="32"/>
+      <x:c r="C60" s="30"/>
+      <x:c r="D60" s="27"/>
+      <x:c r="E60" s="27"/>
       <x:c r="F60" s="7" t="s">
-        <x:v>96</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G60" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A61" s="1"/>
-      <x:c r="B61" s="33"/>
-      <x:c r="C61" s="37"/>
-      <x:c r="D61" s="28"/>
-      <x:c r="E61" s="28"/>
+      <x:c r="B61" s="28"/>
+      <x:c r="C61" s="30"/>
+      <x:c r="D61" s="21"/>
+      <x:c r="E61" s="20"/>
       <x:c r="F61" s="7" t="s">
-        <x:v>75</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G61" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A62" s="1"/>
-      <x:c r="B62" s="33"/>
-      <x:c r="C62" s="37"/>
-      <x:c r="D62" s="38"/>
-      <x:c r="E62" s="38"/>
+      <x:c r="B62" s="32"/>
+      <x:c r="C62" s="30"/>
+      <x:c r="D62" s="27"/>
+      <x:c r="E62" s="27"/>
       <x:c r="F62" s="7" t="s">
-        <x:v>247</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="G62" s="7" t="s">
-        <x:v>260</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A63" s="1"/>
-      <x:c r="B63" s="33"/>
-      <x:c r="C63" s="37"/>
-      <x:c r="D63" s="9" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E63" s="7" t="s">
-        <x:v>31</x:v>
-      </x:c>
+      <x:c r="B63" s="32"/>
+      <x:c r="C63" s="30"/>
+      <x:c r="D63" s="37"/>
+      <x:c r="E63" s="37"/>
       <x:c r="F63" s="7" t="s">
-        <x:v>251</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G63" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A64" s="1"/>
-      <x:c r="B64" s="33"/>
-      <x:c r="C64" s="38" t="s">
-        <x:v>193</x:v>
-      </x:c>
+      <x:c r="B64" s="32"/>
+      <x:c r="C64" s="30"/>
       <x:c r="D64" s="9" t="s">
-        <x:v>250</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E64" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F64" s="7" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G64" s="7"/>
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="G64" s="7" t="s">
+        <x:v>244</x:v>
+      </x:c>
     </x:row>
     <x:row r="65" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A65" s="1"/>
-      <x:c r="B65" s="33"/>
-      <x:c r="C65" s="36" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D65" s="35" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E65" s="18" t="s">
-        <x:v>224</x:v>
+      <x:c r="B65" s="32"/>
+      <x:c r="C65" s="42"/>
+      <x:c r="D65" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E65" s="7" t="s">
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F65" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G65" s="18"/>
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="G65" s="7"/>
     </x:row>
     <x:row r="66" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A66" s="1"/>
-      <x:c r="B66" s="33"/>
-      <x:c r="C66" s="36"/>
-      <x:c r="D66" s="35"/>
-      <x:c r="E66" s="19"/>
+      <x:c r="B66" s="32"/>
+      <x:c r="C66" s="35" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D66" s="34" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E66" s="17" t="s">
+        <x:v>141</x:v>
+      </x:c>
       <x:c r="F66" s="7" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="G66" s="18"/>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G66" s="17"/>
     </x:row>
     <x:row r="67" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A67" s="1"/>
-      <x:c r="B67" s="33"/>
-      <x:c r="C67" s="36"/>
-      <x:c r="D67" s="35"/>
-      <x:c r="E67" s="18" t="s">
-        <x:v>129</x:v>
-      </x:c>
+      <x:c r="B67" s="32"/>
+      <x:c r="C67" s="35"/>
+      <x:c r="D67" s="34"/>
+      <x:c r="E67" s="18"/>
       <x:c r="F67" s="7" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G67" s="18"/>
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G67" s="17"/>
     </x:row>
     <x:row r="68" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A68" s="1"/>
-      <x:c r="B68" s="33"/>
-      <x:c r="C68" s="36"/>
-      <x:c r="D68" s="35"/>
-      <x:c r="E68" s="19"/>
+      <x:c r="B68" s="32"/>
+      <x:c r="C68" s="35"/>
+      <x:c r="D68" s="34"/>
+      <x:c r="E68" s="17" t="s">
+        <x:v>68</x:v>
+      </x:c>
       <x:c r="F68" s="7" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="G68" s="18"/>
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="G68" s="17"/>
     </x:row>
     <x:row r="69" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A69" s="1"/>
-      <x:c r="B69" s="33"/>
-      <x:c r="C69" s="36"/>
-      <x:c r="D69" s="22" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E69" s="21" t="s">
-        <x:v>229</x:v>
-      </x:c>
+      <x:c r="B69" s="32"/>
+      <x:c r="C69" s="35"/>
+      <x:c r="D69" s="34"/>
+      <x:c r="E69" s="18"/>
       <x:c r="F69" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G69" s="7" t="s">
-        <x:v>191</x:v>
-      </x:c>
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="G69" s="17"/>
     </x:row>
     <x:row r="70" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A70" s="1"/>
-      <x:c r="B70" s="33"/>
-      <x:c r="C70" s="36"/>
-      <x:c r="D70" s="22"/>
-      <x:c r="E70" s="21"/>
+      <x:c r="B70" s="32"/>
+      <x:c r="C70" s="35"/>
+      <x:c r="D70" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E70" s="20" t="s">
+        <x:v>146</x:v>
+      </x:c>
       <x:c r="F70" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G70" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A71" s="1"/>
-      <x:c r="B71" s="33"/>
-      <x:c r="C71" s="36"/>
-      <x:c r="D71" s="9" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E71" s="7" t="s">
-        <x:v>103</x:v>
-      </x:c>
+      <x:c r="B71" s="32"/>
+      <x:c r="C71" s="35"/>
+      <x:c r="D71" s="21"/>
+      <x:c r="E71" s="20"/>
       <x:c r="F71" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G71" s="7" t="s">
-        <x:v>245</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A72" s="1"/>
-      <x:c r="B72" s="34"/>
-      <x:c r="C72" s="36"/>
+      <x:c r="B72" s="32"/>
+      <x:c r="C72" s="35"/>
       <x:c r="D72" s="9" t="s">
-        <x:v>250</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E72" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F72" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G72" s="7"/>
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="G72" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
     </x:row>
     <x:row r="73" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A73" s="1"/>
-      <x:c r="B73" s="37" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C73" s="37" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D73" s="22" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E73" s="21" t="s">
-        <x:v>196</x:v>
+      <x:c r="B73" s="33"/>
+      <x:c r="C73" s="35"/>
+      <x:c r="D73" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E73" s="7" t="s">
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F73" s="7" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="G73" s="8"/>
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G73" s="7"/>
     </x:row>
     <x:row r="74" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A74" s="1"/>
-      <x:c r="B74" s="23"/>
-      <x:c r="C74" s="23"/>
-      <x:c r="D74" s="23"/>
-      <x:c r="E74" s="39"/>
+      <x:c r="B74" s="36" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="C74" s="36" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="D74" s="21" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E74" s="20" t="s">
+        <x:v>168</x:v>
+      </x:c>
       <x:c r="F74" s="7" t="s">
-        <x:v>237</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G74" s="8"/>
     </x:row>
     <x:row r="75" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A75" s="1"/>
-      <x:c r="B75" s="23"/>
-      <x:c r="C75" s="23"/>
-      <x:c r="D75" s="23"/>
-      <x:c r="E75" s="39"/>
+      <x:c r="B75" s="22"/>
+      <x:c r="C75" s="22"/>
+      <x:c r="D75" s="22"/>
+      <x:c r="E75" s="38"/>
       <x:c r="F75" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G75" s="8"/>
     </x:row>
     <x:row r="76" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A76" s="1"/>
-      <x:c r="B76" s="36" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C76" s="36" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D76" s="35" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E76" s="7" t="s">
-        <x:v>216</x:v>
-      </x:c>
+      <x:c r="B76" s="48"/>
+      <x:c r="C76" s="22"/>
+      <x:c r="D76" s="22"/>
+      <x:c r="E76" s="38"/>
       <x:c r="F76" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G76" s="7" t="s">
-        <x:v>80</x:v>
-      </x:c>
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="G76" s="8"/>
     </x:row>
     <x:row r="77" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A77" s="1"/>
-      <x:c r="B77" s="36"/>
-      <x:c r="C77" s="36"/>
-      <x:c r="D77" s="35"/>
-      <x:c r="E77" s="18" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F77" s="12" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="G77" s="12"/>
+      <x:c r="B77" s="36" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C77" s="49" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D77" s="34" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E77" s="7" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="F77" s="7" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G77" s="7" t="s">
+        <x:v>210</x:v>
+      </x:c>
     </x:row>
     <x:row r="78" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A78" s="1"/>
       <x:c r="B78" s="36"/>
-      <x:c r="C78" s="36"/>
-      <x:c r="D78" s="35"/>
-      <x:c r="E78" s="18"/>
-      <x:c r="F78" s="12" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G78" s="12"/>
+      <x:c r="C78" s="49"/>
+      <x:c r="D78" s="34"/>
+      <x:c r="E78" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F78" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G78" s="11"/>
     </x:row>
     <x:row r="79" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A79" s="1"/>
       <x:c r="B79" s="36"/>
-      <x:c r="C79" s="36"/>
-      <x:c r="D79" s="9" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E79" s="7" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F79" s="7" t="s">
-        <x:v>259</x:v>
-      </x:c>
-      <x:c r="G79" s="7" t="s">
-        <x:v>239</x:v>
-      </x:c>
+      <x:c r="C79" s="49"/>
+      <x:c r="D79" s="34"/>
+      <x:c r="E79" s="17"/>
+      <x:c r="F79" s="11" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G79" s="11"/>
     </x:row>
     <x:row r="80" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A80" s="1"/>
       <x:c r="B80" s="36"/>
-      <x:c r="C80" s="36" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D80" s="35" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E80" s="18" t="s">
-        <x:v>127</x:v>
+      <x:c r="C80" s="49"/>
+      <x:c r="D80" s="9" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E80" s="7" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F80" s="7" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="G80" s="7"/>
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="G80" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
     </x:row>
     <x:row r="81" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A81" s="1"/>
       <x:c r="B81" s="36"/>
-      <x:c r="C81" s="36"/>
-      <x:c r="D81" s="35"/>
-      <x:c r="E81" s="18"/>
+      <x:c r="C81" s="49" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D81" s="34" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E81" s="17" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="F81" s="7" t="s">
-        <x:v>268</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G81" s="7"/>
     </x:row>
     <x:row r="82" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A82" s="1"/>
       <x:c r="B82" s="36"/>
-      <x:c r="C82" s="36"/>
-      <x:c r="D82" s="35"/>
-      <x:c r="E82" s="18" t="s">
-        <x:v>231</x:v>
-      </x:c>
+      <x:c r="C82" s="49"/>
+      <x:c r="D82" s="34"/>
+      <x:c r="E82" s="17"/>
       <x:c r="F82" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="G82" s="7"/>
     </x:row>
     <x:row r="83" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A83" s="1"/>
       <x:c r="B83" s="36"/>
-      <x:c r="C83" s="36"/>
-      <x:c r="D83" s="35"/>
-      <x:c r="E83" s="18"/>
+      <x:c r="C83" s="49"/>
+      <x:c r="D83" s="34"/>
+      <x:c r="E83" s="17" t="s">
+        <x:v>139</x:v>
+      </x:c>
       <x:c r="F83" s="7" t="s">
-        <x:v>161</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="G83" s="7"/>
     </x:row>
     <x:row r="84" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A84" s="1"/>
       <x:c r="B84" s="36"/>
-      <x:c r="C84" s="36"/>
-      <x:c r="D84" s="35" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E84" s="18" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F84" s="12" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="G84" s="12"/>
+      <x:c r="C84" s="49"/>
+      <x:c r="D84" s="34"/>
+      <x:c r="E84" s="17"/>
+      <x:c r="F84" s="7" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="G84" s="7"/>
     </x:row>
     <x:row r="85" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A85" s="1"/>
       <x:c r="B85" s="36"/>
-      <x:c r="C85" s="36"/>
-      <x:c r="D85" s="35"/>
-      <x:c r="E85" s="18"/>
-      <x:c r="F85" s="12" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G85" s="12"/>
+      <x:c r="C85" s="49"/>
+      <x:c r="D85" s="34" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E85" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F85" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G85" s="11"/>
     </x:row>
     <x:row r="86" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A86" s="1"/>
       <x:c r="B86" s="36"/>
-      <x:c r="C86" s="36"/>
-      <x:c r="D86" s="35"/>
-      <x:c r="E86" s="18"/>
-      <x:c r="F86" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G86" s="12"/>
+      <x:c r="C86" s="49"/>
+      <x:c r="D86" s="34"/>
+      <x:c r="E86" s="17"/>
+      <x:c r="F86" s="11" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G86" s="11"/>
     </x:row>
     <x:row r="87" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A87" s="1"/>
       <x:c r="B87" s="36"/>
-      <x:c r="C87" s="36"/>
-      <x:c r="D87" s="35"/>
-      <x:c r="E87" s="18" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="F87" s="7" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="G87" s="7" t="s">
-        <x:v>232</x:v>
-      </x:c>
+      <x:c r="C87" s="49"/>
+      <x:c r="D87" s="34"/>
+      <x:c r="E87" s="17"/>
+      <x:c r="F87" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G87" s="11"/>
     </x:row>
     <x:row r="88" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A88" s="1"/>
       <x:c r="B88" s="36"/>
-      <x:c r="C88" s="36"/>
-      <x:c r="D88" s="35"/>
-      <x:c r="E88" s="18"/>
+      <x:c r="C88" s="49"/>
+      <x:c r="D88" s="34"/>
+      <x:c r="E88" s="17" t="s">
+        <x:v>134</x:v>
+      </x:c>
       <x:c r="F88" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G88" s="7" t="s">
-        <x:v>261</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A89" s="1"/>
       <x:c r="B89" s="36"/>
-      <x:c r="C89" s="36"/>
-      <x:c r="D89" s="9" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E89" s="7" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="F89" s="13" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="G89" s="12" t="s">
-        <x:v>0</x:v>
+      <x:c r="C89" s="49"/>
+      <x:c r="D89" s="34"/>
+      <x:c r="E89" s="17"/>
+      <x:c r="F89" s="7" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="G89" s="7" t="s">
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A90" s="1"/>
       <x:c r="B90" s="36"/>
-      <x:c r="C90" s="36"/>
+      <x:c r="C90" s="49"/>
       <x:c r="D90" s="9" t="s">
-        <x:v>250</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E90" s="7" t="s">
-        <x:v>143</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F90" s="12" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G90" s="8"/>
-    </x:row>
-    <x:row r="91" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="G90" s="11" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A91" s="1"/>
       <x:c r="B91" s="36"/>
-      <x:c r="C91" s="40" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D91" s="43" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E91" s="16" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="F91" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G91" s="17"/>
-    </x:row>
-    <x:row r="92" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="C91" s="49"/>
+      <x:c r="D91" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E91" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F91" s="11" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="G91" s="8"/>
+    </x:row>
+    <x:row r="92" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A92" s="1"/>
       <x:c r="B92" s="36"/>
-      <x:c r="C92" s="41"/>
-      <x:c r="D92" s="44"/>
-      <x:c r="E92" s="18" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="F92" s="7" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G92" s="7"/>
+      <x:c r="C92" s="50" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D92" s="39" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E92" s="15" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="F92" s="11" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G92" s="16"/>
     </x:row>
     <x:row r="93" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A93" s="1"/>
       <x:c r="B93" s="36"/>
-      <x:c r="C93" s="41"/>
-      <x:c r="D93" s="44"/>
-      <x:c r="E93" s="18"/>
+      <x:c r="C93" s="51"/>
+      <x:c r="D93" s="40"/>
+      <x:c r="E93" s="17" t="s">
+        <x:v>92</x:v>
+      </x:c>
       <x:c r="F93" s="7" t="s">
-        <x:v>174</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="G93" s="7"/>
     </x:row>
     <x:row r="94" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A94" s="1"/>
       <x:c r="B94" s="36"/>
-      <x:c r="C94" s="41"/>
-      <x:c r="D94" s="44"/>
-      <x:c r="E94" s="18" t="s">
-        <x:v>236</x:v>
-      </x:c>
+      <x:c r="C94" s="51"/>
+      <x:c r="D94" s="40"/>
+      <x:c r="E94" s="17"/>
       <x:c r="F94" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G94" s="7"/>
     </x:row>
     <x:row r="95" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A95" s="1"/>
       <x:c r="B95" s="36"/>
-      <x:c r="C95" s="41"/>
-      <x:c r="D95" s="45"/>
-      <x:c r="E95" s="18"/>
+      <x:c r="C95" s="51"/>
+      <x:c r="D95" s="40"/>
+      <x:c r="E95" s="17" t="s">
+        <x:v>150</x:v>
+      </x:c>
       <x:c r="F95" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G95" s="7"/>
     </x:row>
     <x:row r="96" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A96" s="1"/>
       <x:c r="B96" s="36"/>
-      <x:c r="C96" s="41"/>
-      <x:c r="D96" s="35" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E96" s="18" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F96" s="12" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="G96" s="12"/>
+      <x:c r="C96" s="51"/>
+      <x:c r="D96" s="41"/>
+      <x:c r="E96" s="17"/>
+      <x:c r="F96" s="7" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="G96" s="7"/>
     </x:row>
     <x:row r="97" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A97" s="1"/>
       <x:c r="B97" s="36"/>
-      <x:c r="C97" s="41"/>
-      <x:c r="D97" s="35"/>
-      <x:c r="E97" s="18"/>
-      <x:c r="F97" s="12" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G97" s="12"/>
+      <x:c r="C97" s="51"/>
+      <x:c r="D97" s="34" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E97" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F97" s="11" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="G97" s="11"/>
     </x:row>
     <x:row r="98" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A98" s="1"/>
       <x:c r="B98" s="36"/>
-      <x:c r="C98" s="41"/>
-      <x:c r="D98" s="35"/>
-      <x:c r="E98" s="18"/>
-      <x:c r="F98" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G98" s="12"/>
+      <x:c r="C98" s="51"/>
+      <x:c r="D98" s="34"/>
+      <x:c r="E98" s="17"/>
+      <x:c r="F98" s="11" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G98" s="11"/>
     </x:row>
     <x:row r="99" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A99" s="1"/>
       <x:c r="B99" s="36"/>
-      <x:c r="C99" s="41"/>
-      <x:c r="D99" s="35"/>
-      <x:c r="E99" s="18" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="F99" s="7" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="G99" s="7" t="s">
-        <x:v>270</x:v>
-      </x:c>
+      <x:c r="C99" s="51"/>
+      <x:c r="D99" s="34"/>
+      <x:c r="E99" s="17"/>
+      <x:c r="F99" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G99" s="11"/>
     </x:row>
     <x:row r="100" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A100" s="1"/>
       <x:c r="B100" s="36"/>
-      <x:c r="C100" s="41"/>
-      <x:c r="D100" s="35"/>
-      <x:c r="E100" s="18"/>
+      <x:c r="C100" s="51"/>
+      <x:c r="D100" s="34"/>
+      <x:c r="E100" s="17" t="s">
+        <x:v>152</x:v>
+      </x:c>
       <x:c r="F100" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G100" s="7" t="s">
-        <x:v>271</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A101" s="1"/>
       <x:c r="B101" s="36"/>
-      <x:c r="C101" s="41"/>
-      <x:c r="D101" s="35"/>
-      <x:c r="E101" s="18"/>
+      <x:c r="C101" s="51"/>
+      <x:c r="D101" s="34"/>
+      <x:c r="E101" s="17"/>
       <x:c r="F101" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G101" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A102" s="1"/>
       <x:c r="B102" s="36"/>
-      <x:c r="C102" s="41"/>
-      <x:c r="D102" s="14" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E102" s="15" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="F102" s="15" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="G102" s="15" t="s">
-        <x:v>201</x:v>
+      <x:c r="C102" s="51"/>
+      <x:c r="D102" s="34"/>
+      <x:c r="E102" s="17"/>
+      <x:c r="F102" s="7" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G102" s="7" t="s">
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A103" s="1"/>
       <x:c r="B103" s="36"/>
-      <x:c r="C103" s="42"/>
-      <x:c r="D103" s="14" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="E103" s="15" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="F103" s="15" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="G103" s="15"/>
+      <x:c r="C103" s="51"/>
+      <x:c r="D103" s="13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E103" s="14" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F103" s="14" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G103" s="14" t="s">
+        <x:v>116</x:v>
+      </x:c>
     </x:row>
     <x:row r="104" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A104" s="1"/>
       <x:c r="B104" s="36"/>
-      <x:c r="C104" s="36" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="D104" s="35" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E104" s="18" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="F104" s="7" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="G104" s="7"/>
+      <x:c r="C104" s="52"/>
+      <x:c r="D104" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E104" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F104" s="14" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="G104" s="14"/>
     </x:row>
     <x:row r="105" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A105" s="1"/>
       <x:c r="B105" s="36"/>
-      <x:c r="C105" s="36"/>
-      <x:c r="D105" s="35"/>
-      <x:c r="E105" s="18"/>
+      <x:c r="C105" s="49" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D105" s="34" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E105" s="17" t="s">
+        <x:v>84</x:v>
+      </x:c>
       <x:c r="F105" s="7" t="s">
-        <x:v>254</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G105" s="7"/>
     </x:row>
     <x:row r="106" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A106" s="1"/>
       <x:c r="B106" s="36"/>
-      <x:c r="C106" s="36"/>
-      <x:c r="D106" s="35"/>
-      <x:c r="E106" s="18" t="s">
-        <x:v>225</x:v>
-      </x:c>
+      <x:c r="C106" s="49"/>
+      <x:c r="D106" s="34"/>
+      <x:c r="E106" s="17"/>
       <x:c r="F106" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="G106" s="7"/>
     </x:row>
     <x:row r="107" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A107" s="1"/>
       <x:c r="B107" s="36"/>
-      <x:c r="C107" s="36"/>
-      <x:c r="D107" s="35"/>
-      <x:c r="E107" s="18"/>
+      <x:c r="C107" s="49"/>
+      <x:c r="D107" s="34"/>
+      <x:c r="E107" s="17" t="s">
+        <x:v>148</x:v>
+      </x:c>
       <x:c r="F107" s="7" t="s">
-        <x:v>171</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G107" s="7"/>
     </x:row>
     <x:row r="108" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A108" s="1"/>
       <x:c r="B108" s="36"/>
-      <x:c r="C108" s="36"/>
-      <x:c r="D108" s="35" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E108" s="18" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F108" s="12" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="G108" s="12"/>
+      <x:c r="C108" s="49"/>
+      <x:c r="D108" s="34"/>
+      <x:c r="E108" s="17"/>
+      <x:c r="F108" s="7" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="G108" s="7"/>
     </x:row>
     <x:row r="109" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A109" s="1"/>
       <x:c r="B109" s="36"/>
-      <x:c r="C109" s="36"/>
-      <x:c r="D109" s="35"/>
-      <x:c r="E109" s="18"/>
-      <x:c r="F109" s="12" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G109" s="12"/>
+      <x:c r="C109" s="49"/>
+      <x:c r="D109" s="34" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E109" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F109" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G109" s="11"/>
     </x:row>
     <x:row r="110" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A110" s="1"/>
       <x:c r="B110" s="36"/>
-      <x:c r="C110" s="36"/>
-      <x:c r="D110" s="35"/>
-      <x:c r="E110" s="18"/>
-      <x:c r="F110" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G110" s="12"/>
+      <x:c r="C110" s="49"/>
+      <x:c r="D110" s="34"/>
+      <x:c r="E110" s="17"/>
+      <x:c r="F110" s="11" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G110" s="11"/>
     </x:row>
     <x:row r="111" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A111" s="1"/>
       <x:c r="B111" s="36"/>
-      <x:c r="C111" s="36"/>
-      <x:c r="D111" s="35"/>
-      <x:c r="E111" s="18" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="F111" s="7" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="G111" s="7" t="s">
-        <x:v>204</x:v>
-      </x:c>
+      <x:c r="C111" s="49"/>
+      <x:c r="D111" s="34"/>
+      <x:c r="E111" s="17"/>
+      <x:c r="F111" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G111" s="11"/>
     </x:row>
     <x:row r="112" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A112" s="1"/>
       <x:c r="B112" s="36"/>
-      <x:c r="C112" s="36"/>
-      <x:c r="D112" s="35"/>
-      <x:c r="E112" s="18"/>
+      <x:c r="C112" s="49"/>
+      <x:c r="D112" s="34"/>
+      <x:c r="E112" s="17" t="s">
+        <x:v>135</x:v>
+      </x:c>
       <x:c r="F112" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="G112" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A113" s="1"/>
       <x:c r="B113" s="36"/>
-      <x:c r="C113" s="36"/>
-      <x:c r="D113" s="9" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E113" s="7" t="s">
-        <x:v>116</x:v>
-      </x:c>
+      <x:c r="C113" s="49"/>
+      <x:c r="D113" s="34"/>
+      <x:c r="E113" s="17"/>
       <x:c r="F113" s="7" t="s">
-        <x:v>258</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G113" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A114" s="1"/>
       <x:c r="B114" s="36"/>
-      <x:c r="C114" s="36"/>
+      <x:c r="C114" s="49"/>
       <x:c r="D114" s="9" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="E114" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E114" s="7" t="s">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F114" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G114" s="7"/>
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="G114" s="7" t="s">
+        <x:v>236</x:v>
+      </x:c>
     </x:row>
     <x:row r="115" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A115" s="1"/>
       <x:c r="B115" s="36"/>
-      <x:c r="C115" s="36" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D115" s="35" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E115" s="18" t="s">
-        <x:v>152</x:v>
+      <x:c r="C115" s="49"/>
+      <x:c r="D115" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E115" s="11" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F115" s="7" t="s">
-        <x:v>194</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G115" s="7"/>
     </x:row>
     <x:row r="116" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A116" s="1"/>
       <x:c r="B116" s="36"/>
-      <x:c r="C116" s="36"/>
-      <x:c r="D116" s="35"/>
-      <x:c r="E116" s="18"/>
+      <x:c r="C116" s="49" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D116" s="34" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E116" s="17" t="s">
+        <x:v>88</x:v>
+      </x:c>
       <x:c r="F116" s="7" t="s">
-        <x:v>266</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G116" s="7"/>
     </x:row>
     <x:row r="117" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A117" s="1"/>
       <x:c r="B117" s="36"/>
-      <x:c r="C117" s="36"/>
-      <x:c r="D117" s="35"/>
-      <x:c r="E117" s="18" t="s">
-        <x:v>220</x:v>
-      </x:c>
+      <x:c r="C117" s="49"/>
+      <x:c r="D117" s="34"/>
+      <x:c r="E117" s="17"/>
       <x:c r="F117" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="G117" s="7"/>
     </x:row>
     <x:row r="118" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A118" s="1"/>
       <x:c r="B118" s="36"/>
-      <x:c r="C118" s="36"/>
-      <x:c r="D118" s="35"/>
-      <x:c r="E118" s="18"/>
+      <x:c r="C118" s="49"/>
+      <x:c r="D118" s="34"/>
+      <x:c r="E118" s="17" t="s">
+        <x:v>120</x:v>
+      </x:c>
       <x:c r="F118" s="7" t="s">
-        <x:v>166</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G118" s="7"/>
     </x:row>
     <x:row r="119" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A119" s="1"/>
       <x:c r="B119" s="36"/>
-      <x:c r="C119" s="36"/>
-      <x:c r="D119" s="35" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E119" s="18" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F119" s="12" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="G119" s="12"/>
+      <x:c r="C119" s="49"/>
+      <x:c r="D119" s="34"/>
+      <x:c r="E119" s="17"/>
+      <x:c r="F119" s="7" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="G119" s="7"/>
     </x:row>
     <x:row r="120" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A120" s="1"/>
       <x:c r="B120" s="36"/>
-      <x:c r="C120" s="36"/>
-      <x:c r="D120" s="35"/>
-      <x:c r="E120" s="18"/>
-      <x:c r="F120" s="12" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G120" s="12"/>
+      <x:c r="C120" s="49"/>
+      <x:c r="D120" s="34" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E120" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F120" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G120" s="11"/>
     </x:row>
     <x:row r="121" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A121" s="1"/>
       <x:c r="B121" s="36"/>
-      <x:c r="C121" s="36"/>
-      <x:c r="D121" s="35"/>
-      <x:c r="E121" s="18"/>
-      <x:c r="F121" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G121" s="12"/>
+      <x:c r="C121" s="49"/>
+      <x:c r="D121" s="34"/>
+      <x:c r="E121" s="17"/>
+      <x:c r="F121" s="11" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G121" s="11"/>
     </x:row>
     <x:row r="122" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A122" s="1"/>
       <x:c r="B122" s="36"/>
-      <x:c r="C122" s="36"/>
-      <x:c r="D122" s="35"/>
-      <x:c r="E122" s="18" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="F122" s="7" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G122" s="7" t="s">
-        <x:v>228</x:v>
-      </x:c>
+      <x:c r="C122" s="49"/>
+      <x:c r="D122" s="34"/>
+      <x:c r="E122" s="17"/>
+      <x:c r="F122" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G122" s="11"/>
     </x:row>
     <x:row r="123" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A123" s="1"/>
       <x:c r="B123" s="36"/>
-      <x:c r="C123" s="36"/>
-      <x:c r="D123" s="35"/>
-      <x:c r="E123" s="18"/>
+      <x:c r="C123" s="49"/>
+      <x:c r="D123" s="34"/>
+      <x:c r="E123" s="17" t="s">
+        <x:v>73</x:v>
+      </x:c>
       <x:c r="F123" s="7" t="s">
-        <x:v>85</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="G123" s="7" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A124" s="1"/>
       <x:c r="B124" s="36"/>
-      <x:c r="C124" s="36"/>
-      <x:c r="D124" s="35"/>
-      <x:c r="E124" s="18"/>
+      <x:c r="C124" s="49"/>
+      <x:c r="D124" s="34"/>
+      <x:c r="E124" s="17"/>
       <x:c r="F124" s="7" t="s">
-        <x:v>157</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G124" s="7" t="s">
-        <x:v>233</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A125" s="1"/>
       <x:c r="B125" s="36"/>
-      <x:c r="C125" s="36"/>
-      <x:c r="D125" s="9" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E125" s="12" t="s">
-        <x:v>119</x:v>
-      </x:c>
+      <x:c r="C125" s="49"/>
+      <x:c r="D125" s="34"/>
+      <x:c r="E125" s="17"/>
       <x:c r="F125" s="7" t="s">
-        <x:v>263</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G125" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A126" s="1"/>
       <x:c r="B126" s="36"/>
-      <x:c r="C126" s="36"/>
+      <x:c r="C126" s="49"/>
       <x:c r="D126" s="9" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="E126" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E126" s="11" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F126" s="7" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G126" s="7"/>
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="G126" s="7" t="s">
+        <x:v>246</x:v>
+      </x:c>
     </x:row>
     <x:row r="127" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A127" s="1"/>
       <x:c r="B127" s="36"/>
-      <x:c r="C127" s="36" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="D127" s="35" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E127" s="18" t="s">
-        <x:v>114</x:v>
+      <x:c r="C127" s="49"/>
+      <x:c r="D127" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E127" s="11" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F127" s="7" t="s">
-        <x:v>252</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="G127" s="7"/>
     </x:row>
     <x:row r="128" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A128" s="1"/>
       <x:c r="B128" s="36"/>
-      <x:c r="C128" s="36"/>
-      <x:c r="D128" s="35"/>
-      <x:c r="E128" s="18"/>
+      <x:c r="C128" s="49" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D128" s="34" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E128" s="17" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="F128" s="7" t="s">
-        <x:v>218</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="G128" s="7"/>
     </x:row>
     <x:row r="129" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A129" s="1"/>
       <x:c r="B129" s="36"/>
-      <x:c r="C129" s="36"/>
-      <x:c r="D129" s="35"/>
-      <x:c r="E129" s="18" t="s">
-        <x:v>131</x:v>
-      </x:c>
+      <x:c r="C129" s="49"/>
+      <x:c r="D129" s="34"/>
+      <x:c r="E129" s="17"/>
       <x:c r="F129" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G129" s="7"/>
     </x:row>
     <x:row r="130" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A130" s="1"/>
       <x:c r="B130" s="36"/>
-      <x:c r="C130" s="36"/>
-      <x:c r="D130" s="35"/>
-      <x:c r="E130" s="18"/>
+      <x:c r="C130" s="49"/>
+      <x:c r="D130" s="34"/>
+      <x:c r="E130" s="17" t="s">
+        <x:v>67</x:v>
+      </x:c>
       <x:c r="F130" s="7" t="s">
-        <x:v>253</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G130" s="7"/>
     </x:row>
     <x:row r="131" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A131" s="1"/>
       <x:c r="B131" s="36"/>
-      <x:c r="C131" s="36"/>
-      <x:c r="D131" s="35" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E131" s="18" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F131" s="12" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="G131" s="12"/>
+      <x:c r="C131" s="49"/>
+      <x:c r="D131" s="34"/>
+      <x:c r="E131" s="17"/>
+      <x:c r="F131" s="7" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="G131" s="7"/>
     </x:row>
     <x:row r="132" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A132" s="1"/>
       <x:c r="B132" s="36"/>
-      <x:c r="C132" s="36"/>
-      <x:c r="D132" s="35"/>
-      <x:c r="E132" s="18"/>
-      <x:c r="F132" s="12" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G132" s="12"/>
+      <x:c r="C132" s="49"/>
+      <x:c r="D132" s="34" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E132" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F132" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G132" s="11"/>
     </x:row>
     <x:row r="133" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A133" s="1"/>
       <x:c r="B133" s="36"/>
-      <x:c r="C133" s="36"/>
-      <x:c r="D133" s="35"/>
-      <x:c r="E133" s="18"/>
-      <x:c r="F133" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G133" s="12"/>
+      <x:c r="C133" s="49"/>
+      <x:c r="D133" s="34"/>
+      <x:c r="E133" s="17"/>
+      <x:c r="F133" s="11" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G133" s="11"/>
     </x:row>
     <x:row r="134" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A134" s="1"/>
       <x:c r="B134" s="36"/>
-      <x:c r="C134" s="36"/>
-      <x:c r="D134" s="35"/>
-      <x:c r="E134" s="18" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="F134" s="7" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="G134" s="7" t="s">
-        <x:v>30</x:v>
-      </x:c>
+      <x:c r="C134" s="49"/>
+      <x:c r="D134" s="34"/>
+      <x:c r="E134" s="17"/>
+      <x:c r="F134" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G134" s="11"/>
     </x:row>
     <x:row r="135" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A135" s="1"/>
       <x:c r="B135" s="36"/>
-      <x:c r="C135" s="36"/>
-      <x:c r="D135" s="35"/>
-      <x:c r="E135" s="18"/>
+      <x:c r="C135" s="49"/>
+      <x:c r="D135" s="34"/>
+      <x:c r="E135" s="17" t="s">
+        <x:v>89</x:v>
+      </x:c>
       <x:c r="F135" s="7" t="s">
-        <x:v>269</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G135" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A136" s="1"/>
       <x:c r="B136" s="36"/>
-      <x:c r="C136" s="36"/>
-      <x:c r="D136" s="35"/>
-      <x:c r="E136" s="18"/>
+      <x:c r="C136" s="49"/>
+      <x:c r="D136" s="34"/>
+      <x:c r="E136" s="17"/>
       <x:c r="F136" s="7" t="s">
-        <x:v>209</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G136" s="7" t="s">
-        <x:v>101</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A137" s="1"/>
       <x:c r="B137" s="36"/>
-      <x:c r="C137" s="36"/>
-      <x:c r="D137" s="9" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E137" s="12" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="C137" s="49"/>
+      <x:c r="D137" s="34"/>
+      <x:c r="E137" s="17"/>
       <x:c r="F137" s="7" t="s">
-        <x:v>222</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G137" s="7" t="s">
-        <x:v>185</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A138" s="1"/>
       <x:c r="B138" s="36"/>
-      <x:c r="C138" s="36"/>
+      <x:c r="C138" s="49"/>
       <x:c r="D138" s="9" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="E138" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E138" s="11" t="s">
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F138" s="7" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G138" s="7"/>
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="G138" s="7" t="s">
+        <x:v>194</x:v>
+      </x:c>
     </x:row>
     <x:row r="139" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A139" s="1"/>
       <x:c r="B139" s="36"/>
-      <x:c r="C139" s="36" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="D139" s="35" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E139" s="18" t="s">
-        <x:v>151</x:v>
+      <x:c r="C139" s="49"/>
+      <x:c r="D139" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E139" s="11" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F139" s="7" t="s">
-        <x:v>184</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="G139" s="7"/>
     </x:row>
     <x:row r="140" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A140" s="1"/>
       <x:c r="B140" s="36"/>
-      <x:c r="C140" s="36"/>
-      <x:c r="D140" s="35"/>
-      <x:c r="E140" s="18"/>
+      <x:c r="C140" s="49" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D140" s="34" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E140" s="17" t="s">
+        <x:v>80</x:v>
+      </x:c>
       <x:c r="F140" s="7" t="s">
-        <x:v>267</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G140" s="7"/>
     </x:row>
     <x:row r="141" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A141" s="1"/>
       <x:c r="B141" s="36"/>
-      <x:c r="C141" s="36"/>
-      <x:c r="D141" s="35"/>
-      <x:c r="E141" s="18" t="s">
-        <x:v>230</x:v>
-      </x:c>
+      <x:c r="C141" s="49"/>
+      <x:c r="D141" s="34"/>
+      <x:c r="E141" s="17"/>
       <x:c r="F141" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="G141" s="7"/>
     </x:row>
     <x:row r="142" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A142" s="1"/>
       <x:c r="B142" s="36"/>
-      <x:c r="C142" s="36"/>
-      <x:c r="D142" s="35"/>
-      <x:c r="E142" s="18"/>
+      <x:c r="C142" s="49"/>
+      <x:c r="D142" s="34"/>
+      <x:c r="E142" s="17" t="s">
+        <x:v>138</x:v>
+      </x:c>
       <x:c r="F142" s="7" t="s">
-        <x:v>162</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="G142" s="7"/>
     </x:row>
     <x:row r="143" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A143" s="1"/>
       <x:c r="B143" s="36"/>
-      <x:c r="C143" s="36"/>
-      <x:c r="D143" s="35" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E143" s="18" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F143" s="12" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="G143" s="12"/>
+      <x:c r="C143" s="49"/>
+      <x:c r="D143" s="34"/>
+      <x:c r="E143" s="17"/>
+      <x:c r="F143" s="7" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="G143" s="7"/>
     </x:row>
     <x:row r="144" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A144" s="1"/>
       <x:c r="B144" s="36"/>
-      <x:c r="C144" s="36"/>
-      <x:c r="D144" s="35"/>
-      <x:c r="E144" s="18"/>
-      <x:c r="F144" s="12" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G144" s="12"/>
+      <x:c r="C144" s="49"/>
+      <x:c r="D144" s="34" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E144" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F144" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G144" s="11"/>
     </x:row>
     <x:row r="145" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A145" s="1"/>
       <x:c r="B145" s="36"/>
-      <x:c r="C145" s="36"/>
-      <x:c r="D145" s="35"/>
-      <x:c r="E145" s="18"/>
-      <x:c r="F145" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G145" s="12"/>
+      <x:c r="C145" s="49"/>
+      <x:c r="D145" s="34"/>
+      <x:c r="E145" s="17"/>
+      <x:c r="F145" s="11" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G145" s="11"/>
     </x:row>
     <x:row r="146" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A146" s="1"/>
       <x:c r="B146" s="36"/>
-      <x:c r="C146" s="36"/>
-      <x:c r="D146" s="35"/>
-      <x:c r="E146" s="18" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="F146" s="7" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="G146" s="7" t="s">
-        <x:v>211</x:v>
-      </x:c>
+      <x:c r="C146" s="49"/>
+      <x:c r="D146" s="34"/>
+      <x:c r="E146" s="17"/>
+      <x:c r="F146" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G146" s="11"/>
     </x:row>
     <x:row r="147" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A147" s="1"/>
       <x:c r="B147" s="36"/>
-      <x:c r="C147" s="36"/>
-      <x:c r="D147" s="35"/>
-      <x:c r="E147" s="18"/>
+      <x:c r="C147" s="49"/>
+      <x:c r="D147" s="34"/>
+      <x:c r="E147" s="17" t="s">
+        <x:v>86</x:v>
+      </x:c>
       <x:c r="F147" s="7" t="s">
-        <x:v>167</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G147" s="7" t="s">
-        <x:v>153</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A148" s="1"/>
       <x:c r="B148" s="36"/>
-      <x:c r="C148" s="36"/>
-      <x:c r="D148" s="9" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E148" s="12" t="s">
-        <x:v>102</x:v>
-      </x:c>
+      <x:c r="C148" s="49"/>
+      <x:c r="D148" s="34"/>
+      <x:c r="E148" s="17"/>
       <x:c r="F148" s="7" t="s">
-        <x:v>255</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G148" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A149" s="1"/>
       <x:c r="B149" s="36"/>
-      <x:c r="C149" s="36"/>
+      <x:c r="C149" s="49"/>
       <x:c r="D149" s="9" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="E149" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E149" s="11" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F149" s="7" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="G149" s="7"/>
-    </x:row>
-    <x:row r="150" spans="1:1" ht="15.75" customHeight="1">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="G149" s="7" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A150" s="1"/>
-    </x:row>
-    <x:row r="151" spans="1:1" ht="15.75" customHeight="1">
+      <x:c r="B150" s="36"/>
+      <x:c r="C150" s="49"/>
+      <x:c r="D150" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E150" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F150" s="7" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="G150" s="7"/>
+    </x:row>
+    <x:row r="151" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A151" s="1"/>
-    </x:row>
-    <x:row r="152" spans="1:1" ht="15.75" customHeight="1">
+      <x:c r="B151" s="53"/>
+      <x:c r="C151" s="49" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D151" s="34" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E151" s="17" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F151" s="7" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G151" s="7"/>
+    </x:row>
+    <x:row r="152" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A152" s="1"/>
-    </x:row>
-    <x:row r="153" spans="1:1" ht="15.75" customHeight="1">
+      <x:c r="B152" s="53"/>
+      <x:c r="C152" s="49"/>
+      <x:c r="D152" s="34"/>
+      <x:c r="E152" s="17"/>
+      <x:c r="F152" s="7" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="G152" s="7"/>
+    </x:row>
+    <x:row r="153" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A153" s="1"/>
+      <x:c r="B153" s="53"/>
+      <x:c r="C153" s="49"/>
+      <x:c r="D153" s="34"/>
+      <x:c r="E153" s="17" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F153" s="7" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G153" s="7"/>
     </x:row>
     <x:row r="154" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A154" s="1"/>
-      <x:c r="B154" s="1"/>
-      <x:c r="C154" s="2"/>
-      <x:c r="D154" s="2"/>
-      <x:c r="E154" s="2"/>
-      <x:c r="F154" s="2"/>
-      <x:c r="G154" s="2"/>
+      <x:c r="B154" s="53"/>
+      <x:c r="C154" s="49"/>
+      <x:c r="D154" s="34"/>
+      <x:c r="E154" s="17"/>
+      <x:c r="F154" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G154" s="7"/>
     </x:row>
     <x:row r="155" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A155" s="1"/>
-      <x:c r="B155" s="1"/>
-      <x:c r="C155" s="2"/>
-      <x:c r="D155" s="2"/>
-      <x:c r="E155" s="2"/>
-      <x:c r="F155" s="2"/>
-      <x:c r="G155" s="2"/>
+      <x:c r="B155" s="54"/>
+      <x:c r="C155" s="49"/>
+      <x:c r="D155" s="34" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E155" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F155" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G155" s="11"/>
     </x:row>
     <x:row r="156" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A156" s="1"/>
-      <x:c r="B156" s="1"/>
-      <x:c r="C156" s="2"/>
-      <x:c r="D156" s="2"/>
-      <x:c r="E156" s="2"/>
-      <x:c r="F156" s="2"/>
-      <x:c r="G156" s="2"/>
+      <x:c r="B156" s="54"/>
+      <x:c r="C156" s="49"/>
+      <x:c r="D156" s="34"/>
+      <x:c r="E156" s="17"/>
+      <x:c r="F156" s="11" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G156" s="11"/>
     </x:row>
     <x:row r="157" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A157" s="1"/>
-      <x:c r="B157" s="1"/>
-      <x:c r="C157" s="2"/>
-      <x:c r="D157" s="2"/>
-      <x:c r="E157" s="2"/>
-      <x:c r="F157" s="2"/>
-      <x:c r="G157" s="2"/>
+      <x:c r="B157" s="54"/>
+      <x:c r="C157" s="49"/>
+      <x:c r="D157" s="34"/>
+      <x:c r="E157" s="17"/>
+      <x:c r="F157" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G157" s="11"/>
     </x:row>
     <x:row r="158" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A158" s="1"/>
-      <x:c r="B158" s="1"/>
-      <x:c r="C158" s="2"/>
-      <x:c r="D158" s="2"/>
-      <x:c r="E158" s="2"/>
-      <x:c r="F158" s="2"/>
-      <x:c r="G158" s="2"/>
+      <x:c r="B158" s="54"/>
+      <x:c r="C158" s="49"/>
+      <x:c r="D158" s="34"/>
+      <x:c r="E158" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F158" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G158" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
     </x:row>
     <x:row r="159" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A159" s="1"/>
-      <x:c r="B159" s="1"/>
-      <x:c r="C159" s="2"/>
-      <x:c r="D159" s="2"/>
-      <x:c r="E159" s="2"/>
-      <x:c r="F159" s="2"/>
-      <x:c r="G159" s="2"/>
+      <x:c r="B159" s="54"/>
+      <x:c r="C159" s="49"/>
+      <x:c r="D159" s="34"/>
+      <x:c r="E159" s="17"/>
+      <x:c r="F159" s="7" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G159" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
     </x:row>
     <x:row r="160" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A160" s="1"/>
-      <x:c r="B160" s="1"/>
-      <x:c r="C160" s="2"/>
-      <x:c r="D160" s="2"/>
-      <x:c r="E160" s="2"/>
-      <x:c r="F160" s="2"/>
-      <x:c r="G160" s="2"/>
+      <x:c r="B160" s="54"/>
+      <x:c r="C160" s="49"/>
+      <x:c r="D160" s="9" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E160" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F160" s="7" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G160" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
     </x:row>
     <x:row r="161" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A161" s="1"/>
-      <x:c r="B161" s="1"/>
-      <x:c r="C161" s="2"/>
-      <x:c r="D161" s="2"/>
-      <x:c r="E161" s="2"/>
-      <x:c r="F161" s="2"/>
-      <x:c r="G161" s="2"/>
+      <x:c r="B161" s="54"/>
+      <x:c r="C161" s="49"/>
+      <x:c r="D161" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E161" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F161" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G161" s="7"/>
     </x:row>
     <x:row r="162" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A162" s="1"/>
@@ -4967,11 +5336,11 @@
       <x:c r="G199" s="2"/>
     </x:row>
     <x:row r="200" spans="1:7" ht="15.75" customHeight="1">
-      <x:c r="A200" s="3"/>
-      <x:c r="B200" s="3"/>
-      <x:c r="C200" s="3"/>
-      <x:c r="D200" s="3"/>
-      <x:c r="E200" s="3"/>
+      <x:c r="A200" s="1"/>
+      <x:c r="B200" s="1"/>
+      <x:c r="C200" s="2"/>
+      <x:c r="D200" s="2"/>
+      <x:c r="E200" s="2"/>
       <x:c r="F200" s="2"/>
       <x:c r="G200" s="2"/>
     </x:row>
@@ -4981,8 +5350,8 @@
       <x:c r="C201" s="3"/>
       <x:c r="D201" s="3"/>
       <x:c r="E201" s="3"/>
-      <x:c r="F201" s="3"/>
-      <x:c r="G201" s="3"/>
+      <x:c r="F201" s="2"/>
+      <x:c r="G201" s="2"/>
     </x:row>
     <x:row r="202" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A202" s="3"/>
@@ -10663,12 +11032,21 @@
       <x:c r="F832" s="3"/>
       <x:c r="G832" s="3"/>
     </x:row>
-    <x:row r="833" spans="6:7" customHeight="1">
+    <x:row r="833" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="A833" s="3"/>
+      <x:c r="B833" s="3"/>
+      <x:c r="C833" s="3"/>
+      <x:c r="D833" s="3"/>
+      <x:c r="E833" s="3"/>
       <x:c r="F833" s="3"/>
       <x:c r="G833" s="3"/>
     </x:row>
+    <x:row r="834" spans="6:7" customHeight="1">
+      <x:c r="F834" s="3"/>
+      <x:c r="G834" s="3"/>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="102">
+  <x:mergeCells count="110">
     <x:mergeCell ref="E44:E45"/>
     <x:mergeCell ref="E46:E47"/>
     <x:mergeCell ref="B1:G2"/>
@@ -10689,7 +11067,7 @@
     <x:mergeCell ref="E17:E19"/>
     <x:mergeCell ref="F9:F10"/>
     <x:mergeCell ref="G9:G10"/>
-    <x:mergeCell ref="B4:B72"/>
+    <x:mergeCell ref="B4:B73"/>
     <x:mergeCell ref="E48:E50"/>
     <x:mergeCell ref="D48:D50"/>
     <x:mergeCell ref="C43:C52"/>
@@ -10698,13 +11076,10 @@
     <x:mergeCell ref="C13:C21"/>
     <x:mergeCell ref="D22:D25"/>
     <x:mergeCell ref="C22:C33"/>
-    <x:mergeCell ref="G53:G57"/>
-    <x:mergeCell ref="E54:E55"/>
-    <x:mergeCell ref="E56:E57"/>
-    <x:mergeCell ref="D53:D57"/>
-    <x:mergeCell ref="C53:C64"/>
-    <x:mergeCell ref="E58:E62"/>
-    <x:mergeCell ref="D58:D62"/>
+    <x:mergeCell ref="E55:E56"/>
+    <x:mergeCell ref="E57:E58"/>
+    <x:mergeCell ref="E59:E63"/>
+    <x:mergeCell ref="D59:D63"/>
     <x:mergeCell ref="C34:C42"/>
     <x:mergeCell ref="D34:D38"/>
     <x:mergeCell ref="E35:E36"/>
@@ -10714,68 +11089,79 @@
     <x:mergeCell ref="E39:E40"/>
     <x:mergeCell ref="D43:D47"/>
     <x:mergeCell ref="G43:G47"/>
-    <x:mergeCell ref="E92:E93"/>
-    <x:mergeCell ref="E94:E95"/>
-    <x:mergeCell ref="E99:E101"/>
-    <x:mergeCell ref="D80:D83"/>
-    <x:mergeCell ref="E80:E81"/>
-    <x:mergeCell ref="E82:E83"/>
-    <x:mergeCell ref="E84:E86"/>
-    <x:mergeCell ref="D76:D78"/>
-    <x:mergeCell ref="D84:D88"/>
-    <x:mergeCell ref="E77:E78"/>
-    <x:mergeCell ref="E65:E66"/>
-    <x:mergeCell ref="E67:E68"/>
-    <x:mergeCell ref="D69:D70"/>
-    <x:mergeCell ref="E69:E70"/>
-    <x:mergeCell ref="G65:G68"/>
-    <x:mergeCell ref="D65:D68"/>
-    <x:mergeCell ref="C65:C72"/>
-    <x:mergeCell ref="C76:C79"/>
-    <x:mergeCell ref="E87:E88"/>
-    <x:mergeCell ref="C80:C90"/>
-    <x:mergeCell ref="C104:C114"/>
-    <x:mergeCell ref="E143:E145"/>
-    <x:mergeCell ref="D143:D147"/>
-    <x:mergeCell ref="C115:C126"/>
-    <x:mergeCell ref="D127:D130"/>
-    <x:mergeCell ref="D139:D142"/>
-    <x:mergeCell ref="D115:D118"/>
-    <x:mergeCell ref="E141:E142"/>
-    <x:mergeCell ref="D104:D107"/>
-    <x:mergeCell ref="E104:E105"/>
-    <x:mergeCell ref="E106:E107"/>
-    <x:mergeCell ref="E111:E112"/>
-    <x:mergeCell ref="E134:E136"/>
-    <x:mergeCell ref="E122:E124"/>
-    <x:mergeCell ref="E127:E128"/>
-    <x:mergeCell ref="E131:E133"/>
-    <x:mergeCell ref="D131:D136"/>
-    <x:mergeCell ref="E96:E98"/>
-    <x:mergeCell ref="D96:D101"/>
-    <x:mergeCell ref="B76:B149"/>
-    <x:mergeCell ref="E73:E75"/>
-    <x:mergeCell ref="D73:D75"/>
-    <x:mergeCell ref="C73:C75"/>
-    <x:mergeCell ref="B73:B75"/>
-    <x:mergeCell ref="C91:C103"/>
-    <x:mergeCell ref="D91:D95"/>
-    <x:mergeCell ref="E129:E130"/>
-    <x:mergeCell ref="E139:E140"/>
-    <x:mergeCell ref="E108:E110"/>
-    <x:mergeCell ref="D108:D112"/>
-    <x:mergeCell ref="E119:E121"/>
-    <x:mergeCell ref="D119:D124"/>
-    <x:mergeCell ref="E146:E147"/>
-    <x:mergeCell ref="C139:C149"/>
-    <x:mergeCell ref="E115:E116"/>
-    <x:mergeCell ref="E117:E118"/>
-    <x:mergeCell ref="C127:C138"/>
+    <x:mergeCell ref="E93:E94"/>
+    <x:mergeCell ref="E95:E96"/>
+    <x:mergeCell ref="E100:E102"/>
+    <x:mergeCell ref="D81:D84"/>
+    <x:mergeCell ref="E81:E82"/>
+    <x:mergeCell ref="E83:E84"/>
+    <x:mergeCell ref="E85:E87"/>
+    <x:mergeCell ref="D77:D79"/>
+    <x:mergeCell ref="D85:D89"/>
+    <x:mergeCell ref="E78:E79"/>
+    <x:mergeCell ref="E66:E67"/>
+    <x:mergeCell ref="E68:E69"/>
+    <x:mergeCell ref="D70:D71"/>
+    <x:mergeCell ref="E70:E71"/>
+    <x:mergeCell ref="G66:G69"/>
+    <x:mergeCell ref="D66:D69"/>
+    <x:mergeCell ref="C66:C73"/>
+    <x:mergeCell ref="C77:C80"/>
+    <x:mergeCell ref="E88:E89"/>
+    <x:mergeCell ref="C81:C91"/>
+    <x:mergeCell ref="C105:C115"/>
+    <x:mergeCell ref="E144:E146"/>
+    <x:mergeCell ref="D144:D148"/>
+    <x:mergeCell ref="C116:C127"/>
+    <x:mergeCell ref="D128:D131"/>
+    <x:mergeCell ref="D140:D143"/>
+    <x:mergeCell ref="D116:D119"/>
+    <x:mergeCell ref="E142:E143"/>
+    <x:mergeCell ref="D105:D108"/>
+    <x:mergeCell ref="E105:E106"/>
+    <x:mergeCell ref="E107:E108"/>
+    <x:mergeCell ref="E112:E113"/>
+    <x:mergeCell ref="E135:E137"/>
+    <x:mergeCell ref="E123:E125"/>
+    <x:mergeCell ref="E128:E129"/>
+    <x:mergeCell ref="E132:E134"/>
+    <x:mergeCell ref="D132:D137"/>
+    <x:mergeCell ref="E97:E99"/>
+    <x:mergeCell ref="D97:D102"/>
+    <x:mergeCell ref="E74:E76"/>
+    <x:mergeCell ref="D74:D76"/>
+    <x:mergeCell ref="C74:C76"/>
+    <x:mergeCell ref="B74:B76"/>
+    <x:mergeCell ref="C92:C104"/>
+    <x:mergeCell ref="D92:D96"/>
+    <x:mergeCell ref="E130:E131"/>
+    <x:mergeCell ref="E140:E141"/>
+    <x:mergeCell ref="E109:E111"/>
+    <x:mergeCell ref="D109:D113"/>
+    <x:mergeCell ref="E120:E122"/>
+    <x:mergeCell ref="D120:D125"/>
+    <x:mergeCell ref="E147:E148"/>
+    <x:mergeCell ref="C140:C150"/>
+    <x:mergeCell ref="E116:E117"/>
+    <x:mergeCell ref="E118:E119"/>
+    <x:mergeCell ref="C128:C139"/>
+    <x:mergeCell ref="C53:C65"/>
+    <x:mergeCell ref="D53:D58"/>
+    <x:mergeCell ref="G53:G58"/>
+    <x:mergeCell ref="E53:E54"/>
+    <x:mergeCell ref="C151:C161"/>
+    <x:mergeCell ref="D151:D154"/>
+    <x:mergeCell ref="E151:E152"/>
+    <x:mergeCell ref="E153:E154"/>
+    <x:mergeCell ref="D155:D159"/>
+    <x:mergeCell ref="E155:E157"/>
+    <x:mergeCell ref="E158:E159"/>
+    <x:mergeCell ref="B77:B161"/>
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="E4:E4" r:id="rId1"/>
     <x:hyperlink ref="E43:E43" r:id="rId2"/>
-    <x:hyperlink ref="E53:E53" r:id="rId3"/>
+    <x:hyperlink ref="E53:E54" r:id="rId3"/>
   </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/Puppy Playtime 프로젝트 구조명세서.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.4167"/>
+  <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haemi\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="16150" windowHeight="6110"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Total" sheetId="1" r:id="rId4"/>
@@ -19,212 +14,922 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="288">
-  <x:si>
-    <x:t>src/main/resources/query/client</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="304">
+  <x:si>
+    <x:t>패키지명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mapper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PetVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MVC 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminSalesStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypageReservationDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.extraservice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/extraService/extraServiceList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/extraService/extraServiceDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.extraservice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>admin/room/roomList</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>StatisticsController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageReservationDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/writeForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login/findPw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry/reply</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminSalesStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.room.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/member/joinForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminInquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>extraService
+ (부가서비스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login/findId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StatisticsServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminReservation.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.common.crypt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/room/roomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.common.graph</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login/pw_popup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry/reply</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.common.file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply</x:t>
+  </x:si>
+  <x:si>
+    <x:t>home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHA256</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>com.</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>puppy.admin.room.service</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>statistics                (</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>통계)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/admin/inquiry/inquiry</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>Detail</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>c</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>om.puppy.admin.room.controller</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/template</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reserveDetaill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypagePetInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry/inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.main.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeUpdateForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reserveCalendar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry/inquiryWrite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.main.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.vo</x:t>
   </x:si>
   <x:si>
     <x:t>com.puppyclient.guide.service</x:t>
   </x:si>
   <x:si>
-    <x:t>/WEB-INF/views/client/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/inquiry/inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.service</x:t>
+    <x:t>MypageVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joinForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminAside</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pagination</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminHeader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomVO</x:t>
   </x:si>
   <x:si>
     <x:t>GuideDAO</x:t>
   </x:si>
   <x:si>
+    <x:t>MemberVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomAdd</x:t>
+  </x:si>
+  <x:si>
     <x:t>mypage.xml</x:t>
   </x:si>
   <x:si>
-    <x:t>MemberVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomVO</x:t>
+    <x:t>guide.xml</x:t>
   </x:si>
   <x:si>
     <x:t>member.xml</x:t>
   </x:si>
   <x:si>
+    <x:t>ReserveDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login.xml</x:t>
+  </x:si>
+  <x:si>
     <x:t>InquiryDAO</x:t>
   </x:si>
   <x:si>
-    <x:t>login.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReserveDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joinForm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveRoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.extraservice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/extraService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypagepetInfoUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminSalesStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoinsert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfoupdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/extraService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide/guideList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.common.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>extraService.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/login/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiry
- (문의게시판)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservePetRegister</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservation
- (예약)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiry.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryCorrection</x:t>
+    <x:t>mainPage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw_popup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PageRequest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>writeForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reply.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ChartMake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics/adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매핑명</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>room
+(</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>애견공간관리)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자
+ (client)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice
+ (공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice
+(공지사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMemberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>extraServiceAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageMyinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveCalendar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminMember.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>common
+ (공용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">관리자
+(admin)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member
+ (회원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>statistics.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guide
+ (이용안내)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginService</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 공용
+(common)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login
+ (회원 로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cageRoomList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserveDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> MainController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiryWrite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservationList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/main</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FileUploadUtil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservationMail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypage
+(마이 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNotice.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StatisticsDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>main
+(</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>메인페이지)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/admin/</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>main</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>/admin/</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>room</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>member
+(</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>회원)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>StatisticsDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noticeUpdateForm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageReservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypagePagination</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>admin</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>ContentLayout</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminCageroom.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StatisticsService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservationDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>extraServiceList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfodetail</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -258,444 +963,292 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>CageRoomServiceImpl</x:t>
+    <x:t>AdminMemberService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageServiceImpl</x:t>
   </x:si>
   <x:si>
     <x:t>MemberController</x:t>
   </x:si>
   <x:si>
-    <x:t>MypageServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageReservation</x:t>
+    <x:t>reservationCancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>newReservationList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/login/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypageMyinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>extraService.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/extraService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CageRoomController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.common.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservePetSelect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtraServiceDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation
+ (예약)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoticeController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoupdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MemberServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReservationDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InquiryServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mypagePetinfoinsert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuideServiceImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guide/guideList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inquiry
+ (문의게시판)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MypageController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminMemberDAOImpl</x:t>
   </x:si>
   <x:si>
     <x:t>CageContentLayout</x:t>
   </x:si>
   <x:si>
+    <x:t>adminInquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminNoticeDAOImpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminJoinStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminNoticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminInquiryDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/room/roomAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.xml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/extraService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.main.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypagepetInfoInsert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.statistics.service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/reservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypagePetinfodetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypageReservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reservePetSelect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/extraService/extraServiceAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.reservation.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.extraservice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/adminInquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.inquiry.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypagepetInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypageMyInfoUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/member/memberList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.member.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.guide.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/admin/main</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/notice/noticeDetail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/admin/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/inquiry/inquiryList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.login.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/notice/noticeList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.inquiry.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.admin.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminReservationStatistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/mypage/mypageMyInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/client/reserve/reserveRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.member.vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.notice.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/WEB-INF/views/client/guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>src/main/resources/query</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.main.dao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>com.puppy.client.mypage.vo</x:t>
+  </x:si>
+  <x:si>
     <x:r>
-      <x:t>admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ContentLayout</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminInquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> /WEB-INF/views/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.statistics.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminLogin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminAside</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminHeader</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/template</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>src/main/resources/query/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminJoinStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberDelList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/statistics/adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReplyVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PetVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MVC 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/inquiry/inquiryCorrection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypagepetInfoInsert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/adminInquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypageReservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/reservePetRegister</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypageMyInfoUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매핑명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mapper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패키지명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMemberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNoticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMain.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.main.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/main/reservationList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminReservationStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/main</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/member/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.member.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMainReservationList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/admin/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminStatisticsDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/main/memberList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/room/roomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminSalesStatistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/notice/noticeAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMainServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminLoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminMemberController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminNoticeServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminInquiryServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.extraservice.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/extraService/extraServiceList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.extraservice.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/admin/extraService/extraServiceDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/reserveCalendar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypagePetInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.reservation.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/reserveDetaill</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/admin/inquiry/inquiry</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Detail</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>com.</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>puppy.admin.room.service</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>c</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>om.puppy.admin.room.controller</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>statistics                (</x:t>
+      <x:t xml:space="preserve">        Admin</x:t>
     </x:r>
     <x:r>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -704,7 +1257,6 @@
             <x:rFont val="맑은 고딕"/>
             <x:sz val="11"/>
             <x:color rgb="ff000000"/>
-            <x:b val="1"/>
             <hs:size val="100"/>
             <hs:ratio val="100"/>
             <hs:spacing val="0"/>
@@ -716,179 +1268,15 @@
             <x:rFont val="맑은 고딕"/>
             <x:sz val="11"/>
             <x:color rgb="ff000000"/>
-            <x:b val="1"/>
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t>통계)</x:t>
+      <x:t>MainController</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>ExtraServiceVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationVO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageroom.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
-(공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminMember.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member
- (회원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomService</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">관리자
-(admin)
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>common
- (공용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MemberDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>statistics.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice
- (공지사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypagePetinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuideDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypageMyinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자
- (client)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inquiryDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
-(관리자 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 공용
-(common)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationDAO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reservation.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminNotice.xml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CageRoomDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginDAOImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InquiryService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mypage
-(마이 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cageRoomList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MypageService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login
- (회원 로그인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserveCalendar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoticeService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guide
- (이용안내)</x:t>
-  </x:si>
-  <x:si>
     <x:r>
-      <x:t>main
-(</x:t>
+      <x:t>/WEB-INF/views/admin/</x:t>
     </x:r>
     <x:r>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -897,7 +1285,6 @@
             <x:rFont val="맑은 고딕"/>
             <x:sz val="11"/>
             <x:color rgb="ff000000"/>
-            <x:b val="1"/>
             <hs:size val="100"/>
             <hs:ratio val="100"/>
             <hs:spacing val="0"/>
@@ -909,17 +1296,15 @@
             <x:rFont val="맑은 고딕"/>
             <x:sz val="11"/>
             <x:color rgb="ff000000"/>
-            <x:b val="1"/>
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t>메인페이지)</x:t>
+      <x:t>room</x:t>
     </x:r>
   </x:si>
   <x:si>
     <x:r>
-      <x:t>room
-(</x:t>
+      <x:t>com.puppy</x:t>
     </x:r>
     <x:r>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -928,7 +1313,6 @@
             <x:rFont val="맑은 고딕"/>
             <x:sz val="11"/>
             <x:color rgb="ff000000"/>
-            <x:b val="1"/>
             <hs:size val="100"/>
             <hs:ratio val="100"/>
             <hs:spacing val="0"/>
@@ -940,255 +1324,163 @@
             <x:rFont val="맑은 고딕"/>
             <x:sz val="11"/>
             <x:color rgb="ff000000"/>
-            <x:b val="1"/>
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t>애견공간관리)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>com.puppy</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
       <x:t>.admin.room.dao</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/WEB-INF/views/admin/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>room</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">        Admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>MainController</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/client/mypage/mypageMyInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.login.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.inquiry.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.guide.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.mypage.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Puppy Playtime 프로젝트 구조 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/inquiry/inquiryList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/notice/noticeDetail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/WEB-INF/views/client/guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.member.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/notice/noticeList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/reserveRoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.client.notice.dao</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/admin/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>main</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/admin/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>room</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>member
-(</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>회원)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>extraService
- (부가서비스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/member/joinForm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/login/findId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/client/login/findPw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtraServiceServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReservationServiceImpl</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>admin/room/roomList</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>Admin</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>StatisticsService</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>/client/reserve/payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>com.puppy.admin.room.vo</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="14">
+  <x:fonts count="16">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
+      <x:name val="돋움"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1217,10 +1509,6 @@
           <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
           <x:color rgb="ff000000"/>
-          <x:u/>
-          <hs:underlineType val="1"/>
-          <hs:underlineShape val="solid"/>
-          <hs:underlineColor rgb="ff000000"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -1232,15 +1520,9 @@
           <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
           <x:color rgb="ff000000"/>
-          <x:u/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1267,7 +1549,10 @@
           <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
           <x:color rgb="ff000000"/>
-          <x:i val="1"/>
+          <x:u/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineType val="1"/>
+          <hs:underlineColor rgb="ff000000"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -1279,7 +1564,7 @@
           <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
           <x:color rgb="ff000000"/>
-          <x:i val="1"/>
+          <x:u/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1327,6 +1612,48 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -1343,165 +1670,231 @@
     </x:fill>
   </x:fills>
   <x:borders count="9">
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="56">
+  <x:cellXfs count="76">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1509,26 +1902,13 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1551,26 +1931,13 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1588,18 +1955,15 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1619,34 +1983,112 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1677,29 +2119,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1709,14 +2135,43 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1748,44 +2203,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1796,39 +2251,39 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1838,18 +2293,18 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1857,78 +2312,78 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1938,13 +2393,13 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1977,13 +2432,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2001,18 +2495,147 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
-    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
+    <x:cellStyle xfId="0" builtinId="0"/>
     <x:cellStyle name="표준 3" xfId="1"/>
   </x:cellStyles>
-  <x:dxfs count="12">
+  <x:dxfs count="30">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
@@ -2233,10 +2856,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:left>
             <x:right>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff6182d6"/>
@@ -2245,10 +2868,10 @@
               <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:vertical>
             <x:horizontal>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -2260,10 +2883,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:left>
             <x:right>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff6182d6"/>
@@ -2272,10 +2895,10 @@
               <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:vertical>
             <x:horizontal>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -2388,6 +3011,457 @@
         </x:dxf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd9e6fd"/>
+              <x:bgColor rgb="ffd9e6fd"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd9e6fd"/>
+              <x:bgColor rgb="ffd9e6fd"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd9e6fd"/>
+              <x:bgColor rgb="ffd9e6fd"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd9e6fd"/>
+              <x:bgColor rgb="ffd9e6fd"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9d9d9"/>
+          <x:bgColor rgb="ffd9d9d9"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9d9d9"/>
+          <x:bgColor rgb="ffd9d9d9"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:left style="thin">
+          <x:color rgb="ffbfbfbf"/>
+        </x:left>
+        <x:right style="thin">
+          <x:color rgb="ffbfbfbf"/>
+        </x:right>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9d9d9"/>
+          <x:bgColor rgb="ffd9d9d9"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff4285f4"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ff4285f4"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff4285f4"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ff4285f4"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9e6fd"/>
+          <x:bgColor rgb="ffd9e6fd"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:bottom style="thin">
+          <x:color rgb="ff8db6f9"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9e6fd"/>
+          <x:bgColor rgb="ffd9e6fd"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:bottom style="thin">
+          <x:color rgb="ff8db6f9"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:bottom>
+            <x:horizontal style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:bottom>
+            <x:horizontal style="thin">
+              <x:color rgb="ff8db6f9"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff4285f4"/>
+              <x:bgColor rgb="ff4285f4"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff4285f4"/>
+              <x:bgColor rgb="ff4285f4"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="double">
+              <x:color rgb="ff4285f4"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="double">
+              <x:color rgb="ff4285f4"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9e6fd"/>
+          <x:bgColor rgb="ffd9e6fd"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9e6fd"/>
+          <x:bgColor rgb="ffd9e6fd"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
   </x:dxfs>
   <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
@@ -2416,7 +3490,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2612,10 +3686,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G834"/>
+  <x:dimension ref="A1:H834"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E150" activeCellId="0" sqref="E150:E150"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="I17" activeCellId="0" sqref="I17:I17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2631,2335 +3705,2376 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A1" s="2"/>
-      <x:c r="B1" s="20" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="C1" s="20"/>
-      <x:c r="D1" s="20"/>
-      <x:c r="E1" s="20"/>
-      <x:c r="F1" s="20"/>
-      <x:c r="G1" s="20"/>
+      <x:c r="B1" s="23" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="C1" s="23"/>
+      <x:c r="D1" s="23"/>
+      <x:c r="E1" s="23"/>
+      <x:c r="F1" s="23"/>
+      <x:c r="G1" s="23"/>
     </x:row>
     <x:row r="2" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A2" s="2"/>
-      <x:c r="B2" s="20"/>
-      <x:c r="C2" s="20"/>
-      <x:c r="D2" s="20"/>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
-      <x:c r="G2" s="20"/>
+      <x:c r="B2" s="23"/>
+      <x:c r="C2" s="23"/>
+      <x:c r="D2" s="23"/>
+      <x:c r="E2" s="23"/>
+      <x:c r="F2" s="23"/>
+      <x:c r="G2" s="23"/>
     </x:row>
     <x:row r="3" spans="1:7" ht="24" customHeight="1">
       <x:c r="A3" s="2"/>
-      <x:c r="B3" s="10" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C3" s="10" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D3" s="10" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E3" s="10" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="F3" s="10" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G3" s="10" t="s">
-        <x:v>133</x:v>
+      <x:c r="B3" s="9" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C3" s="9" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D3" s="9" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E3" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F3" s="9" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="G3" s="9" t="s">
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="24" customHeight="1">
       <x:c r="A4" s="2"/>
-      <x:c r="B4" s="29" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="C4" s="26" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="D4" s="24" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E4" s="7" t="s">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="F4" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G4" s="18"/>
+      <x:c r="B4" s="33" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C4" s="29" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D4" s="25" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E4" s="15" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="F4" s="16" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G4" s="27"/>
     </x:row>
     <x:row r="5" spans="1:7" ht="24" customHeight="1">
       <x:c r="A5" s="2"/>
-      <x:c r="B5" s="30"/>
-      <x:c r="C5" s="25"/>
-      <x:c r="D5" s="25"/>
-      <x:c r="E5" s="18" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="F5" s="8" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G5" s="19"/>
+      <x:c r="B5" s="34"/>
+      <x:c r="C5" s="26"/>
+      <x:c r="D5" s="26"/>
+      <x:c r="E5" s="21" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="F5" s="16" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G5" s="28"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="24" customHeight="1">
       <x:c r="A6" s="2"/>
-      <x:c r="B6" s="30"/>
-      <x:c r="C6" s="25"/>
-      <x:c r="D6" s="25"/>
-      <x:c r="E6" s="19"/>
-      <x:c r="F6" s="8" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="G6" s="19"/>
+      <x:c r="B6" s="34"/>
+      <x:c r="C6" s="26"/>
+      <x:c r="D6" s="26"/>
+      <x:c r="E6" s="22"/>
+      <x:c r="F6" s="16" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="G6" s="28"/>
     </x:row>
     <x:row r="7" spans="1:7" ht="24" customHeight="1">
       <x:c r="A7" s="2"/>
-      <x:c r="B7" s="30"/>
-      <x:c r="C7" s="25"/>
-      <x:c r="D7" s="25"/>
-      <x:c r="E7" s="18" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="F7" s="8" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="G7" s="19"/>
+      <x:c r="B7" s="34"/>
+      <x:c r="C7" s="26"/>
+      <x:c r="D7" s="26"/>
+      <x:c r="E7" s="21" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F7" s="16" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="G7" s="28"/>
     </x:row>
     <x:row r="8" spans="1:7" ht="24" customHeight="1">
       <x:c r="A8" s="2"/>
-      <x:c r="B8" s="30"/>
-      <x:c r="C8" s="25"/>
-      <x:c r="D8" s="25"/>
-      <x:c r="E8" s="19"/>
-      <x:c r="F8" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G8" s="19"/>
+      <x:c r="B8" s="34"/>
+      <x:c r="C8" s="26"/>
+      <x:c r="D8" s="26"/>
+      <x:c r="E8" s="22"/>
+      <x:c r="F8" s="16" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="G8" s="28"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="24" customHeight="1">
       <x:c r="A9" s="2"/>
-      <x:c r="B9" s="30"/>
-      <x:c r="C9" s="25"/>
-      <x:c r="D9" s="24" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E9" s="18" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="F9" s="21" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G9" s="21" t="s">
-        <x:v>279</x:v>
+      <x:c r="B9" s="34"/>
+      <x:c r="C9" s="26"/>
+      <x:c r="D9" s="6" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E9" s="16" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F9" s="13" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G9" s="13" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="24" customHeight="1">
       <x:c r="A10" s="2"/>
-      <x:c r="B10" s="30"/>
-      <x:c r="C10" s="25"/>
-      <x:c r="D10" s="25"/>
-      <x:c r="E10" s="19"/>
-      <x:c r="F10" s="21"/>
-      <x:c r="G10" s="21"/>
+      <x:c r="B10" s="34"/>
+      <x:c r="C10" s="26"/>
+      <x:c r="D10" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E10" s="16" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="F10" s="16" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="G10" s="7" t="s">
+        <x:v>161</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="24" customHeight="1">
       <x:c r="A11" s="2"/>
-      <x:c r="B11" s="30"/>
-      <x:c r="C11" s="25"/>
+      <x:c r="B11" s="34"/>
+      <x:c r="C11" s="26"/>
       <x:c r="D11" s="6" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E11" s="8" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="F11" s="8" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="G11" s="8" t="s">
-        <x:v>212</x:v>
-      </x:c>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E11" s="16" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F11" s="16" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G11" s="7"/>
     </x:row>
     <x:row r="12" spans="1:7" ht="24" customHeight="1">
       <x:c r="A12" s="2"/>
-      <x:c r="B12" s="30"/>
-      <x:c r="C12" s="25"/>
-      <x:c r="D12" s="6" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E12" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F12" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G12" s="8"/>
+      <x:c r="B12" s="34"/>
+      <x:c r="C12" s="40" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D12" s="39" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E12" s="21" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="F12" s="16" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G12" s="27"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="24" customHeight="1">
       <x:c r="A13" s="2"/>
-      <x:c r="B13" s="30"/>
-      <x:c r="C13" s="36" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="D13" s="35" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E13" s="18" t="s">
-        <x:v>259</x:v>
-      </x:c>
-      <x:c r="F13" s="8" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G13" s="18"/>
+      <x:c r="B13" s="34"/>
+      <x:c r="C13" s="40"/>
+      <x:c r="D13" s="39"/>
+      <x:c r="E13" s="22"/>
+      <x:c r="F13" s="16" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="G13" s="27"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="24" customHeight="1">
       <x:c r="A14" s="2"/>
-      <x:c r="B14" s="30"/>
-      <x:c r="C14" s="36"/>
-      <x:c r="D14" s="35"/>
-      <x:c r="E14" s="19"/>
-      <x:c r="F14" s="8" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="G14" s="18"/>
+      <x:c r="B14" s="34"/>
+      <x:c r="C14" s="40"/>
+      <x:c r="D14" s="39"/>
+      <x:c r="E14" s="21" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F14" s="16" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="G14" s="27"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="24" customHeight="1">
       <x:c r="A15" s="2"/>
-      <x:c r="B15" s="30"/>
-      <x:c r="C15" s="36"/>
-      <x:c r="D15" s="35"/>
-      <x:c r="E15" s="18" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="F15" s="8" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="G15" s="18"/>
+      <x:c r="B15" s="34"/>
+      <x:c r="C15" s="40"/>
+      <x:c r="D15" s="39"/>
+      <x:c r="E15" s="22"/>
+      <x:c r="F15" s="16" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="G15" s="27"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="24" customHeight="1">
       <x:c r="A16" s="2"/>
-      <x:c r="B16" s="30"/>
-      <x:c r="C16" s="36"/>
-      <x:c r="D16" s="35"/>
-      <x:c r="E16" s="19"/>
-      <x:c r="F16" s="8" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G16" s="18"/>
+      <x:c r="B16" s="34"/>
+      <x:c r="C16" s="40"/>
+      <x:c r="D16" s="30" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E16" s="24" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="F16" s="16" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G16" s="7" t="s">
+        <x:v>217</x:v>
+      </x:c>
     </x:row>
     <x:row r="17" spans="1:7" ht="24" customHeight="1">
       <x:c r="A17" s="2"/>
-      <x:c r="B17" s="30"/>
-      <x:c r="C17" s="36"/>
-      <x:c r="D17" s="22" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E17" s="21" t="s">
-        <x:v>267</x:v>
-      </x:c>
-      <x:c r="F17" s="8" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="G17" s="8" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:7" ht="24" customHeight="1">
+      <x:c r="B17" s="34"/>
+      <x:c r="C17" s="40"/>
+      <x:c r="D17" s="31"/>
+      <x:c r="E17" s="32"/>
+      <x:c r="F17" s="16" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G17" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7" customFormat="1" ht="24" customHeight="1">
       <x:c r="A18" s="2"/>
-      <x:c r="B18" s="30"/>
-      <x:c r="C18" s="36"/>
-      <x:c r="D18" s="27"/>
-      <x:c r="E18" s="28"/>
-      <x:c r="F18" s="8" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="G18" s="8" t="s">
-        <x:v>280</x:v>
+      <x:c r="B18" s="33"/>
+      <x:c r="C18" s="40"/>
+      <x:c r="D18" s="30"/>
+      <x:c r="E18" s="24"/>
+      <x:c r="F18" s="16" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="G18" s="7" t="s">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7" ht="24" customHeight="1">
       <x:c r="A19" s="2"/>
-      <x:c r="B19" s="30"/>
-      <x:c r="C19" s="36"/>
-      <x:c r="D19" s="27"/>
-      <x:c r="E19" s="28"/>
-      <x:c r="F19" s="8" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="G19" s="8" t="s">
-        <x:v>281</x:v>
+      <x:c r="B19" s="34"/>
+      <x:c r="C19" s="40"/>
+      <x:c r="D19" s="31"/>
+      <x:c r="E19" s="32"/>
+      <x:c r="F19" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G19" s="7" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" ht="24" customHeight="1">
       <x:c r="A20" s="2"/>
-      <x:c r="B20" s="30"/>
-      <x:c r="C20" s="36"/>
-      <x:c r="D20" s="10" t="s">
+      <x:c r="B20" s="34"/>
+      <x:c r="C20" s="40"/>
+      <x:c r="D20" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E20" s="16" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="F20" s="16" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G20" s="7" t="s">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="E20" s="8" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="F20" s="8" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G20" s="8" t="s">
-        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="24" customHeight="1">
       <x:c r="A21" s="2"/>
-      <x:c r="B21" s="30"/>
-      <x:c r="C21" s="36"/>
-      <x:c r="D21" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E21" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F21" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G21" s="8"/>
-    </x:row>
-    <x:row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B21" s="34"/>
+      <x:c r="C21" s="40"/>
+      <x:c r="D21" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E21" s="16" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F21" s="16" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G21" s="7"/>
+    </x:row>
+    <x:row r="22" spans="1:7" customFormat="1" ht="24" customHeight="1">
       <x:c r="A22" s="2"/>
-      <x:c r="B22" s="31"/>
-      <x:c r="C22" s="37" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D22" s="35" t="s">
-        <x:v>141</x:v>
+      <x:c r="B22" s="35"/>
+      <x:c r="C22" s="43" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D22" s="39" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E22" s="21" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="F22" s="8" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G22" s="8"/>
-    </x:row>
-    <x:row r="23" spans="1:7" ht="15.75" customHeight="1">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F22" s="16" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="G22" s="54"/>
+    </x:row>
+    <x:row r="23" spans="1:7" customFormat="1" ht="24" customHeight="1">
       <x:c r="A23" s="2"/>
-      <x:c r="B23" s="31"/>
-      <x:c r="C23" s="37"/>
-      <x:c r="D23" s="35"/>
+      <x:c r="B23" s="33"/>
+      <x:c r="C23" s="43"/>
+      <x:c r="D23" s="39"/>
       <x:c r="E23" s="21"/>
-      <x:c r="F23" s="8" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="G23" s="8"/>
-    </x:row>
-    <x:row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="F23" s="16" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="G23" s="55"/>
+    </x:row>
+    <x:row r="24" spans="1:7" customFormat="1" ht="24" customHeight="1">
       <x:c r="A24" s="2"/>
-      <x:c r="B24" s="31"/>
-      <x:c r="C24" s="37"/>
-      <x:c r="D24" s="35"/>
+      <x:c r="B24" s="35"/>
+      <x:c r="C24" s="43"/>
+      <x:c r="D24" s="39"/>
       <x:c r="E24" s="21" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="F24" s="8" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="G24" s="8"/>
-    </x:row>
-    <x:row r="25" spans="1:7" ht="15.75" customHeight="1">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="F24" s="16" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G24" s="55"/>
+    </x:row>
+    <x:row r="25" spans="1:7" customFormat="1" ht="24" customHeight="1">
       <x:c r="A25" s="2"/>
-      <x:c r="B25" s="31"/>
-      <x:c r="C25" s="37"/>
-      <x:c r="D25" s="35"/>
+      <x:c r="B25" s="33"/>
+      <x:c r="C25" s="43"/>
+      <x:c r="D25" s="39"/>
       <x:c r="E25" s="21"/>
-      <x:c r="F25" s="8" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G25" s="8"/>
-    </x:row>
-    <x:row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="F25" s="16" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G25" s="55"/>
+    </x:row>
+    <x:row r="26" spans="1:7" customFormat="1" ht="24" customHeight="1">
       <x:c r="A26" s="2"/>
-      <x:c r="B26" s="31"/>
-      <x:c r="C26" s="37"/>
-      <x:c r="D26" s="22" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E26" s="21" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="F26" s="8" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="G26" s="8" t="s">
-        <x:v>127</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B26" s="35"/>
+      <x:c r="C26" s="43"/>
+      <x:c r="D26" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E26" s="54" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F26" s="17" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="G26" s="68"/>
+    </x:row>
+    <x:row r="27" spans="1:7" customFormat="1" ht="24" customHeight="1">
       <x:c r="A27" s="2"/>
-      <x:c r="B27" s="31"/>
-      <x:c r="C27" s="37"/>
-      <x:c r="D27" s="22"/>
-      <x:c r="E27" s="21"/>
-      <x:c r="F27" s="8" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="G27" s="8" t="s">
-        <x:v>257</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B27" s="33"/>
+      <x:c r="C27" s="43"/>
+      <x:c r="D27" s="39"/>
+      <x:c r="E27" s="55"/>
+      <x:c r="F27" s="17" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G27" s="68"/>
+    </x:row>
+    <x:row r="28" spans="1:7" customFormat="1" ht="24" customHeight="1">
       <x:c r="A28" s="2"/>
-      <x:c r="B28" s="31"/>
-      <x:c r="C28" s="37"/>
-      <x:c r="D28" s="22"/>
-      <x:c r="E28" s="21"/>
-      <x:c r="F28" s="8" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G28" s="8" t="s">
-        <x:v>129</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B28" s="35"/>
+      <x:c r="C28" s="43"/>
+      <x:c r="D28" s="39"/>
+      <x:c r="E28" s="58"/>
+      <x:c r="F28" s="17" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G28" s="68"/>
+    </x:row>
+    <x:row r="29" spans="1:7" customFormat="1" ht="24" customHeight="1">
       <x:c r="A29" s="2"/>
-      <x:c r="B29" s="31"/>
-      <x:c r="C29" s="37"/>
-      <x:c r="D29" s="22"/>
-      <x:c r="E29" s="21"/>
-      <x:c r="F29" s="8" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="G29" s="8" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B29" s="35"/>
+      <x:c r="C29" s="43"/>
+      <x:c r="D29" s="39"/>
+      <x:c r="E29" s="13" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="F29" s="17" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G29" s="69"/>
+    </x:row>
+    <x:row r="30" spans="1:7" customFormat="1" ht="24" customHeight="1">
       <x:c r="A30" s="2"/>
-      <x:c r="B30" s="31"/>
-      <x:c r="C30" s="37"/>
-      <x:c r="D30" s="23"/>
-      <x:c r="E30" s="21"/>
-      <x:c r="F30" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G30" s="8" t="s">
-        <x:v>122</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B30" s="33"/>
+      <x:c r="C30" s="43"/>
+      <x:c r="D30" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E30" s="16" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="F30" s="17" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="G30" s="7" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:7" customFormat="1" ht="24" customHeight="1">
       <x:c r="A31" s="2"/>
-      <x:c r="B31" s="31"/>
-      <x:c r="C31" s="37"/>
-      <x:c r="D31" s="23"/>
-      <x:c r="E31" s="21"/>
-      <x:c r="F31" s="8" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="G31" s="8" t="s">
-        <x:v>31</x:v>
-      </x:c>
+      <x:c r="B31" s="35"/>
+      <x:c r="C31" s="43"/>
+      <x:c r="D31" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E31" s="16" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F31" s="17" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G31" s="8"/>
     </x:row>
     <x:row r="32" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A32" s="2"/>
-      <x:c r="B32" s="31"/>
-      <x:c r="C32" s="37"/>
-      <x:c r="D32" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E32" s="8" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F32" s="8" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G32" s="8" t="s">
-        <x:v>230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B32" s="35"/>
+      <x:c r="C32" s="41" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D32" s="39" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E32" s="54" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="F32" s="16" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="G32" s="54"/>
+    </x:row>
+    <x:row r="33" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A33" s="2"/>
-      <x:c r="B33" s="31"/>
-      <x:c r="C33" s="37"/>
-      <x:c r="D33" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E33" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F33" s="8" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G33" s="8"/>
-    </x:row>
-    <x:row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B33" s="35"/>
+      <x:c r="C33" s="41"/>
+      <x:c r="D33" s="39"/>
+      <x:c r="E33" s="58"/>
+      <x:c r="F33" s="16" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G33" s="55"/>
+    </x:row>
+    <x:row r="34" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A34" s="2"/>
-      <x:c r="B34" s="32"/>
-      <x:c r="C34" s="36" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="D34" s="35" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E34" s="7" t="s">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="F34" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G34" s="18"/>
+      <x:c r="B34" s="33"/>
+      <x:c r="C34" s="41"/>
+      <x:c r="D34" s="39"/>
+      <x:c r="E34" s="54" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="F34" s="16" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="G34" s="55"/>
     </x:row>
     <x:row r="35" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A35" s="2"/>
-      <x:c r="B35" s="32"/>
-      <x:c r="C35" s="25"/>
-      <x:c r="D35" s="25"/>
-      <x:c r="E35" s="18" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="F35" s="8" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G35" s="19"/>
+      <x:c r="B35" s="35"/>
+      <x:c r="C35" s="41"/>
+      <x:c r="D35" s="39"/>
+      <x:c r="E35" s="58"/>
+      <x:c r="F35" s="16" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="G35" s="55"/>
     </x:row>
     <x:row r="36" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A36" s="2"/>
-      <x:c r="B36" s="32"/>
-      <x:c r="C36" s="25"/>
-      <x:c r="D36" s="25"/>
-      <x:c r="E36" s="19"/>
-      <x:c r="F36" s="8" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="G36" s="19"/>
+      <x:c r="B36" s="35"/>
+      <x:c r="C36" s="41"/>
+      <x:c r="D36" s="39"/>
+      <x:c r="E36" s="24" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F36" s="16" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G36" s="55"/>
     </x:row>
     <x:row r="37" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A37" s="2"/>
-      <x:c r="B37" s="32"/>
-      <x:c r="C37" s="25"/>
-      <x:c r="D37" s="25"/>
-      <x:c r="E37" s="18" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F37" s="8" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="G37" s="19"/>
-    </x:row>
-    <x:row r="38" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B37" s="35"/>
+      <x:c r="C37" s="41"/>
+      <x:c r="D37" s="39"/>
+      <x:c r="E37" s="24"/>
+      <x:c r="F37" s="16" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="G37" s="55"/>
+    </x:row>
+    <x:row r="38" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A38" s="2"/>
-      <x:c r="B38" s="32"/>
-      <x:c r="C38" s="25"/>
-      <x:c r="D38" s="25"/>
-      <x:c r="E38" s="19"/>
-      <x:c r="F38" s="8" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="G38" s="19"/>
-    </x:row>
-    <x:row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B38" s="33"/>
+      <x:c r="C38" s="41"/>
+      <x:c r="D38" s="53" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E38" s="54" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F38" s="17" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="G38" s="55"/>
+    </x:row>
+    <x:row r="39" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A39" s="2"/>
-      <x:c r="B39" s="32"/>
-      <x:c r="C39" s="25"/>
-      <x:c r="D39" s="35" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E39" s="18" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F39" s="8" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="G39" s="8" t="s">
-        <x:v>266</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B39" s="35"/>
+      <x:c r="C39" s="41"/>
+      <x:c r="D39" s="34"/>
+      <x:c r="E39" s="55"/>
+      <x:c r="F39" s="17" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G39" s="55"/>
+    </x:row>
+    <x:row r="40" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A40" s="2"/>
-      <x:c r="B40" s="32"/>
-      <x:c r="C40" s="25"/>
-      <x:c r="D40" s="25"/>
-      <x:c r="E40" s="19"/>
-      <x:c r="F40" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G40" s="8" t="s">
-        <x:v>270</x:v>
-      </x:c>
+      <x:c r="B40" s="33"/>
+      <x:c r="C40" s="41"/>
+      <x:c r="D40" s="34"/>
+      <x:c r="E40" s="58"/>
+      <x:c r="F40" s="17" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G40" s="58"/>
     </x:row>
     <x:row r="41" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A41" s="2"/>
-      <x:c r="B41" s="32"/>
-      <x:c r="C41" s="25"/>
-      <x:c r="D41" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E41" s="8" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="F41" s="8" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G41" s="8" t="s">
-        <x:v>210</x:v>
+      <x:c r="B41" s="35"/>
+      <x:c r="C41" s="41"/>
+      <x:c r="D41" s="34"/>
+      <x:c r="E41" s="24" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F41" s="16" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="G41" s="7" t="s">
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A42" s="2"/>
-      <x:c r="B42" s="32"/>
-      <x:c r="C42" s="25"/>
-      <x:c r="D42" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E42" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F42" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G42" s="8"/>
+      <x:c r="B42" s="35"/>
+      <x:c r="C42" s="41"/>
+      <x:c r="D42" s="34"/>
+      <x:c r="E42" s="24"/>
+      <x:c r="F42" s="16" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="G42" s="7" t="s">
+        <x:v>291</x:v>
+      </x:c>
     </x:row>
     <x:row r="43" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A43" s="2"/>
-      <x:c r="B43" s="32"/>
-      <x:c r="C43" s="36" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D43" s="35" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E43" s="7" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="F43" s="8" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G43" s="18"/>
+      <x:c r="B43" s="35"/>
+      <x:c r="C43" s="41"/>
+      <x:c r="D43" s="34"/>
+      <x:c r="E43" s="24"/>
+      <x:c r="F43" s="16" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="G43" s="7" t="s">
+        <x:v>271</x:v>
+      </x:c>
     </x:row>
     <x:row r="44" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A44" s="2"/>
-      <x:c r="B44" s="32"/>
-      <x:c r="C44" s="25"/>
-      <x:c r="D44" s="25"/>
-      <x:c r="E44" s="18" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F44" s="8" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G44" s="19"/>
-    </x:row>
-    <x:row r="45" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B44" s="35"/>
+      <x:c r="C44" s="41"/>
+      <x:c r="D44" s="34"/>
+      <x:c r="E44" s="24"/>
+      <x:c r="F44" s="16" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="G44" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A45" s="2"/>
-      <x:c r="B45" s="32"/>
-      <x:c r="C45" s="25"/>
-      <x:c r="D45" s="25"/>
-      <x:c r="E45" s="19"/>
-      <x:c r="F45" s="8" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="G45" s="19"/>
+      <x:c r="B45" s="33"/>
+      <x:c r="C45" s="41"/>
+      <x:c r="D45" s="34"/>
+      <x:c r="E45" s="24"/>
+      <x:c r="F45" s="16" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="G45" s="7" t="s">
+        <x:v>259</x:v>
+      </x:c>
     </x:row>
     <x:row r="46" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A46" s="2"/>
-      <x:c r="B46" s="32"/>
-      <x:c r="C46" s="25"/>
-      <x:c r="D46" s="25"/>
-      <x:c r="E46" s="18" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="F46" s="8" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="G46" s="19"/>
-    </x:row>
-    <x:row r="47" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B46" s="35"/>
+      <x:c r="C46" s="41"/>
+      <x:c r="D46" s="63"/>
+      <x:c r="E46" s="24"/>
+      <x:c r="F46" s="16" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="G46" s="7" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A47" s="2"/>
-      <x:c r="B47" s="32"/>
-      <x:c r="C47" s="25"/>
-      <x:c r="D47" s="25"/>
-      <x:c r="E47" s="19"/>
-      <x:c r="F47" s="8" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="G47" s="19"/>
-    </x:row>
-    <x:row r="48" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B47" s="35"/>
+      <x:c r="C47" s="41"/>
+      <x:c r="D47" s="34"/>
+      <x:c r="E47" s="24"/>
+      <x:c r="F47" s="16" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G47" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A48" s="2"/>
-      <x:c r="B48" s="32"/>
-      <x:c r="C48" s="25"/>
-      <x:c r="D48" s="35" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E48" s="18" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="F48" s="8" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G48" s="8" t="s">
-        <x:v>265</x:v>
-      </x:c>
+      <x:c r="B48" s="33"/>
+      <x:c r="C48" s="41"/>
+      <x:c r="D48" s="34"/>
+      <x:c r="E48" s="24"/>
+      <x:c r="F48" s="16" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G48" s="7"/>
     </x:row>
     <x:row r="49" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A49" s="2"/>
-      <x:c r="B49" s="32"/>
-      <x:c r="C49" s="25"/>
-      <x:c r="D49" s="25"/>
-      <x:c r="E49" s="19"/>
-      <x:c r="F49" s="8" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="G49" s="8" t="s">
-        <x:v>120</x:v>
+      <x:c r="B49" s="35"/>
+      <x:c r="C49" s="41"/>
+      <x:c r="D49" s="64"/>
+      <x:c r="E49" s="24"/>
+      <x:c r="F49" s="16" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="G49" s="7" t="s">
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A50" s="2"/>
-      <x:c r="B50" s="32"/>
-      <x:c r="C50" s="25"/>
-      <x:c r="D50" s="25"/>
-      <x:c r="E50" s="19"/>
-      <x:c r="F50" s="8" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G50" s="8" t="s">
-        <x:v>3</x:v>
+      <x:c r="B50" s="35"/>
+      <x:c r="C50" s="41"/>
+      <x:c r="D50" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E50" s="16" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="F50" s="16" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="G50" s="7" t="s">
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A51" s="2"/>
-      <x:c r="B51" s="32"/>
-      <x:c r="C51" s="25"/>
-      <x:c r="D51" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E51" s="8" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="F51" s="8" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="G51" s="8" t="s">
-        <x:v>234</x:v>
-      </x:c>
+      <x:c r="B51" s="35"/>
+      <x:c r="C51" s="41"/>
+      <x:c r="D51" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E51" s="16" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F51" s="16" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G51" s="7"/>
     </x:row>
     <x:row r="52" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A52" s="2"/>
-      <x:c r="B52" s="32"/>
-      <x:c r="C52" s="25"/>
-      <x:c r="D52" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E52" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F52" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G52" s="8"/>
+      <x:c r="B52" s="36"/>
+      <x:c r="C52" s="40" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D52" s="39" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E52" s="15" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="F52" s="16" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G52" s="27"/>
     </x:row>
     <x:row r="53" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A53" s="2"/>
-      <x:c r="B53" s="29"/>
-      <x:c r="C53" s="29" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D53" s="49" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E53" s="52" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="F53" s="8" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G53" s="50"/>
+      <x:c r="B53" s="36"/>
+      <x:c r="C53" s="26"/>
+      <x:c r="D53" s="26"/>
+      <x:c r="E53" s="21" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="F53" s="16" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="G53" s="28"/>
     </x:row>
     <x:row r="54" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A54" s="2"/>
-      <x:c r="B54" s="33"/>
-      <x:c r="C54" s="31"/>
-      <x:c r="D54" s="30"/>
-      <x:c r="E54" s="53"/>
-      <x:c r="F54" s="8" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="G54" s="51"/>
+      <x:c r="B54" s="36"/>
+      <x:c r="C54" s="26"/>
+      <x:c r="D54" s="26"/>
+      <x:c r="E54" s="22"/>
+      <x:c r="F54" s="16" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G54" s="28"/>
     </x:row>
     <x:row r="55" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A55" s="2"/>
-      <x:c r="B55" s="33"/>
-      <x:c r="C55" s="31"/>
-      <x:c r="D55" s="33"/>
-      <x:c r="E55" s="18" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F55" s="8" t="s">
-        <x:v>236</x:v>
-      </x:c>
-      <x:c r="G55" s="33"/>
+      <x:c r="B55" s="36"/>
+      <x:c r="C55" s="26"/>
+      <x:c r="D55" s="26"/>
+      <x:c r="E55" s="21" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F55" s="16" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G55" s="28"/>
     </x:row>
     <x:row r="56" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A56" s="2"/>
-      <x:c r="B56" s="33"/>
-      <x:c r="C56" s="31"/>
-      <x:c r="D56" s="33"/>
-      <x:c r="E56" s="19"/>
-      <x:c r="F56" s="8" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="G56" s="33"/>
+      <x:c r="B56" s="36"/>
+      <x:c r="C56" s="26"/>
+      <x:c r="D56" s="26"/>
+      <x:c r="E56" s="22"/>
+      <x:c r="F56" s="16" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="G56" s="28"/>
     </x:row>
     <x:row r="57" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A57" s="2"/>
-      <x:c r="B57" s="33"/>
-      <x:c r="C57" s="31"/>
-      <x:c r="D57" s="33"/>
-      <x:c r="E57" s="18" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="F57" s="8" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G57" s="33"/>
+      <x:c r="B57" s="36"/>
+      <x:c r="C57" s="26"/>
+      <x:c r="D57" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E57" s="21" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F57" s="16" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="G57" s="7" t="s">
+        <x:v>281</x:v>
+      </x:c>
     </x:row>
     <x:row r="58" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A58" s="2"/>
-      <x:c r="B58" s="33"/>
-      <x:c r="C58" s="31"/>
-      <x:c r="D58" s="34"/>
-      <x:c r="E58" s="19"/>
-      <x:c r="F58" s="8" t="s">
-        <x:v>283</x:v>
-      </x:c>
-      <x:c r="G58" s="34"/>
+      <x:c r="B58" s="36"/>
+      <x:c r="C58" s="26"/>
+      <x:c r="D58" s="26"/>
+      <x:c r="E58" s="22"/>
+      <x:c r="F58" s="16" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="G58" s="7" t="s">
+        <x:v>286</x:v>
+      </x:c>
     </x:row>
     <x:row r="59" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A59" s="2"/>
-      <x:c r="B59" s="33"/>
-      <x:c r="C59" s="31"/>
-      <x:c r="D59" s="22" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E59" s="21" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F59" s="8" t="s">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="G59" s="8" t="s">
-        <x:v>189</x:v>
+      <x:c r="B59" s="36"/>
+      <x:c r="C59" s="26"/>
+      <x:c r="D59" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E59" s="16" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="F59" s="16" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="G59" s="7" t="s">
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A60" s="2"/>
-      <x:c r="B60" s="33"/>
-      <x:c r="C60" s="31"/>
-      <x:c r="D60" s="28"/>
-      <x:c r="E60" s="28"/>
-      <x:c r="F60" s="8" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G60" s="8" t="s">
-        <x:v>271</x:v>
-      </x:c>
+      <x:c r="B60" s="36"/>
+      <x:c r="C60" s="26"/>
+      <x:c r="D60" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E60" s="16" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F60" s="16" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G60" s="7"/>
     </x:row>
     <x:row r="61" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A61" s="2"/>
-      <x:c r="B61" s="29"/>
-      <x:c r="C61" s="31"/>
-      <x:c r="D61" s="22"/>
-      <x:c r="E61" s="21"/>
-      <x:c r="F61" s="8" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="G61" s="8" t="s">
-        <x:v>128</x:v>
-      </x:c>
+      <x:c r="B61" s="36"/>
+      <x:c r="C61" s="40" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D61" s="39" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E61" s="15" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="F61" s="16" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G61" s="27"/>
     </x:row>
     <x:row r="62" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A62" s="2"/>
-      <x:c r="B62" s="33"/>
-      <x:c r="C62" s="31"/>
-      <x:c r="D62" s="28"/>
-      <x:c r="E62" s="28"/>
-      <x:c r="F62" s="8" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="G62" s="8" t="s">
-        <x:v>197</x:v>
-      </x:c>
+      <x:c r="B62" s="36"/>
+      <x:c r="C62" s="26"/>
+      <x:c r="D62" s="26"/>
+      <x:c r="E62" s="21" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F62" s="16" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="G62" s="28"/>
     </x:row>
     <x:row r="63" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A63" s="2"/>
-      <x:c r="B63" s="33"/>
-      <x:c r="C63" s="31"/>
-      <x:c r="D63" s="38"/>
-      <x:c r="E63" s="38"/>
-      <x:c r="F63" s="8" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="G63" s="8" t="s">
-        <x:v>286</x:v>
-      </x:c>
+      <x:c r="B63" s="36"/>
+      <x:c r="C63" s="26"/>
+      <x:c r="D63" s="26"/>
+      <x:c r="E63" s="22"/>
+      <x:c r="F63" s="16" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G63" s="28"/>
     </x:row>
     <x:row r="64" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A64" s="2"/>
-      <x:c r="B64" s="33"/>
-      <x:c r="C64" s="31"/>
-      <x:c r="D64" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E64" s="8" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="F64" s="8" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="G64" s="8" t="s">
-        <x:v>225</x:v>
-      </x:c>
+      <x:c r="B64" s="36"/>
+      <x:c r="C64" s="26"/>
+      <x:c r="D64" s="26"/>
+      <x:c r="E64" s="21" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="F64" s="16" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="G64" s="28"/>
     </x:row>
     <x:row r="65" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A65" s="2"/>
-      <x:c r="B65" s="33"/>
-      <x:c r="C65" s="48"/>
-      <x:c r="D65" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E65" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F65" s="8" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="G65" s="8"/>
+      <x:c r="B65" s="36"/>
+      <x:c r="C65" s="26"/>
+      <x:c r="D65" s="26"/>
+      <x:c r="E65" s="22"/>
+      <x:c r="F65" s="16" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="G65" s="28"/>
     </x:row>
     <x:row r="66" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A66" s="2"/>
-      <x:c r="B66" s="33"/>
-      <x:c r="C66" s="36" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="D66" s="35" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E66" s="18" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="F66" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G66" s="18"/>
-    </x:row>
-    <x:row r="67" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B66" s="36"/>
+      <x:c r="C66" s="26"/>
+      <x:c r="D66" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E66" s="21" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F66" s="16" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G66" s="7" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A67" s="2"/>
       <x:c r="B67" s="33"/>
-      <x:c r="C67" s="36"/>
-      <x:c r="D67" s="35"/>
-      <x:c r="E67" s="19"/>
-      <x:c r="F67" s="8" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="G67" s="18"/>
+      <x:c r="C67" s="40"/>
+      <x:c r="D67" s="39"/>
+      <x:c r="E67" s="21"/>
+      <x:c r="F67" s="16" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G67" s="7" t="s">
+        <x:v>24</x:v>
+      </x:c>
     </x:row>
     <x:row r="68" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A68" s="2"/>
-      <x:c r="B68" s="33"/>
-      <x:c r="C68" s="36"/>
-      <x:c r="D68" s="35"/>
-      <x:c r="E68" s="18" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F68" s="8" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="G68" s="18"/>
+      <x:c r="B68" s="36"/>
+      <x:c r="C68" s="26"/>
+      <x:c r="D68" s="26"/>
+      <x:c r="E68" s="22"/>
+      <x:c r="F68" s="16" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="G68" s="7" t="s">
+        <x:v>73</x:v>
+      </x:c>
     </x:row>
     <x:row r="69" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A69" s="2"/>
-      <x:c r="B69" s="33"/>
-      <x:c r="C69" s="36"/>
-      <x:c r="D69" s="35"/>
-      <x:c r="E69" s="19"/>
-      <x:c r="F69" s="8" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G69" s="18"/>
+      <x:c r="B69" s="36"/>
+      <x:c r="C69" s="26"/>
+      <x:c r="D69" s="26"/>
+      <x:c r="E69" s="22"/>
+      <x:c r="F69" s="16" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="G69" s="7" t="s">
+        <x:v>64</x:v>
+      </x:c>
     </x:row>
     <x:row r="70" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A70" s="2"/>
-      <x:c r="B70" s="33"/>
-      <x:c r="C70" s="36"/>
-      <x:c r="D70" s="22" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E70" s="21" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="F70" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G70" s="8" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B70" s="36"/>
+      <x:c r="C70" s="26"/>
+      <x:c r="D70" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E70" s="16" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="F70" s="16" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="G70" s="7" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A71" s="2"/>
       <x:c r="B71" s="33"/>
-      <x:c r="C71" s="36"/>
-      <x:c r="D71" s="22"/>
-      <x:c r="E71" s="21"/>
-      <x:c r="F71" s="8" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G71" s="8" t="s">
-        <x:v>39</x:v>
-      </x:c>
+      <x:c r="C71" s="40"/>
+      <x:c r="D71" s="53" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E71" s="54" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F71" s="16" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="G71" s="54"/>
     </x:row>
     <x:row r="72" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A72" s="2"/>
-      <x:c r="B72" s="33"/>
-      <x:c r="C72" s="36"/>
-      <x:c r="D72" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E72" s="8" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F72" s="8" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="G72" s="8" t="s">
-        <x:v>117</x:v>
-      </x:c>
+      <x:c r="B72" s="36"/>
+      <x:c r="C72" s="26"/>
+      <x:c r="D72" s="60"/>
+      <x:c r="E72" s="58"/>
+      <x:c r="F72" s="16" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G72" s="58"/>
     </x:row>
     <x:row r="73" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A73" s="2"/>
-      <x:c r="B73" s="34"/>
-      <x:c r="C73" s="36"/>
-      <x:c r="D73" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E73" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F73" s="8" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G73" s="8"/>
+      <x:c r="B73" s="33"/>
+      <x:c r="C73" s="33" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D73" s="53" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E73" s="56" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F73" s="16" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="G73" s="54"/>
     </x:row>
     <x:row r="74" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A74" s="2"/>
-      <x:c r="B74" s="37" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="C74" s="37" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="D74" s="22" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E74" s="21" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F74" s="8" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G74" s="9"/>
+      <x:c r="B74" s="37"/>
+      <x:c r="C74" s="35"/>
+      <x:c r="D74" s="34"/>
+      <x:c r="E74" s="57"/>
+      <x:c r="F74" s="16" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G74" s="55"/>
     </x:row>
     <x:row r="75" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A75" s="2"/>
-      <x:c r="B75" s="23"/>
-      <x:c r="C75" s="23"/>
-      <x:c r="D75" s="23"/>
-      <x:c r="E75" s="40"/>
-      <x:c r="F75" s="8" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="G75" s="9"/>
+      <x:c r="B75" s="37"/>
+      <x:c r="C75" s="35"/>
+      <x:c r="D75" s="37"/>
+      <x:c r="E75" s="21" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="F75" s="16" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G75" s="37"/>
     </x:row>
     <x:row r="76" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A76" s="2"/>
-      <x:c r="B76" s="41"/>
-      <x:c r="C76" s="23"/>
-      <x:c r="D76" s="23"/>
-      <x:c r="E76" s="40"/>
-      <x:c r="F76" s="8" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="G76" s="9"/>
+      <x:c r="B76" s="37"/>
+      <x:c r="C76" s="35"/>
+      <x:c r="D76" s="37"/>
+      <x:c r="E76" s="22"/>
+      <x:c r="F76" s="16" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="G76" s="37"/>
     </x:row>
     <x:row r="77" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A77" s="2"/>
-      <x:c r="B77" s="37" t="s">
+      <x:c r="B77" s="37"/>
+      <x:c r="C77" s="35"/>
+      <x:c r="D77" s="37"/>
+      <x:c r="E77" s="21" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F77" s="16" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="C77" s="39" t="s">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="D77" s="35" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E77" s="8" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="F77" s="8" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G77" s="8" t="s">
-        <x:v>145</x:v>
-      </x:c>
+      <x:c r="G77" s="37"/>
     </x:row>
     <x:row r="78" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A78" s="2"/>
       <x:c r="B78" s="37"/>
-      <x:c r="C78" s="39"/>
-      <x:c r="D78" s="35"/>
-      <x:c r="E78" s="18" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F78" s="12" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G78" s="12"/>
+      <x:c r="C78" s="35"/>
+      <x:c r="D78" s="38"/>
+      <x:c r="E78" s="22"/>
+      <x:c r="F78" s="16" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G78" s="38"/>
     </x:row>
     <x:row r="79" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A79" s="2"/>
       <x:c r="B79" s="37"/>
-      <x:c r="C79" s="39"/>
-      <x:c r="D79" s="35"/>
-      <x:c r="E79" s="18"/>
-      <x:c r="F79" s="12" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G79" s="12"/>
+      <x:c r="C79" s="35"/>
+      <x:c r="D79" s="30" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E79" s="24" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F79" s="16" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="G79" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
     </x:row>
     <x:row r="80" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A80" s="2"/>
       <x:c r="B80" s="37"/>
-      <x:c r="C80" s="39"/>
-      <x:c r="D80" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E80" s="8" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F80" s="8" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="G80" s="8" t="s">
-        <x:v>139</x:v>
+      <x:c r="C80" s="35"/>
+      <x:c r="D80" s="32"/>
+      <x:c r="E80" s="32"/>
+      <x:c r="F80" s="16" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G80" s="7" t="s">
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A81" s="2"/>
       <x:c r="B81" s="37"/>
-      <x:c r="C81" s="39" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="D81" s="35" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E81" s="18" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F81" s="8" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G81" s="8"/>
+      <x:c r="C81" s="35"/>
+      <x:c r="D81" s="32"/>
+      <x:c r="E81" s="32"/>
+      <x:c r="F81" s="16" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="G81" s="7" t="s">
+        <x:v>61</x:v>
+      </x:c>
     </x:row>
     <x:row r="82" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A82" s="2"/>
       <x:c r="B82" s="37"/>
-      <x:c r="C82" s="39"/>
-      <x:c r="D82" s="35"/>
-      <x:c r="E82" s="18"/>
-      <x:c r="F82" s="8" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="G82" s="8"/>
+      <x:c r="C82" s="35"/>
+      <x:c r="D82" s="42"/>
+      <x:c r="E82" s="42"/>
+      <x:c r="F82" s="16" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="G82" s="7" t="s">
+        <x:v>262</x:v>
+      </x:c>
     </x:row>
     <x:row r="83" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A83" s="2"/>
       <x:c r="B83" s="37"/>
-      <x:c r="C83" s="39"/>
-      <x:c r="D83" s="35"/>
-      <x:c r="E83" s="18" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="F83" s="8" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="G83" s="8"/>
+      <x:c r="C83" s="35"/>
+      <x:c r="D83" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E83" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F83" s="16" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G83" s="7" t="s">
+        <x:v>153</x:v>
+      </x:c>
     </x:row>
     <x:row r="84" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A84" s="2"/>
       <x:c r="B84" s="37"/>
-      <x:c r="C84" s="39"/>
-      <x:c r="D84" s="35"/>
-      <x:c r="E84" s="18"/>
-      <x:c r="F84" s="8" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G84" s="8"/>
+      <x:c r="C84" s="52"/>
+      <x:c r="D84" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E84" s="16" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F84" s="16" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G84" s="7"/>
     </x:row>
     <x:row r="85" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A85" s="2"/>
       <x:c r="B85" s="37"/>
-      <x:c r="C85" s="39"/>
-      <x:c r="D85" s="35" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E85" s="18" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F85" s="12" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G85" s="12"/>
+      <x:c r="C85" s="40" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D85" s="39" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E85" s="21" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="F85" s="16" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G85" s="27"/>
     </x:row>
     <x:row r="86" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A86" s="2"/>
       <x:c r="B86" s="37"/>
-      <x:c r="C86" s="39"/>
-      <x:c r="D86" s="35"/>
-      <x:c r="E86" s="18"/>
-      <x:c r="F86" s="12" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G86" s="12"/>
+      <x:c r="C86" s="40"/>
+      <x:c r="D86" s="39"/>
+      <x:c r="E86" s="22"/>
+      <x:c r="F86" s="16" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="G86" s="27"/>
     </x:row>
     <x:row r="87" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A87" s="2"/>
       <x:c r="B87" s="37"/>
-      <x:c r="C87" s="39"/>
-      <x:c r="D87" s="35"/>
-      <x:c r="E87" s="18"/>
-      <x:c r="F87" s="12" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G87" s="12"/>
+      <x:c r="C87" s="40"/>
+      <x:c r="D87" s="39"/>
+      <x:c r="E87" s="21" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F87" s="16" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="G87" s="27"/>
     </x:row>
     <x:row r="88" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A88" s="2"/>
       <x:c r="B88" s="37"/>
-      <x:c r="C88" s="39"/>
-      <x:c r="D88" s="35"/>
-      <x:c r="E88" s="18" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="F88" s="8" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="G88" s="8" t="s">
-        <x:v>157</x:v>
-      </x:c>
+      <x:c r="C88" s="40"/>
+      <x:c r="D88" s="39"/>
+      <x:c r="E88" s="22"/>
+      <x:c r="F88" s="16" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="G88" s="27"/>
     </x:row>
     <x:row r="89" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A89" s="2"/>
       <x:c r="B89" s="37"/>
-      <x:c r="C89" s="39"/>
-      <x:c r="D89" s="35"/>
-      <x:c r="E89" s="18"/>
-      <x:c r="F89" s="8" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G89" s="8" t="s">
-        <x:v>173</x:v>
+      <x:c r="C89" s="40"/>
+      <x:c r="D89" s="30" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E89" s="24" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="F89" s="16" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G89" s="7" t="s">
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A90" s="2"/>
       <x:c r="B90" s="37"/>
-      <x:c r="C90" s="39"/>
-      <x:c r="D90" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E90" s="8" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="F90" s="13" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="G90" s="12" t="s">
-        <x:v>273</x:v>
+      <x:c r="C90" s="40"/>
+      <x:c r="D90" s="30"/>
+      <x:c r="E90" s="24"/>
+      <x:c r="F90" s="16" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G90" s="7" t="s">
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A91" s="2"/>
       <x:c r="B91" s="37"/>
-      <x:c r="C91" s="39"/>
-      <x:c r="D91" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E91" s="8" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F91" s="12" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="G91" s="9"/>
-    </x:row>
-    <x:row r="92" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <x:c r="C91" s="40"/>
+      <x:c r="D91" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E91" s="16" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="F91" s="16" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="G91" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A92" s="2"/>
-      <x:c r="B92" s="37"/>
-      <x:c r="C92" s="42" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="D92" s="45" t="s">
-        <x:v>141</x:v>
+      <x:c r="B92" s="38"/>
+      <x:c r="C92" s="40"/>
+      <x:c r="D92" s="9" t="s">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E92" s="16" t="s">
-        <x:v>287</x:v>
-      </x:c>
-      <x:c r="F92" s="12" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G92" s="17"/>
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F92" s="16" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="G92" s="7"/>
     </x:row>
     <x:row r="93" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A93" s="2"/>
-      <x:c r="B93" s="37"/>
-      <x:c r="C93" s="43"/>
-      <x:c r="D93" s="46"/>
-      <x:c r="E93" s="18" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="F93" s="8" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="G93" s="8"/>
-    </x:row>
-    <x:row r="94" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B93" s="41" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C93" s="41" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D93" s="30" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E93" s="54" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="F93" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G93" s="62"/>
+    </x:row>
+    <x:row r="94" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A94" s="2"/>
-      <x:c r="B94" s="37"/>
-      <x:c r="C94" s="43"/>
-      <x:c r="D94" s="46"/>
-      <x:c r="E94" s="18"/>
-      <x:c r="F94" s="8" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G94" s="8"/>
-    </x:row>
-    <x:row r="95" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B94" s="41"/>
+      <x:c r="C94" s="41"/>
+      <x:c r="D94" s="30"/>
+      <x:c r="E94" s="55"/>
+      <x:c r="F94" s="16" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="G94" s="37"/>
+    </x:row>
+    <x:row r="95" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A95" s="2"/>
-      <x:c r="B95" s="37"/>
-      <x:c r="C95" s="43"/>
-      <x:c r="D95" s="46"/>
-      <x:c r="E95" s="18" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="F95" s="8" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G95" s="8"/>
+      <x:c r="B95" s="41"/>
+      <x:c r="C95" s="41"/>
+      <x:c r="D95" s="30"/>
+      <x:c r="E95" s="55"/>
+      <x:c r="F95" s="16" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G95" s="37"/>
     </x:row>
     <x:row r="96" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A96" s="2"/>
-      <x:c r="B96" s="37"/>
-      <x:c r="C96" s="43"/>
-      <x:c r="D96" s="47"/>
-      <x:c r="E96" s="18"/>
-      <x:c r="F96" s="8" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="G96" s="8"/>
-    </x:row>
-    <x:row r="97" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B96" s="44"/>
+      <x:c r="C96" s="44"/>
+      <x:c r="D96" s="44"/>
+      <x:c r="E96" s="38"/>
+      <x:c r="F96" s="16" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="G96" s="37"/>
+    </x:row>
+    <x:row r="97" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A97" s="2"/>
-      <x:c r="B97" s="37"/>
-      <x:c r="C97" s="43"/>
-      <x:c r="D97" s="35" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E97" s="18" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F97" s="12" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="G97" s="12"/>
-    </x:row>
-    <x:row r="98" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B97" s="33"/>
+      <x:c r="C97" s="41"/>
+      <x:c r="D97" s="30"/>
+      <x:c r="E97" s="13" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F97" s="16" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G97" s="37"/>
+    </x:row>
+    <x:row r="98" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A98" s="2"/>
-      <x:c r="B98" s="37"/>
-      <x:c r="C98" s="43"/>
-      <x:c r="D98" s="35"/>
-      <x:c r="E98" s="18"/>
-      <x:c r="F98" s="12" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G98" s="12"/>
+      <x:c r="B98" s="41"/>
+      <x:c r="C98" s="41"/>
+      <x:c r="D98" s="30"/>
+      <x:c r="E98" s="13" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F98" s="16" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="G98" s="37"/>
     </x:row>
     <x:row r="99" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A99" s="2"/>
-      <x:c r="B99" s="37"/>
-      <x:c r="C99" s="43"/>
-      <x:c r="D99" s="35"/>
-      <x:c r="E99" s="18"/>
-      <x:c r="F99" s="12" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G99" s="12"/>
+      <x:c r="B99" s="45"/>
+      <x:c r="C99" s="44"/>
+      <x:c r="D99" s="44"/>
+      <x:c r="E99" s="13" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F99" s="16" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="G99" s="38"/>
     </x:row>
     <x:row r="100" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A100" s="2"/>
-      <x:c r="B100" s="37"/>
-      <x:c r="C100" s="43"/>
-      <x:c r="D100" s="35"/>
-      <x:c r="E100" s="18" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="F100" s="8" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="G100" s="8" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B100" s="65" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C100" s="33" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D100" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E100" s="16" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F100" s="18" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="G100" s="10" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A101" s="2"/>
-      <x:c r="B101" s="37"/>
-      <x:c r="C101" s="43"/>
-      <x:c r="D101" s="35"/>
-      <x:c r="E101" s="18"/>
-      <x:c r="F101" s="8" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="G101" s="8" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B101" s="66"/>
+      <x:c r="C101" s="61"/>
+      <x:c r="D101" s="14" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E101" s="16" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="F101" s="17" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G101" s="10"/>
+    </x:row>
+    <x:row r="102" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A102" s="2"/>
-      <x:c r="B102" s="37"/>
-      <x:c r="C102" s="43"/>
-      <x:c r="D102" s="35"/>
-      <x:c r="E102" s="18"/>
-      <x:c r="F102" s="8" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G102" s="8" t="s">
-        <x:v>108</x:v>
-      </x:c>
+      <x:c r="B102" s="66"/>
+      <x:c r="C102" s="46" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D102" s="49" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E102" s="16" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F102" s="17" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G102" s="62"/>
+      <x:c r="H102" s="1"/>
     </x:row>
     <x:row r="103" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A103" s="2"/>
-      <x:c r="B103" s="37"/>
-      <x:c r="C103" s="43"/>
-      <x:c r="D103" s="14" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E103" s="15" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="F103" s="15" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G103" s="15" t="s">
-        <x:v>274</x:v>
-      </x:c>
+      <x:c r="B103" s="66"/>
+      <x:c r="C103" s="47"/>
+      <x:c r="D103" s="50"/>
+      <x:c r="E103" s="21" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F103" s="16" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G103" s="55"/>
     </x:row>
     <x:row r="104" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A104" s="2"/>
-      <x:c r="B104" s="37"/>
-      <x:c r="C104" s="44"/>
-      <x:c r="D104" s="14" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E104" s="15" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F104" s="15" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="G104" s="15"/>
+      <x:c r="B104" s="66"/>
+      <x:c r="C104" s="47"/>
+      <x:c r="D104" s="50"/>
+      <x:c r="E104" s="21"/>
+      <x:c r="F104" s="16" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="G104" s="55"/>
     </x:row>
     <x:row r="105" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A105" s="2"/>
-      <x:c r="B105" s="37"/>
-      <x:c r="C105" s="39" t="s">
-        <x:v>275</x:v>
-      </x:c>
-      <x:c r="D105" s="35" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E105" s="18" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="F105" s="8" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="G105" s="8"/>
+      <x:c r="B105" s="66"/>
+      <x:c r="C105" s="47"/>
+      <x:c r="D105" s="50"/>
+      <x:c r="E105" s="21" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="F105" s="16" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G105" s="55"/>
     </x:row>
     <x:row r="106" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A106" s="2"/>
-      <x:c r="B106" s="37"/>
-      <x:c r="C106" s="39"/>
-      <x:c r="D106" s="35"/>
-      <x:c r="E106" s="18"/>
-      <x:c r="F106" s="8" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="G106" s="8"/>
+      <x:c r="B106" s="66"/>
+      <x:c r="C106" s="47"/>
+      <x:c r="D106" s="51"/>
+      <x:c r="E106" s="21"/>
+      <x:c r="F106" s="16" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G106" s="55"/>
     </x:row>
     <x:row r="107" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A107" s="2"/>
-      <x:c r="B107" s="37"/>
-      <x:c r="C107" s="39"/>
-      <x:c r="D107" s="35"/>
-      <x:c r="E107" s="18" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F107" s="8" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="G107" s="8"/>
+      <x:c r="B107" s="66"/>
+      <x:c r="C107" s="47"/>
+      <x:c r="D107" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E107" s="21" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F107" s="17" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="G107" s="68"/>
     </x:row>
     <x:row r="108" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A108" s="2"/>
-      <x:c r="B108" s="37"/>
-      <x:c r="C108" s="39"/>
-      <x:c r="D108" s="35"/>
-      <x:c r="E108" s="18"/>
-      <x:c r="F108" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="G108" s="8"/>
+      <x:c r="B108" s="66"/>
+      <x:c r="C108" s="47"/>
+      <x:c r="D108" s="39"/>
+      <x:c r="E108" s="21"/>
+      <x:c r="F108" s="17" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G108" s="68"/>
     </x:row>
     <x:row r="109" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A109" s="2"/>
-      <x:c r="B109" s="37"/>
-      <x:c r="C109" s="39"/>
-      <x:c r="D109" s="35" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E109" s="18" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F109" s="12" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G109" s="12"/>
+      <x:c r="B109" s="66"/>
+      <x:c r="C109" s="47"/>
+      <x:c r="D109" s="39"/>
+      <x:c r="E109" s="21"/>
+      <x:c r="F109" s="17" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G109" s="69"/>
     </x:row>
     <x:row r="110" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A110" s="2"/>
-      <x:c r="B110" s="37"/>
-      <x:c r="C110" s="39"/>
-      <x:c r="D110" s="35"/>
-      <x:c r="E110" s="18"/>
-      <x:c r="F110" s="12" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G110" s="12"/>
+      <x:c r="B110" s="66"/>
+      <x:c r="C110" s="47"/>
+      <x:c r="D110" s="39"/>
+      <x:c r="E110" s="21" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="F110" s="16" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="G110" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
     </x:row>
     <x:row r="111" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A111" s="2"/>
-      <x:c r="B111" s="37"/>
-      <x:c r="C111" s="39"/>
-      <x:c r="D111" s="35"/>
-      <x:c r="E111" s="18"/>
-      <x:c r="F111" s="12" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G111" s="12"/>
+      <x:c r="B111" s="66"/>
+      <x:c r="C111" s="47"/>
+      <x:c r="D111" s="39"/>
+      <x:c r="E111" s="21"/>
+      <x:c r="F111" s="16" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="G111" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
     </x:row>
     <x:row r="112" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A112" s="2"/>
-      <x:c r="B112" s="37"/>
-      <x:c r="C112" s="39"/>
-      <x:c r="D112" s="35"/>
-      <x:c r="E112" s="18" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="F112" s="8" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="G112" s="8" t="s">
-        <x:v>161</x:v>
+      <x:c r="B112" s="66"/>
+      <x:c r="C112" s="47"/>
+      <x:c r="D112" s="39"/>
+      <x:c r="E112" s="21"/>
+      <x:c r="F112" s="16" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G112" s="7" t="s">
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A113" s="2"/>
-      <x:c r="B113" s="37"/>
-      <x:c r="C113" s="39"/>
-      <x:c r="D113" s="35"/>
-      <x:c r="E113" s="18"/>
-      <x:c r="F113" s="8" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="G113" s="8" t="s">
-        <x:v>98</x:v>
+      <x:c r="B113" s="66"/>
+      <x:c r="C113" s="47"/>
+      <x:c r="D113" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E113" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F113" s="19" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="G113" s="12" t="s">
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A114" s="2"/>
-      <x:c r="B114" s="37"/>
-      <x:c r="C114" s="39"/>
-      <x:c r="D114" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E114" s="8" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="F114" s="8" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="G114" s="8" t="s">
-        <x:v>143</x:v>
-      </x:c>
+      <x:c r="B114" s="66"/>
+      <x:c r="C114" s="48"/>
+      <x:c r="D114" s="11" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E114" s="19" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F114" s="19" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="G114" s="12"/>
     </x:row>
     <x:row r="115" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A115" s="2"/>
-      <x:c r="B115" s="37"/>
-      <x:c r="C115" s="39"/>
-      <x:c r="D115" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E115" s="12" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F115" s="8" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="G115" s="8"/>
+      <x:c r="B115" s="66"/>
+      <x:c r="C115" s="43" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="D115" s="39" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E115" s="21" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F115" s="16" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="G115" s="54"/>
     </x:row>
     <x:row r="116" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A116" s="2"/>
-      <x:c r="B116" s="37"/>
-      <x:c r="C116" s="39" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="D116" s="35" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E116" s="18" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F116" s="8" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="G116" s="8"/>
+      <x:c r="B116" s="66"/>
+      <x:c r="C116" s="43"/>
+      <x:c r="D116" s="39"/>
+      <x:c r="E116" s="21"/>
+      <x:c r="F116" s="16" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G116" s="55"/>
     </x:row>
     <x:row r="117" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A117" s="2"/>
-      <x:c r="B117" s="37"/>
-      <x:c r="C117" s="39"/>
-      <x:c r="D117" s="35"/>
-      <x:c r="E117" s="18"/>
-      <x:c r="F117" s="8" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="G117" s="8"/>
+      <x:c r="B117" s="66"/>
+      <x:c r="C117" s="43"/>
+      <x:c r="D117" s="39"/>
+      <x:c r="E117" s="21" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="F117" s="16" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="G117" s="55"/>
     </x:row>
     <x:row r="118" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A118" s="2"/>
-      <x:c r="B118" s="37"/>
-      <x:c r="C118" s="39"/>
-      <x:c r="D118" s="35"/>
-      <x:c r="E118" s="18" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="F118" s="8" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="G118" s="8"/>
+      <x:c r="B118" s="66"/>
+      <x:c r="C118" s="43"/>
+      <x:c r="D118" s="39"/>
+      <x:c r="E118" s="21"/>
+      <x:c r="F118" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="G118" s="55"/>
     </x:row>
     <x:row r="119" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A119" s="2"/>
-      <x:c r="B119" s="37"/>
-      <x:c r="C119" s="39"/>
-      <x:c r="D119" s="35"/>
-      <x:c r="E119" s="18"/>
-      <x:c r="F119" s="8" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G119" s="8"/>
+      <x:c r="B119" s="66"/>
+      <x:c r="C119" s="43"/>
+      <x:c r="D119" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E119" s="21" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F119" s="17" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="G119" s="68"/>
     </x:row>
     <x:row r="120" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A120" s="2"/>
-      <x:c r="B120" s="37"/>
-      <x:c r="C120" s="39"/>
-      <x:c r="D120" s="35" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E120" s="18" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F120" s="12" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G120" s="12"/>
+      <x:c r="B120" s="66"/>
+      <x:c r="C120" s="43"/>
+      <x:c r="D120" s="39"/>
+      <x:c r="E120" s="21"/>
+      <x:c r="F120" s="17" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G120" s="68"/>
     </x:row>
     <x:row r="121" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A121" s="2"/>
-      <x:c r="B121" s="37"/>
-      <x:c r="C121" s="39"/>
-      <x:c r="D121" s="35"/>
-      <x:c r="E121" s="18"/>
-      <x:c r="F121" s="12" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G121" s="12"/>
+      <x:c r="B121" s="66"/>
+      <x:c r="C121" s="43"/>
+      <x:c r="D121" s="39"/>
+      <x:c r="E121" s="21"/>
+      <x:c r="F121" s="17" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G121" s="69"/>
     </x:row>
     <x:row r="122" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A122" s="2"/>
-      <x:c r="B122" s="37"/>
-      <x:c r="C122" s="39"/>
-      <x:c r="D122" s="35"/>
-      <x:c r="E122" s="18"/>
-      <x:c r="F122" s="12" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G122" s="12"/>
+      <x:c r="B122" s="66"/>
+      <x:c r="C122" s="43"/>
+      <x:c r="D122" s="39"/>
+      <x:c r="E122" s="16" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="F122" s="16" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G122" s="7" t="s">
+        <x:v>273</x:v>
+      </x:c>
     </x:row>
     <x:row r="123" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A123" s="2"/>
-      <x:c r="B123" s="37"/>
-      <x:c r="C123" s="39"/>
-      <x:c r="D123" s="35"/>
-      <x:c r="E123" s="18" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="F123" s="8" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="G123" s="8" t="s">
-        <x:v>166</x:v>
+      <x:c r="B123" s="66"/>
+      <x:c r="C123" s="43"/>
+      <x:c r="D123" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E123" s="16" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="F123" s="16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G123" s="7" t="s">
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A124" s="2"/>
-      <x:c r="B124" s="37"/>
-      <x:c r="C124" s="39"/>
-      <x:c r="D124" s="35"/>
-      <x:c r="E124" s="18"/>
-      <x:c r="F124" s="8" t="s">
+      <x:c r="B124" s="66"/>
+      <x:c r="C124" s="43"/>
+      <x:c r="D124" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E124" s="17" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F124" s="16" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="G124" s="8" t="s">
-        <x:v>176</x:v>
-      </x:c>
+      <x:c r="G124" s="7"/>
     </x:row>
     <x:row r="125" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A125" s="2"/>
-      <x:c r="B125" s="37"/>
-      <x:c r="C125" s="39"/>
-      <x:c r="D125" s="35"/>
-      <x:c r="E125" s="18"/>
-      <x:c r="F125" s="8" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="G125" s="8" t="s">
-        <x:v>168</x:v>
-      </x:c>
+      <x:c r="B125" s="66"/>
+      <x:c r="C125" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D125" s="39" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E125" s="21" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F125" s="16" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="G125" s="54"/>
     </x:row>
     <x:row r="126" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A126" s="2"/>
-      <x:c r="B126" s="37"/>
-      <x:c r="C126" s="39"/>
-      <x:c r="D126" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E126" s="12" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F126" s="8" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="G126" s="8" t="s">
-        <x:v>147</x:v>
-      </x:c>
+      <x:c r="B126" s="66"/>
+      <x:c r="C126" s="43"/>
+      <x:c r="D126" s="39"/>
+      <x:c r="E126" s="21"/>
+      <x:c r="F126" s="16" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G126" s="55"/>
     </x:row>
     <x:row r="127" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A127" s="2"/>
-      <x:c r="B127" s="37"/>
-      <x:c r="C127" s="39"/>
-      <x:c r="D127" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E127" s="12" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F127" s="8" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="G127" s="8"/>
+      <x:c r="B127" s="66"/>
+      <x:c r="C127" s="43"/>
+      <x:c r="D127" s="39"/>
+      <x:c r="E127" s="21" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="F127" s="16" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="G127" s="55"/>
     </x:row>
     <x:row r="128" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A128" s="2"/>
-      <x:c r="B128" s="37"/>
-      <x:c r="C128" s="39" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="D128" s="35" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E128" s="18" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="F128" s="8" t="s">
-        <x:v>285</x:v>
-      </x:c>
-      <x:c r="G128" s="8"/>
+      <x:c r="B128" s="66"/>
+      <x:c r="C128" s="43"/>
+      <x:c r="D128" s="39"/>
+      <x:c r="E128" s="21"/>
+      <x:c r="F128" s="16" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="G128" s="55"/>
     </x:row>
     <x:row r="129" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A129" s="2"/>
-      <x:c r="B129" s="37"/>
-      <x:c r="C129" s="39"/>
-      <x:c r="D129" s="35"/>
-      <x:c r="E129" s="18"/>
-      <x:c r="F129" s="8" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="G129" s="8"/>
+      <x:c r="B129" s="66"/>
+      <x:c r="C129" s="43"/>
+      <x:c r="D129" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E129" s="21" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F129" s="17" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="G129" s="68"/>
     </x:row>
     <x:row r="130" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A130" s="2"/>
-      <x:c r="B130" s="37"/>
-      <x:c r="C130" s="39"/>
-      <x:c r="D130" s="35"/>
-      <x:c r="E130" s="18" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="F130" s="8" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="G130" s="8"/>
+      <x:c r="B130" s="66"/>
+      <x:c r="C130" s="43"/>
+      <x:c r="D130" s="39"/>
+      <x:c r="E130" s="21"/>
+      <x:c r="F130" s="17" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G130" s="68"/>
     </x:row>
     <x:row r="131" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A131" s="2"/>
-      <x:c r="B131" s="37"/>
-      <x:c r="C131" s="39"/>
-      <x:c r="D131" s="35"/>
-      <x:c r="E131" s="18"/>
-      <x:c r="F131" s="8" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="G131" s="8"/>
+      <x:c r="B131" s="66"/>
+      <x:c r="C131" s="43"/>
+      <x:c r="D131" s="39"/>
+      <x:c r="E131" s="21"/>
+      <x:c r="F131" s="17" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G131" s="69"/>
     </x:row>
     <x:row r="132" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A132" s="2"/>
-      <x:c r="B132" s="37"/>
-      <x:c r="C132" s="39"/>
-      <x:c r="D132" s="35" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E132" s="18" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F132" s="12" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G132" s="12"/>
+      <x:c r="B132" s="66"/>
+      <x:c r="C132" s="43"/>
+      <x:c r="D132" s="39"/>
+      <x:c r="E132" s="21" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F132" s="16" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="G132" s="7" t="s">
+        <x:v>282</x:v>
+      </x:c>
     </x:row>
     <x:row r="133" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A133" s="2"/>
-      <x:c r="B133" s="37"/>
-      <x:c r="C133" s="39"/>
-      <x:c r="D133" s="35"/>
-      <x:c r="E133" s="18"/>
-      <x:c r="F133" s="12" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G133" s="12"/>
-    </x:row>
-    <x:row r="134" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B133" s="66"/>
+      <x:c r="C133" s="43"/>
+      <x:c r="D133" s="39"/>
+      <x:c r="E133" s="21"/>
+      <x:c r="F133" s="16" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="G133" s="7" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A134" s="2"/>
-      <x:c r="B134" s="37"/>
-      <x:c r="C134" s="39"/>
-      <x:c r="D134" s="35"/>
-      <x:c r="E134" s="18"/>
-      <x:c r="F134" s="12" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G134" s="12"/>
+      <x:c r="B134" s="66"/>
+      <x:c r="C134" s="43"/>
+      <x:c r="D134" s="39"/>
+      <x:c r="E134" s="21"/>
+      <x:c r="F134" s="16" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="G134" s="7" t="s">
+        <x:v>68</x:v>
+      </x:c>
     </x:row>
     <x:row r="135" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A135" s="2"/>
-      <x:c r="B135" s="37"/>
-      <x:c r="C135" s="39"/>
-      <x:c r="D135" s="35"/>
-      <x:c r="E135" s="18" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="F135" s="8" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="G135" s="8" t="s">
-        <x:v>37</x:v>
+      <x:c r="B135" s="66"/>
+      <x:c r="C135" s="43"/>
+      <x:c r="D135" s="39"/>
+      <x:c r="E135" s="21"/>
+      <x:c r="F135" s="16" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G135" s="7" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A136" s="2"/>
-      <x:c r="B136" s="37"/>
-      <x:c r="C136" s="39"/>
-      <x:c r="D136" s="35"/>
-      <x:c r="E136" s="18"/>
-      <x:c r="F136" s="8" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="G136" s="8" t="s">
-        <x:v>38</x:v>
+      <x:c r="B136" s="66"/>
+      <x:c r="C136" s="43"/>
+      <x:c r="D136" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E136" s="17" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="F136" s="16" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G136" s="7" t="s">
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A137" s="2"/>
-      <x:c r="B137" s="37"/>
-      <x:c r="C137" s="39"/>
-      <x:c r="D137" s="35"/>
-      <x:c r="E137" s="18"/>
-      <x:c r="F137" s="8" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="G137" s="8" t="s">
-        <x:v>110</x:v>
-      </x:c>
+      <x:c r="B137" s="66"/>
+      <x:c r="C137" s="43"/>
+      <x:c r="D137" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E137" s="17" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F137" s="16" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="G137" s="7"/>
     </x:row>
     <x:row r="138" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A138" s="2"/>
-      <x:c r="B138" s="37"/>
-      <x:c r="C138" s="39"/>
-      <x:c r="D138" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E138" s="12" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F138" s="8" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="G138" s="8" t="s">
-        <x:v>105</x:v>
-      </x:c>
+      <x:c r="B138" s="66"/>
+      <x:c r="C138" s="43" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D138" s="39" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E138" s="21" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="F138" s="16" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="G138" s="54"/>
     </x:row>
     <x:row r="139" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A139" s="2"/>
-      <x:c r="B139" s="37"/>
-      <x:c r="C139" s="39"/>
-      <x:c r="D139" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E139" s="12" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F139" s="8" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="G139" s="8"/>
+      <x:c r="B139" s="66"/>
+      <x:c r="C139" s="43"/>
+      <x:c r="D139" s="39"/>
+      <x:c r="E139" s="21"/>
+      <x:c r="F139" s="16" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G139" s="55"/>
     </x:row>
     <x:row r="140" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A140" s="2"/>
-      <x:c r="B140" s="37"/>
-      <x:c r="C140" s="39" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D140" s="35" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E140" s="18" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="F140" s="8" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G140" s="8"/>
+      <x:c r="B140" s="66"/>
+      <x:c r="C140" s="43"/>
+      <x:c r="D140" s="39"/>
+      <x:c r="E140" s="21" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F140" s="16" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="G140" s="55"/>
     </x:row>
     <x:row r="141" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A141" s="2"/>
-      <x:c r="B141" s="37"/>
-      <x:c r="C141" s="39"/>
-      <x:c r="D141" s="35"/>
-      <x:c r="E141" s="18"/>
-      <x:c r="F141" s="8" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="G141" s="8"/>
+      <x:c r="B141" s="66"/>
+      <x:c r="C141" s="43"/>
+      <x:c r="D141" s="39"/>
+      <x:c r="E141" s="21"/>
+      <x:c r="F141" s="16" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="G141" s="55"/>
     </x:row>
     <x:row r="142" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A142" s="2"/>
-      <x:c r="B142" s="37"/>
-      <x:c r="C142" s="39"/>
-      <x:c r="D142" s="35"/>
-      <x:c r="E142" s="18" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F142" s="8" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="G142" s="8"/>
+      <x:c r="B142" s="66"/>
+      <x:c r="C142" s="43"/>
+      <x:c r="D142" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E142" s="21" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F142" s="17" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="G142" s="68"/>
     </x:row>
     <x:row r="143" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A143" s="2"/>
-      <x:c r="B143" s="37"/>
-      <x:c r="C143" s="39"/>
-      <x:c r="D143" s="35"/>
-      <x:c r="E143" s="18"/>
-      <x:c r="F143" s="8" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G143" s="8"/>
+      <x:c r="B143" s="66"/>
+      <x:c r="C143" s="43"/>
+      <x:c r="D143" s="39"/>
+      <x:c r="E143" s="21"/>
+      <x:c r="F143" s="17" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G143" s="68"/>
     </x:row>
     <x:row r="144" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A144" s="2"/>
-      <x:c r="B144" s="37"/>
-      <x:c r="C144" s="39"/>
-      <x:c r="D144" s="35" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E144" s="18" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F144" s="12" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G144" s="12"/>
+      <x:c r="B144" s="66"/>
+      <x:c r="C144" s="43"/>
+      <x:c r="D144" s="39"/>
+      <x:c r="E144" s="21"/>
+      <x:c r="F144" s="17" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G144" s="69"/>
     </x:row>
     <x:row r="145" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A145" s="2"/>
-      <x:c r="B145" s="37"/>
-      <x:c r="C145" s="39"/>
-      <x:c r="D145" s="35"/>
-      <x:c r="E145" s="18"/>
-      <x:c r="F145" s="12" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G145" s="12"/>
+      <x:c r="B145" s="66"/>
+      <x:c r="C145" s="43"/>
+      <x:c r="D145" s="39"/>
+      <x:c r="E145" s="21" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F145" s="16" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="G145" s="7" t="s">
+        <x:v>16</x:v>
+      </x:c>
     </x:row>
     <x:row r="146" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A146" s="2"/>
-      <x:c r="B146" s="37"/>
-      <x:c r="C146" s="39"/>
-      <x:c r="D146" s="35"/>
-      <x:c r="E146" s="18"/>
-      <x:c r="F146" s="12" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G146" s="12"/>
+      <x:c r="B146" s="66"/>
+      <x:c r="C146" s="43"/>
+      <x:c r="D146" s="39"/>
+      <x:c r="E146" s="21"/>
+      <x:c r="F146" s="16" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G146" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
     <x:row r="147" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A147" s="2"/>
-      <x:c r="B147" s="37"/>
-      <x:c r="C147" s="39"/>
-      <x:c r="D147" s="35"/>
-      <x:c r="E147" s="18" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="F147" s="8" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G147" s="8" t="s">
-        <x:v>158</x:v>
+      <x:c r="B147" s="66"/>
+      <x:c r="C147" s="43"/>
+      <x:c r="D147" s="39"/>
+      <x:c r="E147" s="21"/>
+      <x:c r="F147" s="16" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="G147" s="7" t="s">
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A148" s="2"/>
-      <x:c r="B148" s="37"/>
-      <x:c r="C148" s="39"/>
-      <x:c r="D148" s="35"/>
-      <x:c r="E148" s="18"/>
-      <x:c r="F148" s="8" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="G148" s="8" t="s">
-        <x:v>198</x:v>
+      <x:c r="B148" s="66"/>
+      <x:c r="C148" s="43"/>
+      <x:c r="D148" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E148" s="17" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F148" s="16" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G148" s="7" t="s">
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A149" s="2"/>
-      <x:c r="B149" s="37"/>
-      <x:c r="C149" s="39"/>
-      <x:c r="D149" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E149" s="12" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F149" s="8" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="G149" s="8" t="s">
-        <x:v>146</x:v>
-      </x:c>
+      <x:c r="B149" s="66"/>
+      <x:c r="C149" s="43"/>
+      <x:c r="D149" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E149" s="17" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F149" s="16" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="G149" s="7"/>
     </x:row>
     <x:row r="150" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A150" s="2"/>
-      <x:c r="B150" s="37"/>
-      <x:c r="C150" s="39"/>
-      <x:c r="D150" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E150" s="12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F150" s="8" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="G150" s="8"/>
+      <x:c r="B150" s="66"/>
+      <x:c r="C150" s="40" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="D150" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E150" s="21" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F150" s="17" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="G150" s="70"/>
     </x:row>
     <x:row r="151" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A151" s="2"/>
-      <x:c r="B151" s="54"/>
-      <x:c r="C151" s="39" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="D151" s="35" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E151" s="18" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="F151" s="8" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G151" s="8"/>
+      <x:c r="B151" s="66"/>
+      <x:c r="C151" s="40"/>
+      <x:c r="D151" s="39"/>
+      <x:c r="E151" s="21"/>
+      <x:c r="F151" s="17" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G151" s="68"/>
     </x:row>
     <x:row r="152" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A152" s="2"/>
-      <x:c r="B152" s="54"/>
-      <x:c r="C152" s="39"/>
-      <x:c r="D152" s="35"/>
-      <x:c r="E152" s="18"/>
-      <x:c r="F152" s="8" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="G152" s="8"/>
+      <x:c r="B152" s="66"/>
+      <x:c r="C152" s="40"/>
+      <x:c r="D152" s="39"/>
+      <x:c r="E152" s="21"/>
+      <x:c r="F152" s="17" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G152" s="69"/>
     </x:row>
     <x:row r="153" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A153" s="2"/>
-      <x:c r="B153" s="54"/>
-      <x:c r="C153" s="39"/>
-      <x:c r="D153" s="35"/>
-      <x:c r="E153" s="18" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F153" s="8" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="G153" s="8"/>
-    </x:row>
-    <x:row r="154" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B153" s="66"/>
+      <x:c r="C153" s="40"/>
+      <x:c r="D153" s="39"/>
+      <x:c r="E153" s="21" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="F153" s="16" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="G153" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A154" s="2"/>
-      <x:c r="B154" s="54"/>
-      <x:c r="C154" s="39"/>
-      <x:c r="D154" s="35"/>
-      <x:c r="E154" s="18"/>
-      <x:c r="F154" s="8" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G154" s="8"/>
+      <x:c r="B154" s="66"/>
+      <x:c r="C154" s="40"/>
+      <x:c r="D154" s="39"/>
+      <x:c r="E154" s="21"/>
+      <x:c r="F154" s="16" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="G154" s="7" t="s">
+        <x:v>283</x:v>
+      </x:c>
     </x:row>
     <x:row r="155" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A155" s="2"/>
-      <x:c r="B155" s="55"/>
-      <x:c r="C155" s="39"/>
-      <x:c r="D155" s="35" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E155" s="18" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F155" s="12" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G155" s="12"/>
+      <x:c r="B155" s="66"/>
+      <x:c r="C155" s="40"/>
+      <x:c r="D155" s="39"/>
+      <x:c r="E155" s="21"/>
+      <x:c r="F155" s="16" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G155" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
     </x:row>
     <x:row r="156" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A156" s="2"/>
-      <x:c r="B156" s="55"/>
-      <x:c r="C156" s="39"/>
-      <x:c r="D156" s="35"/>
-      <x:c r="E156" s="18"/>
-      <x:c r="F156" s="12" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G156" s="12"/>
+      <x:c r="B156" s="66"/>
+      <x:c r="C156" s="40"/>
+      <x:c r="D156" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E156" s="17" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="F156" s="16" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G156" s="7" t="s">
+        <x:v>137</x:v>
+      </x:c>
     </x:row>
     <x:row r="157" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A157" s="2"/>
-      <x:c r="B157" s="55"/>
-      <x:c r="C157" s="39"/>
-      <x:c r="D157" s="35"/>
-      <x:c r="E157" s="18"/>
-      <x:c r="F157" s="12" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G157" s="12"/>
+      <x:c r="B157" s="66"/>
+      <x:c r="C157" s="43" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D157" s="39" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E157" s="21" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F157" s="16" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="G157" s="54"/>
     </x:row>
     <x:row r="158" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A158" s="2"/>
-      <x:c r="B158" s="55"/>
-      <x:c r="C158" s="39"/>
-      <x:c r="D158" s="35"/>
-      <x:c r="E158" s="18" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F158" s="8" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G158" s="8" t="s">
-        <x:v>183</x:v>
-      </x:c>
+      <x:c r="B158" s="66"/>
+      <x:c r="C158" s="43"/>
+      <x:c r="D158" s="39"/>
+      <x:c r="E158" s="21"/>
+      <x:c r="F158" s="16" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G158" s="55"/>
     </x:row>
     <x:row r="159" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A159" s="2"/>
-      <x:c r="B159" s="55"/>
-      <x:c r="C159" s="39"/>
-      <x:c r="D159" s="35"/>
-      <x:c r="E159" s="18"/>
-      <x:c r="F159" s="8" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G159" s="8" t="s">
-        <x:v>187</x:v>
-      </x:c>
+      <x:c r="B159" s="66"/>
+      <x:c r="C159" s="43"/>
+      <x:c r="D159" s="39"/>
+      <x:c r="E159" s="21" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="F159" s="16" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="G159" s="55"/>
     </x:row>
     <x:row r="160" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A160" s="2"/>
-      <x:c r="B160" s="55"/>
-      <x:c r="C160" s="39"/>
-      <x:c r="D160" s="10" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E160" s="12" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="F160" s="8" t="s">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="G160" s="8" t="s">
-        <x:v>47</x:v>
-      </x:c>
+      <x:c r="B160" s="66"/>
+      <x:c r="C160" s="43"/>
+      <x:c r="D160" s="39"/>
+      <x:c r="E160" s="21"/>
+      <x:c r="F160" s="16" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="G160" s="55"/>
     </x:row>
     <x:row r="161" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A161" s="2"/>
-      <x:c r="B161" s="55"/>
-      <x:c r="C161" s="39"/>
-      <x:c r="D161" s="10" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E161" s="12" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F161" s="8" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G161" s="8"/>
+      <x:c r="B161" s="66"/>
+      <x:c r="C161" s="43"/>
+      <x:c r="D161" s="39" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E161" s="21" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F161" s="17" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="G161" s="68"/>
     </x:row>
     <x:row r="162" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A162" s="2"/>
-      <x:c r="B162" s="2"/>
-      <x:c r="C162" s="3"/>
-      <x:c r="D162" s="3"/>
-      <x:c r="E162" s="3"/>
-      <x:c r="F162" s="3"/>
-      <x:c r="G162" s="3"/>
+      <x:c r="B162" s="66"/>
+      <x:c r="C162" s="43"/>
+      <x:c r="D162" s="39"/>
+      <x:c r="E162" s="21"/>
+      <x:c r="F162" s="17" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G162" s="68"/>
     </x:row>
     <x:row r="163" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A163" s="2"/>
-      <x:c r="B163" s="2"/>
-      <x:c r="C163" s="3"/>
-      <x:c r="D163" s="3"/>
-      <x:c r="E163" s="3"/>
-      <x:c r="F163" s="3"/>
-      <x:c r="G163" s="3"/>
+      <x:c r="B163" s="66"/>
+      <x:c r="C163" s="43"/>
+      <x:c r="D163" s="39"/>
+      <x:c r="E163" s="21"/>
+      <x:c r="F163" s="17" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G163" s="69"/>
     </x:row>
     <x:row r="164" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A164" s="2"/>
-      <x:c r="B164" s="2"/>
-      <x:c r="C164" s="3"/>
-      <x:c r="D164" s="3"/>
-      <x:c r="E164" s="3"/>
-      <x:c r="F164" s="3"/>
-      <x:c r="G164" s="3"/>
-    </x:row>
-    <x:row r="165" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B164" s="66"/>
+      <x:c r="C164" s="43"/>
+      <x:c r="D164" s="39"/>
+      <x:c r="E164" s="21" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="F164" s="16" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="G164" s="7" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A165" s="2"/>
-      <x:c r="B165" s="2"/>
-      <x:c r="C165" s="3"/>
-      <x:c r="D165" s="3"/>
-      <x:c r="E165" s="3"/>
-      <x:c r="F165" s="3"/>
-      <x:c r="G165" s="3"/>
+      <x:c r="B165" s="66"/>
+      <x:c r="C165" s="43"/>
+      <x:c r="D165" s="39"/>
+      <x:c r="E165" s="21"/>
+      <x:c r="F165" s="16" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="G165" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
     </x:row>
     <x:row r="166" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A166" s="2"/>
-      <x:c r="B166" s="2"/>
-      <x:c r="C166" s="3"/>
-      <x:c r="D166" s="3"/>
-      <x:c r="E166" s="3"/>
-      <x:c r="F166" s="3"/>
-      <x:c r="G166" s="3"/>
+      <x:c r="B166" s="66"/>
+      <x:c r="C166" s="43"/>
+      <x:c r="D166" s="39"/>
+      <x:c r="E166" s="21"/>
+      <x:c r="F166" s="16" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="G166" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
     <x:row r="167" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A167" s="2"/>
-      <x:c r="B167" s="2"/>
-      <x:c r="C167" s="3"/>
-      <x:c r="D167" s="3"/>
-      <x:c r="E167" s="3"/>
-      <x:c r="F167" s="3"/>
-      <x:c r="G167" s="3"/>
+      <x:c r="B167" s="66"/>
+      <x:c r="C167" s="43"/>
+      <x:c r="D167" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E167" s="17" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F167" s="16" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G167" s="7" t="s">
+        <x:v>222</x:v>
+      </x:c>
     </x:row>
     <x:row r="168" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A168" s="2"/>
-      <x:c r="B168" s="2"/>
-      <x:c r="C168" s="3"/>
-      <x:c r="D168" s="3"/>
-      <x:c r="E168" s="3"/>
-      <x:c r="F168" s="3"/>
-      <x:c r="G168" s="3"/>
+      <x:c r="B168" s="66"/>
+      <x:c r="C168" s="43"/>
+      <x:c r="D168" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E168" s="17" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F168" s="16" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="G168" s="7"/>
     </x:row>
     <x:row r="169" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A169" s="2"/>
-      <x:c r="B169" s="2"/>
-      <x:c r="C169" s="3"/>
-      <x:c r="D169" s="3"/>
-      <x:c r="E169" s="3"/>
-      <x:c r="F169" s="3"/>
-      <x:c r="G169" s="3"/>
+      <x:c r="B169" s="66"/>
+      <x:c r="C169" s="41" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D169" s="30" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E169" s="24" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="F169" s="20" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="G169" s="71"/>
     </x:row>
     <x:row r="170" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A170" s="2"/>
-      <x:c r="B170" s="2"/>
-      <x:c r="C170" s="3"/>
-      <x:c r="D170" s="3"/>
-      <x:c r="E170" s="3"/>
-      <x:c r="F170" s="3"/>
-      <x:c r="G170" s="3"/>
+      <x:c r="B170" s="66"/>
+      <x:c r="C170" s="41"/>
+      <x:c r="D170" s="30"/>
+      <x:c r="E170" s="24"/>
+      <x:c r="F170" s="20" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="G170" s="72"/>
     </x:row>
     <x:row r="171" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A171" s="2"/>
-      <x:c r="B171" s="2"/>
-      <x:c r="C171" s="3"/>
-      <x:c r="D171" s="3"/>
-      <x:c r="E171" s="3"/>
-      <x:c r="F171" s="3"/>
-      <x:c r="G171" s="3"/>
+      <x:c r="B171" s="66"/>
+      <x:c r="C171" s="41"/>
+      <x:c r="D171" s="30"/>
+      <x:c r="E171" s="24"/>
+      <x:c r="F171" s="20" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="G171" s="73"/>
     </x:row>
     <x:row r="172" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A172" s="2"/>
-      <x:c r="B172" s="2"/>
-      <x:c r="C172" s="3"/>
-      <x:c r="D172" s="3"/>
-      <x:c r="E172" s="3"/>
-      <x:c r="F172" s="3"/>
-      <x:c r="G172" s="3"/>
+      <x:c r="B172" s="66"/>
+      <x:c r="C172" s="41"/>
+      <x:c r="D172" s="30"/>
+      <x:c r="E172" s="59"/>
+      <x:c r="F172" s="20" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="G172" s="73"/>
     </x:row>
     <x:row r="173" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A173" s="2"/>
-      <x:c r="B173" s="2"/>
-      <x:c r="C173" s="3"/>
-      <x:c r="D173" s="3"/>
-      <x:c r="E173" s="3"/>
-      <x:c r="F173" s="3"/>
-      <x:c r="G173" s="3"/>
+      <x:c r="B173" s="66"/>
+      <x:c r="C173" s="41"/>
+      <x:c r="D173" s="30"/>
+      <x:c r="E173" s="59"/>
+      <x:c r="F173" s="20" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="G173" s="74"/>
     </x:row>
     <x:row r="174" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A174" s="2"/>
-      <x:c r="B174" s="2"/>
-      <x:c r="C174" s="3"/>
-      <x:c r="D174" s="3"/>
-      <x:c r="E174" s="3"/>
-      <x:c r="F174" s="3"/>
-      <x:c r="G174" s="3"/>
+      <x:c r="B174" s="67"/>
+      <x:c r="C174" s="59"/>
+      <x:c r="D174" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E174" s="17" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F174" s="16" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G174" s="75"/>
     </x:row>
     <x:row r="175" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A175" s="2"/>
@@ -10897,122 +12012,129 @@
       <x:c r="G834" s="4"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="110">
-    <x:mergeCell ref="E44:E45"/>
-    <x:mergeCell ref="E46:E47"/>
+  <x:mergeCells count="117">
+    <x:mergeCell ref="E62:E63"/>
+    <x:mergeCell ref="E64:E65"/>
     <x:mergeCell ref="B1:G2"/>
-    <x:mergeCell ref="E22:E23"/>
-    <x:mergeCell ref="E24:E25"/>
-    <x:mergeCell ref="E26:E31"/>
-    <x:mergeCell ref="D26:D31"/>
-    <x:mergeCell ref="D9:D10"/>
-    <x:mergeCell ref="E13:E14"/>
-    <x:mergeCell ref="E15:E16"/>
-    <x:mergeCell ref="E9:E10"/>
+    <x:mergeCell ref="E36:E37"/>
+    <x:mergeCell ref="E41:E49"/>
+    <x:mergeCell ref="E12:E13"/>
+    <x:mergeCell ref="E14:E15"/>
     <x:mergeCell ref="E7:E8"/>
     <x:mergeCell ref="D4:D8"/>
     <x:mergeCell ref="G4:G8"/>
     <x:mergeCell ref="E5:E6"/>
-    <x:mergeCell ref="C4:C12"/>
-    <x:mergeCell ref="D17:D19"/>
-    <x:mergeCell ref="E17:E19"/>
-    <x:mergeCell ref="F9:F10"/>
-    <x:mergeCell ref="G9:G10"/>
-    <x:mergeCell ref="B4:B73"/>
-    <x:mergeCell ref="E48:E50"/>
-    <x:mergeCell ref="D48:D50"/>
-    <x:mergeCell ref="C43:C52"/>
-    <x:mergeCell ref="G13:G16"/>
-    <x:mergeCell ref="D13:D16"/>
-    <x:mergeCell ref="C13:C21"/>
+    <x:mergeCell ref="C4:C11"/>
+    <x:mergeCell ref="D16:D19"/>
+    <x:mergeCell ref="E16:E19"/>
+    <x:mergeCell ref="B4:B92"/>
+    <x:mergeCell ref="E66:E69"/>
+    <x:mergeCell ref="D66:D69"/>
+    <x:mergeCell ref="C61:C72"/>
+    <x:mergeCell ref="G12:G15"/>
+    <x:mergeCell ref="D12:D15"/>
+    <x:mergeCell ref="C12:C21"/>
+    <x:mergeCell ref="D32:D37"/>
+    <x:mergeCell ref="C32:C51"/>
+    <x:mergeCell ref="E75:E76"/>
+    <x:mergeCell ref="E77:E78"/>
+    <x:mergeCell ref="E79:E82"/>
+    <x:mergeCell ref="D79:D82"/>
+    <x:mergeCell ref="C52:C60"/>
+    <x:mergeCell ref="D52:D56"/>
+    <x:mergeCell ref="E53:E54"/>
+    <x:mergeCell ref="E55:E56"/>
+    <x:mergeCell ref="D57:D58"/>
+    <x:mergeCell ref="G52:G56"/>
+    <x:mergeCell ref="E57:E58"/>
+    <x:mergeCell ref="D61:D65"/>
+    <x:mergeCell ref="G61:G65"/>
+    <x:mergeCell ref="E103:E104"/>
+    <x:mergeCell ref="E105:E106"/>
+    <x:mergeCell ref="E110:E112"/>
+    <x:mergeCell ref="E85:E86"/>
+    <x:mergeCell ref="E87:E88"/>
+    <x:mergeCell ref="D89:D90"/>
+    <x:mergeCell ref="E89:E90"/>
+    <x:mergeCell ref="G85:G88"/>
+    <x:mergeCell ref="D85:D88"/>
+    <x:mergeCell ref="C85:C92"/>
+    <x:mergeCell ref="C115:C124"/>
+    <x:mergeCell ref="E150:E152"/>
+    <x:mergeCell ref="D150:D155"/>
+    <x:mergeCell ref="C125:C137"/>
+    <x:mergeCell ref="D138:D141"/>
+    <x:mergeCell ref="D125:D128"/>
+    <x:mergeCell ref="D115:D118"/>
+    <x:mergeCell ref="E115:E116"/>
+    <x:mergeCell ref="E117:E118"/>
+    <x:mergeCell ref="E145:E147"/>
+    <x:mergeCell ref="E132:E135"/>
+    <x:mergeCell ref="E138:E139"/>
+    <x:mergeCell ref="E142:E144"/>
+    <x:mergeCell ref="D142:D147"/>
+    <x:mergeCell ref="E107:E109"/>
+    <x:mergeCell ref="D107:D112"/>
+    <x:mergeCell ref="D93:D99"/>
+    <x:mergeCell ref="C93:C99"/>
+    <x:mergeCell ref="B93:B99"/>
+    <x:mergeCell ref="C102:C114"/>
+    <x:mergeCell ref="D102:D106"/>
+    <x:mergeCell ref="E140:E141"/>
+    <x:mergeCell ref="E119:E121"/>
+    <x:mergeCell ref="D119:D122"/>
+    <x:mergeCell ref="E129:E131"/>
+    <x:mergeCell ref="D129:D135"/>
+    <x:mergeCell ref="E153:E155"/>
+    <x:mergeCell ref="E125:E126"/>
+    <x:mergeCell ref="E127:E128"/>
+    <x:mergeCell ref="C138:C149"/>
+    <x:mergeCell ref="C73:C84"/>
+    <x:mergeCell ref="D73:D78"/>
+    <x:mergeCell ref="G73:G78"/>
+    <x:mergeCell ref="E73:E74"/>
+    <x:mergeCell ref="C157:C168"/>
+    <x:mergeCell ref="D157:D160"/>
+    <x:mergeCell ref="E157:E158"/>
+    <x:mergeCell ref="E159:E160"/>
+    <x:mergeCell ref="D161:D166"/>
+    <x:mergeCell ref="E161:E163"/>
+    <x:mergeCell ref="E164:E166"/>
+    <x:mergeCell ref="E34:E35"/>
+    <x:mergeCell ref="E32:E33"/>
+    <x:mergeCell ref="E169:E173"/>
+    <x:mergeCell ref="D169:D173"/>
     <x:mergeCell ref="D22:D25"/>
-    <x:mergeCell ref="C22:C33"/>
-    <x:mergeCell ref="E55:E56"/>
-    <x:mergeCell ref="E57:E58"/>
-    <x:mergeCell ref="E59:E63"/>
-    <x:mergeCell ref="D59:D63"/>
-    <x:mergeCell ref="C34:C42"/>
-    <x:mergeCell ref="D34:D38"/>
-    <x:mergeCell ref="E35:E36"/>
-    <x:mergeCell ref="E37:E38"/>
-    <x:mergeCell ref="D39:D40"/>
-    <x:mergeCell ref="G34:G38"/>
-    <x:mergeCell ref="E39:E40"/>
-    <x:mergeCell ref="D43:D47"/>
-    <x:mergeCell ref="G43:G47"/>
-    <x:mergeCell ref="E93:E94"/>
-    <x:mergeCell ref="E95:E96"/>
-    <x:mergeCell ref="E100:E102"/>
-    <x:mergeCell ref="D81:D84"/>
-    <x:mergeCell ref="E81:E82"/>
-    <x:mergeCell ref="E83:E84"/>
-    <x:mergeCell ref="E85:E87"/>
-    <x:mergeCell ref="D77:D79"/>
-    <x:mergeCell ref="D85:D89"/>
-    <x:mergeCell ref="E78:E79"/>
-    <x:mergeCell ref="E66:E67"/>
-    <x:mergeCell ref="E68:E69"/>
-    <x:mergeCell ref="D70:D71"/>
-    <x:mergeCell ref="E70:E71"/>
-    <x:mergeCell ref="G66:G69"/>
-    <x:mergeCell ref="D66:D69"/>
-    <x:mergeCell ref="C66:C73"/>
-    <x:mergeCell ref="C77:C80"/>
-    <x:mergeCell ref="E88:E89"/>
-    <x:mergeCell ref="C81:C91"/>
-    <x:mergeCell ref="C105:C115"/>
-    <x:mergeCell ref="E144:E146"/>
-    <x:mergeCell ref="D144:D148"/>
-    <x:mergeCell ref="C116:C127"/>
-    <x:mergeCell ref="D128:D131"/>
-    <x:mergeCell ref="D140:D143"/>
-    <x:mergeCell ref="D116:D119"/>
-    <x:mergeCell ref="E142:E143"/>
-    <x:mergeCell ref="D105:D108"/>
-    <x:mergeCell ref="E105:E106"/>
-    <x:mergeCell ref="E107:E108"/>
-    <x:mergeCell ref="E112:E113"/>
-    <x:mergeCell ref="E135:E137"/>
-    <x:mergeCell ref="E123:E125"/>
-    <x:mergeCell ref="E128:E129"/>
-    <x:mergeCell ref="E132:E134"/>
-    <x:mergeCell ref="D132:D137"/>
-    <x:mergeCell ref="E97:E99"/>
-    <x:mergeCell ref="D97:D102"/>
-    <x:mergeCell ref="E74:E76"/>
-    <x:mergeCell ref="D74:D76"/>
-    <x:mergeCell ref="C74:C76"/>
-    <x:mergeCell ref="B74:B76"/>
-    <x:mergeCell ref="C92:C104"/>
-    <x:mergeCell ref="D92:D96"/>
-    <x:mergeCell ref="E130:E131"/>
-    <x:mergeCell ref="E140:E141"/>
-    <x:mergeCell ref="E109:E111"/>
-    <x:mergeCell ref="D109:D113"/>
-    <x:mergeCell ref="E120:E122"/>
-    <x:mergeCell ref="D120:D125"/>
-    <x:mergeCell ref="E147:E148"/>
-    <x:mergeCell ref="C140:C150"/>
-    <x:mergeCell ref="E116:E117"/>
-    <x:mergeCell ref="E118:E119"/>
-    <x:mergeCell ref="C128:C139"/>
-    <x:mergeCell ref="C53:C65"/>
-    <x:mergeCell ref="D53:D58"/>
-    <x:mergeCell ref="G53:G58"/>
-    <x:mergeCell ref="E53:E54"/>
-    <x:mergeCell ref="C151:C161"/>
-    <x:mergeCell ref="D151:D154"/>
-    <x:mergeCell ref="E151:E152"/>
-    <x:mergeCell ref="E153:E154"/>
-    <x:mergeCell ref="D155:D159"/>
-    <x:mergeCell ref="E155:E157"/>
-    <x:mergeCell ref="E158:E159"/>
-    <x:mergeCell ref="B77:B161"/>
+    <x:mergeCell ref="E22:E23"/>
+    <x:mergeCell ref="E24:E25"/>
+    <x:mergeCell ref="D26:D29"/>
+    <x:mergeCell ref="C22:C31"/>
+    <x:mergeCell ref="C150:C156"/>
+    <x:mergeCell ref="C169:C174"/>
+    <x:mergeCell ref="E71:E72"/>
+    <x:mergeCell ref="D71:D72"/>
+    <x:mergeCell ref="E26:E28"/>
+    <x:mergeCell ref="C100:C101"/>
+    <x:mergeCell ref="E93:E96"/>
+    <x:mergeCell ref="G93:G99"/>
+    <x:mergeCell ref="E38:E40"/>
+    <x:mergeCell ref="D38:D49"/>
+    <x:mergeCell ref="B100:B174"/>
+    <x:mergeCell ref="G32:G40"/>
+    <x:mergeCell ref="G22:G29"/>
+    <x:mergeCell ref="G71:G72"/>
+    <x:mergeCell ref="G102:G109"/>
+    <x:mergeCell ref="G115:G121"/>
+    <x:mergeCell ref="G125:G131"/>
+    <x:mergeCell ref="G138:G144"/>
+    <x:mergeCell ref="G150:G152"/>
+    <x:mergeCell ref="G157:G163"/>
+    <x:mergeCell ref="G169:G174"/>
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="E4:E4" r:id="rId1"/>
-    <x:hyperlink ref="E43:E43" r:id="rId2"/>
-    <x:hyperlink ref="E53:E54" r:id="rId3"/>
+    <x:hyperlink ref="E61:E61" r:id="rId2"/>
+    <x:hyperlink ref="E73:E74" r:id="rId3"/>
   </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
